--- a/temp/Yesterdaytest.xlsx
+++ b/temp/Yesterdaytest.xlsx
@@ -28,727 +28,727 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-06-11 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:09:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:14:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:54:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:30:00</t>
+    <t>2019-06-12 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:50:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:01:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:55:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:26:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:13:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:13:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:50:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:38:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:30:00</t>
   </si>
 </sst>
 </file>
@@ -1131,13 +1131,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.68</v>
+        <v>6.78</v>
       </c>
       <c r="C2">
-        <v>6.764612067081425</v>
+        <v>6.623943486930953</v>
       </c>
       <c r="D2">
-        <v>0.08461206708142566</v>
+        <v>-0.1560565130690472</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1145,13 +1145,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.68</v>
+        <v>6.78</v>
       </c>
       <c r="C3">
-        <v>6.764008708360932</v>
+        <v>6.628818230608976</v>
       </c>
       <c r="D3">
-        <v>0.08400870836093244</v>
+        <v>-0.151181769391024</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1159,13 +1159,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.68</v>
+        <v>6.78</v>
       </c>
       <c r="C4">
-        <v>6.764008708360932</v>
+        <v>6.628818230608976</v>
       </c>
       <c r="D4">
-        <v>0.08400870836093244</v>
+        <v>-0.151181769391024</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1173,13 +1173,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.69</v>
+        <v>6.79</v>
       </c>
       <c r="C5">
-        <v>6.759745097826136</v>
+        <v>6.624404397393297</v>
       </c>
       <c r="D5">
-        <v>0.0697450978261358</v>
+        <v>-0.1655956026067029</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1187,13 +1187,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.69</v>
+        <v>6.78</v>
       </c>
       <c r="C6">
-        <v>6.75999284481136</v>
+        <v>6.620885670944032</v>
       </c>
       <c r="D6">
-        <v>0.06999284481135959</v>
+        <v>-0.159114329055968</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1201,13 +1201,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.68</v>
+        <v>6.78</v>
       </c>
       <c r="C7">
-        <v>6.771880931107064</v>
+        <v>6.62255274326205</v>
       </c>
       <c r="D7">
-        <v>0.09188093110706408</v>
+        <v>-0.1574472567379503</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1215,13 +1215,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.68</v>
+        <v>6.78</v>
       </c>
       <c r="C8">
-        <v>6.778037751097457</v>
+        <v>6.622795848655098</v>
       </c>
       <c r="D8">
-        <v>0.09803775109745683</v>
+        <v>-0.1572041513449021</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1229,13 +1229,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.68</v>
+        <v>6.79</v>
       </c>
       <c r="C9">
-        <v>6.769640302643192</v>
+        <v>6.631682652519279</v>
       </c>
       <c r="D9">
-        <v>0.08964030264319245</v>
+        <v>-0.1583173474807209</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1243,13 +1243,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.68</v>
+        <v>6.79</v>
       </c>
       <c r="C10">
-        <v>6.762790538699179</v>
+        <v>6.633901527429954</v>
       </c>
       <c r="D10">
-        <v>0.08279053869917963</v>
+        <v>-0.1560984725700463</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1257,13 +1257,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6.68</v>
+        <v>6.8</v>
       </c>
       <c r="C11">
-        <v>6.75198229416987</v>
+        <v>6.634309496290184</v>
       </c>
       <c r="D11">
-        <v>0.07198229416987001</v>
+        <v>-0.1656905037098158</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1271,13 +1271,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>6.69</v>
+        <v>6.8</v>
       </c>
       <c r="C12">
-        <v>6.731580965602244</v>
+        <v>6.632046931158785</v>
       </c>
       <c r="D12">
-        <v>0.04158096560224323</v>
+        <v>-0.1679530688412152</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1285,13 +1285,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>6.69</v>
+        <v>6.8</v>
       </c>
       <c r="C13">
-        <v>6.728140989064637</v>
+        <v>6.627763143628931</v>
       </c>
       <c r="D13">
-        <v>0.0381409890646367</v>
+        <v>-0.172236856371069</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1299,13 +1299,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>6.69</v>
+        <v>6.79</v>
       </c>
       <c r="C14">
-        <v>6.733767779693019</v>
+        <v>6.622011341735849</v>
       </c>
       <c r="D14">
-        <v>0.04376777969301848</v>
+        <v>-0.167988658264151</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1313,13 +1313,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>6.69</v>
+        <v>6.79</v>
       </c>
       <c r="C15">
-        <v>6.735225148082381</v>
+        <v>6.615478019269684</v>
       </c>
       <c r="D15">
-        <v>0.04522514808238043</v>
+        <v>-0.174521980730316</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1327,13 +1327,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>6.69</v>
+        <v>6.8</v>
       </c>
       <c r="C16">
-        <v>6.743488306485587</v>
+        <v>6.613001598483828</v>
       </c>
       <c r="D16">
-        <v>0.05348830648558689</v>
+        <v>-0.1869984015161714</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1341,13 +1341,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C17">
-        <v>6.737624001571436</v>
+        <v>6.621401302117532</v>
       </c>
       <c r="D17">
-        <v>0.03762400157143553</v>
+        <v>-0.1785986978824683</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1355,13 +1355,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>6.7</v>
+        <v>6.79</v>
       </c>
       <c r="C18">
-        <v>6.730579248962935</v>
+        <v>6.619896323215773</v>
       </c>
       <c r="D18">
-        <v>0.03057924896293507</v>
+        <v>-0.170103676784227</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1369,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>6.69</v>
+        <v>6.81</v>
       </c>
       <c r="C19">
-        <v>6.730409405067513</v>
+        <v>6.619063853414346</v>
       </c>
       <c r="D19">
-        <v>0.04040940506751234</v>
+        <v>-0.1909361465856536</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1383,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>6.69</v>
+        <v>6.82</v>
       </c>
       <c r="C20">
-        <v>6.728022840598149</v>
+        <v>6.630079620676854</v>
       </c>
       <c r="D20">
-        <v>0.03802284059814909</v>
+        <v>-0.1899203793231461</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1397,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>6.69</v>
+        <v>6.81</v>
       </c>
       <c r="C21">
-        <v>6.725651929575267</v>
+        <v>6.638014974006275</v>
       </c>
       <c r="D21">
-        <v>0.03565192957526619</v>
+        <v>-0.1719850259937248</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1411,13 +1411,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>6.69</v>
+        <v>6.82</v>
       </c>
       <c r="C22">
-        <v>6.721011784706065</v>
+        <v>6.636559815337256</v>
       </c>
       <c r="D22">
-        <v>0.03101178470606492</v>
+        <v>-0.1834401846627447</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1425,13 +1425,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>6.69</v>
+        <v>6.82</v>
       </c>
       <c r="C23">
-        <v>6.720980812359595</v>
+        <v>6.6281582016071</v>
       </c>
       <c r="D23">
-        <v>0.03098081235959427</v>
+        <v>-0.1918417983929004</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1439,13 +1439,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>6.69</v>
+        <v>6.82</v>
       </c>
       <c r="C24">
-        <v>6.718447754436398</v>
+        <v>6.632616217468906</v>
       </c>
       <c r="D24">
-        <v>0.02844775443639769</v>
+        <v>-0.1873837825310947</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>6.68</v>
+        <v>6.82</v>
       </c>
       <c r="C25">
-        <v>6.726826170170054</v>
+        <v>6.623787312180806</v>
       </c>
       <c r="D25">
-        <v>0.0468261701700543</v>
+        <v>-0.1962126878191945</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1467,13 +1467,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>6.67</v>
+        <v>6.82</v>
       </c>
       <c r="C26">
-        <v>6.734522414525592</v>
+        <v>6.61964530108834</v>
       </c>
       <c r="D26">
-        <v>0.06452241452559182</v>
+        <v>-0.20035469891166</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1481,13 +1481,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>6.69</v>
+        <v>6.85</v>
       </c>
       <c r="C27">
-        <v>6.723248742645974</v>
+        <v>6.639464397376178</v>
       </c>
       <c r="D27">
-        <v>0.03324874264597355</v>
+        <v>-0.2105356026238212</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1495,13 +1495,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>6.69</v>
+        <v>6.82</v>
       </c>
       <c r="C28">
-        <v>6.722970518022801</v>
+        <v>6.641236051655515</v>
       </c>
       <c r="D28">
-        <v>0.03297051802280038</v>
+        <v>-0.1787639483444856</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1509,13 +1509,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>6.7</v>
+        <v>6.83</v>
       </c>
       <c r="C29">
-        <v>6.721987941719264</v>
+        <v>6.633462012317104</v>
       </c>
       <c r="D29">
-        <v>0.02198794171926366</v>
+        <v>-0.1965379876828965</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1523,13 +1523,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>6.71</v>
+        <v>6.85</v>
       </c>
       <c r="C30">
-        <v>6.725632785401845</v>
+        <v>6.637497329260807</v>
       </c>
       <c r="D30">
-        <v>0.01563278540184498</v>
+        <v>-0.2125026707391928</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1537,13 +1537,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>6.7</v>
+        <v>6.81</v>
       </c>
       <c r="C31">
-        <v>6.727158533230511</v>
+        <v>6.642319964573794</v>
       </c>
       <c r="D31">
-        <v>0.02715853323051043</v>
+        <v>-0.1676800354262058</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1551,13 +1551,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>6.71</v>
+        <v>6.79</v>
       </c>
       <c r="C32">
-        <v>6.731514973920913</v>
+        <v>6.631418231152649</v>
       </c>
       <c r="D32">
-        <v>0.0215149739209135</v>
+        <v>-0.158581768847351</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1565,13 +1565,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C33">
-        <v>6.73528773353947</v>
+        <v>6.628294510824011</v>
       </c>
       <c r="D33">
-        <v>0.03528773353946946</v>
+        <v>-0.1717054891759888</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1579,13 +1579,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>6.7</v>
+        <v>6.78</v>
       </c>
       <c r="C34">
-        <v>6.734190364321226</v>
+        <v>6.628347942464135</v>
       </c>
       <c r="D34">
-        <v>0.03419036432122624</v>
+        <v>-0.1516520575358653</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1593,13 +1593,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>6.7</v>
+        <v>6.78</v>
       </c>
       <c r="C35">
-        <v>6.731009250689326</v>
+        <v>6.62401978469796</v>
       </c>
       <c r="D35">
-        <v>0.03100925068932625</v>
+        <v>-0.1559802153020398</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1607,13 +1607,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>6.69</v>
+        <v>6.78</v>
       </c>
       <c r="C36">
-        <v>6.728678800529452</v>
+        <v>6.629698680325683</v>
       </c>
       <c r="D36">
-        <v>0.03867880052945161</v>
+        <v>-0.150301319674317</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1621,13 +1621,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>6.69</v>
+        <v>6.78</v>
       </c>
       <c r="C37">
-        <v>6.7308814665885</v>
+        <v>6.633043354796419</v>
       </c>
       <c r="D37">
-        <v>0.0408814665885</v>
+        <v>-0.1469566452035815</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1635,13 +1635,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>6.69</v>
+        <v>6.76</v>
       </c>
       <c r="C38">
-        <v>6.724375222989139</v>
+        <v>6.636877288446099</v>
       </c>
       <c r="D38">
-        <v>0.03437522298913898</v>
+        <v>-0.1231227115539006</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1649,13 +1649,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>6.69</v>
+        <v>6.75</v>
       </c>
       <c r="C39">
-        <v>6.723094392171192</v>
+        <v>6.636838154842895</v>
       </c>
       <c r="D39">
-        <v>0.0330943921711917</v>
+        <v>-0.113161845157105</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1663,13 +1663,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>6.69</v>
+        <v>6.74</v>
       </c>
       <c r="C40">
-        <v>6.718216243704084</v>
+        <v>6.622459221491168</v>
       </c>
       <c r="D40">
-        <v>0.02821624370408315</v>
+        <v>-0.1175407785088325</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1677,13 +1677,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>6.69</v>
+        <v>6.74</v>
       </c>
       <c r="C41">
-        <v>6.718899982361848</v>
+        <v>6.633162628831878</v>
       </c>
       <c r="D41">
-        <v>0.02889998236184788</v>
+        <v>-0.1068373711681225</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1691,13 +1691,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>6.7</v>
+        <v>6.74</v>
       </c>
       <c r="C42">
-        <v>6.716856060727902</v>
+        <v>6.624346557852649</v>
       </c>
       <c r="D42">
-        <v>0.01685606072790158</v>
+        <v>-0.1156534421473516</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1705,13 +1705,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>6.7</v>
+        <v>6.75</v>
       </c>
       <c r="C43">
-        <v>6.722565073424311</v>
+        <v>6.619583670058134</v>
       </c>
       <c r="D43">
-        <v>0.02256507342431036</v>
+        <v>-0.1304163299418661</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1719,13 +1719,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>6.7</v>
+        <v>6.75</v>
       </c>
       <c r="C44">
-        <v>6.725924236854261</v>
+        <v>6.633703607911324</v>
       </c>
       <c r="D44">
-        <v>0.02592423685426049</v>
+        <v>-0.1162963920886764</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1733,13 +1733,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>6.71</v>
+        <v>6.76</v>
       </c>
       <c r="C45">
-        <v>6.724105856026035</v>
+        <v>6.646234215659055</v>
       </c>
       <c r="D45">
-        <v>0.01410585602603476</v>
+        <v>-0.113765784340945</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1747,13 +1747,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>6.71</v>
+        <v>6.75</v>
       </c>
       <c r="C46">
-        <v>6.7213324301538</v>
+        <v>6.644940815252374</v>
       </c>
       <c r="D46">
-        <v>0.01133243015380003</v>
+        <v>-0.1050591847476259</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1761,13 +1761,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>6.7</v>
+        <v>6.76</v>
       </c>
       <c r="C47">
-        <v>6.717717618795139</v>
+        <v>6.64846547061504</v>
       </c>
       <c r="D47">
-        <v>0.01771761879513889</v>
+        <v>-0.1115345293849597</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1775,13 +1775,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>6.73</v>
+        <v>6.77</v>
       </c>
       <c r="C48">
-        <v>6.720885558640005</v>
+        <v>6.648551287133147</v>
       </c>
       <c r="D48">
-        <v>-0.009114441359995062</v>
+        <v>-0.1214487128668527</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1789,13 +1789,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>6.72</v>
+        <v>6.77</v>
       </c>
       <c r="C49">
-        <v>6.715463386173574</v>
+        <v>6.645677526376295</v>
       </c>
       <c r="D49">
-        <v>-0.004536613826426006</v>
+        <v>-0.124322473623705</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1803,13 +1803,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>6.69</v>
+        <v>6.78</v>
       </c>
       <c r="C50">
-        <v>6.711815531900036</v>
+        <v>6.643652417408578</v>
       </c>
       <c r="D50">
-        <v>0.02181553190003527</v>
+        <v>-0.136347582591422</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1817,13 +1817,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>6.69</v>
+        <v>6.79</v>
       </c>
       <c r="C51">
-        <v>6.705992577472062</v>
+        <v>6.649556925280422</v>
       </c>
       <c r="D51">
-        <v>0.01599257747206195</v>
+        <v>-0.1404430747195784</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1831,13 +1831,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>6.7</v>
+        <v>6.79</v>
       </c>
       <c r="C52">
-        <v>6.70695863799406</v>
+        <v>6.650477979136957</v>
       </c>
       <c r="D52">
-        <v>0.006958637994060268</v>
+        <v>-0.1395220208630432</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1845,13 +1845,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>6.69</v>
+        <v>6.79</v>
       </c>
       <c r="C53">
-        <v>6.703061333375897</v>
+        <v>6.659559958661351</v>
       </c>
       <c r="D53">
-        <v>0.01306133337589621</v>
+        <v>-0.1304400413386491</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1859,13 +1859,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>6.67</v>
+        <v>6.79</v>
       </c>
       <c r="C54">
-        <v>6.701122253531723</v>
+        <v>6.651979611327006</v>
       </c>
       <c r="D54">
-        <v>0.0311222535317226</v>
+        <v>-0.1380203886729943</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1873,13 +1873,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>6.67</v>
+        <v>6.78</v>
       </c>
       <c r="C55">
-        <v>6.700973677490906</v>
+        <v>6.646806351730163</v>
       </c>
       <c r="D55">
-        <v>0.0309736774909064</v>
+        <v>-0.1331936482698373</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1887,13 +1887,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>6.66</v>
+        <v>6.76</v>
       </c>
       <c r="C56">
-        <v>6.69844213708691</v>
+        <v>6.642907603307322</v>
       </c>
       <c r="D56">
-        <v>0.03844213708690969</v>
+        <v>-0.1170923966926782</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1901,13 +1901,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>6.67</v>
+        <v>6.75</v>
       </c>
       <c r="C57">
-        <v>6.694078234547011</v>
+        <v>6.63870631949208</v>
       </c>
       <c r="D57">
-        <v>0.02407823454701141</v>
+        <v>-0.1112936805079201</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1915,13 +1915,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>6.66</v>
+        <v>6.75</v>
       </c>
       <c r="C58">
-        <v>6.695460758572062</v>
+        <v>6.639424115120315</v>
       </c>
       <c r="D58">
-        <v>0.03546075857206166</v>
+        <v>-0.1105758848796849</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1929,13 +1929,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>6.65</v>
+        <v>6.77</v>
       </c>
       <c r="C59">
-        <v>6.69634594108492</v>
+        <v>6.63375210232911</v>
       </c>
       <c r="D59">
-        <v>0.04634594108491985</v>
+        <v>-0.1362478976708896</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1943,13 +1943,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>6.65</v>
+        <v>6.77</v>
       </c>
       <c r="C60">
-        <v>6.706101095917957</v>
+        <v>6.63883951894435</v>
       </c>
       <c r="D60">
-        <v>0.05610109591795709</v>
+        <v>-0.1311604810556499</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1957,13 +1957,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>6.65</v>
+        <v>6.79</v>
       </c>
       <c r="C61">
-        <v>6.698719097583388</v>
+        <v>6.642035514112644</v>
       </c>
       <c r="D61">
-        <v>0.04871909758338777</v>
+        <v>-0.1479644858873561</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1971,13 +1971,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>6.66</v>
+        <v>6.78</v>
       </c>
       <c r="C62">
-        <v>6.703520563696762</v>
+        <v>6.650060242388941</v>
       </c>
       <c r="D62">
-        <v>0.04352056369676216</v>
+        <v>-0.1299397576110595</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1985,13 +1985,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>6.66</v>
+        <v>6.77</v>
       </c>
       <c r="C63">
-        <v>6.700653211744638</v>
+        <v>6.647468284441969</v>
       </c>
       <c r="D63">
-        <v>0.04065321174463765</v>
+        <v>-0.122531715558031</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1999,13 +1999,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>6.66</v>
+        <v>6.76</v>
       </c>
       <c r="C64">
-        <v>6.697069590523589</v>
+        <v>6.643883107957203</v>
       </c>
       <c r="D64">
-        <v>0.03706959052358894</v>
+        <v>-0.1161168920427968</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2013,13 +2013,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>6.65</v>
+        <v>6.76</v>
       </c>
       <c r="C65">
-        <v>6.685705608271307</v>
+        <v>6.638842987576087</v>
       </c>
       <c r="D65">
-        <v>0.03570560827130631</v>
+        <v>-0.1211570124239127</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2027,13 +2027,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>6.65</v>
+        <v>6.76</v>
       </c>
       <c r="C66">
-        <v>6.6857036601317</v>
+        <v>6.635753936340064</v>
       </c>
       <c r="D66">
-        <v>0.03570366013169934</v>
+        <v>-0.1242460636599354</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2041,13 +2041,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>6.66</v>
+        <v>6.77</v>
       </c>
       <c r="C67">
-        <v>6.687240016595216</v>
+        <v>6.642415692856662</v>
       </c>
       <c r="D67">
-        <v>0.0272400165952158</v>
+        <v>-0.1275843071433371</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2055,13 +2055,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>6.66</v>
+        <v>6.77</v>
       </c>
       <c r="C68">
-        <v>6.689532690948199</v>
+        <v>6.641769479886914</v>
       </c>
       <c r="D68">
-        <v>0.02953269094819877</v>
+        <v>-0.1282305201130853</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2069,13 +2069,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>6.67</v>
+        <v>6.78</v>
       </c>
       <c r="C69">
-        <v>6.687879363214219</v>
+        <v>6.645114731995568</v>
       </c>
       <c r="D69">
-        <v>0.01787936321421935</v>
+        <v>-0.1348852680044326</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2083,13 +2083,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>6.66</v>
+        <v>6.78</v>
       </c>
       <c r="C70">
-        <v>6.701453068257311</v>
+        <v>6.641880714596772</v>
       </c>
       <c r="D70">
-        <v>0.04145306825731065</v>
+        <v>-0.1381192854032287</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2097,13 +2097,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>6.66</v>
+        <v>6.77</v>
       </c>
       <c r="C71">
-        <v>6.693362636331043</v>
+        <v>6.633602659838516</v>
       </c>
       <c r="D71">
-        <v>0.03336263633104242</v>
+        <v>-0.1363973401614835</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2111,13 +2111,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>6.64</v>
+        <v>6.78</v>
       </c>
       <c r="C72">
-        <v>6.684088673693037</v>
+        <v>6.637404710764557</v>
       </c>
       <c r="D72">
-        <v>0.04408867369303771</v>
+        <v>-0.1425952892354436</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2125,13 +2125,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>6.64</v>
+        <v>6.78</v>
       </c>
       <c r="C73">
-        <v>6.674219460033277</v>
+        <v>6.634948626771607</v>
       </c>
       <c r="D73">
-        <v>0.03421946003327747</v>
+        <v>-0.1450513732283936</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>6.64</v>
+        <v>6.77</v>
       </c>
       <c r="C74">
-        <v>6.675262596999045</v>
+        <v>6.631910937471797</v>
       </c>
       <c r="D74">
-        <v>0.03526259699904521</v>
+        <v>-0.1380890625282021</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2153,13 +2153,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>6.65</v>
+        <v>6.75</v>
       </c>
       <c r="C75">
-        <v>6.676405177022825</v>
+        <v>6.633559886286635</v>
       </c>
       <c r="D75">
-        <v>0.02640517702282441</v>
+        <v>-0.1164401137133648</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2167,13 +2167,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>6.66</v>
+        <v>6.75</v>
       </c>
       <c r="C76">
-        <v>6.680618970527489</v>
+        <v>6.636303927781034</v>
       </c>
       <c r="D76">
-        <v>0.02061897052748929</v>
+        <v>-0.1136960722189659</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2181,13 +2181,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>6.66</v>
+        <v>6.74</v>
       </c>
       <c r="C77">
-        <v>6.668535118471365</v>
+        <v>6.630057887980337</v>
       </c>
       <c r="D77">
-        <v>0.008535118471365344</v>
+        <v>-0.1099421120196631</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2195,13 +2195,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>6.65</v>
+        <v>6.74</v>
       </c>
       <c r="C78">
-        <v>6.670497868494071</v>
+        <v>6.635305615822723</v>
       </c>
       <c r="D78">
-        <v>0.02049786849407109</v>
+        <v>-0.1046943841772769</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2209,13 +2209,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>6.66</v>
+        <v>6.74</v>
       </c>
       <c r="C79">
-        <v>6.666617040998729</v>
+        <v>6.621204404353655</v>
       </c>
       <c r="D79">
-        <v>0.006617040998729173</v>
+        <v>-0.1187955956463451</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2223,13 +2223,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>6.64</v>
+        <v>6.74</v>
       </c>
       <c r="C80">
-        <v>6.664938284411664</v>
+        <v>6.625076694088742</v>
       </c>
       <c r="D80">
-        <v>0.02493828441166457</v>
+        <v>-0.1149233059112582</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2237,13 +2237,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>6.64</v>
+        <v>6.73</v>
       </c>
       <c r="C81">
-        <v>6.668832683729643</v>
+        <v>6.61479669805119</v>
       </c>
       <c r="D81">
-        <v>0.02883268372964309</v>
+        <v>-0.1152033019488101</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2251,13 +2251,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>6.64</v>
+        <v>6.75</v>
       </c>
       <c r="C82">
-        <v>6.662649387653908</v>
+        <v>6.61530177958743</v>
       </c>
       <c r="D82">
-        <v>0.02264938765390845</v>
+        <v>-0.1346982204125702</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2265,13 +2265,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>6.64</v>
+        <v>6.77</v>
       </c>
       <c r="C83">
-        <v>6.662081645696584</v>
+        <v>6.615909379132766</v>
       </c>
       <c r="D83">
-        <v>0.02208164569658422</v>
+        <v>-0.1540906208672332</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2279,13 +2279,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>6.64</v>
+        <v>6.76</v>
       </c>
       <c r="C84">
-        <v>6.666219394337763</v>
+        <v>6.624475498290392</v>
       </c>
       <c r="D84">
-        <v>0.02621939433776355</v>
+        <v>-0.1355245017096074</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2293,13 +2293,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>6.64</v>
+        <v>6.75</v>
       </c>
       <c r="C85">
-        <v>6.668120526134893</v>
+        <v>6.623352427755501</v>
       </c>
       <c r="D85">
-        <v>0.02812052613489335</v>
+        <v>-0.1266475722444991</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2307,13 +2307,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>6.64</v>
+        <v>6.76</v>
       </c>
       <c r="C86">
-        <v>6.661588926550704</v>
+        <v>6.621138665918986</v>
       </c>
       <c r="D86">
-        <v>0.0215889265507041</v>
+        <v>-0.1388613340810139</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2321,13 +2321,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>6.65</v>
+        <v>6.75</v>
       </c>
       <c r="C87">
-        <v>6.652094229135705</v>
+        <v>6.603800731967345</v>
       </c>
       <c r="D87">
-        <v>0.002094229135704673</v>
+        <v>-0.1461992680326549</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2335,13 +2335,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>6.65</v>
+        <v>6.73</v>
       </c>
       <c r="C88">
-        <v>6.643655627487278</v>
+        <v>6.614605167896819</v>
       </c>
       <c r="D88">
-        <v>-0.006344372512722352</v>
+        <v>-0.1153948321031812</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2349,13 +2349,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>6.64</v>
+        <v>6.72</v>
       </c>
       <c r="C89">
-        <v>6.649639844610296</v>
+        <v>6.618552032083254</v>
       </c>
       <c r="D89">
-        <v>0.009639844610296322</v>
+        <v>-0.1014479679167453</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2363,13 +2363,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>6.63</v>
+        <v>6.72</v>
       </c>
       <c r="C90">
-        <v>6.657406383218137</v>
+        <v>6.611579880817182</v>
       </c>
       <c r="D90">
-        <v>0.02740638321813726</v>
+        <v>-0.108420119182818</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2377,13 +2377,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>6.62</v>
+        <v>6.72</v>
       </c>
       <c r="C91">
-        <v>6.651358942134151</v>
+        <v>6.609523942816455</v>
       </c>
       <c r="D91">
-        <v>0.03135894213415114</v>
+        <v>-0.1104760571835444</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2391,13 +2391,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>6.64</v>
+        <v>6.71</v>
       </c>
       <c r="C92">
-        <v>6.653892140215295</v>
+        <v>6.611285774315023</v>
       </c>
       <c r="D92">
-        <v>0.01389214021529561</v>
+        <v>-0.09871422568497668</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2405,13 +2405,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>6.64</v>
+        <v>6.7</v>
       </c>
       <c r="C93">
-        <v>6.648188727747402</v>
+        <v>6.601701144082888</v>
       </c>
       <c r="D93">
-        <v>0.008188727747402424</v>
+        <v>-0.09829885591711207</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2419,13 +2419,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>6.64</v>
+        <v>6.7</v>
       </c>
       <c r="C94">
-        <v>6.666329959548869</v>
+        <v>6.604505249227955</v>
       </c>
       <c r="D94">
-        <v>0.0263299595488693</v>
+        <v>-0.09549475077204495</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2433,13 +2433,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>6.65</v>
+        <v>6.69</v>
       </c>
       <c r="C95">
-        <v>6.67325925133117</v>
+        <v>6.613364159347681</v>
       </c>
       <c r="D95">
-        <v>0.02325925133116957</v>
+        <v>-0.07663584065231976</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2447,13 +2447,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>6.65</v>
+        <v>6.7</v>
       </c>
       <c r="C96">
-        <v>6.66661571392486</v>
+        <v>6.617648705065751</v>
       </c>
       <c r="D96">
-        <v>0.0166157139248595</v>
+        <v>-0.08235129493424953</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2461,13 +2461,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>6.64</v>
+        <v>6.71</v>
       </c>
       <c r="C97">
-        <v>6.664431045064345</v>
+        <v>6.627656015146746</v>
       </c>
       <c r="D97">
-        <v>0.02443104506434501</v>
+        <v>-0.08234398485325389</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2475,13 +2475,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>6.64</v>
+        <v>6.72</v>
       </c>
       <c r="C98">
-        <v>6.667826281608218</v>
+        <v>6.631749573219173</v>
       </c>
       <c r="D98">
-        <v>0.02782628160821865</v>
+        <v>-0.08825042678082706</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2489,13 +2489,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>6.64</v>
+        <v>6.72</v>
       </c>
       <c r="C99">
-        <v>6.675139013591397</v>
+        <v>6.644187990942051</v>
       </c>
       <c r="D99">
-        <v>0.03513901359139737</v>
+        <v>-0.07581200905794905</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2503,13 +2503,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>6.63</v>
+        <v>6.73</v>
       </c>
       <c r="C100">
-        <v>6.667022141304057</v>
+        <v>6.637897836132247</v>
       </c>
       <c r="D100">
-        <v>0.03702214130405679</v>
+        <v>-0.09210216386775372</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2517,13 +2517,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>6.62</v>
+        <v>6.74</v>
       </c>
       <c r="C101">
-        <v>6.663407128547228</v>
+        <v>6.634384060036041</v>
       </c>
       <c r="D101">
-        <v>0.04340712854722817</v>
+        <v>-0.1056159399639593</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2531,13 +2531,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>6.62</v>
+        <v>6.74</v>
       </c>
       <c r="C102">
-        <v>6.664314279055229</v>
+        <v>6.641822817882234</v>
       </c>
       <c r="D102">
-        <v>0.04431427905522867</v>
+        <v>-0.09817718211776594</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2545,13 +2545,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>6.61</v>
+        <v>6.74</v>
       </c>
       <c r="C103">
-        <v>6.648764975259248</v>
+        <v>6.64455755388488</v>
       </c>
       <c r="D103">
-        <v>0.03876497525924805</v>
+        <v>-0.09544244611512021</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2559,13 +2559,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>6.6</v>
+        <v>6.73</v>
       </c>
       <c r="C104">
-        <v>6.644386430539236</v>
+        <v>6.634604394744175</v>
       </c>
       <c r="D104">
-        <v>0.04438643053923652</v>
+        <v>-0.0953956052558258</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2573,13 +2573,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>6.61</v>
+        <v>6.74</v>
       </c>
       <c r="C105">
-        <v>6.642288722502166</v>
+        <v>6.628407317114911</v>
       </c>
       <c r="D105">
-        <v>0.03228872250216597</v>
+        <v>-0.1115926828850888</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2587,13 +2587,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>6.6</v>
+        <v>6.74</v>
       </c>
       <c r="C106">
-        <v>6.643262814846834</v>
+        <v>6.640930240765524</v>
       </c>
       <c r="D106">
-        <v>0.04326281484683481</v>
+        <v>-0.09906975923447625</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2601,13 +2601,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>6.6</v>
+        <v>6.74</v>
       </c>
       <c r="C107">
-        <v>6.641065251778707</v>
+        <v>6.63245164672945</v>
       </c>
       <c r="D107">
-        <v>0.0410652517787069</v>
+        <v>-0.1075483532705501</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2615,13 +2615,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>6.6</v>
+        <v>6.73</v>
       </c>
       <c r="C108">
-        <v>6.636910442244718</v>
+        <v>6.625068584689815</v>
       </c>
       <c r="D108">
-        <v>0.03691044224471884</v>
+        <v>-0.104931415310185</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2629,13 +2629,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>6.6</v>
+        <v>6.74</v>
       </c>
       <c r="C109">
-        <v>6.624913903292003</v>
+        <v>6.635789892219231</v>
       </c>
       <c r="D109">
-        <v>0.0249139032920036</v>
+        <v>-0.1042101077807693</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2643,13 +2643,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>6.61</v>
+        <v>6.73</v>
       </c>
       <c r="C110">
-        <v>6.634624435519519</v>
+        <v>6.61919346423227</v>
       </c>
       <c r="D110">
-        <v>0.02462443551951843</v>
+        <v>-0.1108065357677308</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2657,13 +2657,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>6.61</v>
+        <v>6.73</v>
       </c>
       <c r="C111">
-        <v>6.649567920489141</v>
+        <v>6.631082405619596</v>
       </c>
       <c r="D111">
-        <v>0.03956792048914082</v>
+        <v>-0.09891759438040459</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2671,13 +2671,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>6.62</v>
+        <v>6.75</v>
       </c>
       <c r="C112">
-        <v>6.647769517520845</v>
+        <v>6.651994477082365</v>
       </c>
       <c r="D112">
-        <v>0.027769517520845</v>
+        <v>-0.09800552291763509</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2685,13 +2685,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>6.61</v>
+        <v>6.76</v>
       </c>
       <c r="C113">
-        <v>6.639263918664736</v>
+        <v>6.636750494839381</v>
       </c>
       <c r="D113">
-        <v>0.02926391866473566</v>
+        <v>-0.1232495051606186</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2699,13 +2699,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>6.61</v>
+        <v>6.76</v>
       </c>
       <c r="C114">
-        <v>6.642239360734959</v>
+        <v>6.647266443863989</v>
       </c>
       <c r="D114">
-        <v>0.03223936073495892</v>
+        <v>-0.1127335561360105</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2713,13 +2713,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>6.62</v>
+        <v>6.76</v>
       </c>
       <c r="C115">
-        <v>6.645524216324604</v>
+        <v>6.632873332422164</v>
       </c>
       <c r="D115">
-        <v>0.02552421632460344</v>
+        <v>-0.1271266675778353</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2727,13 +2727,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>6.6</v>
+        <v>6.79</v>
       </c>
       <c r="C116">
-        <v>6.636393432651723</v>
+        <v>6.643288897876541</v>
       </c>
       <c r="D116">
-        <v>0.03639343265172368</v>
+        <v>-0.1467111021234588</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2741,13 +2741,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>6.6</v>
+        <v>6.78</v>
       </c>
       <c r="C117">
-        <v>6.636119393063585</v>
+        <v>6.637386429550192</v>
       </c>
       <c r="D117">
-        <v>0.03611939306358547</v>
+        <v>-0.1426135704498082</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2755,13 +2755,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>6.6</v>
+        <v>6.78</v>
       </c>
       <c r="C118">
-        <v>6.638909516589513</v>
+        <v>6.62761368437344</v>
       </c>
       <c r="D118">
-        <v>0.03890951658951369</v>
+        <v>-0.1523863156265604</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2769,13 +2769,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>6.6</v>
+        <v>6.79</v>
       </c>
       <c r="C119">
-        <v>6.639459028379405</v>
+        <v>6.639654704438598</v>
       </c>
       <c r="D119">
-        <v>0.0394590283794054</v>
+        <v>-0.1503452955614017</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2783,13 +2783,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>6.61</v>
+        <v>6.79</v>
       </c>
       <c r="C120">
-        <v>6.638598484719554</v>
+        <v>6.643548675018222</v>
       </c>
       <c r="D120">
-        <v>0.02859848471955395</v>
+        <v>-0.1464513249817783</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2797,13 +2797,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>6.6</v>
+        <v>6.79</v>
       </c>
       <c r="C121">
-        <v>6.626421031204905</v>
+        <v>6.648226548168756</v>
       </c>
       <c r="D121">
-        <v>0.02642103120490535</v>
+        <v>-0.1417734518312441</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2811,13 +2811,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>6.59</v>
+        <v>6.8</v>
       </c>
       <c r="C122">
-        <v>6.626211265857825</v>
+        <v>6.650073817242607</v>
       </c>
       <c r="D122">
-        <v>0.0362112658578253</v>
+        <v>-0.149926182757393</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2825,13 +2825,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C123">
-        <v>6.620169926187576</v>
+        <v>6.650452064435317</v>
       </c>
       <c r="D123">
-        <v>0.02016992618757651</v>
+        <v>-0.1495479355646827</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2839,13 +2839,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>6.6</v>
+        <v>6.79</v>
       </c>
       <c r="C124">
-        <v>6.629994565807722</v>
+        <v>6.643607662827581</v>
       </c>
       <c r="D124">
-        <v>0.02999456580772186</v>
+        <v>-0.1463923371724194</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2853,13 +2853,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>6.59</v>
+        <v>6.79</v>
       </c>
       <c r="C125">
-        <v>6.626991129596418</v>
+        <v>6.645548703789668</v>
       </c>
       <c r="D125">
-        <v>0.03699112959641848</v>
+        <v>-0.1444512962103319</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2867,13 +2867,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C126">
-        <v>6.638391757385794</v>
+        <v>6.644663882606574</v>
       </c>
       <c r="D126">
-        <v>0.03839175738579481</v>
+        <v>-0.1553361173934258</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2881,13 +2881,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>6.59</v>
+        <v>6.81</v>
       </c>
       <c r="C127">
-        <v>6.628702939876708</v>
+        <v>6.639689779417335</v>
       </c>
       <c r="D127">
-        <v>0.03870293987670781</v>
+        <v>-0.1703102205826648</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2895,13 +2895,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>6.59</v>
+        <v>6.81</v>
       </c>
       <c r="C128">
-        <v>6.614714498307722</v>
+        <v>6.643359480335848</v>
       </c>
       <c r="D128">
-        <v>0.02471449830772254</v>
+        <v>-0.1666405196641518</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2909,13 +2909,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>6.6</v>
+        <v>6.84</v>
       </c>
       <c r="C129">
-        <v>6.617512311424576</v>
+        <v>6.647280144718133</v>
       </c>
       <c r="D129">
-        <v>0.01751231142457588</v>
+        <v>-0.192719855281867</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2923,13 +2923,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>6.59</v>
+        <v>6.83</v>
       </c>
       <c r="C130">
-        <v>6.614710152747102</v>
+        <v>6.646332676202709</v>
       </c>
       <c r="D130">
-        <v>0.02471015274710187</v>
+        <v>-0.183667323797291</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2937,13 +2937,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>6.6</v>
+        <v>6.82</v>
       </c>
       <c r="C131">
-        <v>6.608330629346947</v>
+        <v>6.644604071405537</v>
       </c>
       <c r="D131">
-        <v>0.008330629346947838</v>
+        <v>-0.1753959285944635</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2951,13 +2951,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C132">
-        <v>6.619703487600064</v>
+        <v>6.640084850567305</v>
       </c>
       <c r="D132">
-        <v>0.01970348760006413</v>
+        <v>-0.1599151494326945</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2965,13 +2965,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>6.59</v>
+        <v>6.81</v>
       </c>
       <c r="C133">
-        <v>6.61324113426616</v>
+        <v>6.645248213818546</v>
       </c>
       <c r="D133">
-        <v>0.02324113426616048</v>
+        <v>-0.164751786181454</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2979,13 +2979,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>6.59</v>
+        <v>6.79</v>
       </c>
       <c r="C134">
-        <v>6.602597181480092</v>
+        <v>6.653163230308717</v>
       </c>
       <c r="D134">
-        <v>0.01259718148009181</v>
+        <v>-0.1368367696912829</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2993,13 +2993,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>6.58</v>
+        <v>6.83</v>
       </c>
       <c r="C135">
-        <v>6.588919150560737</v>
+        <v>6.651316149227178</v>
       </c>
       <c r="D135">
-        <v>0.008919150560736888</v>
+        <v>-0.1786838507728223</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3007,13 +3007,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>6.58</v>
+        <v>6.84</v>
       </c>
       <c r="C136">
-        <v>6.592130951162749</v>
+        <v>6.645089075910507</v>
       </c>
       <c r="D136">
-        <v>0.01213095116274854</v>
+        <v>-0.1949109240894931</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3021,13 +3021,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>6.58</v>
+        <v>6.84</v>
       </c>
       <c r="C137">
-        <v>6.59595354469612</v>
+        <v>6.645867484645496</v>
       </c>
       <c r="D137">
-        <v>0.01595354469611987</v>
+        <v>-0.1941325153545037</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3035,13 +3035,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>6.57</v>
+        <v>6.85</v>
       </c>
       <c r="C138">
-        <v>6.585748443488931</v>
+        <v>6.654428093478376</v>
       </c>
       <c r="D138">
-        <v>0.01574844348893034</v>
+        <v>-0.1955719065216233</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3049,13 +3049,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>6.57</v>
+        <v>6.8</v>
       </c>
       <c r="C139">
-        <v>6.581259655515624</v>
+        <v>6.643095217383886</v>
       </c>
       <c r="D139">
-        <v>0.01125965551562391</v>
+        <v>-0.1569047826161141</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3063,13 +3063,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>6.58</v>
+        <v>6.76</v>
       </c>
       <c r="C140">
-        <v>6.574130343484762</v>
+        <v>6.642932268073537</v>
       </c>
       <c r="D140">
-        <v>-0.005869656515238297</v>
+        <v>-0.117067731926463</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3077,13 +3077,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>6.57</v>
+        <v>6.73</v>
       </c>
       <c r="C141">
-        <v>6.594418905367459</v>
+        <v>6.649851010473876</v>
       </c>
       <c r="D141">
-        <v>0.02441890536745905</v>
+        <v>-0.08014898952612448</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3091,13 +3091,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>6.57</v>
+        <v>6.71</v>
       </c>
       <c r="C142">
-        <v>6.594315963624481</v>
+        <v>6.63614607511666</v>
       </c>
       <c r="D142">
-        <v>0.0243159636244803</v>
+        <v>-0.07385392488334031</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3105,13 +3105,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>6.57</v>
+        <v>6.73</v>
       </c>
       <c r="C143">
-        <v>6.594971258254916</v>
+        <v>6.636567159883635</v>
       </c>
       <c r="D143">
-        <v>0.02497125825491597</v>
+        <v>-0.09343284011636577</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3119,13 +3119,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>6.58</v>
+        <v>6.73</v>
       </c>
       <c r="C144">
-        <v>6.596206069392534</v>
+        <v>6.642706458298344</v>
       </c>
       <c r="D144">
-        <v>0.01620606939253388</v>
+        <v>-0.08729354170165671</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3133,13 +3133,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>6.58</v>
+        <v>6.7</v>
       </c>
       <c r="C145">
-        <v>6.598434102724752</v>
+        <v>6.638576730801995</v>
       </c>
       <c r="D145">
-        <v>0.01843410272475143</v>
+        <v>-0.06142326919800478</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3147,13 +3147,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>6.58</v>
+        <v>6.69</v>
       </c>
       <c r="C146">
-        <v>6.587906023050771</v>
+        <v>6.644817096066609</v>
       </c>
       <c r="D146">
-        <v>0.00790602305077126</v>
+        <v>-0.04518290393339175</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3161,13 +3161,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>6.58</v>
+        <v>6.68</v>
       </c>
       <c r="C147">
-        <v>6.590326064263242</v>
+        <v>6.64904510268666</v>
       </c>
       <c r="D147">
-        <v>0.0103260642632419</v>
+        <v>-0.03095489731333956</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3175,13 +3175,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>6.57</v>
+        <v>6.68</v>
       </c>
       <c r="C148">
-        <v>6.591874335644754</v>
+        <v>6.639820807312267</v>
       </c>
       <c r="D148">
-        <v>0.02187433564475416</v>
+        <v>-0.04017919268773262</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3189,13 +3189,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>6.58</v>
+        <v>6.66</v>
       </c>
       <c r="C149">
-        <v>6.597361277343446</v>
+        <v>6.640530898966819</v>
       </c>
       <c r="D149">
-        <v>0.01736127734344617</v>
+        <v>-0.01946910103318089</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3203,13 +3203,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>6.59</v>
+        <v>6.65</v>
       </c>
       <c r="C150">
-        <v>6.599684677591074</v>
+        <v>6.631022486479877</v>
       </c>
       <c r="D150">
-        <v>0.009684677591073942</v>
+        <v>-0.01897751352012378</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3217,13 +3217,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>6.58</v>
+        <v>6.65</v>
       </c>
       <c r="C151">
-        <v>6.60808965777782</v>
+        <v>6.628855198118275</v>
       </c>
       <c r="D151">
-        <v>0.02808965777782024</v>
+        <v>-0.02114480188172507</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3231,13 +3231,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>6.57</v>
+        <v>6.65</v>
       </c>
       <c r="C152">
-        <v>6.597323724212662</v>
+        <v>6.627829722778706</v>
       </c>
       <c r="D152">
-        <v>0.02732372421266138</v>
+        <v>-0.02217027722129394</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3245,13 +3245,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>6.57</v>
+        <v>6.65</v>
       </c>
       <c r="C153">
-        <v>6.589026561483766</v>
+        <v>6.622187876304796</v>
       </c>
       <c r="D153">
-        <v>0.01902656148376547</v>
+        <v>-0.02781212369520425</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3259,13 +3259,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>6.58</v>
+        <v>6.65</v>
       </c>
       <c r="C154">
-        <v>6.590107084030174</v>
+        <v>6.627511908825063</v>
       </c>
       <c r="D154">
-        <v>0.01010708403017357</v>
+        <v>-0.022488091174937</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3273,13 +3273,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>6.58</v>
+        <v>6.67</v>
       </c>
       <c r="C155">
-        <v>6.58998454663377</v>
+        <v>6.628359813831777</v>
       </c>
       <c r="D155">
-        <v>0.009984546633769575</v>
+        <v>-0.04164018616822318</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3287,13 +3287,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>6.58</v>
+        <v>6.68</v>
       </c>
       <c r="C156">
-        <v>6.599157687070021</v>
+        <v>6.623564099368469</v>
       </c>
       <c r="D156">
-        <v>0.01915768707002119</v>
+        <v>-0.0564359006315307</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3301,13 +3301,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>6.57</v>
+        <v>6.65</v>
       </c>
       <c r="C157">
-        <v>6.599642915718504</v>
+        <v>6.629782949054707</v>
       </c>
       <c r="D157">
-        <v>0.02964291571850364</v>
+        <v>-0.02021705094529302</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3315,13 +3315,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>6.57</v>
+        <v>6.65</v>
       </c>
       <c r="C158">
-        <v>6.59323396638112</v>
+        <v>6.628794009258884</v>
       </c>
       <c r="D158">
-        <v>0.02323396638111941</v>
+        <v>-0.02120599074111595</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3329,13 +3329,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>6.56</v>
+        <v>6.61</v>
       </c>
       <c r="C159">
-        <v>6.587700830398027</v>
+        <v>6.629522368689704</v>
       </c>
       <c r="D159">
-        <v>0.02770083039802707</v>
+        <v>0.01952236868970392</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3343,13 +3343,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>6.56</v>
+        <v>6.61</v>
       </c>
       <c r="C160">
-        <v>6.585123368899455</v>
+        <v>6.622741913925568</v>
       </c>
       <c r="D160">
-        <v>0.02512336889945566</v>
+        <v>0.01274191392556734</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3357,13 +3357,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>6.56</v>
+        <v>6.6</v>
       </c>
       <c r="C161">
-        <v>6.58281947216627</v>
+        <v>6.628096129051578</v>
       </c>
       <c r="D161">
-        <v>0.02281947216627067</v>
+        <v>0.02809612905157799</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3371,13 +3371,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>6.56</v>
+        <v>6.6</v>
       </c>
       <c r="C162">
-        <v>6.585581804588194</v>
+        <v>6.625986624836512</v>
       </c>
       <c r="D162">
-        <v>0.02558180458819415</v>
+        <v>0.02598662483651282</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3385,13 +3385,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>6.55</v>
+        <v>6.59</v>
       </c>
       <c r="C163">
-        <v>6.577733188100416</v>
+        <v>6.630358485839386</v>
       </c>
       <c r="D163">
-        <v>0.02773318810041658</v>
+        <v>0.04035848583938595</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3399,13 +3399,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>6.54</v>
+        <v>6.6</v>
       </c>
       <c r="C164">
-        <v>6.572701431927892</v>
+        <v>6.623441796053406</v>
       </c>
       <c r="D164">
-        <v>0.03270143192789199</v>
+        <v>0.02344179605340635</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3413,13 +3413,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>6.56</v>
+        <v>6.6</v>
       </c>
       <c r="C165">
-        <v>6.570845720763805</v>
+        <v>6.628364685954919</v>
       </c>
       <c r="D165">
-        <v>0.01084572076380574</v>
+        <v>0.02836468595491937</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3427,13 +3427,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>6.56</v>
+        <v>6.61</v>
       </c>
       <c r="C166">
-        <v>6.578863572914801</v>
+        <v>6.63895116149048</v>
       </c>
       <c r="D166">
-        <v>0.01886357291480145</v>
+        <v>0.02895116149047983</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3441,13 +3441,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>6.57</v>
+        <v>6.6</v>
       </c>
       <c r="C167">
-        <v>6.577129771298892</v>
+        <v>6.648441295679932</v>
       </c>
       <c r="D167">
-        <v>0.007129771298891363</v>
+        <v>0.04844129567993249</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3455,13 +3455,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>6.58</v>
+        <v>6.61</v>
       </c>
       <c r="C168">
-        <v>6.579656956616939</v>
+        <v>6.651746523437646</v>
       </c>
       <c r="D168">
-        <v>-0.0003430433830606816</v>
+        <v>0.04174652343764595</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3469,13 +3469,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>6.57</v>
+        <v>6.6</v>
       </c>
       <c r="C169">
-        <v>6.5797973418407</v>
+        <v>6.642122371782653</v>
       </c>
       <c r="D169">
-        <v>0.00979734184069958</v>
+        <v>0.04212237178265354</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3483,13 +3483,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>6.58</v>
+        <v>6.62</v>
       </c>
       <c r="C170">
-        <v>6.571858967569955</v>
+        <v>6.644237160185972</v>
       </c>
       <c r="D170">
-        <v>-0.008141032430045492</v>
+        <v>0.02423716018597144</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3497,13 +3497,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>6.57</v>
+        <v>6.61</v>
       </c>
       <c r="C171">
-        <v>6.568176757005044</v>
+        <v>6.648813642168189</v>
       </c>
       <c r="D171">
-        <v>-0.001823242994956509</v>
+        <v>0.03881364216818906</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3511,13 +3511,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>6.57</v>
+        <v>6.62</v>
       </c>
       <c r="C172">
-        <v>6.586657638300427</v>
+        <v>6.660452851521285</v>
       </c>
       <c r="D172">
-        <v>0.0166576383004271</v>
+        <v>0.04045285152128475</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3525,13 +3525,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>6.58</v>
+        <v>6.62</v>
       </c>
       <c r="C173">
-        <v>6.575721793717787</v>
+        <v>6.665844187591402</v>
       </c>
       <c r="D173">
-        <v>-0.004278206282212871</v>
+        <v>0.04584418759140174</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3539,13 +3539,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>6.58</v>
+        <v>6.62</v>
       </c>
       <c r="C174">
-        <v>6.570771227931295</v>
+        <v>6.667778367491957</v>
       </c>
       <c r="D174">
-        <v>-0.009228772068705204</v>
+        <v>0.04777836749195696</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3553,13 +3553,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>6.57</v>
+        <v>6.61</v>
       </c>
       <c r="C175">
-        <v>6.559337092879137</v>
+        <v>6.663931676442031</v>
       </c>
       <c r="D175">
-        <v>-0.01066290712086282</v>
+        <v>0.05393167644203078</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3567,13 +3567,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>6.58</v>
+        <v>6.6</v>
       </c>
       <c r="C176">
-        <v>6.555890291527038</v>
+        <v>6.66184377995833</v>
       </c>
       <c r="D176">
-        <v>-0.02410970847296223</v>
+        <v>0.06184377995833046</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3581,13 +3581,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>6.57</v>
+        <v>6.61</v>
       </c>
       <c r="C177">
-        <v>6.545418482069715</v>
+        <v>6.662839252015653</v>
       </c>
       <c r="D177">
-        <v>-0.02458151793028573</v>
+        <v>0.05283925201565243</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3595,13 +3595,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>6.56</v>
+        <v>6.61</v>
       </c>
       <c r="C178">
-        <v>6.548490929281328</v>
+        <v>6.659697146900681</v>
       </c>
       <c r="D178">
-        <v>-0.01150907071867202</v>
+        <v>0.04969714690068106</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3609,13 +3609,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>6.56</v>
+        <v>6.61</v>
       </c>
       <c r="C179">
-        <v>6.549738139950596</v>
+        <v>6.661095733189372</v>
       </c>
       <c r="D179">
-        <v>-0.01026186004940399</v>
+        <v>0.05109573318937155</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3623,13 +3623,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>6.55</v>
+        <v>6.63</v>
       </c>
       <c r="C180">
-        <v>6.556817031956155</v>
+        <v>6.672774957924684</v>
       </c>
       <c r="D180">
-        <v>0.006817031956154906</v>
+        <v>0.04277495792468411</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3637,13 +3637,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>6.55</v>
+        <v>6.64</v>
       </c>
       <c r="C181">
-        <v>6.548144033040672</v>
+        <v>6.665218301023991</v>
       </c>
       <c r="D181">
-        <v>-0.00185596695932766</v>
+        <v>0.02521830102399125</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3651,13 +3651,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>6.55</v>
+        <v>6.64</v>
       </c>
       <c r="C182">
-        <v>6.544111412078501</v>
+        <v>6.670448259297725</v>
       </c>
       <c r="D182">
-        <v>-0.005888587921498711</v>
+        <v>0.03044825929772532</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3665,13 +3665,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>6.55</v>
+        <v>6.63</v>
       </c>
       <c r="C183">
-        <v>6.543686815227095</v>
+        <v>6.67686224512941</v>
       </c>
       <c r="D183">
-        <v>-0.006313184772904989</v>
+        <v>0.04686224512941006</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3679,13 +3679,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>6.54</v>
+        <v>6.64</v>
       </c>
       <c r="C184">
-        <v>6.542012019298373</v>
+        <v>6.676888288662148</v>
       </c>
       <c r="D184">
-        <v>0.002012019298373247</v>
+        <v>0.03688828866214866</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3693,13 +3693,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>6.54</v>
+        <v>6.64</v>
       </c>
       <c r="C185">
-        <v>6.538340006678767</v>
+        <v>6.677508446603733</v>
       </c>
       <c r="D185">
-        <v>-0.001659993321233344</v>
+        <v>0.03750844660373343</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3707,13 +3707,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>6.54</v>
+        <v>6.65</v>
       </c>
       <c r="C186">
-        <v>6.530597795470574</v>
+        <v>6.679314795382462</v>
       </c>
       <c r="D186">
-        <v>-0.009402204529425973</v>
+        <v>0.02931479538246151</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3721,13 +3721,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>6.54</v>
+        <v>6.64</v>
       </c>
       <c r="C187">
-        <v>6.528721050526902</v>
+        <v>6.675097607727302</v>
       </c>
       <c r="D187">
-        <v>-0.01127894947309827</v>
+        <v>0.03509760772730264</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3735,13 +3735,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>6.53</v>
+        <v>6.64</v>
       </c>
       <c r="C188">
-        <v>6.522339507042891</v>
+        <v>6.679707897736874</v>
       </c>
       <c r="D188">
-        <v>-0.007660492957109355</v>
+        <v>0.03970789773687411</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3749,13 +3749,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>6.54</v>
+        <v>6.65</v>
       </c>
       <c r="C189">
-        <v>6.51289662555618</v>
+        <v>6.685406762714393</v>
       </c>
       <c r="D189">
-        <v>-0.02710337444382027</v>
+        <v>0.03540676271439303</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3763,13 +3763,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>6.54</v>
+        <v>6.64</v>
       </c>
       <c r="C190">
-        <v>6.515333458083245</v>
+        <v>6.684831810091076</v>
       </c>
       <c r="D190">
-        <v>-0.02466654191675488</v>
+        <v>0.04483181009107629</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3777,13 +3777,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>6.55</v>
+        <v>6.65</v>
       </c>
       <c r="C191">
-        <v>6.547861224091732</v>
+        <v>6.690337657900825</v>
       </c>
       <c r="D191">
-        <v>-0.002138775908267831</v>
+        <v>0.04033765790082455</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3791,13 +3791,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>6.55</v>
+        <v>6.64</v>
       </c>
       <c r="C192">
-        <v>6.53701382204718</v>
+        <v>6.686859520588701</v>
       </c>
       <c r="D192">
-        <v>-0.0129861779528202</v>
+        <v>0.04685952058870146</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3805,13 +3805,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>6.55</v>
+        <v>6.65</v>
       </c>
       <c r="C193">
-        <v>6.536615362219558</v>
+        <v>6.687512597354841</v>
       </c>
       <c r="D193">
-        <v>-0.01338463778044208</v>
+        <v>0.03751259735484069</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3819,13 +3819,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>6.54</v>
+        <v>6.64</v>
       </c>
       <c r="C194">
-        <v>6.533559075897799</v>
+        <v>6.672152583963445</v>
       </c>
       <c r="D194">
-        <v>-0.00644092410220054</v>
+        <v>0.03215258396344556</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3833,13 +3833,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>6.54</v>
+        <v>6.65</v>
       </c>
       <c r="C195">
-        <v>6.523070045460638</v>
+        <v>6.677357779149313</v>
       </c>
       <c r="D195">
-        <v>-0.01692995453936241</v>
+        <v>0.02735777914931248</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3847,13 +3847,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>6.54</v>
+        <v>6.65</v>
       </c>
       <c r="C196">
-        <v>6.524593538477295</v>
+        <v>6.67273845234905</v>
       </c>
       <c r="D196">
-        <v>-0.01540646152270497</v>
+        <v>0.02273845234904925</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3861,13 +3861,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>6.54</v>
+        <v>6.65</v>
       </c>
       <c r="C197">
-        <v>6.52249606768856</v>
+        <v>6.668155809313632</v>
       </c>
       <c r="D197">
-        <v>-0.0175039323114401</v>
+        <v>0.01815580931363137</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3875,13 +3875,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>6.55</v>
+        <v>6.66</v>
       </c>
       <c r="C198">
-        <v>6.519076783964896</v>
+        <v>6.677090228431931</v>
       </c>
       <c r="D198">
-        <v>-0.03092321603510406</v>
+        <v>0.01709022843193075</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3889,13 +3889,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>6.54</v>
+        <v>6.66</v>
       </c>
       <c r="C199">
-        <v>6.513561494772858</v>
+        <v>6.684324644035655</v>
       </c>
       <c r="D199">
-        <v>-0.02643850522714253</v>
+        <v>0.02432464403565504</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3903,13 +3903,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>6.57</v>
+        <v>6.67</v>
       </c>
       <c r="C200">
-        <v>6.536739976291529</v>
+        <v>6.683294209324398</v>
       </c>
       <c r="D200">
-        <v>-0.03326002370847103</v>
+        <v>0.01329420932439795</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3917,13 +3917,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>6.57</v>
+        <v>6.68</v>
       </c>
       <c r="C201">
-        <v>6.542375752683669</v>
+        <v>6.683181866708395</v>
       </c>
       <c r="D201">
-        <v>-0.02762424731633129</v>
+        <v>0.003181866708395376</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3931,13 +3931,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>6.55</v>
+        <v>6.67</v>
       </c>
       <c r="C202">
-        <v>6.530707049597374</v>
+        <v>6.682788527026259</v>
       </c>
       <c r="D202">
-        <v>-0.01929295040262602</v>
+        <v>0.01278852702625954</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3945,13 +3945,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>6.54</v>
+        <v>6.69</v>
       </c>
       <c r="C203">
-        <v>6.526324787145998</v>
+        <v>6.695741145021525</v>
       </c>
       <c r="D203">
-        <v>-0.01367521285400208</v>
+        <v>0.005741145021525007</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3959,13 +3959,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>6.54</v>
+        <v>6.67</v>
       </c>
       <c r="C204">
-        <v>6.52041942695605</v>
+        <v>6.669527168823514</v>
       </c>
       <c r="D204">
-        <v>-0.01958057304394956</v>
+        <v>-0.0004728311764861104</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3973,13 +3973,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>6.55</v>
+        <v>6.67</v>
       </c>
       <c r="C205">
-        <v>6.532312595744627</v>
+        <v>6.684354196350149</v>
       </c>
       <c r="D205">
-        <v>-0.01768740425537274</v>
+        <v>0.01435419635014945</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3987,13 +3987,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>6.57</v>
+        <v>6.67</v>
       </c>
       <c r="C206">
-        <v>6.54451984718527</v>
+        <v>6.692677537625421</v>
       </c>
       <c r="D206">
-        <v>-0.02548015281473059</v>
+        <v>0.02267753762542135</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4001,13 +4001,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>6.57</v>
+        <v>6.66</v>
       </c>
       <c r="C207">
-        <v>6.550360406151904</v>
+        <v>6.683025761459895</v>
       </c>
       <c r="D207">
-        <v>-0.01963959384809666</v>
+        <v>0.02302576145989477</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4015,13 +4015,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>6.58</v>
+        <v>6.66</v>
       </c>
       <c r="C208">
-        <v>6.543068710981438</v>
+        <v>6.689813615801713</v>
       </c>
       <c r="D208">
-        <v>-0.03693128901856202</v>
+        <v>0.0298136158017126</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4029,13 +4029,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>6.58</v>
+        <v>6.67</v>
       </c>
       <c r="C209">
-        <v>6.546243054627861</v>
+        <v>6.683474518640894</v>
       </c>
       <c r="D209">
-        <v>-0.03375694537213914</v>
+        <v>0.01347451864089422</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4043,13 +4043,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>6.57</v>
+        <v>6.66</v>
       </c>
       <c r="C210">
-        <v>6.541221324138484</v>
+        <v>6.682511793220796</v>
       </c>
       <c r="D210">
-        <v>-0.02877867586151606</v>
+        <v>0.02251179322079544</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4057,13 +4057,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>6.56</v>
+        <v>6.65</v>
       </c>
       <c r="C211">
-        <v>6.542739185571354</v>
+        <v>6.686528357798521</v>
       </c>
       <c r="D211">
-        <v>-0.01726081442864569</v>
+        <v>0.03652835779852026</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4071,13 +4071,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>6.57</v>
+        <v>6.64</v>
       </c>
       <c r="C212">
-        <v>6.53348627720541</v>
+        <v>6.683850128196203</v>
       </c>
       <c r="D212">
-        <v>-0.03651372279459064</v>
+        <v>0.04385012819620382</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4085,13 +4085,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>6.59</v>
+        <v>6.64</v>
       </c>
       <c r="C213">
-        <v>6.532860658710956</v>
+        <v>6.657503997225174</v>
       </c>
       <c r="D213">
-        <v>-0.05713934128904352</v>
+        <v>0.01750399722517404</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4099,13 +4099,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>6.59</v>
+        <v>6.65</v>
       </c>
       <c r="C214">
-        <v>6.53114488615707</v>
+        <v>6.663069562064207</v>
       </c>
       <c r="D214">
-        <v>-0.05885511384293007</v>
+        <v>0.01306956206420651</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4113,13 +4113,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>6.59</v>
+        <v>6.64</v>
       </c>
       <c r="C215">
-        <v>6.523643169433099</v>
+        <v>6.650593552243462</v>
       </c>
       <c r="D215">
-        <v>-0.06635683056690045</v>
+        <v>0.01059355224346259</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4127,13 +4127,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>6.59</v>
+        <v>6.61</v>
       </c>
       <c r="C216">
-        <v>6.539138807081028</v>
+        <v>6.660269105253333</v>
       </c>
       <c r="D216">
-        <v>-0.05086119291897173</v>
+        <v>0.05026910525333239</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4141,13 +4141,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>6.58</v>
+        <v>6.61</v>
       </c>
       <c r="C217">
-        <v>6.521866894872564</v>
+        <v>6.653943228434455</v>
       </c>
       <c r="D217">
-        <v>-0.0581331051274363</v>
+        <v>0.04394322843445497</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4155,13 +4155,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>6.57</v>
+        <v>6.61</v>
       </c>
       <c r="C218">
-        <v>6.520400135120874</v>
+        <v>6.669975343036681</v>
       </c>
       <c r="D218">
-        <v>-0.04959986487912627</v>
+        <v>0.05997534303668051</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4169,13 +4169,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>6.59</v>
+        <v>6.61</v>
       </c>
       <c r="C219">
-        <v>6.504445660634551</v>
+        <v>6.670774097065197</v>
       </c>
       <c r="D219">
-        <v>-0.08555433936544876</v>
+        <v>0.06077409706519621</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4183,13 +4183,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>6.58</v>
+        <v>6.62</v>
       </c>
       <c r="C220">
-        <v>6.507203410470678</v>
+        <v>6.671981163481574</v>
       </c>
       <c r="D220">
-        <v>-0.07279658952932255</v>
+        <v>0.05198116348157367</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4197,13 +4197,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>6.58</v>
+        <v>6.62</v>
       </c>
       <c r="C221">
-        <v>6.522806058327046</v>
+        <v>6.679069782031084</v>
       </c>
       <c r="D221">
-        <v>-0.05719394167295366</v>
+        <v>0.05906978203108348</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4211,13 +4211,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>6.6</v>
+        <v>6.62</v>
       </c>
       <c r="C222">
-        <v>6.529268283661628</v>
+        <v>6.672647501277609</v>
       </c>
       <c r="D222">
-        <v>-0.07073171633837116</v>
+        <v>0.05264750127760909</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4225,13 +4225,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>6.6</v>
+        <v>6.61</v>
       </c>
       <c r="C223">
-        <v>6.532036381863674</v>
+        <v>6.671343015621776</v>
       </c>
       <c r="D223">
-        <v>-0.0679636181363259</v>
+        <v>0.0613430156217758</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4239,13 +4239,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>6.63</v>
+        <v>6.62</v>
       </c>
       <c r="C224">
-        <v>6.546346269516069</v>
+        <v>6.677872750365808</v>
       </c>
       <c r="D224">
-        <v>-0.0836537304839311</v>
+        <v>0.05787275036580741</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4253,13 +4253,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>6.6</v>
+        <v>6.62</v>
       </c>
       <c r="C225">
-        <v>6.520140836337913</v>
+        <v>6.678940304213782</v>
       </c>
       <c r="D225">
-        <v>-0.07985916366208645</v>
+        <v>0.05894030421378194</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4267,13 +4267,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>6.57</v>
+        <v>6.63</v>
       </c>
       <c r="C226">
-        <v>6.517032919154153</v>
+        <v>6.673771237444962</v>
       </c>
       <c r="D226">
-        <v>-0.05296708084584711</v>
+        <v>0.04377123744496192</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4281,13 +4281,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>6.59</v>
+        <v>6.64</v>
       </c>
       <c r="C227">
-        <v>6.506615515883371</v>
+        <v>6.682828039309896</v>
       </c>
       <c r="D227">
-        <v>-0.08338448411662913</v>
+        <v>0.04282803930989676</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4295,13 +4295,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>6.63</v>
+        <v>6.65</v>
       </c>
       <c r="C228">
-        <v>6.528904511894095</v>
+        <v>6.694213331921683</v>
       </c>
       <c r="D228">
-        <v>-0.101095488105905</v>
+        <v>0.0442133319216822</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4309,13 +4309,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>6.57</v>
+        <v>6.65</v>
       </c>
       <c r="C229">
-        <v>6.519347867192628</v>
+        <v>6.700723297013507</v>
       </c>
       <c r="D229">
-        <v>-0.05065213280737257</v>
+        <v>0.05072329701350675</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4323,13 +4323,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>6.53</v>
+        <v>6.63</v>
       </c>
       <c r="C230">
-        <v>6.512384699441168</v>
+        <v>6.692243877210228</v>
       </c>
       <c r="D230">
-        <v>-0.0176153005588322</v>
+        <v>0.06224387721022762</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4337,13 +4337,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>6.56</v>
+        <v>6.64</v>
       </c>
       <c r="C231">
-        <v>6.521592358037785</v>
+        <v>6.689041665912242</v>
       </c>
       <c r="D231">
-        <v>-0.03840764196221436</v>
+        <v>0.04904166591224257</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4351,13 +4351,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>6.49</v>
+        <v>6.62</v>
       </c>
       <c r="C232">
-        <v>6.524729055011227</v>
+        <v>6.702652302566364</v>
       </c>
       <c r="D232">
-        <v>0.03472905501122714</v>
+        <v>0.08265230256636347</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4365,13 +4365,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>6.47</v>
+        <v>6.63</v>
       </c>
       <c r="C233">
-        <v>6.493541304974431</v>
+        <v>6.677212217263154</v>
       </c>
       <c r="D233">
-        <v>0.0235413049744313</v>
+        <v>0.04721221726315417</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4379,13 +4379,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>6.45</v>
+        <v>6.63</v>
       </c>
       <c r="C234">
-        <v>6.481237068914406</v>
+        <v>6.669419861409878</v>
       </c>
       <c r="D234">
-        <v>0.0312370689144057</v>
+        <v>0.03941986140987819</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4393,13 +4393,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>6.46</v>
+        <v>6.62</v>
       </c>
       <c r="C235">
-        <v>6.501854051777333</v>
+        <v>6.695008171707356</v>
       </c>
       <c r="D235">
-        <v>0.04185405177733337</v>
+        <v>0.07500817170735541</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4407,13 +4407,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>6.43</v>
+        <v>6.63</v>
       </c>
       <c r="C236">
-        <v>6.492444942127675</v>
+        <v>6.730710937545064</v>
       </c>
       <c r="D236">
-        <v>0.0624449421276756</v>
+        <v>0.1007109375450641</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4421,13 +4421,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>6.4</v>
+        <v>6.61</v>
       </c>
       <c r="C237">
-        <v>6.474297066100855</v>
+        <v>6.707314740359825</v>
       </c>
       <c r="D237">
-        <v>0.07429706610085507</v>
+        <v>0.0973147403598249</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4435,13 +4435,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>6.41</v>
+        <v>6.61</v>
       </c>
       <c r="C238">
-        <v>6.461063438953457</v>
+        <v>6.693414332516314</v>
       </c>
       <c r="D238">
-        <v>0.05106343895345677</v>
+        <v>0.08341433251631347</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4449,13 +4449,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C239">
-        <v>6.450783588739015</v>
+        <v>6.680296964750321</v>
       </c>
       <c r="D239">
-        <v>0.0507835887390149</v>
+        <v>0.08029696475032111</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4463,13 +4463,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>6.37</v>
+        <v>6.59</v>
       </c>
       <c r="C240">
-        <v>6.462752003047036</v>
+        <v>6.703555787867531</v>
       </c>
       <c r="D240">
-        <v>0.09275200304703546</v>
+        <v>0.1135557878675311</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4477,13 +4477,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>6.34</v>
+        <v>6.65</v>
       </c>
       <c r="C241">
-        <v>6.429056540424871</v>
+        <v>6.718469983622413</v>
       </c>
       <c r="D241">
-        <v>0.08905654042487132</v>
+        <v>0.0684699836224123</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4491,13 +4491,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>6.33</v>
+        <v>6.69</v>
       </c>
       <c r="C242">
-        <v>6.44098116954429</v>
+        <v>6.720639101456856</v>
       </c>
       <c r="D242">
-        <v>0.1109811695442895</v>
+        <v>0.03063910145685522</v>
       </c>
     </row>
   </sheetData>

--- a/temp/Yesterdaytest.xlsx
+++ b/temp/Yesterdaytest.xlsx
@@ -28,727 +28,727 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-06-12 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:09:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:14:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:54:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:30:00</t>
+    <t>2019-06-13 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:50:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:01:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:55:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:26:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:13:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:13:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:50:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:38:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 09:30:00</t>
   </si>
 </sst>
 </file>
@@ -1131,13 +1131,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.78</v>
+        <v>6.72</v>
       </c>
       <c r="C2">
-        <v>6.623943486930953</v>
+        <v>6.682184140199012</v>
       </c>
       <c r="D2">
-        <v>-0.1560565130690472</v>
+        <v>-0.03781585980098789</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1145,13 +1145,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.78</v>
+        <v>6.72</v>
       </c>
       <c r="C3">
-        <v>6.628818230608976</v>
+        <v>6.688065198070327</v>
       </c>
       <c r="D3">
-        <v>-0.151181769391024</v>
+        <v>-0.03193480192967257</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1159,13 +1159,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.78</v>
+        <v>6.72</v>
       </c>
       <c r="C4">
-        <v>6.628818230608976</v>
+        <v>6.687993463402855</v>
       </c>
       <c r="D4">
-        <v>-0.151181769391024</v>
+        <v>-0.03200653659714447</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1173,13 +1173,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.79</v>
+        <v>6.72</v>
       </c>
       <c r="C5">
-        <v>6.624404397393297</v>
+        <v>6.690524636568933</v>
       </c>
       <c r="D5">
-        <v>-0.1655956026067029</v>
+        <v>-0.02947536343106627</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1187,13 +1187,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.78</v>
+        <v>6.73</v>
       </c>
       <c r="C6">
-        <v>6.620885670944032</v>
+        <v>6.688550909010002</v>
       </c>
       <c r="D6">
-        <v>-0.159114329055968</v>
+        <v>-0.04144909098999872</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1201,13 +1201,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.78</v>
+        <v>6.73</v>
       </c>
       <c r="C7">
-        <v>6.62255274326205</v>
+        <v>6.693392092295752</v>
       </c>
       <c r="D7">
-        <v>-0.1574472567379503</v>
+        <v>-0.03660790770424871</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1215,13 +1215,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.78</v>
+        <v>6.73</v>
       </c>
       <c r="C8">
-        <v>6.622795848655098</v>
+        <v>6.700922402677903</v>
       </c>
       <c r="D8">
-        <v>-0.1572041513449021</v>
+        <v>-0.02907759732209758</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1229,13 +1229,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.79</v>
+        <v>6.73</v>
       </c>
       <c r="C9">
-        <v>6.631682652519279</v>
+        <v>6.700695890768899</v>
       </c>
       <c r="D9">
-        <v>-0.1583173474807209</v>
+        <v>-0.02930410923110127</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1243,13 +1243,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.79</v>
+        <v>6.73</v>
       </c>
       <c r="C10">
-        <v>6.633901527429954</v>
+        <v>6.700381386359612</v>
       </c>
       <c r="D10">
-        <v>-0.1560984725700463</v>
+        <v>-0.02961861364038842</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1257,13 +1257,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6.8</v>
+        <v>6.73</v>
       </c>
       <c r="C11">
-        <v>6.634309496290184</v>
+        <v>6.694455459951528</v>
       </c>
       <c r="D11">
-        <v>-0.1656905037098158</v>
+        <v>-0.03554454004847241</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1271,13 +1271,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>6.8</v>
+        <v>6.74</v>
       </c>
       <c r="C12">
-        <v>6.632046931158785</v>
+        <v>6.71276617422133</v>
       </c>
       <c r="D12">
-        <v>-0.1679530688412152</v>
+        <v>-0.02723382577867017</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1285,13 +1285,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>6.8</v>
+        <v>6.74</v>
       </c>
       <c r="C13">
-        <v>6.627763143628931</v>
+        <v>6.711761086103945</v>
       </c>
       <c r="D13">
-        <v>-0.172236856371069</v>
+        <v>-0.02823891389605482</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1299,13 +1299,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>6.79</v>
+        <v>6.75</v>
       </c>
       <c r="C14">
-        <v>6.622011341735849</v>
+        <v>6.712063968657795</v>
       </c>
       <c r="D14">
-        <v>-0.167988658264151</v>
+        <v>-0.03793603134220458</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1313,13 +1313,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>6.79</v>
+        <v>6.74</v>
       </c>
       <c r="C15">
-        <v>6.615478019269684</v>
+        <v>6.710906760827602</v>
       </c>
       <c r="D15">
-        <v>-0.174521980730316</v>
+        <v>-0.02909323917239792</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1327,13 +1327,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>6.8</v>
+        <v>6.74</v>
       </c>
       <c r="C16">
-        <v>6.613001598483828</v>
+        <v>6.718092520753424</v>
       </c>
       <c r="D16">
-        <v>-0.1869984015161714</v>
+        <v>-0.02190747924657632</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1341,13 +1341,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>6.8</v>
+        <v>6.74</v>
       </c>
       <c r="C17">
-        <v>6.621401302117532</v>
+        <v>6.724650333616652</v>
       </c>
       <c r="D17">
-        <v>-0.1785986978824683</v>
+        <v>-0.01534966638334812</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1355,13 +1355,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>6.79</v>
+        <v>6.75</v>
       </c>
       <c r="C18">
-        <v>6.619896323215773</v>
+        <v>6.721414688031264</v>
       </c>
       <c r="D18">
-        <v>-0.170103676784227</v>
+        <v>-0.02858531196873582</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1369,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>6.81</v>
+        <v>6.76</v>
       </c>
       <c r="C19">
-        <v>6.619063853414346</v>
+        <v>6.719746664345101</v>
       </c>
       <c r="D19">
-        <v>-0.1909361465856536</v>
+        <v>-0.04025333565489841</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1383,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>6.82</v>
+        <v>6.77</v>
       </c>
       <c r="C20">
-        <v>6.630079620676854</v>
+        <v>6.723970801583358</v>
       </c>
       <c r="D20">
-        <v>-0.1899203793231461</v>
+        <v>-0.04602919841664121</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1397,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>6.81</v>
+        <v>6.75</v>
       </c>
       <c r="C21">
-        <v>6.638014974006275</v>
+        <v>6.720901904052787</v>
       </c>
       <c r="D21">
-        <v>-0.1719850259937248</v>
+        <v>-0.02909809594721313</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1411,13 +1411,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>6.82</v>
+        <v>6.76</v>
       </c>
       <c r="C22">
-        <v>6.636559815337256</v>
+        <v>6.719243744108437</v>
       </c>
       <c r="D22">
-        <v>-0.1834401846627447</v>
+        <v>-0.04075625589156306</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1425,13 +1425,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>6.82</v>
+        <v>6.76</v>
       </c>
       <c r="C23">
-        <v>6.6281582016071</v>
+        <v>6.715250576856024</v>
       </c>
       <c r="D23">
-        <v>-0.1918417983929004</v>
+        <v>-0.04474942314397534</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1439,13 +1439,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>6.82</v>
+        <v>6.76</v>
       </c>
       <c r="C24">
-        <v>6.632616217468906</v>
+        <v>6.716934600547209</v>
       </c>
       <c r="D24">
-        <v>-0.1873837825310947</v>
+        <v>-0.04306539945279031</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>6.82</v>
+        <v>6.75</v>
       </c>
       <c r="C25">
-        <v>6.623787312180806</v>
+        <v>6.712878610014312</v>
       </c>
       <c r="D25">
-        <v>-0.1962126878191945</v>
+        <v>-0.03712138998568815</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1467,13 +1467,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>6.82</v>
+        <v>6.75</v>
       </c>
       <c r="C26">
-        <v>6.61964530108834</v>
+        <v>6.715839619148992</v>
       </c>
       <c r="D26">
-        <v>-0.20035469891166</v>
+        <v>-0.03416038085100848</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1481,13 +1481,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>6.85</v>
+        <v>6.74</v>
       </c>
       <c r="C27">
-        <v>6.639464397376178</v>
+        <v>6.710325084436337</v>
       </c>
       <c r="D27">
-        <v>-0.2105356026238212</v>
+        <v>-0.02967491556366308</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1495,13 +1495,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>6.82</v>
+        <v>6.74</v>
       </c>
       <c r="C28">
-        <v>6.641236051655515</v>
+        <v>6.703783284110886</v>
       </c>
       <c r="D28">
-        <v>-0.1787639483444856</v>
+        <v>-0.03621671588911379</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1509,13 +1509,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>6.83</v>
+        <v>6.73</v>
       </c>
       <c r="C29">
-        <v>6.633462012317104</v>
+        <v>6.697549883297504</v>
       </c>
       <c r="D29">
-        <v>-0.1965379876828965</v>
+        <v>-0.03245011670249642</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1523,13 +1523,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>6.85</v>
+        <v>6.72</v>
       </c>
       <c r="C30">
-        <v>6.637497329260807</v>
+        <v>6.690556373285319</v>
       </c>
       <c r="D30">
-        <v>-0.2125026707391928</v>
+        <v>-0.0294436267146807</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1537,13 +1537,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>6.81</v>
+        <v>6.71</v>
       </c>
       <c r="C31">
-        <v>6.642319964573794</v>
+        <v>6.692377239944439</v>
       </c>
       <c r="D31">
-        <v>-0.1676800354262058</v>
+        <v>-0.01762276005556096</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1551,13 +1551,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>6.79</v>
+        <v>6.71</v>
       </c>
       <c r="C32">
-        <v>6.631418231152649</v>
+        <v>6.688218185729704</v>
       </c>
       <c r="D32">
-        <v>-0.158581768847351</v>
+        <v>-0.02178181427029635</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1565,13 +1565,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>6.8</v>
+        <v>6.72</v>
       </c>
       <c r="C33">
-        <v>6.628294510824011</v>
+        <v>6.680449796875259</v>
       </c>
       <c r="D33">
-        <v>-0.1717054891759888</v>
+        <v>-0.03955020312474034</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1579,13 +1579,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>6.78</v>
+        <v>6.72</v>
       </c>
       <c r="C34">
-        <v>6.628347942464135</v>
+        <v>6.680555756984643</v>
       </c>
       <c r="D34">
-        <v>-0.1516520575358653</v>
+        <v>-0.03944424301535676</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1593,13 +1593,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>6.78</v>
+        <v>6.73</v>
       </c>
       <c r="C35">
-        <v>6.62401978469796</v>
+        <v>6.680411440006227</v>
       </c>
       <c r="D35">
-        <v>-0.1559802153020398</v>
+        <v>-0.0495885599937731</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1607,13 +1607,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>6.78</v>
+        <v>6.72</v>
       </c>
       <c r="C36">
-        <v>6.629698680325683</v>
+        <v>6.679002814626632</v>
       </c>
       <c r="D36">
-        <v>-0.150301319674317</v>
+        <v>-0.04099718537336727</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1621,13 +1621,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>6.78</v>
+        <v>6.72</v>
       </c>
       <c r="C37">
-        <v>6.633043354796419</v>
+        <v>6.676929866818566</v>
       </c>
       <c r="D37">
-        <v>-0.1469566452035815</v>
+        <v>-0.04307013318143404</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1635,13 +1635,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>6.76</v>
+        <v>6.71</v>
       </c>
       <c r="C38">
-        <v>6.636877288446099</v>
+        <v>6.682219007279081</v>
       </c>
       <c r="D38">
-        <v>-0.1231227115539006</v>
+        <v>-0.02778099272091872</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1649,13 +1649,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>6.75</v>
+        <v>6.71</v>
       </c>
       <c r="C39">
-        <v>6.636838154842895</v>
+        <v>6.682150756931938</v>
       </c>
       <c r="D39">
-        <v>-0.113161845157105</v>
+        <v>-0.02784924306806147</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1663,13 +1663,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>6.74</v>
+        <v>6.72</v>
       </c>
       <c r="C40">
-        <v>6.622459221491168</v>
+        <v>6.676909794230352</v>
       </c>
       <c r="D40">
-        <v>-0.1175407785088325</v>
+        <v>-0.04309020576964784</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1677,13 +1677,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>6.74</v>
+        <v>6.72</v>
       </c>
       <c r="C41">
-        <v>6.633162628831878</v>
+        <v>6.677557916786873</v>
       </c>
       <c r="D41">
-        <v>-0.1068373711681225</v>
+        <v>-0.04244208321312648</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1691,13 +1691,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>6.74</v>
+        <v>6.72</v>
       </c>
       <c r="C42">
-        <v>6.624346557852649</v>
+        <v>6.677347739014523</v>
       </c>
       <c r="D42">
-        <v>-0.1156534421473516</v>
+        <v>-0.04265226098547714</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1705,13 +1705,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>6.75</v>
+        <v>6.71</v>
       </c>
       <c r="C43">
-        <v>6.619583670058134</v>
+        <v>6.675175303578272</v>
       </c>
       <c r="D43">
-        <v>-0.1304163299418661</v>
+        <v>-0.03482469642172781</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1719,13 +1719,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>6.75</v>
+        <v>6.72</v>
       </c>
       <c r="C44">
-        <v>6.633703607911324</v>
+        <v>6.682140227642685</v>
       </c>
       <c r="D44">
-        <v>-0.1162963920886764</v>
+        <v>-0.03785977235731508</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1733,13 +1733,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>6.76</v>
+        <v>6.72</v>
       </c>
       <c r="C45">
-        <v>6.646234215659055</v>
+        <v>6.685046507593126</v>
       </c>
       <c r="D45">
-        <v>-0.113765784340945</v>
+        <v>-0.03495349240687418</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1747,13 +1747,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>6.75</v>
+        <v>6.72</v>
       </c>
       <c r="C46">
-        <v>6.644940815252374</v>
+        <v>6.690657924904268</v>
       </c>
       <c r="D46">
-        <v>-0.1050591847476259</v>
+        <v>-0.02934207509573206</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1761,13 +1761,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>6.76</v>
+        <v>6.72</v>
       </c>
       <c r="C47">
-        <v>6.64846547061504</v>
+        <v>6.692825745695354</v>
       </c>
       <c r="D47">
-        <v>-0.1115345293849597</v>
+        <v>-0.02717425430464537</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1775,13 +1775,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>6.77</v>
+        <v>6.72</v>
       </c>
       <c r="C48">
-        <v>6.648551287133147</v>
+        <v>6.689797492107105</v>
       </c>
       <c r="D48">
-        <v>-0.1214487128668527</v>
+        <v>-0.03020250789289491</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1789,13 +1789,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>6.77</v>
+        <v>6.73</v>
       </c>
       <c r="C49">
-        <v>6.645677526376295</v>
+        <v>6.690031626028872</v>
       </c>
       <c r="D49">
-        <v>-0.124322473623705</v>
+        <v>-0.03996837397112873</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1803,13 +1803,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>6.78</v>
+        <v>6.73</v>
       </c>
       <c r="C50">
-        <v>6.643652417408578</v>
+        <v>6.690720611435855</v>
       </c>
       <c r="D50">
-        <v>-0.136347582591422</v>
+        <v>-0.03927938856414581</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1817,13 +1817,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>6.79</v>
+        <v>6.73</v>
       </c>
       <c r="C51">
-        <v>6.649556925280422</v>
+        <v>6.69039512682938</v>
       </c>
       <c r="D51">
-        <v>-0.1404430747195784</v>
+        <v>-0.03960487317062</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1831,13 +1831,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>6.79</v>
+        <v>6.74</v>
       </c>
       <c r="C52">
-        <v>6.650477979136957</v>
+        <v>6.690320622379743</v>
       </c>
       <c r="D52">
-        <v>-0.1395220208630432</v>
+        <v>-0.04967937762025709</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1845,13 +1845,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>6.79</v>
+        <v>6.74</v>
       </c>
       <c r="C53">
-        <v>6.659559958661351</v>
+        <v>6.69302511895656</v>
       </c>
       <c r="D53">
-        <v>-0.1304400413386491</v>
+        <v>-0.0469748810434405</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1859,13 +1859,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>6.79</v>
+        <v>6.74</v>
       </c>
       <c r="C54">
-        <v>6.651979611327006</v>
+        <v>6.69669717656316</v>
       </c>
       <c r="D54">
-        <v>-0.1380203886729943</v>
+        <v>-0.04330282343684022</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1873,13 +1873,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>6.78</v>
+        <v>6.74</v>
       </c>
       <c r="C55">
-        <v>6.646806351730163</v>
+        <v>6.697156575515472</v>
       </c>
       <c r="D55">
-        <v>-0.1331936482698373</v>
+        <v>-0.04284342448452794</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1887,13 +1887,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>6.76</v>
+        <v>6.75</v>
       </c>
       <c r="C56">
-        <v>6.642907603307322</v>
+        <v>6.699538678799263</v>
       </c>
       <c r="D56">
-        <v>-0.1170923966926782</v>
+        <v>-0.05046132120073654</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1901,13 +1901,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>6.75</v>
+        <v>6.74</v>
       </c>
       <c r="C57">
-        <v>6.63870631949208</v>
+        <v>6.703463536133635</v>
       </c>
       <c r="D57">
-        <v>-0.1112936805079201</v>
+        <v>-0.03653646386636478</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1918,10 +1918,10 @@
         <v>6.75</v>
       </c>
       <c r="C58">
-        <v>6.639424115120315</v>
+        <v>6.70919824543632</v>
       </c>
       <c r="D58">
-        <v>-0.1105758848796849</v>
+        <v>-0.04080175456368007</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1932,10 +1932,10 @@
         <v>6.77</v>
       </c>
       <c r="C59">
-        <v>6.63375210232911</v>
+        <v>6.712202479542372</v>
       </c>
       <c r="D59">
-        <v>-0.1362478976708896</v>
+        <v>-0.05779752045762709</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1943,13 +1943,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>6.77</v>
+        <v>6.75</v>
       </c>
       <c r="C60">
-        <v>6.63883951894435</v>
+        <v>6.708874991692288</v>
       </c>
       <c r="D60">
-        <v>-0.1311604810556499</v>
+        <v>-0.04112500830771193</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1957,13 +1957,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>6.79</v>
+        <v>6.74</v>
       </c>
       <c r="C61">
-        <v>6.642035514112644</v>
+        <v>6.695224161404906</v>
       </c>
       <c r="D61">
-        <v>-0.1479644858873561</v>
+        <v>-0.04477583859509426</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1971,13 +1971,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>6.78</v>
+        <v>6.74</v>
       </c>
       <c r="C62">
-        <v>6.650060242388941</v>
+        <v>6.694736633976754</v>
       </c>
       <c r="D62">
-        <v>-0.1299397576110595</v>
+        <v>-0.04526336602324665</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1985,13 +1985,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>6.77</v>
+        <v>6.74</v>
       </c>
       <c r="C63">
-        <v>6.647468284441969</v>
+        <v>6.691500194432193</v>
       </c>
       <c r="D63">
-        <v>-0.122531715558031</v>
+        <v>-0.04849980556780675</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1999,13 +1999,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>6.76</v>
+        <v>6.75</v>
       </c>
       <c r="C64">
-        <v>6.643883107957203</v>
+        <v>6.693045250002966</v>
       </c>
       <c r="D64">
-        <v>-0.1161168920427968</v>
+        <v>-0.05695474999703354</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2013,13 +2013,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>6.76</v>
+        <v>6.75</v>
       </c>
       <c r="C65">
-        <v>6.638842987576087</v>
+        <v>6.689697124336445</v>
       </c>
       <c r="D65">
-        <v>-0.1211570124239127</v>
+        <v>-0.06030287566355508</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2027,13 +2027,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>6.76</v>
+        <v>6.74</v>
       </c>
       <c r="C66">
-        <v>6.635753936340064</v>
+        <v>6.687071863765342</v>
       </c>
       <c r="D66">
-        <v>-0.1242460636599354</v>
+        <v>-0.05292813623465786</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2041,13 +2041,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>6.77</v>
+        <v>6.75</v>
       </c>
       <c r="C67">
-        <v>6.642415692856662</v>
+        <v>6.695318909084929</v>
       </c>
       <c r="D67">
-        <v>-0.1275843071433371</v>
+        <v>-0.05468109091507056</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2055,13 +2055,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>6.77</v>
+        <v>6.76</v>
       </c>
       <c r="C68">
-        <v>6.641769479886914</v>
+        <v>6.691810972202471</v>
       </c>
       <c r="D68">
-        <v>-0.1282305201130853</v>
+        <v>-0.068189027797529</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2069,13 +2069,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>6.78</v>
+        <v>6.76</v>
       </c>
       <c r="C69">
-        <v>6.645114731995568</v>
+        <v>6.695792624473609</v>
       </c>
       <c r="D69">
-        <v>-0.1348852680044326</v>
+        <v>-0.064207375526391</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2083,13 +2083,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>6.78</v>
+        <v>6.76</v>
       </c>
       <c r="C70">
-        <v>6.641880714596772</v>
+        <v>6.697234467211906</v>
       </c>
       <c r="D70">
-        <v>-0.1381192854032287</v>
+        <v>-0.06276553278809427</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2097,13 +2097,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>6.77</v>
+        <v>6.78</v>
       </c>
       <c r="C71">
-        <v>6.633602659838516</v>
+        <v>6.709664070211269</v>
       </c>
       <c r="D71">
-        <v>-0.1363973401614835</v>
+        <v>-0.07033592978873138</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2114,10 +2114,10 @@
         <v>6.78</v>
       </c>
       <c r="C72">
-        <v>6.637404710764557</v>
+        <v>6.713455710743907</v>
       </c>
       <c r="D72">
-        <v>-0.1425952892354436</v>
+        <v>-0.06654428925609324</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2125,13 +2125,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>6.78</v>
+        <v>6.77</v>
       </c>
       <c r="C73">
-        <v>6.634948626771607</v>
+        <v>6.707254110467839</v>
       </c>
       <c r="D73">
-        <v>-0.1450513732283936</v>
+        <v>-0.06274588953216043</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>6.77</v>
+        <v>6.74</v>
       </c>
       <c r="C74">
-        <v>6.631910937471797</v>
+        <v>6.701839907213164</v>
       </c>
       <c r="D74">
-        <v>-0.1380890625282021</v>
+        <v>-0.03816009278683641</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2153,13 +2153,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>6.75</v>
+        <v>6.73</v>
       </c>
       <c r="C75">
-        <v>6.633559886286635</v>
+        <v>6.698114659963534</v>
       </c>
       <c r="D75">
-        <v>-0.1164401137133648</v>
+        <v>-0.03188534003646648</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2167,13 +2167,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>6.75</v>
+        <v>6.73</v>
       </c>
       <c r="C76">
-        <v>6.636303927781034</v>
+        <v>6.694184740215921</v>
       </c>
       <c r="D76">
-        <v>-0.1136960722189659</v>
+        <v>-0.03581525978407907</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2181,13 +2181,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>6.74</v>
+        <v>6.73</v>
       </c>
       <c r="C77">
-        <v>6.630057887980337</v>
+        <v>6.698851480099061</v>
       </c>
       <c r="D77">
-        <v>-0.1099421120196631</v>
+        <v>-0.03114851990093914</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2198,10 +2198,10 @@
         <v>6.74</v>
       </c>
       <c r="C78">
-        <v>6.635305615822723</v>
+        <v>6.693198125462378</v>
       </c>
       <c r="D78">
-        <v>-0.1046943841772769</v>
+        <v>-0.04680187453762219</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2209,13 +2209,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>6.74</v>
+        <v>6.73</v>
       </c>
       <c r="C79">
-        <v>6.621204404353655</v>
+        <v>6.696707623207204</v>
       </c>
       <c r="D79">
-        <v>-0.1187955956463451</v>
+        <v>-0.0332923767927964</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2226,10 +2226,10 @@
         <v>6.74</v>
       </c>
       <c r="C80">
-        <v>6.625076694088742</v>
+        <v>6.701056928293313</v>
       </c>
       <c r="D80">
-        <v>-0.1149233059112582</v>
+        <v>-0.03894307170668743</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2240,10 +2240,10 @@
         <v>6.73</v>
       </c>
       <c r="C81">
-        <v>6.61479669805119</v>
+        <v>6.691986478421373</v>
       </c>
       <c r="D81">
-        <v>-0.1152033019488101</v>
+        <v>-0.0380135215786277</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2251,13 +2251,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>6.75</v>
+        <v>6.74</v>
       </c>
       <c r="C82">
-        <v>6.61530177958743</v>
+        <v>6.69458667648368</v>
       </c>
       <c r="D82">
-        <v>-0.1346982204125702</v>
+        <v>-0.04541332351632033</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2265,13 +2265,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>6.77</v>
+        <v>6.73</v>
       </c>
       <c r="C83">
-        <v>6.615909379132766</v>
+        <v>6.701839863507</v>
       </c>
       <c r="D83">
-        <v>-0.1540906208672332</v>
+        <v>-0.02816013649300064</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2279,13 +2279,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>6.76</v>
+        <v>6.74</v>
       </c>
       <c r="C84">
-        <v>6.624475498290392</v>
+        <v>6.705701559054806</v>
       </c>
       <c r="D84">
-        <v>-0.1355245017096074</v>
+        <v>-0.03429844094519385</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2293,13 +2293,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>6.75</v>
+        <v>6.71</v>
       </c>
       <c r="C85">
-        <v>6.623352427755501</v>
+        <v>6.699988126103592</v>
       </c>
       <c r="D85">
-        <v>-0.1266475722444991</v>
+        <v>-0.01001187389640812</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2307,13 +2307,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>6.76</v>
+        <v>6.72</v>
       </c>
       <c r="C86">
-        <v>6.621138665918986</v>
+        <v>6.696058270826364</v>
       </c>
       <c r="D86">
-        <v>-0.1388613340810139</v>
+        <v>-0.02394172917363591</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2321,13 +2321,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>6.75</v>
+        <v>6.7</v>
       </c>
       <c r="C87">
-        <v>6.603800731967345</v>
+        <v>6.697401366844303</v>
       </c>
       <c r="D87">
-        <v>-0.1461992680326549</v>
+        <v>-0.002598633155697527</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2335,13 +2335,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>6.73</v>
+        <v>6.7</v>
       </c>
       <c r="C88">
-        <v>6.614605167896819</v>
+        <v>6.684844282127021</v>
       </c>
       <c r="D88">
-        <v>-0.1153948321031812</v>
+        <v>-0.01515571787297887</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2349,13 +2349,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>6.72</v>
+        <v>6.69</v>
       </c>
       <c r="C89">
-        <v>6.618552032083254</v>
+        <v>6.681215102498752</v>
       </c>
       <c r="D89">
-        <v>-0.1014479679167453</v>
+        <v>-0.008784897501248778</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2363,13 +2363,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>6.72</v>
+        <v>6.7</v>
       </c>
       <c r="C90">
-        <v>6.611579880817182</v>
+        <v>6.685347288527592</v>
       </c>
       <c r="D90">
-        <v>-0.108420119182818</v>
+        <v>-0.01465271147240799</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2377,13 +2377,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>6.72</v>
+        <v>6.7</v>
       </c>
       <c r="C91">
-        <v>6.609523942816455</v>
+        <v>6.674094616435236</v>
       </c>
       <c r="D91">
-        <v>-0.1104760571835444</v>
+        <v>-0.0259053835647638</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2391,13 +2391,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>6.71</v>
+        <v>6.7</v>
       </c>
       <c r="C92">
-        <v>6.611285774315023</v>
+        <v>6.677101226834723</v>
       </c>
       <c r="D92">
-        <v>-0.09871422568497668</v>
+        <v>-0.02289877316527722</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2408,10 +2408,10 @@
         <v>6.7</v>
       </c>
       <c r="C93">
-        <v>6.601701144082888</v>
+        <v>6.678903640009099</v>
       </c>
       <c r="D93">
-        <v>-0.09829885591711207</v>
+        <v>-0.02109635999090109</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2419,13 +2419,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>6.7</v>
+        <v>6.69</v>
       </c>
       <c r="C94">
-        <v>6.604505249227955</v>
+        <v>6.67624057310774</v>
       </c>
       <c r="D94">
-        <v>-0.09549475077204495</v>
+        <v>-0.01375942689226051</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2433,13 +2433,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>6.69</v>
+        <v>6.71</v>
       </c>
       <c r="C95">
-        <v>6.613364159347681</v>
+        <v>6.673346551543852</v>
       </c>
       <c r="D95">
-        <v>-0.07663584065231976</v>
+        <v>-0.03665344845614804</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2447,13 +2447,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>6.7</v>
+        <v>6.71</v>
       </c>
       <c r="C96">
-        <v>6.617648705065751</v>
+        <v>6.689359034102648</v>
       </c>
       <c r="D96">
-        <v>-0.08235129493424953</v>
+        <v>-0.02064096589735165</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2461,13 +2461,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>6.71</v>
+        <v>6.69</v>
       </c>
       <c r="C97">
-        <v>6.627656015146746</v>
+        <v>6.68357256775779</v>
       </c>
       <c r="D97">
-        <v>-0.08234398485325389</v>
+        <v>-0.006427432242210429</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2475,13 +2475,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>6.72</v>
+        <v>6.69</v>
       </c>
       <c r="C98">
-        <v>6.631749573219173</v>
+        <v>6.681810033037991</v>
       </c>
       <c r="D98">
-        <v>-0.08825042678082706</v>
+        <v>-0.00818996696200891</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2489,13 +2489,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>6.72</v>
+        <v>6.69</v>
       </c>
       <c r="C99">
-        <v>6.644187990942051</v>
+        <v>6.678107909002526</v>
       </c>
       <c r="D99">
-        <v>-0.07581200905794905</v>
+        <v>-0.01189209099747401</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2503,13 +2503,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>6.73</v>
+        <v>6.71</v>
       </c>
       <c r="C100">
-        <v>6.637897836132247</v>
+        <v>6.679558582785785</v>
       </c>
       <c r="D100">
-        <v>-0.09210216386775372</v>
+        <v>-0.03044141721421489</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2517,13 +2517,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>6.74</v>
+        <v>6.71</v>
       </c>
       <c r="C101">
-        <v>6.634384060036041</v>
+        <v>6.675205987190961</v>
       </c>
       <c r="D101">
-        <v>-0.1056159399639593</v>
+        <v>-0.03479401280903893</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2531,13 +2531,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>6.74</v>
+        <v>6.71</v>
       </c>
       <c r="C102">
-        <v>6.641822817882234</v>
+        <v>6.67508228190601</v>
       </c>
       <c r="D102">
-        <v>-0.09817718211776594</v>
+        <v>-0.03491771809398969</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2545,13 +2545,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>6.74</v>
+        <v>6.71</v>
       </c>
       <c r="C103">
-        <v>6.64455755388488</v>
+        <v>6.667490617053168</v>
       </c>
       <c r="D103">
-        <v>-0.09544244611512021</v>
+        <v>-0.04250938294683237</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2559,13 +2559,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>6.73</v>
+        <v>6.72</v>
       </c>
       <c r="C104">
-        <v>6.634604394744175</v>
+        <v>6.67268685497658</v>
       </c>
       <c r="D104">
-        <v>-0.0953956052558258</v>
+        <v>-0.04731314502341988</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2573,13 +2573,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>6.74</v>
+        <v>6.71</v>
       </c>
       <c r="C105">
-        <v>6.628407317114911</v>
+        <v>6.670274761169847</v>
       </c>
       <c r="D105">
-        <v>-0.1115926828850888</v>
+        <v>-0.03972523883015278</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2587,13 +2587,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>6.74</v>
+        <v>6.7</v>
       </c>
       <c r="C106">
-        <v>6.640930240765524</v>
+        <v>6.670263181731648</v>
       </c>
       <c r="D106">
-        <v>-0.09906975923447625</v>
+        <v>-0.02973681826835239</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2601,13 +2601,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>6.74</v>
+        <v>6.7</v>
       </c>
       <c r="C107">
-        <v>6.63245164672945</v>
+        <v>6.684560784512823</v>
       </c>
       <c r="D107">
-        <v>-0.1075483532705501</v>
+        <v>-0.01543921548717719</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2615,13 +2615,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>6.73</v>
+        <v>6.72</v>
       </c>
       <c r="C108">
-        <v>6.625068584689815</v>
+        <v>6.689631231468753</v>
       </c>
       <c r="D108">
-        <v>-0.104931415310185</v>
+        <v>-0.03036876853124681</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2629,13 +2629,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>6.74</v>
+        <v>6.73</v>
       </c>
       <c r="C109">
-        <v>6.635789892219231</v>
+        <v>6.694960908710825</v>
       </c>
       <c r="D109">
-        <v>-0.1042101077807693</v>
+        <v>-0.03503909128917559</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2646,10 +2646,10 @@
         <v>6.73</v>
       </c>
       <c r="C110">
-        <v>6.61919346423227</v>
+        <v>6.70235763354743</v>
       </c>
       <c r="D110">
-        <v>-0.1108065357677308</v>
+        <v>-0.02764236645257068</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2657,13 +2657,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>6.73</v>
+        <v>6.74</v>
       </c>
       <c r="C111">
-        <v>6.631082405619596</v>
+        <v>6.706871491721723</v>
       </c>
       <c r="D111">
-        <v>-0.09891759438040459</v>
+        <v>-0.03312850827827685</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2674,10 +2674,10 @@
         <v>6.75</v>
       </c>
       <c r="C112">
-        <v>6.651994477082365</v>
+        <v>6.70448787951229</v>
       </c>
       <c r="D112">
-        <v>-0.09800552291763509</v>
+        <v>-0.04551212048771003</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2685,13 +2685,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>6.76</v>
+        <v>6.75</v>
       </c>
       <c r="C113">
-        <v>6.636750494839381</v>
+        <v>6.700125090979939</v>
       </c>
       <c r="D113">
-        <v>-0.1232495051606186</v>
+        <v>-0.04987490902006098</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2699,13 +2699,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>6.76</v>
+        <v>6.74</v>
       </c>
       <c r="C114">
-        <v>6.647266443863989</v>
+        <v>6.702842021484881</v>
       </c>
       <c r="D114">
-        <v>-0.1127335561360105</v>
+        <v>-0.03715797851511926</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2713,13 +2713,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>6.76</v>
+        <v>6.74</v>
       </c>
       <c r="C115">
-        <v>6.632873332422164</v>
+        <v>6.7018198795352</v>
       </c>
       <c r="D115">
-        <v>-0.1271266675778353</v>
+        <v>-0.03818012046480046</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2727,13 +2727,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>6.79</v>
+        <v>6.74</v>
       </c>
       <c r="C116">
-        <v>6.643288897876541</v>
+        <v>6.702269518256736</v>
       </c>
       <c r="D116">
-        <v>-0.1467111021234588</v>
+        <v>-0.03773048174326465</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2741,13 +2741,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>6.78</v>
+        <v>6.75</v>
       </c>
       <c r="C117">
-        <v>6.637386429550192</v>
+        <v>6.695767363091842</v>
       </c>
       <c r="D117">
-        <v>-0.1426135704498082</v>
+        <v>-0.05423263690815805</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2755,13 +2755,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>6.78</v>
+        <v>6.74</v>
       </c>
       <c r="C118">
-        <v>6.62761368437344</v>
+        <v>6.702194502787557</v>
       </c>
       <c r="D118">
-        <v>-0.1523863156265604</v>
+        <v>-0.03780549721244331</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2769,13 +2769,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>6.79</v>
+        <v>6.74</v>
       </c>
       <c r="C119">
-        <v>6.639654704438598</v>
+        <v>6.694729784617832</v>
       </c>
       <c r="D119">
-        <v>-0.1503452955614017</v>
+        <v>-0.04527021538216847</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2783,13 +2783,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>6.79</v>
+        <v>6.75</v>
       </c>
       <c r="C120">
-        <v>6.643548675018222</v>
+        <v>6.699820951512897</v>
       </c>
       <c r="D120">
-        <v>-0.1464513249817783</v>
+        <v>-0.05017904848710319</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2797,13 +2797,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>6.79</v>
+        <v>6.74</v>
       </c>
       <c r="C121">
-        <v>6.648226548168756</v>
+        <v>6.684773276072002</v>
       </c>
       <c r="D121">
-        <v>-0.1417734518312441</v>
+        <v>-0.05522672392799866</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2811,13 +2811,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>6.8</v>
+        <v>6.73</v>
       </c>
       <c r="C122">
-        <v>6.650073817242607</v>
+        <v>6.670587776290518</v>
       </c>
       <c r="D122">
-        <v>-0.149926182757393</v>
+        <v>-0.05941222370948207</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2825,13 +2825,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>6.8</v>
+        <v>6.73</v>
       </c>
       <c r="C123">
-        <v>6.650452064435317</v>
+        <v>6.65904211581348</v>
       </c>
       <c r="D123">
-        <v>-0.1495479355646827</v>
+        <v>-0.07095788418652038</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2839,13 +2839,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>6.79</v>
+        <v>6.73</v>
       </c>
       <c r="C124">
-        <v>6.643607662827581</v>
+        <v>6.665010598182646</v>
       </c>
       <c r="D124">
-        <v>-0.1463923371724194</v>
+        <v>-0.06498940181735424</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2853,13 +2853,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>6.79</v>
+        <v>6.73</v>
       </c>
       <c r="C125">
-        <v>6.645548703789668</v>
+        <v>6.657152153863458</v>
       </c>
       <c r="D125">
-        <v>-0.1444512962103319</v>
+        <v>-0.07284784613654249</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2867,13 +2867,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>6.8</v>
+        <v>6.71</v>
       </c>
       <c r="C126">
-        <v>6.644663882606574</v>
+        <v>6.633428466553593</v>
       </c>
       <c r="D126">
-        <v>-0.1553361173934258</v>
+        <v>-0.07657153344640655</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2881,13 +2881,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>6.81</v>
+        <v>6.7</v>
       </c>
       <c r="C127">
-        <v>6.639689779417335</v>
+        <v>6.633038823976139</v>
       </c>
       <c r="D127">
-        <v>-0.1703102205826648</v>
+        <v>-0.06696117602386131</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2895,13 +2895,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>6.81</v>
+        <v>6.69</v>
       </c>
       <c r="C128">
-        <v>6.643359480335848</v>
+        <v>6.639310984653116</v>
       </c>
       <c r="D128">
-        <v>-0.1666405196641518</v>
+        <v>-0.05068901534688486</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2909,13 +2909,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>6.84</v>
+        <v>6.69</v>
       </c>
       <c r="C129">
-        <v>6.647280144718133</v>
+        <v>6.641944421587287</v>
       </c>
       <c r="D129">
-        <v>-0.192719855281867</v>
+        <v>-0.04805557841271302</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2923,13 +2923,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>6.83</v>
+        <v>6.68</v>
       </c>
       <c r="C130">
-        <v>6.646332676202709</v>
+        <v>6.640998668074073</v>
       </c>
       <c r="D130">
-        <v>-0.183667323797291</v>
+        <v>-0.03900133192592659</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2937,13 +2937,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>6.82</v>
+        <v>6.68</v>
       </c>
       <c r="C131">
-        <v>6.644604071405537</v>
+        <v>6.647808764419177</v>
       </c>
       <c r="D131">
-        <v>-0.1753959285944635</v>
+        <v>-0.03219123558082249</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2951,13 +2951,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>6.8</v>
+        <v>6.68</v>
       </c>
       <c r="C132">
-        <v>6.640084850567305</v>
+        <v>6.633469303922531</v>
       </c>
       <c r="D132">
-        <v>-0.1599151494326945</v>
+        <v>-0.04653069607746918</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2965,13 +2965,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>6.81</v>
+        <v>6.68</v>
       </c>
       <c r="C133">
-        <v>6.645248213818546</v>
+        <v>6.641712881483577</v>
       </c>
       <c r="D133">
-        <v>-0.164751786181454</v>
+        <v>-0.03828711851642286</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2979,13 +2979,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>6.79</v>
+        <v>6.68</v>
       </c>
       <c r="C134">
-        <v>6.653163230308717</v>
+        <v>6.626281207246362</v>
       </c>
       <c r="D134">
-        <v>-0.1368367696912829</v>
+        <v>-0.05371879275363778</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2993,13 +2993,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>6.83</v>
+        <v>6.69</v>
       </c>
       <c r="C135">
-        <v>6.651316149227178</v>
+        <v>6.642202731775087</v>
       </c>
       <c r="D135">
-        <v>-0.1786838507728223</v>
+        <v>-0.04779726822491348</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3007,13 +3007,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>6.84</v>
+        <v>6.7</v>
       </c>
       <c r="C136">
-        <v>6.645089075910507</v>
+        <v>6.638461490240178</v>
       </c>
       <c r="D136">
-        <v>-0.1949109240894931</v>
+        <v>-0.06153850975982245</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3021,13 +3021,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>6.84</v>
+        <v>6.7</v>
       </c>
       <c r="C137">
-        <v>6.645867484645496</v>
+        <v>6.640892341112317</v>
       </c>
       <c r="D137">
-        <v>-0.1941325153545037</v>
+        <v>-0.0591076588876831</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3035,13 +3035,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>6.85</v>
+        <v>6.7</v>
       </c>
       <c r="C138">
-        <v>6.654428093478376</v>
+        <v>6.629887897641876</v>
       </c>
       <c r="D138">
-        <v>-0.1955719065216233</v>
+        <v>-0.07011210235812371</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3049,13 +3049,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C139">
-        <v>6.643095217383886</v>
+        <v>6.636057534644636</v>
       </c>
       <c r="D139">
-        <v>-0.1569047826161141</v>
+        <v>-0.06394246535536396</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3063,13 +3063,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>6.76</v>
+        <v>6.71</v>
       </c>
       <c r="C140">
-        <v>6.642932268073537</v>
+        <v>6.635879482003129</v>
       </c>
       <c r="D140">
-        <v>-0.117067731926463</v>
+        <v>-0.07412051799687092</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3077,13 +3077,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>6.73</v>
+        <v>6.7</v>
       </c>
       <c r="C141">
-        <v>6.649851010473876</v>
+        <v>6.630319842904655</v>
       </c>
       <c r="D141">
-        <v>-0.08014898952612448</v>
+        <v>-0.0696801570953447</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3091,13 +3091,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>6.71</v>
+        <v>6.7</v>
       </c>
       <c r="C142">
-        <v>6.63614607511666</v>
+        <v>6.626412956377183</v>
       </c>
       <c r="D142">
-        <v>-0.07385392488334031</v>
+        <v>-0.07358704362281721</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3105,13 +3105,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>6.73</v>
+        <v>6.69</v>
       </c>
       <c r="C143">
-        <v>6.636567159883635</v>
+        <v>6.618925818979672</v>
       </c>
       <c r="D143">
-        <v>-0.09343284011636577</v>
+        <v>-0.07107418102032881</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3119,13 +3119,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>6.73</v>
+        <v>6.7</v>
       </c>
       <c r="C144">
-        <v>6.642706458298344</v>
+        <v>6.620248747206424</v>
       </c>
       <c r="D144">
-        <v>-0.08729354170165671</v>
+        <v>-0.0797512527935762</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3136,10 +3136,10 @@
         <v>6.7</v>
       </c>
       <c r="C145">
-        <v>6.638576730801995</v>
+        <v>6.626277269669813</v>
       </c>
       <c r="D145">
-        <v>-0.06142326919800478</v>
+        <v>-0.0737227303301875</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3147,13 +3147,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>6.69</v>
+        <v>6.72</v>
       </c>
       <c r="C146">
-        <v>6.644817096066609</v>
+        <v>6.627761599076611</v>
       </c>
       <c r="D146">
-        <v>-0.04518290393339175</v>
+        <v>-0.09223840092338875</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3161,13 +3161,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>6.68</v>
+        <v>6.73</v>
       </c>
       <c r="C147">
-        <v>6.64904510268666</v>
+        <v>6.630898520099209</v>
       </c>
       <c r="D147">
-        <v>-0.03095489731333956</v>
+        <v>-0.09910147990079121</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3175,13 +3175,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>6.68</v>
+        <v>6.72</v>
       </c>
       <c r="C148">
-        <v>6.639820807312267</v>
+        <v>6.631834412756914</v>
       </c>
       <c r="D148">
-        <v>-0.04017919268773262</v>
+        <v>-0.08816558724308621</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3189,13 +3189,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>6.66</v>
+        <v>6.73</v>
       </c>
       <c r="C149">
-        <v>6.640530898966819</v>
+        <v>6.621154619972059</v>
       </c>
       <c r="D149">
-        <v>-0.01946910103318089</v>
+        <v>-0.1088453800279412</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3203,13 +3203,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>6.65</v>
+        <v>6.72</v>
       </c>
       <c r="C150">
-        <v>6.631022486479877</v>
+        <v>6.633105565728004</v>
       </c>
       <c r="D150">
-        <v>-0.01897751352012378</v>
+        <v>-0.08689443427199528</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3217,13 +3217,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>6.65</v>
+        <v>6.73</v>
       </c>
       <c r="C151">
-        <v>6.628855198118275</v>
+        <v>6.635699720853135</v>
       </c>
       <c r="D151">
-        <v>-0.02114480188172507</v>
+        <v>-0.09430027914686523</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3231,13 +3231,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>6.65</v>
+        <v>6.74</v>
       </c>
       <c r="C152">
-        <v>6.627829722778706</v>
+        <v>6.63906032969408</v>
       </c>
       <c r="D152">
-        <v>-0.02217027722129394</v>
+        <v>-0.1009396703059204</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3245,13 +3245,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>6.65</v>
+        <v>6.73</v>
       </c>
       <c r="C153">
-        <v>6.622187876304796</v>
+        <v>6.642549392527882</v>
       </c>
       <c r="D153">
-        <v>-0.02781212369520425</v>
+        <v>-0.08745060747211841</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3259,13 +3259,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>6.65</v>
+        <v>6.73</v>
       </c>
       <c r="C154">
-        <v>6.627511908825063</v>
+        <v>6.644035136530738</v>
       </c>
       <c r="D154">
-        <v>-0.022488091174937</v>
+        <v>-0.08596486346926202</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3273,13 +3273,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>6.67</v>
+        <v>6.72</v>
       </c>
       <c r="C155">
-        <v>6.628359813831777</v>
+        <v>6.64353626839259</v>
       </c>
       <c r="D155">
-        <v>-0.04164018616822318</v>
+        <v>-0.07646373160740971</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3287,13 +3287,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>6.68</v>
+        <v>6.71</v>
       </c>
       <c r="C156">
-        <v>6.623564099368469</v>
+        <v>6.640278566038993</v>
       </c>
       <c r="D156">
-        <v>-0.0564359006315307</v>
+        <v>-0.06972143396100705</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3301,13 +3301,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>6.65</v>
+        <v>6.71</v>
       </c>
       <c r="C157">
-        <v>6.629782949054707</v>
+        <v>6.636181660020301</v>
       </c>
       <c r="D157">
-        <v>-0.02021705094529302</v>
+        <v>-0.07381833997969878</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3315,13 +3315,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>6.65</v>
+        <v>6.7</v>
       </c>
       <c r="C158">
-        <v>6.628794009258884</v>
+        <v>6.628502753258242</v>
       </c>
       <c r="D158">
-        <v>-0.02120599074111595</v>
+        <v>-0.0714972467417585</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3329,13 +3329,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>6.61</v>
+        <v>6.71</v>
       </c>
       <c r="C159">
-        <v>6.629522368689704</v>
+        <v>6.637033481777384</v>
       </c>
       <c r="D159">
-        <v>0.01952236868970392</v>
+        <v>-0.07296651822261602</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3343,13 +3343,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>6.61</v>
+        <v>6.71</v>
       </c>
       <c r="C160">
-        <v>6.622741913925568</v>
+        <v>6.620865462885443</v>
       </c>
       <c r="D160">
-        <v>0.01274191392556734</v>
+        <v>-0.08913453711455688</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3357,13 +3357,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C161">
-        <v>6.628096129051578</v>
+        <v>6.621010577493881</v>
       </c>
       <c r="D161">
-        <v>0.02809612905157799</v>
+        <v>-0.07898942250611896</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3371,13 +3371,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C162">
-        <v>6.625986624836512</v>
+        <v>6.62219799332314</v>
       </c>
       <c r="D162">
-        <v>0.02598662483651282</v>
+        <v>-0.0778020066768601</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3385,13 +3385,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>6.59</v>
+        <v>6.7</v>
       </c>
       <c r="C163">
-        <v>6.630358485839386</v>
+        <v>6.622628722434079</v>
       </c>
       <c r="D163">
-        <v>0.04035848583938595</v>
+        <v>-0.07737127756592166</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3399,13 +3399,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C164">
-        <v>6.623441796053406</v>
+        <v>6.618897107684318</v>
       </c>
       <c r="D164">
-        <v>0.02344179605340635</v>
+        <v>-0.08110289231568224</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3413,13 +3413,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C165">
-        <v>6.628364685954919</v>
+        <v>6.622186175586672</v>
       </c>
       <c r="D165">
-        <v>0.02836468595491937</v>
+        <v>-0.07781382441332774</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3427,13 +3427,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>6.61</v>
+        <v>6.71</v>
       </c>
       <c r="C166">
-        <v>6.63895116149048</v>
+        <v>6.622819495310556</v>
       </c>
       <c r="D166">
-        <v>0.02895116149047983</v>
+        <v>-0.08718050468944405</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3441,13 +3441,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C167">
-        <v>6.648441295679932</v>
+        <v>6.624583079066313</v>
       </c>
       <c r="D167">
-        <v>0.04844129567993249</v>
+        <v>-0.07541692093368724</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3455,13 +3455,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>6.61</v>
+        <v>6.72</v>
       </c>
       <c r="C168">
-        <v>6.651746523437646</v>
+        <v>6.629879273967368</v>
       </c>
       <c r="D168">
-        <v>0.04174652343764595</v>
+        <v>-0.09012072603263199</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3469,13 +3469,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>6.6</v>
+        <v>6.73</v>
       </c>
       <c r="C169">
-        <v>6.642122371782653</v>
+        <v>6.627849602553003</v>
       </c>
       <c r="D169">
-        <v>0.04212237178265354</v>
+        <v>-0.1021503974469971</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3483,13 +3483,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>6.62</v>
+        <v>6.72</v>
       </c>
       <c r="C170">
-        <v>6.644237160185972</v>
+        <v>6.630375831146131</v>
       </c>
       <c r="D170">
-        <v>0.02423716018597144</v>
+        <v>-0.08962416885386837</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3497,13 +3497,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>6.61</v>
+        <v>6.71</v>
       </c>
       <c r="C171">
-        <v>6.648813642168189</v>
+        <v>6.621781798377868</v>
       </c>
       <c r="D171">
-        <v>0.03881364216818906</v>
+        <v>-0.08821820162213179</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3511,13 +3511,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>6.62</v>
+        <v>6.73</v>
       </c>
       <c r="C172">
-        <v>6.660452851521285</v>
+        <v>6.625904850815458</v>
       </c>
       <c r="D172">
-        <v>0.04045285152128475</v>
+        <v>-0.1040951491845421</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3525,13 +3525,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>6.62</v>
+        <v>6.74</v>
       </c>
       <c r="C173">
-        <v>6.665844187591402</v>
+        <v>6.622752482752847</v>
       </c>
       <c r="D173">
-        <v>0.04584418759140174</v>
+        <v>-0.1172475172471534</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3539,13 +3539,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>6.62</v>
+        <v>6.73</v>
       </c>
       <c r="C174">
-        <v>6.667778367491957</v>
+        <v>6.624366954105656</v>
       </c>
       <c r="D174">
-        <v>0.04777836749195696</v>
+        <v>-0.1056330458943444</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3553,13 +3553,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>6.61</v>
+        <v>6.73</v>
       </c>
       <c r="C175">
-        <v>6.663931676442031</v>
+        <v>6.622377789811938</v>
       </c>
       <c r="D175">
-        <v>0.05393167644203078</v>
+        <v>-0.1076222101880626</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3567,13 +3567,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>6.6</v>
+        <v>6.72</v>
       </c>
       <c r="C176">
-        <v>6.66184377995833</v>
+        <v>6.619744991861013</v>
       </c>
       <c r="D176">
-        <v>0.06184377995833046</v>
+        <v>-0.100255008138987</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3581,13 +3581,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>6.61</v>
+        <v>6.71</v>
       </c>
       <c r="C177">
-        <v>6.662839252015653</v>
+        <v>6.62087961897871</v>
       </c>
       <c r="D177">
-        <v>0.05283925201565243</v>
+        <v>-0.08912038102129038</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3595,13 +3595,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>6.61</v>
+        <v>6.72</v>
       </c>
       <c r="C178">
-        <v>6.659697146900681</v>
+        <v>6.619700028186469</v>
       </c>
       <c r="D178">
-        <v>0.04969714690068106</v>
+        <v>-0.1002999718135307</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3609,13 +3609,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>6.61</v>
+        <v>6.72</v>
       </c>
       <c r="C179">
-        <v>6.661095733189372</v>
+        <v>6.625139133290125</v>
       </c>
       <c r="D179">
-        <v>0.05109573318937155</v>
+        <v>-0.09486086670987426</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3623,13 +3623,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>6.63</v>
+        <v>6.73</v>
       </c>
       <c r="C180">
-        <v>6.672774957924684</v>
+        <v>6.625030446239223</v>
       </c>
       <c r="D180">
-        <v>0.04277495792468411</v>
+        <v>-0.1049695537607773</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3637,13 +3637,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>6.64</v>
+        <v>6.73</v>
       </c>
       <c r="C181">
-        <v>6.665218301023991</v>
+        <v>6.624224705270517</v>
       </c>
       <c r="D181">
-        <v>0.02521830102399125</v>
+        <v>-0.1057752947294839</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3651,13 +3651,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>6.64</v>
+        <v>6.73</v>
       </c>
       <c r="C182">
-        <v>6.670448259297725</v>
+        <v>6.624357100501547</v>
       </c>
       <c r="D182">
-        <v>0.03044825929772532</v>
+        <v>-0.1056428994984531</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3665,13 +3665,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>6.63</v>
+        <v>6.73</v>
       </c>
       <c r="C183">
-        <v>6.67686224512941</v>
+        <v>6.621155370599678</v>
       </c>
       <c r="D183">
-        <v>0.04686224512941006</v>
+        <v>-0.1088446294003225</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3679,13 +3679,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>6.64</v>
+        <v>6.72</v>
       </c>
       <c r="C184">
-        <v>6.676888288662148</v>
+        <v>6.616062265255755</v>
       </c>
       <c r="D184">
-        <v>0.03688828866214866</v>
+        <v>-0.1039377347442443</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3693,13 +3693,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>6.64</v>
+        <v>6.71</v>
       </c>
       <c r="C185">
-        <v>6.677508446603733</v>
+        <v>6.611212089851668</v>
       </c>
       <c r="D185">
-        <v>0.03750844660373343</v>
+        <v>-0.09878791014833155</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3707,13 +3707,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>6.65</v>
+        <v>6.7</v>
       </c>
       <c r="C186">
-        <v>6.679314795382462</v>
+        <v>6.605081737407379</v>
       </c>
       <c r="D186">
-        <v>0.02931479538246151</v>
+        <v>-0.09491826259262126</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3721,13 +3721,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>6.64</v>
+        <v>6.7</v>
       </c>
       <c r="C187">
-        <v>6.675097607727302</v>
+        <v>6.607781804703852</v>
       </c>
       <c r="D187">
-        <v>0.03509760772730264</v>
+        <v>-0.09221819529614805</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3735,13 +3735,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>6.64</v>
+        <v>6.69</v>
       </c>
       <c r="C188">
-        <v>6.679707897736874</v>
+        <v>6.598360256712351</v>
       </c>
       <c r="D188">
-        <v>0.03970789773687411</v>
+        <v>-0.09163974328764901</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3749,13 +3749,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>6.65</v>
+        <v>6.7</v>
       </c>
       <c r="C189">
-        <v>6.685406762714393</v>
+        <v>6.600512822152475</v>
       </c>
       <c r="D189">
-        <v>0.03540676271439303</v>
+        <v>-0.09948717784752503</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3763,13 +3763,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>6.64</v>
+        <v>6.7</v>
       </c>
       <c r="C190">
-        <v>6.684831810091076</v>
+        <v>6.605954531502602</v>
       </c>
       <c r="D190">
-        <v>0.04483181009107629</v>
+        <v>-0.09404546849739859</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3777,13 +3777,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>6.65</v>
+        <v>6.69</v>
       </c>
       <c r="C191">
-        <v>6.690337657900825</v>
+        <v>6.60142604245451</v>
       </c>
       <c r="D191">
-        <v>0.04033765790082455</v>
+        <v>-0.08857395754549025</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3791,13 +3791,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>6.64</v>
+        <v>6.69</v>
       </c>
       <c r="C192">
-        <v>6.686859520588701</v>
+        <v>6.611485077384502</v>
       </c>
       <c r="D192">
-        <v>0.04685952058870146</v>
+        <v>-0.07851492261549886</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3805,13 +3805,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>6.65</v>
+        <v>6.72</v>
       </c>
       <c r="C193">
-        <v>6.687512597354841</v>
+        <v>6.609328049784621</v>
       </c>
       <c r="D193">
-        <v>0.03751259735484069</v>
+        <v>-0.1106719502153783</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3819,13 +3819,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>6.64</v>
+        <v>6.71</v>
       </c>
       <c r="C194">
-        <v>6.672152583963445</v>
+        <v>6.612622351676463</v>
       </c>
       <c r="D194">
-        <v>0.03215258396344556</v>
+        <v>-0.0973776483235369</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3833,13 +3833,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>6.65</v>
+        <v>6.69</v>
       </c>
       <c r="C195">
-        <v>6.677357779149313</v>
+        <v>6.615064568712136</v>
       </c>
       <c r="D195">
-        <v>0.02735777914931248</v>
+        <v>-0.07493543128786406</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3847,13 +3847,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>6.65</v>
+        <v>6.68</v>
       </c>
       <c r="C196">
-        <v>6.67273845234905</v>
+        <v>6.603545613492057</v>
       </c>
       <c r="D196">
-        <v>0.02273845234904925</v>
+        <v>-0.07645438650794301</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3861,13 +3861,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>6.65</v>
+        <v>6.68</v>
       </c>
       <c r="C197">
-        <v>6.668155809313632</v>
+        <v>6.59749867350834</v>
       </c>
       <c r="D197">
-        <v>0.01815580931363137</v>
+        <v>-0.08250132649166009</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3875,13 +3875,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>6.66</v>
+        <v>6.7</v>
       </c>
       <c r="C198">
-        <v>6.677090228431931</v>
+        <v>6.599605415580419</v>
       </c>
       <c r="D198">
-        <v>0.01709022843193075</v>
+        <v>-0.1003945844195808</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3889,13 +3889,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>6.66</v>
+        <v>6.7</v>
       </c>
       <c r="C199">
-        <v>6.684324644035655</v>
+        <v>6.6070998574055</v>
       </c>
       <c r="D199">
-        <v>0.02432464403565504</v>
+        <v>-0.09290014259449997</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3903,13 +3903,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>6.67</v>
+        <v>6.71</v>
       </c>
       <c r="C200">
-        <v>6.683294209324398</v>
+        <v>6.627885960367998</v>
       </c>
       <c r="D200">
-        <v>0.01329420932439795</v>
+        <v>-0.08211403963200148</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3917,13 +3917,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>6.68</v>
+        <v>6.72</v>
       </c>
       <c r="C201">
-        <v>6.683181866708395</v>
+        <v>6.619667510540109</v>
       </c>
       <c r="D201">
-        <v>0.003181866708395376</v>
+        <v>-0.1003324894598911</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3931,13 +3931,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>6.67</v>
+        <v>6.71</v>
       </c>
       <c r="C202">
-        <v>6.682788527026259</v>
+        <v>6.619181155259381</v>
       </c>
       <c r="D202">
-        <v>0.01278852702625954</v>
+        <v>-0.0908188447406193</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3945,13 +3945,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>6.69</v>
+        <v>6.72</v>
       </c>
       <c r="C203">
-        <v>6.695741145021525</v>
+        <v>6.626361101734326</v>
       </c>
       <c r="D203">
-        <v>0.005741145021525007</v>
+        <v>-0.09363889826567373</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3959,13 +3959,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>6.67</v>
+        <v>6.72</v>
       </c>
       <c r="C204">
-        <v>6.669527168823514</v>
+        <v>6.623694477389111</v>
       </c>
       <c r="D204">
-        <v>-0.0004728311764861104</v>
+        <v>-0.09630552261088887</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3973,13 +3973,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>6.67</v>
+        <v>6.74</v>
       </c>
       <c r="C205">
-        <v>6.684354196350149</v>
+        <v>6.620690510415531</v>
       </c>
       <c r="D205">
-        <v>0.01435419635014945</v>
+        <v>-0.1193094895844693</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3987,13 +3987,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>6.67</v>
+        <v>6.73</v>
       </c>
       <c r="C206">
-        <v>6.692677537625421</v>
+        <v>6.626656282546816</v>
       </c>
       <c r="D206">
-        <v>0.02267753762542135</v>
+        <v>-0.1033437174531846</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4001,13 +4001,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>6.66</v>
+        <v>6.74</v>
       </c>
       <c r="C207">
-        <v>6.683025761459895</v>
+        <v>6.625770026703967</v>
       </c>
       <c r="D207">
-        <v>0.02302576145989477</v>
+        <v>-0.114229973296033</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4015,13 +4015,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>6.66</v>
+        <v>6.74</v>
       </c>
       <c r="C208">
-        <v>6.689813615801713</v>
+        <v>6.631846188730843</v>
       </c>
       <c r="D208">
-        <v>0.0298136158017126</v>
+        <v>-0.1081538112691574</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4029,13 +4029,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>6.67</v>
+        <v>6.73</v>
       </c>
       <c r="C209">
-        <v>6.683474518640894</v>
+        <v>6.632883397621383</v>
       </c>
       <c r="D209">
-        <v>0.01347451864089422</v>
+        <v>-0.09711660237861697</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4043,13 +4043,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>6.66</v>
+        <v>6.73</v>
       </c>
       <c r="C210">
-        <v>6.682511793220796</v>
+        <v>6.631706386892376</v>
       </c>
       <c r="D210">
-        <v>0.02251179322079544</v>
+        <v>-0.09829361310762419</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4057,13 +4057,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>6.65</v>
+        <v>6.75</v>
       </c>
       <c r="C211">
-        <v>6.686528357798521</v>
+        <v>6.630795473504496</v>
       </c>
       <c r="D211">
-        <v>0.03652835779852026</v>
+        <v>-0.1192045264955039</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4071,13 +4071,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>6.64</v>
+        <v>6.76</v>
       </c>
       <c r="C212">
-        <v>6.683850128196203</v>
+        <v>6.640225495299553</v>
       </c>
       <c r="D212">
-        <v>0.04385012819620382</v>
+        <v>-0.1197745047004473</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4085,13 +4085,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>6.64</v>
+        <v>6.76</v>
       </c>
       <c r="C213">
-        <v>6.657503997225174</v>
+        <v>6.638299983085129</v>
       </c>
       <c r="D213">
-        <v>0.01750399722517404</v>
+        <v>-0.121700016914871</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4099,13 +4099,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>6.65</v>
+        <v>6.74</v>
       </c>
       <c r="C214">
-        <v>6.663069562064207</v>
+        <v>6.630691894261443</v>
       </c>
       <c r="D214">
-        <v>0.01306956206420651</v>
+        <v>-0.109308105738557</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4113,13 +4113,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>6.64</v>
+        <v>6.75</v>
       </c>
       <c r="C215">
-        <v>6.650593552243462</v>
+        <v>6.629880307702931</v>
       </c>
       <c r="D215">
-        <v>0.01059355224346259</v>
+        <v>-0.1201196922970693</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4127,13 +4127,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>6.61</v>
+        <v>6.77</v>
       </c>
       <c r="C216">
-        <v>6.660269105253333</v>
+        <v>6.640594743583621</v>
       </c>
       <c r="D216">
-        <v>0.05026910525333239</v>
+        <v>-0.129405256416379</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4141,13 +4141,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>6.61</v>
+        <v>6.79</v>
       </c>
       <c r="C217">
-        <v>6.653943228434455</v>
+        <v>6.635412326710166</v>
       </c>
       <c r="D217">
-        <v>0.04394322843445497</v>
+        <v>-0.1545876732898339</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4155,13 +4155,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>6.61</v>
+        <v>6.8</v>
       </c>
       <c r="C218">
-        <v>6.669975343036681</v>
+        <v>6.628149360122024</v>
       </c>
       <c r="D218">
-        <v>0.05997534303668051</v>
+        <v>-0.1718506398779756</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4169,13 +4169,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>6.61</v>
+        <v>6.75</v>
       </c>
       <c r="C219">
-        <v>6.670774097065197</v>
+        <v>6.614177510936485</v>
       </c>
       <c r="D219">
-        <v>0.06077409706519621</v>
+        <v>-0.1358224890635151</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4183,13 +4183,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>6.62</v>
+        <v>6.73</v>
       </c>
       <c r="C220">
-        <v>6.671981163481574</v>
+        <v>6.611341998510114</v>
       </c>
       <c r="D220">
-        <v>0.05198116348157367</v>
+        <v>-0.1186580014898864</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4197,13 +4197,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>6.62</v>
+        <v>6.73</v>
       </c>
       <c r="C221">
-        <v>6.679069782031084</v>
+        <v>6.630866677063273</v>
       </c>
       <c r="D221">
-        <v>0.05906978203108348</v>
+        <v>-0.09913332293672728</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4211,13 +4211,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>6.62</v>
+        <v>6.72</v>
       </c>
       <c r="C222">
-        <v>6.672647501277609</v>
+        <v>6.617682532423621</v>
       </c>
       <c r="D222">
-        <v>0.05264750127760909</v>
+        <v>-0.1023174675763787</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4225,13 +4225,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>6.61</v>
+        <v>6.72</v>
       </c>
       <c r="C223">
-        <v>6.671343015621776</v>
+        <v>6.634613958743281</v>
       </c>
       <c r="D223">
-        <v>0.0613430156217758</v>
+        <v>-0.08538604125671867</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4239,13 +4239,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>6.62</v>
+        <v>6.75</v>
       </c>
       <c r="C224">
-        <v>6.677872750365808</v>
+        <v>6.644285614615142</v>
       </c>
       <c r="D224">
-        <v>0.05787275036580741</v>
+        <v>-0.1057143853848581</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4253,13 +4253,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>6.62</v>
+        <v>6.78</v>
       </c>
       <c r="C225">
-        <v>6.678940304213782</v>
+        <v>6.652280116402998</v>
       </c>
       <c r="D225">
-        <v>0.05894030421378194</v>
+        <v>-0.1277198835970026</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4267,13 +4267,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>6.63</v>
+        <v>6.79</v>
       </c>
       <c r="C226">
-        <v>6.673771237444962</v>
+        <v>6.646402206810611</v>
       </c>
       <c r="D226">
-        <v>0.04377123744496192</v>
+        <v>-0.1435977931893895</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4281,13 +4281,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>6.64</v>
+        <v>6.8</v>
       </c>
       <c r="C227">
-        <v>6.682828039309896</v>
+        <v>6.647664950932801</v>
       </c>
       <c r="D227">
-        <v>0.04282803930989676</v>
+        <v>-0.1523350490671991</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4295,13 +4295,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>6.65</v>
+        <v>6.78</v>
       </c>
       <c r="C228">
-        <v>6.694213331921683</v>
+        <v>6.630982658528525</v>
       </c>
       <c r="D228">
-        <v>0.0442133319216822</v>
+        <v>-0.1490173414714757</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4309,13 +4309,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>6.65</v>
+        <v>6.77</v>
       </c>
       <c r="C229">
-        <v>6.700723297013507</v>
+        <v>6.628955209415813</v>
       </c>
       <c r="D229">
-        <v>0.05072329701350675</v>
+        <v>-0.1410447905841865</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4323,13 +4323,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>6.63</v>
+        <v>6.78</v>
       </c>
       <c r="C230">
-        <v>6.692243877210228</v>
+        <v>6.636650550937358</v>
       </c>
       <c r="D230">
-        <v>0.06224387721022762</v>
+        <v>-0.1433494490626419</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4337,13 +4337,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>6.64</v>
+        <v>6.78</v>
       </c>
       <c r="C231">
-        <v>6.689041665912242</v>
+        <v>6.63149281084286</v>
       </c>
       <c r="D231">
-        <v>0.04904166591224257</v>
+        <v>-0.1485071891571401</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4351,13 +4351,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>6.62</v>
+        <v>6.81</v>
       </c>
       <c r="C232">
-        <v>6.702652302566364</v>
+        <v>6.636433300198383</v>
       </c>
       <c r="D232">
-        <v>0.08265230256636347</v>
+        <v>-0.1735666998016168</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4365,13 +4365,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>6.63</v>
+        <v>6.82</v>
       </c>
       <c r="C233">
-        <v>6.677212217263154</v>
+        <v>6.649308147837426</v>
       </c>
       <c r="D233">
-        <v>0.04721221726315417</v>
+        <v>-0.170691852162574</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4379,13 +4379,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>6.63</v>
+        <v>6.82</v>
       </c>
       <c r="C234">
-        <v>6.669419861409878</v>
+        <v>6.646155298886394</v>
       </c>
       <c r="D234">
-        <v>0.03941986140987819</v>
+        <v>-0.1738447011136062</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4393,13 +4393,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>6.62</v>
+        <v>6.81</v>
       </c>
       <c r="C235">
-        <v>6.695008171707356</v>
+        <v>6.634878502444784</v>
       </c>
       <c r="D235">
-        <v>0.07500817170735541</v>
+        <v>-0.1751214975552156</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4407,13 +4407,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>6.63</v>
+        <v>6.83</v>
       </c>
       <c r="C236">
-        <v>6.730710937545064</v>
+        <v>6.634810876355654</v>
       </c>
       <c r="D236">
-        <v>0.1007109375450641</v>
+        <v>-0.1951891236443464</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4421,13 +4421,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>6.61</v>
+        <v>6.81</v>
       </c>
       <c r="C237">
-        <v>6.707314740359825</v>
+        <v>6.641118313191023</v>
       </c>
       <c r="D237">
-        <v>0.0973147403598249</v>
+        <v>-0.1688816868089766</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4435,13 +4435,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>6.61</v>
+        <v>6.81</v>
       </c>
       <c r="C238">
-        <v>6.693414332516314</v>
+        <v>6.619842576796091</v>
       </c>
       <c r="D238">
-        <v>0.08341433251631347</v>
+        <v>-0.1901574232039085</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4449,13 +4449,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>6.6</v>
+        <v>6.82</v>
       </c>
       <c r="C239">
-        <v>6.680296964750321</v>
+        <v>6.610316208675477</v>
       </c>
       <c r="D239">
-        <v>0.08029696475032111</v>
+        <v>-0.2096837913245233</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4463,13 +4463,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>6.59</v>
+        <v>6.8</v>
       </c>
       <c r="C240">
-        <v>6.703555787867531</v>
+        <v>6.612532702792291</v>
       </c>
       <c r="D240">
-        <v>0.1135557878675311</v>
+        <v>-0.1874672972077089</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4477,13 +4477,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>6.65</v>
+        <v>6.78</v>
       </c>
       <c r="C241">
-        <v>6.718469983622413</v>
+        <v>6.612070977346121</v>
       </c>
       <c r="D241">
-        <v>0.0684699836224123</v>
+        <v>-0.1679290226538797</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4491,13 +4491,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>6.69</v>
+        <v>6.76</v>
       </c>
       <c r="C242">
-        <v>6.720639101456856</v>
+        <v>6.611022146105037</v>
       </c>
       <c r="D242">
-        <v>0.03063910145685522</v>
+        <v>-0.1489778538949631</v>
       </c>
     </row>
   </sheetData>

--- a/temp/Yesterdaytest.xlsx
+++ b/temp/Yesterdaytest.xlsx
@@ -28,727 +28,727 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-06-13 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:09:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:14:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:54:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 09:30:00</t>
+    <t>2019-06-20 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:50:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:01:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:55:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:26:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:13:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:13:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:50:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:38:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:30:00</t>
   </si>
 </sst>
 </file>
@@ -1131,13 +1131,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.72</v>
+        <v>6.61</v>
       </c>
       <c r="C2">
-        <v>6.682184140199012</v>
+        <v>6.772074221473921</v>
       </c>
       <c r="D2">
-        <v>-0.03781585980098789</v>
+        <v>0.1620742214739206</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1145,13 +1145,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.72</v>
+        <v>6.61</v>
       </c>
       <c r="C3">
-        <v>6.688065198070327</v>
+        <v>6.772795289550959</v>
       </c>
       <c r="D3">
-        <v>-0.03193480192967257</v>
+        <v>0.1627952895509583</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1159,13 +1159,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.72</v>
+        <v>6.61</v>
       </c>
       <c r="C4">
-        <v>6.687993463402855</v>
+        <v>6.772795289550959</v>
       </c>
       <c r="D4">
-        <v>-0.03200653659714447</v>
+        <v>0.1627952895509583</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1173,13 +1173,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.72</v>
+        <v>6.61</v>
       </c>
       <c r="C5">
-        <v>6.690524636568933</v>
+        <v>6.771763882512524</v>
       </c>
       <c r="D5">
-        <v>-0.02947536343106627</v>
+        <v>0.161763882512524</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1187,13 +1187,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.73</v>
+        <v>6.6</v>
       </c>
       <c r="C6">
-        <v>6.688550909010002</v>
+        <v>6.77469751585071</v>
       </c>
       <c r="D6">
-        <v>-0.04144909098999872</v>
+        <v>0.1746975158507107</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1201,13 +1201,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.73</v>
+        <v>6.6</v>
       </c>
       <c r="C7">
-        <v>6.693392092295752</v>
+        <v>6.764062513910956</v>
       </c>
       <c r="D7">
-        <v>-0.03660790770424871</v>
+        <v>0.1640625139109568</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1215,13 +1215,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.73</v>
+        <v>6.59</v>
       </c>
       <c r="C8">
-        <v>6.700922402677903</v>
+        <v>6.764478085141097</v>
       </c>
       <c r="D8">
-        <v>-0.02907759732209758</v>
+        <v>0.1744780851410974</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1229,13 +1229,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.73</v>
+        <v>6.6</v>
       </c>
       <c r="C9">
-        <v>6.700695890768899</v>
+        <v>6.76512074783435</v>
       </c>
       <c r="D9">
-        <v>-0.02930410923110127</v>
+        <v>0.1651207478343499</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1243,13 +1243,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.73</v>
+        <v>6.59</v>
       </c>
       <c r="C10">
-        <v>6.700381386359612</v>
+        <v>6.768209114982528</v>
       </c>
       <c r="D10">
-        <v>-0.02961861364038842</v>
+        <v>0.1782091149825282</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1257,13 +1257,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6.73</v>
+        <v>6.59</v>
       </c>
       <c r="C11">
-        <v>6.694455459951528</v>
+        <v>6.768300441361284</v>
       </c>
       <c r="D11">
-        <v>-0.03554454004847241</v>
+        <v>0.1783004413612845</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1271,13 +1271,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>6.74</v>
+        <v>6.58</v>
       </c>
       <c r="C12">
-        <v>6.71276617422133</v>
+        <v>6.764152455423473</v>
       </c>
       <c r="D12">
-        <v>-0.02723382577867017</v>
+        <v>0.1841524554234732</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1285,13 +1285,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>6.74</v>
+        <v>6.59</v>
       </c>
       <c r="C13">
-        <v>6.711761086103945</v>
+        <v>6.766367750339009</v>
       </c>
       <c r="D13">
-        <v>-0.02823891389605482</v>
+        <v>0.1763677503390086</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1299,13 +1299,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>6.75</v>
+        <v>6.58</v>
       </c>
       <c r="C14">
-        <v>6.712063968657795</v>
+        <v>6.766417895235354</v>
       </c>
       <c r="D14">
-        <v>-0.03793603134220458</v>
+        <v>0.1864178952353539</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1313,13 +1313,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>6.74</v>
+        <v>6.58</v>
       </c>
       <c r="C15">
-        <v>6.710906760827602</v>
+        <v>6.764260235936644</v>
       </c>
       <c r="D15">
-        <v>-0.02909323917239792</v>
+        <v>0.1842602359366436</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1327,13 +1327,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>6.74</v>
+        <v>6.57</v>
       </c>
       <c r="C16">
-        <v>6.718092520753424</v>
+        <v>6.761375704635275</v>
       </c>
       <c r="D16">
-        <v>-0.02190747924657632</v>
+        <v>0.1913757046352744</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1341,13 +1341,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>6.74</v>
+        <v>6.55</v>
       </c>
       <c r="C17">
-        <v>6.724650333616652</v>
+        <v>6.750557994177039</v>
       </c>
       <c r="D17">
-        <v>-0.01534966638334812</v>
+        <v>0.2005579941770392</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1355,13 +1355,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>6.75</v>
+        <v>6.55</v>
       </c>
       <c r="C18">
-        <v>6.721414688031264</v>
+        <v>6.74843708198394</v>
       </c>
       <c r="D18">
-        <v>-0.02858531196873582</v>
+        <v>0.1984370819839398</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1369,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>6.76</v>
+        <v>6.56</v>
       </c>
       <c r="C19">
-        <v>6.719746664345101</v>
+        <v>6.73871512046975</v>
       </c>
       <c r="D19">
-        <v>-0.04025333565489841</v>
+        <v>0.1787151204697501</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1383,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>6.77</v>
+        <v>6.55</v>
       </c>
       <c r="C20">
-        <v>6.723970801583358</v>
+        <v>6.734366500855283</v>
       </c>
       <c r="D20">
-        <v>-0.04602919841664121</v>
+        <v>0.1843665008552833</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1397,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>6.75</v>
+        <v>6.55</v>
       </c>
       <c r="C21">
-        <v>6.720901904052787</v>
+        <v>6.741388436016224</v>
       </c>
       <c r="D21">
-        <v>-0.02909809594721313</v>
+        <v>0.1913884360162239</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1411,13 +1411,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>6.76</v>
+        <v>6.55</v>
       </c>
       <c r="C22">
-        <v>6.719243744108437</v>
+        <v>6.723920457401504</v>
       </c>
       <c r="D22">
-        <v>-0.04075625589156306</v>
+        <v>0.1739204574015041</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1425,13 +1425,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>6.76</v>
+        <v>6.55</v>
       </c>
       <c r="C23">
-        <v>6.715250576856024</v>
+        <v>6.725820151757909</v>
       </c>
       <c r="D23">
-        <v>-0.04474942314397534</v>
+        <v>0.1758201517579092</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1439,13 +1439,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>6.76</v>
+        <v>6.55</v>
       </c>
       <c r="C24">
-        <v>6.716934600547209</v>
+        <v>6.739834497915319</v>
       </c>
       <c r="D24">
-        <v>-0.04306539945279031</v>
+        <v>0.189834497915319</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>6.75</v>
+        <v>6.55</v>
       </c>
       <c r="C25">
-        <v>6.712878610014312</v>
+        <v>6.717377456209307</v>
       </c>
       <c r="D25">
-        <v>-0.03712138998568815</v>
+        <v>0.1673774562093069</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1467,13 +1467,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>6.75</v>
+        <v>6.56</v>
       </c>
       <c r="C26">
-        <v>6.715839619148992</v>
+        <v>6.723285401612872</v>
       </c>
       <c r="D26">
-        <v>-0.03416038085100848</v>
+        <v>0.1632854016128729</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1481,13 +1481,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>6.74</v>
+        <v>6.57</v>
       </c>
       <c r="C27">
-        <v>6.710325084436337</v>
+        <v>6.72252883077499</v>
       </c>
       <c r="D27">
-        <v>-0.02967491556366308</v>
+        <v>0.1525288307749895</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1495,13 +1495,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>6.74</v>
+        <v>6.57</v>
       </c>
       <c r="C28">
-        <v>6.703783284110886</v>
+        <v>6.729051153595699</v>
       </c>
       <c r="D28">
-        <v>-0.03621671588911379</v>
+        <v>0.1590511535956987</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1509,13 +1509,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>6.73</v>
+        <v>6.56</v>
       </c>
       <c r="C29">
-        <v>6.697549883297504</v>
+        <v>6.723728428785718</v>
       </c>
       <c r="D29">
-        <v>-0.03245011670249642</v>
+        <v>0.1637284287857188</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1523,13 +1523,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>6.72</v>
+        <v>6.57</v>
       </c>
       <c r="C30">
-        <v>6.690556373285319</v>
+        <v>6.723127457322659</v>
       </c>
       <c r="D30">
-        <v>-0.0294436267146807</v>
+        <v>0.1531274573226584</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1537,13 +1537,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>6.71</v>
+        <v>6.56</v>
       </c>
       <c r="C31">
-        <v>6.692377239944439</v>
+        <v>6.728340773122553</v>
       </c>
       <c r="D31">
-        <v>-0.01762276005556096</v>
+        <v>0.1683407731225532</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1551,13 +1551,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>6.71</v>
+        <v>6.57</v>
       </c>
       <c r="C32">
-        <v>6.688218185729704</v>
+        <v>6.72685946981477</v>
       </c>
       <c r="D32">
-        <v>-0.02178181427029635</v>
+        <v>0.1568594698147701</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1565,13 +1565,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>6.72</v>
+        <v>6.57</v>
       </c>
       <c r="C33">
-        <v>6.680449796875259</v>
+        <v>6.725815917314194</v>
       </c>
       <c r="D33">
-        <v>-0.03955020312474034</v>
+        <v>0.155815917314194</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1579,13 +1579,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>6.72</v>
+        <v>6.57</v>
       </c>
       <c r="C34">
-        <v>6.680555756984643</v>
+        <v>6.727875270200049</v>
       </c>
       <c r="D34">
-        <v>-0.03944424301535676</v>
+        <v>0.1578752702000488</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1593,13 +1593,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>6.73</v>
+        <v>6.58</v>
       </c>
       <c r="C35">
-        <v>6.680411440006227</v>
+        <v>6.722151784560277</v>
       </c>
       <c r="D35">
-        <v>-0.0495885599937731</v>
+        <v>0.1421517845602773</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1607,13 +1607,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>6.72</v>
+        <v>6.58</v>
       </c>
       <c r="C36">
-        <v>6.679002814626632</v>
+        <v>6.726535759942512</v>
       </c>
       <c r="D36">
-        <v>-0.04099718537336727</v>
+        <v>0.1465357599425117</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1621,13 +1621,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>6.72</v>
+        <v>6.57</v>
       </c>
       <c r="C37">
-        <v>6.676929866818566</v>
+        <v>6.724234581200426</v>
       </c>
       <c r="D37">
-        <v>-0.04307013318143404</v>
+        <v>0.1542345812004262</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1635,13 +1635,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>6.71</v>
+        <v>6.57</v>
       </c>
       <c r="C38">
-        <v>6.682219007279081</v>
+        <v>6.722485396207483</v>
       </c>
       <c r="D38">
-        <v>-0.02778099272091872</v>
+        <v>0.1524853962074824</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1649,13 +1649,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>6.71</v>
+        <v>6.57</v>
       </c>
       <c r="C39">
-        <v>6.682150756931938</v>
+        <v>6.715674019013135</v>
       </c>
       <c r="D39">
-        <v>-0.02784924306806147</v>
+        <v>0.1456740190131347</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1663,13 +1663,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>6.72</v>
+        <v>6.57</v>
       </c>
       <c r="C40">
-        <v>6.676909794230352</v>
+        <v>6.71902208738065</v>
       </c>
       <c r="D40">
-        <v>-0.04309020576964784</v>
+        <v>0.1490220873806498</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1677,13 +1677,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>6.72</v>
+        <v>6.56</v>
       </c>
       <c r="C41">
-        <v>6.677557916786873</v>
+        <v>6.715205513415314</v>
       </c>
       <c r="D41">
-        <v>-0.04244208321312648</v>
+        <v>0.1552055134153143</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1691,13 +1691,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>6.72</v>
+        <v>6.56</v>
       </c>
       <c r="C42">
-        <v>6.677347739014523</v>
+        <v>6.71028122610091</v>
       </c>
       <c r="D42">
-        <v>-0.04265226098547714</v>
+        <v>0.1502812261009101</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1705,13 +1705,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>6.71</v>
+        <v>6.57</v>
       </c>
       <c r="C43">
-        <v>6.675175303578272</v>
+        <v>6.70579158963836</v>
       </c>
       <c r="D43">
-        <v>-0.03482469642172781</v>
+        <v>0.1357915896383597</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1719,13 +1719,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>6.72</v>
+        <v>6.56</v>
       </c>
       <c r="C44">
-        <v>6.682140227642685</v>
+        <v>6.702407583095172</v>
       </c>
       <c r="D44">
-        <v>-0.03785977235731508</v>
+        <v>0.1424075830951725</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1733,13 +1733,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>6.72</v>
+        <v>6.56</v>
       </c>
       <c r="C45">
-        <v>6.685046507593126</v>
+        <v>6.699732850378541</v>
       </c>
       <c r="D45">
-        <v>-0.03495349240687418</v>
+        <v>0.1397328503785413</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1747,13 +1747,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>6.72</v>
+        <v>6.57</v>
       </c>
       <c r="C46">
-        <v>6.690657924904268</v>
+        <v>6.702925847543187</v>
       </c>
       <c r="D46">
-        <v>-0.02934207509573206</v>
+        <v>0.1329258475431869</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1761,13 +1761,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>6.72</v>
+        <v>6.56</v>
       </c>
       <c r="C47">
-        <v>6.692825745695354</v>
+        <v>6.706460280615205</v>
       </c>
       <c r="D47">
-        <v>-0.02717425430464537</v>
+        <v>0.1464602806152051</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1775,13 +1775,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>6.72</v>
+        <v>6.56</v>
       </c>
       <c r="C48">
-        <v>6.689797492107105</v>
+        <v>6.713982708194689</v>
       </c>
       <c r="D48">
-        <v>-0.03020250789289491</v>
+        <v>0.1539827081946896</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1789,13 +1789,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>6.73</v>
+        <v>6.55</v>
       </c>
       <c r="C49">
-        <v>6.690031626028872</v>
+        <v>6.705101406451955</v>
       </c>
       <c r="D49">
-        <v>-0.03996837397112873</v>
+        <v>0.1551014064519549</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1803,13 +1803,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>6.73</v>
+        <v>6.55</v>
       </c>
       <c r="C50">
-        <v>6.690720611435855</v>
+        <v>6.704150936085232</v>
       </c>
       <c r="D50">
-        <v>-0.03927938856414581</v>
+        <v>0.154150936085232</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1817,13 +1817,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>6.73</v>
+        <v>6.56</v>
       </c>
       <c r="C51">
-        <v>6.69039512682938</v>
+        <v>6.710604134000079</v>
       </c>
       <c r="D51">
-        <v>-0.03960487317062</v>
+        <v>0.1506041340000799</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1831,13 +1831,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>6.74</v>
+        <v>6.56</v>
       </c>
       <c r="C52">
-        <v>6.690320622379743</v>
+        <v>6.714495985181308</v>
       </c>
       <c r="D52">
-        <v>-0.04967937762025709</v>
+        <v>0.1544959851813079</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1845,13 +1845,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>6.74</v>
+        <v>6.56</v>
       </c>
       <c r="C53">
-        <v>6.69302511895656</v>
+        <v>6.70238983408177</v>
       </c>
       <c r="D53">
-        <v>-0.0469748810434405</v>
+        <v>0.1423898340817704</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1859,13 +1859,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>6.74</v>
+        <v>6.55</v>
       </c>
       <c r="C54">
-        <v>6.69669717656316</v>
+        <v>6.700556225067047</v>
       </c>
       <c r="D54">
-        <v>-0.04330282343684022</v>
+        <v>0.1505562250670476</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1873,13 +1873,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>6.74</v>
+        <v>6.55</v>
       </c>
       <c r="C55">
-        <v>6.697156575515472</v>
+        <v>6.703937487948768</v>
       </c>
       <c r="D55">
-        <v>-0.04284342448452794</v>
+        <v>0.1539374879487685</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1887,13 +1887,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>6.75</v>
+        <v>6.54</v>
       </c>
       <c r="C56">
-        <v>6.699538678799263</v>
+        <v>6.695464516595192</v>
       </c>
       <c r="D56">
-        <v>-0.05046132120073654</v>
+        <v>0.1554645165951918</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1901,13 +1901,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>6.74</v>
+        <v>6.54</v>
       </c>
       <c r="C57">
-        <v>6.703463536133635</v>
+        <v>6.69345221156289</v>
       </c>
       <c r="D57">
-        <v>-0.03653646386636478</v>
+        <v>0.1534522115628896</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1915,13 +1915,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>6.75</v>
+        <v>6.55</v>
       </c>
       <c r="C58">
-        <v>6.70919824543632</v>
+        <v>6.692410172850203</v>
       </c>
       <c r="D58">
-        <v>-0.04080175456368007</v>
+        <v>0.1424101728502034</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1929,13 +1929,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>6.77</v>
+        <v>6.56</v>
       </c>
       <c r="C59">
-        <v>6.712202479542372</v>
+        <v>6.697410150533377</v>
       </c>
       <c r="D59">
-        <v>-0.05779752045762709</v>
+        <v>0.1374101505333769</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1943,13 +1943,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>6.75</v>
+        <v>6.56</v>
       </c>
       <c r="C60">
-        <v>6.708874991692288</v>
+        <v>6.692510133628915</v>
       </c>
       <c r="D60">
-        <v>-0.04112500830771193</v>
+        <v>0.1325101336289158</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1957,13 +1957,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>6.74</v>
+        <v>6.55</v>
       </c>
       <c r="C61">
-        <v>6.695224161404906</v>
+        <v>6.693765357932157</v>
       </c>
       <c r="D61">
-        <v>-0.04477583859509426</v>
+        <v>0.1437653579321569</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1971,13 +1971,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>6.74</v>
+        <v>6.56</v>
       </c>
       <c r="C62">
-        <v>6.694736633976754</v>
+        <v>6.690932661701452</v>
       </c>
       <c r="D62">
-        <v>-0.04526336602324665</v>
+        <v>0.1309326617014523</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1985,13 +1985,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>6.74</v>
+        <v>6.56</v>
       </c>
       <c r="C63">
-        <v>6.691500194432193</v>
+        <v>6.684517348884015</v>
       </c>
       <c r="D63">
-        <v>-0.04849980556780675</v>
+        <v>0.1245173488840159</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1999,13 +1999,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>6.75</v>
+        <v>6.57</v>
       </c>
       <c r="C64">
-        <v>6.693045250002966</v>
+        <v>6.69411315224312</v>
       </c>
       <c r="D64">
-        <v>-0.05695474999703354</v>
+        <v>0.1241131522431198</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2013,13 +2013,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>6.75</v>
+        <v>6.56</v>
       </c>
       <c r="C65">
-        <v>6.689697124336445</v>
+        <v>6.704361328785738</v>
       </c>
       <c r="D65">
-        <v>-0.06030287566355508</v>
+        <v>0.1443613287857382</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2027,13 +2027,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>6.74</v>
+        <v>6.56</v>
       </c>
       <c r="C66">
-        <v>6.687071863765342</v>
+        <v>6.705426105671047</v>
       </c>
       <c r="D66">
-        <v>-0.05292813623465786</v>
+        <v>0.1454261056710475</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2041,13 +2041,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>6.75</v>
+        <v>6.57</v>
       </c>
       <c r="C67">
-        <v>6.695318909084929</v>
+        <v>6.705832834332319</v>
       </c>
       <c r="D67">
-        <v>-0.05468109091507056</v>
+        <v>0.1358328343323185</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2055,13 +2055,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>6.76</v>
+        <v>6.56</v>
       </c>
       <c r="C68">
-        <v>6.691810972202471</v>
+        <v>6.704771513119126</v>
       </c>
       <c r="D68">
-        <v>-0.068189027797529</v>
+        <v>0.1447715131191263</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2069,13 +2069,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>6.76</v>
+        <v>6.56</v>
       </c>
       <c r="C69">
-        <v>6.695792624473609</v>
+        <v>6.70362665200648</v>
       </c>
       <c r="D69">
-        <v>-0.064207375526391</v>
+        <v>0.1436266520064802</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2083,13 +2083,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>6.76</v>
+        <v>6.57</v>
       </c>
       <c r="C70">
-        <v>6.697234467211906</v>
+        <v>6.704200484900173</v>
       </c>
       <c r="D70">
-        <v>-0.06276553278809427</v>
+        <v>0.1342004849001723</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2097,13 +2097,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>6.78</v>
+        <v>6.57</v>
       </c>
       <c r="C71">
-        <v>6.709664070211269</v>
+        <v>6.69927889641595</v>
       </c>
       <c r="D71">
-        <v>-0.07033592978873138</v>
+        <v>0.1292788964159497</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2111,13 +2111,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>6.78</v>
+        <v>6.56</v>
       </c>
       <c r="C72">
-        <v>6.713455710743907</v>
+        <v>6.700612684352945</v>
       </c>
       <c r="D72">
-        <v>-0.06654428925609324</v>
+        <v>0.1406126843529449</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2125,13 +2125,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>6.77</v>
+        <v>6.55</v>
       </c>
       <c r="C73">
-        <v>6.707254110467839</v>
+        <v>6.702756908650859</v>
       </c>
       <c r="D73">
-        <v>-0.06274588953216043</v>
+        <v>0.1527569086508596</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>6.74</v>
+        <v>6.55</v>
       </c>
       <c r="C74">
-        <v>6.701839907213164</v>
+        <v>6.696903500739563</v>
       </c>
       <c r="D74">
-        <v>-0.03816009278683641</v>
+        <v>0.1469035007395636</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2153,13 +2153,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>6.73</v>
+        <v>6.55</v>
       </c>
       <c r="C75">
-        <v>6.698114659963534</v>
+        <v>6.687243708813692</v>
       </c>
       <c r="D75">
-        <v>-0.03188534003646648</v>
+        <v>0.137243708813692</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2167,13 +2167,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>6.73</v>
+        <v>6.55</v>
       </c>
       <c r="C76">
-        <v>6.694184740215921</v>
+        <v>6.683737779809273</v>
       </c>
       <c r="D76">
-        <v>-0.03581525978407907</v>
+        <v>0.1337377798092731</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2181,13 +2181,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>6.73</v>
+        <v>6.56</v>
       </c>
       <c r="C77">
-        <v>6.698851480099061</v>
+        <v>6.689654928496968</v>
       </c>
       <c r="D77">
-        <v>-0.03114851990093914</v>
+        <v>0.1296549284969686</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2195,13 +2195,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>6.74</v>
+        <v>6.56</v>
       </c>
       <c r="C78">
-        <v>6.693198125462378</v>
+        <v>6.693118861058351</v>
       </c>
       <c r="D78">
-        <v>-0.04680187453762219</v>
+        <v>0.1331188610583514</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2209,13 +2209,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>6.73</v>
+        <v>6.55</v>
       </c>
       <c r="C79">
-        <v>6.696707623207204</v>
+        <v>6.696715593816198</v>
       </c>
       <c r="D79">
-        <v>-0.0332923767927964</v>
+        <v>0.1467155938161984</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2223,13 +2223,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>6.74</v>
+        <v>6.55</v>
       </c>
       <c r="C80">
-        <v>6.701056928293313</v>
+        <v>6.701217995216635</v>
       </c>
       <c r="D80">
-        <v>-0.03894307170668743</v>
+        <v>0.1512179952166353</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2237,13 +2237,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>6.73</v>
+        <v>6.56</v>
       </c>
       <c r="C81">
-        <v>6.691986478421373</v>
+        <v>6.689460503675387</v>
       </c>
       <c r="D81">
-        <v>-0.0380135215786277</v>
+        <v>0.1294605036753875</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2251,13 +2251,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>6.74</v>
+        <v>6.56</v>
       </c>
       <c r="C82">
-        <v>6.69458667648368</v>
+        <v>6.692047561981696</v>
       </c>
       <c r="D82">
-        <v>-0.04541332351632033</v>
+        <v>0.1320475619816968</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2265,13 +2265,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>6.73</v>
+        <v>6.56</v>
       </c>
       <c r="C83">
-        <v>6.701839863507</v>
+        <v>6.691418238226706</v>
       </c>
       <c r="D83">
-        <v>-0.02816013649300064</v>
+        <v>0.131418238226706</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2279,13 +2279,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>6.74</v>
+        <v>6.56</v>
       </c>
       <c r="C84">
-        <v>6.705701559054806</v>
+        <v>6.697762812707285</v>
       </c>
       <c r="D84">
-        <v>-0.03429844094519385</v>
+        <v>0.137762812707285</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2293,13 +2293,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>6.71</v>
+        <v>6.56</v>
       </c>
       <c r="C85">
-        <v>6.699988126103592</v>
+        <v>6.700281879372198</v>
       </c>
       <c r="D85">
-        <v>-0.01001187389640812</v>
+        <v>0.140281879372198</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2307,13 +2307,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>6.72</v>
+        <v>6.55</v>
       </c>
       <c r="C86">
-        <v>6.696058270826364</v>
+        <v>6.691331361622463</v>
       </c>
       <c r="D86">
-        <v>-0.02394172917363591</v>
+        <v>0.1413313616224627</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2321,13 +2321,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>6.7</v>
+        <v>6.54</v>
       </c>
       <c r="C87">
-        <v>6.697401366844303</v>
+        <v>6.696788792694057</v>
       </c>
       <c r="D87">
-        <v>-0.002598633155697527</v>
+        <v>0.1567887926940568</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2335,13 +2335,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>6.7</v>
+        <v>6.54</v>
       </c>
       <c r="C88">
-        <v>6.684844282127021</v>
+        <v>6.67982681481075</v>
       </c>
       <c r="D88">
-        <v>-0.01515571787297887</v>
+        <v>0.1398268148107498</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2349,13 +2349,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>6.69</v>
+        <v>6.54</v>
       </c>
       <c r="C89">
-        <v>6.681215102498752</v>
+        <v>6.673168803670127</v>
       </c>
       <c r="D89">
-        <v>-0.008784897501248778</v>
+        <v>0.1331688036701273</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2363,13 +2363,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>6.7</v>
+        <v>6.56</v>
       </c>
       <c r="C90">
-        <v>6.685347288527592</v>
+        <v>6.67208653431953</v>
       </c>
       <c r="D90">
-        <v>-0.01465271147240799</v>
+        <v>0.1120865343195305</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2377,13 +2377,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>6.7</v>
+        <v>6.55</v>
       </c>
       <c r="C91">
-        <v>6.674094616435236</v>
+        <v>6.679854064124538</v>
       </c>
       <c r="D91">
-        <v>-0.0259053835647638</v>
+        <v>0.1298540641245385</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2391,13 +2391,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>6.7</v>
+        <v>6.57</v>
       </c>
       <c r="C92">
-        <v>6.677101226834723</v>
+        <v>6.689786229328553</v>
       </c>
       <c r="D92">
-        <v>-0.02289877316527722</v>
+        <v>0.119786229328553</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2405,13 +2405,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>6.7</v>
+        <v>6.57</v>
       </c>
       <c r="C93">
-        <v>6.678903640009099</v>
+        <v>6.693850148167782</v>
       </c>
       <c r="D93">
-        <v>-0.02109635999090109</v>
+        <v>0.1238501481677821</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2419,13 +2419,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>6.69</v>
+        <v>6.57</v>
       </c>
       <c r="C94">
-        <v>6.67624057310774</v>
+        <v>6.707794123585757</v>
       </c>
       <c r="D94">
-        <v>-0.01375942689226051</v>
+        <v>0.1377941235857572</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2433,13 +2433,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>6.71</v>
+        <v>6.57</v>
       </c>
       <c r="C95">
-        <v>6.673346551543852</v>
+        <v>6.70414859754193</v>
       </c>
       <c r="D95">
-        <v>-0.03665344845614804</v>
+        <v>0.1341485975419294</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2447,13 +2447,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>6.71</v>
+        <v>6.57</v>
       </c>
       <c r="C96">
-        <v>6.689359034102648</v>
+        <v>6.705031201563545</v>
       </c>
       <c r="D96">
-        <v>-0.02064096589735165</v>
+        <v>0.1350312015635451</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2461,13 +2461,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>6.69</v>
+        <v>6.56</v>
       </c>
       <c r="C97">
-        <v>6.68357256775779</v>
+        <v>6.701925018509871</v>
       </c>
       <c r="D97">
-        <v>-0.006427432242210429</v>
+        <v>0.1419250185098715</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2475,13 +2475,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>6.69</v>
+        <v>6.57</v>
       </c>
       <c r="C98">
-        <v>6.681810033037991</v>
+        <v>6.714019488808987</v>
       </c>
       <c r="D98">
-        <v>-0.00818996696200891</v>
+        <v>0.1440194888089872</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2489,13 +2489,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>6.69</v>
+        <v>6.57</v>
       </c>
       <c r="C99">
-        <v>6.678107909002526</v>
+        <v>6.703631648869297</v>
       </c>
       <c r="D99">
-        <v>-0.01189209099747401</v>
+        <v>0.1336316488692963</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2503,13 +2503,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>6.71</v>
+        <v>6.57</v>
       </c>
       <c r="C100">
-        <v>6.679558582785785</v>
+        <v>6.690899782115458</v>
       </c>
       <c r="D100">
-        <v>-0.03044141721421489</v>
+        <v>0.1208997821154574</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2517,13 +2517,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>6.71</v>
+        <v>6.57</v>
       </c>
       <c r="C101">
-        <v>6.675205987190961</v>
+        <v>6.688836175096161</v>
       </c>
       <c r="D101">
-        <v>-0.03479401280903893</v>
+        <v>0.1188361750961606</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2531,13 +2531,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>6.71</v>
+        <v>6.58</v>
       </c>
       <c r="C102">
-        <v>6.67508228190601</v>
+        <v>6.706293228090726</v>
       </c>
       <c r="D102">
-        <v>-0.03491771809398969</v>
+        <v>0.1262932280907263</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2545,13 +2545,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>6.71</v>
+        <v>6.56</v>
       </c>
       <c r="C103">
-        <v>6.667490617053168</v>
+        <v>6.694855746104301</v>
       </c>
       <c r="D103">
-        <v>-0.04250938294683237</v>
+        <v>0.1348557461043018</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2559,13 +2559,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>6.72</v>
+        <v>6.57</v>
       </c>
       <c r="C104">
-        <v>6.67268685497658</v>
+        <v>6.691379877724867</v>
       </c>
       <c r="D104">
-        <v>-0.04731314502341988</v>
+        <v>0.1213798777248671</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2573,13 +2573,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>6.71</v>
+        <v>6.58</v>
       </c>
       <c r="C105">
-        <v>6.670274761169847</v>
+        <v>6.699175778962458</v>
       </c>
       <c r="D105">
-        <v>-0.03972523883015278</v>
+        <v>0.1191757789624583</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2587,13 +2587,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>6.7</v>
+        <v>6.57</v>
       </c>
       <c r="C106">
-        <v>6.670263181731648</v>
+        <v>6.702252538117652</v>
       </c>
       <c r="D106">
-        <v>-0.02973681826835239</v>
+        <v>0.132252538117652</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2601,13 +2601,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>6.7</v>
+        <v>6.57</v>
       </c>
       <c r="C107">
-        <v>6.684560784512823</v>
+        <v>6.718732778877533</v>
       </c>
       <c r="D107">
-        <v>-0.01543921548717719</v>
+        <v>0.148732778877533</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2615,13 +2615,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>6.72</v>
+        <v>6.57</v>
       </c>
       <c r="C108">
-        <v>6.689631231468753</v>
+        <v>6.730395327270817</v>
       </c>
       <c r="D108">
-        <v>-0.03036876853124681</v>
+        <v>0.160395327270817</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2629,13 +2629,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>6.73</v>
+        <v>6.58</v>
       </c>
       <c r="C109">
-        <v>6.694960908710825</v>
+        <v>6.721332924866778</v>
       </c>
       <c r="D109">
-        <v>-0.03503909128917559</v>
+        <v>0.1413329248667781</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2643,13 +2643,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>6.73</v>
+        <v>6.57</v>
       </c>
       <c r="C110">
-        <v>6.70235763354743</v>
+        <v>6.724519761392968</v>
       </c>
       <c r="D110">
-        <v>-0.02764236645257068</v>
+        <v>0.1545197613929679</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2657,13 +2657,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>6.74</v>
+        <v>6.58</v>
       </c>
       <c r="C111">
-        <v>6.706871491721723</v>
+        <v>6.738734554106586</v>
       </c>
       <c r="D111">
-        <v>-0.03312850827827685</v>
+        <v>0.1587345541065863</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2671,13 +2671,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>6.75</v>
+        <v>6.58</v>
       </c>
       <c r="C112">
-        <v>6.70448787951229</v>
+        <v>6.741613167574624</v>
       </c>
       <c r="D112">
-        <v>-0.04551212048771003</v>
+        <v>0.1616131675746244</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2685,13 +2685,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>6.75</v>
+        <v>6.58</v>
       </c>
       <c r="C113">
-        <v>6.700125090979939</v>
+        <v>6.74899823928581</v>
       </c>
       <c r="D113">
-        <v>-0.04987490902006098</v>
+        <v>0.16899823928581</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2699,13 +2699,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>6.74</v>
+        <v>6.59</v>
       </c>
       <c r="C114">
-        <v>6.702842021484881</v>
+        <v>6.744965110401675</v>
       </c>
       <c r="D114">
-        <v>-0.03715797851511926</v>
+        <v>0.1549651104016752</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2713,13 +2713,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>6.74</v>
+        <v>6.58</v>
       </c>
       <c r="C115">
-        <v>6.7018198795352</v>
+        <v>6.743808978754653</v>
       </c>
       <c r="D115">
-        <v>-0.03818012046480046</v>
+        <v>0.1638089787546528</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2727,13 +2727,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>6.74</v>
+        <v>6.59</v>
       </c>
       <c r="C116">
-        <v>6.702269518256736</v>
+        <v>6.752288782706944</v>
       </c>
       <c r="D116">
-        <v>-0.03773048174326465</v>
+        <v>0.1622887827069439</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2741,13 +2741,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>6.75</v>
+        <v>6.59</v>
       </c>
       <c r="C117">
-        <v>6.695767363091842</v>
+        <v>6.757752175466304</v>
       </c>
       <c r="D117">
-        <v>-0.05423263690815805</v>
+        <v>0.1677521754663038</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2755,13 +2755,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>6.74</v>
+        <v>6.59</v>
       </c>
       <c r="C118">
-        <v>6.702194502787557</v>
+        <v>6.764927620396064</v>
       </c>
       <c r="D118">
-        <v>-0.03780549721244331</v>
+        <v>0.1749276203960646</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2769,13 +2769,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>6.74</v>
+        <v>6.58</v>
       </c>
       <c r="C119">
-        <v>6.694729784617832</v>
+        <v>6.766283023799038</v>
       </c>
       <c r="D119">
-        <v>-0.04527021538216847</v>
+        <v>0.1862830237990378</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2783,13 +2783,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>6.75</v>
+        <v>6.57</v>
       </c>
       <c r="C120">
-        <v>6.699820951512897</v>
+        <v>6.775484848593783</v>
       </c>
       <c r="D120">
-        <v>-0.05017904848710319</v>
+        <v>0.205484848593783</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2797,13 +2797,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>6.74</v>
+        <v>6.55</v>
       </c>
       <c r="C121">
-        <v>6.684773276072002</v>
+        <v>6.760893506116251</v>
       </c>
       <c r="D121">
-        <v>-0.05522672392799866</v>
+        <v>0.2108935061162516</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2811,13 +2811,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>6.73</v>
+        <v>6.54</v>
       </c>
       <c r="C122">
-        <v>6.670587776290518</v>
+        <v>6.757389779727586</v>
       </c>
       <c r="D122">
-        <v>-0.05941222370948207</v>
+        <v>0.2173897797275863</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2825,13 +2825,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>6.73</v>
+        <v>6.54</v>
       </c>
       <c r="C123">
-        <v>6.65904211581348</v>
+        <v>6.751588318900473</v>
       </c>
       <c r="D123">
-        <v>-0.07095788418652038</v>
+        <v>0.211588318900473</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2839,13 +2839,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>6.73</v>
+        <v>6.55</v>
       </c>
       <c r="C124">
-        <v>6.665010598182646</v>
+        <v>6.746583385935799</v>
       </c>
       <c r="D124">
-        <v>-0.06498940181735424</v>
+        <v>0.1965833859357993</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2853,13 +2853,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>6.73</v>
+        <v>6.53</v>
       </c>
       <c r="C125">
-        <v>6.657152153863458</v>
+        <v>6.762225470572267</v>
       </c>
       <c r="D125">
-        <v>-0.07284784613654249</v>
+        <v>0.2322254705722671</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2867,13 +2867,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>6.71</v>
+        <v>6.53</v>
       </c>
       <c r="C126">
-        <v>6.633428466553593</v>
+        <v>6.755475587690463</v>
       </c>
       <c r="D126">
-        <v>-0.07657153344640655</v>
+        <v>0.2254755876904628</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2881,13 +2881,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>6.7</v>
+        <v>6.53</v>
       </c>
       <c r="C127">
-        <v>6.633038823976139</v>
+        <v>6.747920638758846</v>
       </c>
       <c r="D127">
-        <v>-0.06696117602386131</v>
+        <v>0.2179206387588462</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2895,13 +2895,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>6.69</v>
+        <v>6.53</v>
       </c>
       <c r="C128">
-        <v>6.639310984653116</v>
+        <v>6.751091940671146</v>
       </c>
       <c r="D128">
-        <v>-0.05068901534688486</v>
+        <v>0.2210919406711458</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2909,13 +2909,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>6.69</v>
+        <v>6.52</v>
       </c>
       <c r="C129">
-        <v>6.641944421587287</v>
+        <v>6.737762057216476</v>
       </c>
       <c r="D129">
-        <v>-0.04805557841271302</v>
+        <v>0.2177620572164765</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2923,13 +2923,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>6.68</v>
+        <v>6.53</v>
       </c>
       <c r="C130">
-        <v>6.640998668074073</v>
+        <v>6.724018845450717</v>
       </c>
       <c r="D130">
-        <v>-0.03900133192592659</v>
+        <v>0.1940188454507172</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2937,13 +2937,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>6.68</v>
+        <v>6.51</v>
       </c>
       <c r="C131">
-        <v>6.647808764419177</v>
+        <v>6.717001659467122</v>
       </c>
       <c r="D131">
-        <v>-0.03219123558082249</v>
+        <v>0.2070016594671218</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2951,13 +2951,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>6.68</v>
+        <v>6.51</v>
       </c>
       <c r="C132">
-        <v>6.633469303922531</v>
+        <v>6.703658035559793</v>
       </c>
       <c r="D132">
-        <v>-0.04653069607746918</v>
+        <v>0.1936580355597934</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2965,13 +2965,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>6.68</v>
+        <v>6.51</v>
       </c>
       <c r="C133">
-        <v>6.641712881483577</v>
+        <v>6.718207820488312</v>
       </c>
       <c r="D133">
-        <v>-0.03828711851642286</v>
+        <v>0.2082078204883127</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2979,13 +2979,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>6.68</v>
+        <v>6.51</v>
       </c>
       <c r="C134">
-        <v>6.626281207246362</v>
+        <v>6.719991478092209</v>
       </c>
       <c r="D134">
-        <v>-0.05371879275363778</v>
+        <v>0.209991478092209</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2993,13 +2993,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>6.69</v>
+        <v>6.5</v>
       </c>
       <c r="C135">
-        <v>6.642202731775087</v>
+        <v>6.735687538041746</v>
       </c>
       <c r="D135">
-        <v>-0.04779726822491348</v>
+        <v>0.2356875380417458</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3007,13 +3007,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C136">
-        <v>6.638461490240178</v>
+        <v>6.732806081252206</v>
       </c>
       <c r="D136">
-        <v>-0.06153850975982245</v>
+        <v>0.2328060812522059</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3021,13 +3021,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C137">
-        <v>6.640892341112317</v>
+        <v>6.730864246558478</v>
       </c>
       <c r="D137">
-        <v>-0.0591076588876831</v>
+        <v>0.230864246558478</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3035,13 +3035,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>6.7</v>
+        <v>6.51</v>
       </c>
       <c r="C138">
-        <v>6.629887897641876</v>
+        <v>6.725173314001931</v>
       </c>
       <c r="D138">
-        <v>-0.07011210235812371</v>
+        <v>0.2151733140019312</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3049,13 +3049,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>6.7</v>
+        <v>6.51</v>
       </c>
       <c r="C139">
-        <v>6.636057534644636</v>
+        <v>6.72027060010416</v>
       </c>
       <c r="D139">
-        <v>-0.06394246535536396</v>
+        <v>0.2102706001041605</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3063,13 +3063,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>6.71</v>
+        <v>6.5</v>
       </c>
       <c r="C140">
-        <v>6.635879482003129</v>
+        <v>6.722348379527236</v>
       </c>
       <c r="D140">
-        <v>-0.07412051799687092</v>
+        <v>0.2223483795272356</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3077,13 +3077,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>6.7</v>
+        <v>6.48</v>
       </c>
       <c r="C141">
-        <v>6.630319842904655</v>
+        <v>6.705466198820626</v>
       </c>
       <c r="D141">
-        <v>-0.0696801570953447</v>
+        <v>0.2254661988206257</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3091,13 +3091,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C142">
-        <v>6.626412956377183</v>
+        <v>6.703743190682764</v>
       </c>
       <c r="D142">
-        <v>-0.07358704362281721</v>
+        <v>0.203743190682764</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3105,13 +3105,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>6.69</v>
+        <v>6.49</v>
       </c>
       <c r="C143">
-        <v>6.618925818979672</v>
+        <v>6.711184173004832</v>
       </c>
       <c r="D143">
-        <v>-0.07107418102032881</v>
+        <v>0.2211841730048318</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3119,13 +3119,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>6.7</v>
+        <v>6.48</v>
       </c>
       <c r="C144">
-        <v>6.620248747206424</v>
+        <v>6.700355847582339</v>
       </c>
       <c r="D144">
-        <v>-0.0797512527935762</v>
+        <v>0.2203558475823391</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3133,13 +3133,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>6.7</v>
+        <v>6.46</v>
       </c>
       <c r="C145">
-        <v>6.626277269669813</v>
+        <v>6.697679933238526</v>
       </c>
       <c r="D145">
-        <v>-0.0737227303301875</v>
+        <v>0.2376799332385264</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3147,13 +3147,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>6.72</v>
+        <v>6.47</v>
       </c>
       <c r="C146">
-        <v>6.627761599076611</v>
+        <v>6.670780079673693</v>
       </c>
       <c r="D146">
-        <v>-0.09223840092338875</v>
+        <v>0.2007800796736934</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3161,13 +3161,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>6.73</v>
+        <v>6.47</v>
       </c>
       <c r="C147">
-        <v>6.630898520099209</v>
+        <v>6.658213294345226</v>
       </c>
       <c r="D147">
-        <v>-0.09910147990079121</v>
+        <v>0.1882132943452266</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3175,13 +3175,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>6.72</v>
+        <v>6.48</v>
       </c>
       <c r="C148">
-        <v>6.631834412756914</v>
+        <v>6.669168145114027</v>
       </c>
       <c r="D148">
-        <v>-0.08816558724308621</v>
+        <v>0.189168145114027</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3189,13 +3189,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>6.73</v>
+        <v>6.47</v>
       </c>
       <c r="C149">
-        <v>6.621154619972059</v>
+        <v>6.663072262868419</v>
       </c>
       <c r="D149">
-        <v>-0.1088453800279412</v>
+        <v>0.1930722628684194</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3203,13 +3203,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>6.72</v>
+        <v>6.48</v>
       </c>
       <c r="C150">
-        <v>6.633105565728004</v>
+        <v>6.664762724438959</v>
       </c>
       <c r="D150">
-        <v>-0.08689443427199528</v>
+        <v>0.1847627244389587</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3217,13 +3217,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>6.73</v>
+        <v>6.47</v>
       </c>
       <c r="C151">
-        <v>6.635699720853135</v>
+        <v>6.650908250202396</v>
       </c>
       <c r="D151">
-        <v>-0.09430027914686523</v>
+        <v>0.1809082502023962</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3231,13 +3231,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>6.74</v>
+        <v>6.46</v>
       </c>
       <c r="C152">
-        <v>6.63906032969408</v>
+        <v>6.661665808138451</v>
       </c>
       <c r="D152">
-        <v>-0.1009396703059204</v>
+        <v>0.2016658081384506</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3245,13 +3245,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>6.73</v>
+        <v>6.46</v>
       </c>
       <c r="C153">
-        <v>6.642549392527882</v>
+        <v>6.673144791622021</v>
       </c>
       <c r="D153">
-        <v>-0.08745060747211841</v>
+        <v>0.213144791622021</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3259,13 +3259,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>6.73</v>
+        <v>6.47</v>
       </c>
       <c r="C154">
-        <v>6.644035136530738</v>
+        <v>6.656933276569283</v>
       </c>
       <c r="D154">
-        <v>-0.08596486346926202</v>
+        <v>0.1869332765692828</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3273,13 +3273,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>6.72</v>
+        <v>6.46</v>
       </c>
       <c r="C155">
-        <v>6.64353626839259</v>
+        <v>6.643318180208559</v>
       </c>
       <c r="D155">
-        <v>-0.07646373160740971</v>
+        <v>0.1833181802085591</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3287,13 +3287,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>6.71</v>
+        <v>6.46</v>
       </c>
       <c r="C156">
-        <v>6.640278566038993</v>
+        <v>6.648567004411782</v>
       </c>
       <c r="D156">
-        <v>-0.06972143396100705</v>
+        <v>0.188567004411782</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3301,13 +3301,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>6.71</v>
+        <v>6.46</v>
       </c>
       <c r="C157">
-        <v>6.636181660020301</v>
+        <v>6.658652040136361</v>
       </c>
       <c r="D157">
-        <v>-0.07381833997969878</v>
+        <v>0.198652040136361</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3315,13 +3315,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>6.7</v>
+        <v>6.45</v>
       </c>
       <c r="C158">
-        <v>6.628502753258242</v>
+        <v>6.667628336533959</v>
       </c>
       <c r="D158">
-        <v>-0.0714972467417585</v>
+        <v>0.2176283365339593</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3329,13 +3329,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>6.71</v>
+        <v>6.44</v>
       </c>
       <c r="C159">
-        <v>6.637033481777384</v>
+        <v>6.665775415305299</v>
       </c>
       <c r="D159">
-        <v>-0.07296651822261602</v>
+        <v>0.2257754153052982</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3343,13 +3343,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>6.71</v>
+        <v>6.43</v>
       </c>
       <c r="C160">
-        <v>6.620865462885443</v>
+        <v>6.64470146103073</v>
       </c>
       <c r="D160">
-        <v>-0.08913453711455688</v>
+        <v>0.2147014610307307</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3357,13 +3357,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>6.7</v>
+        <v>6.43</v>
       </c>
       <c r="C161">
-        <v>6.621010577493881</v>
+        <v>6.636824152766109</v>
       </c>
       <c r="D161">
-        <v>-0.07898942250611896</v>
+        <v>0.2068241527661092</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3371,13 +3371,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>6.7</v>
+        <v>6.44</v>
       </c>
       <c r="C162">
-        <v>6.62219799332314</v>
+        <v>6.628686911629225</v>
       </c>
       <c r="D162">
-        <v>-0.0778020066768601</v>
+        <v>0.1886869116292242</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3385,13 +3385,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>6.7</v>
+        <v>6.44</v>
       </c>
       <c r="C163">
-        <v>6.622628722434079</v>
+        <v>6.624823426775003</v>
       </c>
       <c r="D163">
-        <v>-0.07737127756592166</v>
+        <v>0.1848234267750026</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3399,13 +3399,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>6.7</v>
+        <v>6.45</v>
       </c>
       <c r="C164">
-        <v>6.618897107684318</v>
+        <v>6.623233237436145</v>
       </c>
       <c r="D164">
-        <v>-0.08110289231568224</v>
+        <v>0.1732332374361452</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3413,13 +3413,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>6.7</v>
+        <v>6.44</v>
       </c>
       <c r="C165">
-        <v>6.622186175586672</v>
+        <v>6.608534562157289</v>
       </c>
       <c r="D165">
-        <v>-0.07781382441332774</v>
+        <v>0.1685345621572889</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3427,13 +3427,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>6.71</v>
+        <v>6.45</v>
       </c>
       <c r="C166">
-        <v>6.622819495310556</v>
+        <v>6.610891487089241</v>
       </c>
       <c r="D166">
-        <v>-0.08718050468944405</v>
+        <v>0.1608914870892413</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3441,13 +3441,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>6.7</v>
+        <v>6.45</v>
       </c>
       <c r="C167">
-        <v>6.624583079066313</v>
+        <v>6.618050101449056</v>
       </c>
       <c r="D167">
-        <v>-0.07541692093368724</v>
+        <v>0.1680501014490563</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3455,13 +3455,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>6.72</v>
+        <v>6.45</v>
       </c>
       <c r="C168">
-        <v>6.629879273967368</v>
+        <v>6.604464395103652</v>
       </c>
       <c r="D168">
-        <v>-0.09012072603263199</v>
+        <v>0.154464395103652</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3469,13 +3469,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>6.73</v>
+        <v>6.44</v>
       </c>
       <c r="C169">
-        <v>6.627849602553003</v>
+        <v>6.604955095101025</v>
       </c>
       <c r="D169">
-        <v>-0.1021503974469971</v>
+        <v>0.1649550951010248</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3483,13 +3483,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>6.72</v>
+        <v>6.44</v>
       </c>
       <c r="C170">
-        <v>6.630375831146131</v>
+        <v>6.602954280753637</v>
       </c>
       <c r="D170">
-        <v>-0.08962416885386837</v>
+        <v>0.1629542807536364</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3497,13 +3497,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>6.71</v>
+        <v>6.45</v>
       </c>
       <c r="C171">
-        <v>6.621781798377868</v>
+        <v>6.617973594606224</v>
       </c>
       <c r="D171">
-        <v>-0.08821820162213179</v>
+        <v>0.1679735946062237</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3511,13 +3511,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>6.73</v>
+        <v>6.45</v>
       </c>
       <c r="C172">
-        <v>6.625904850815458</v>
+        <v>6.611431115309208</v>
       </c>
       <c r="D172">
-        <v>-0.1040951491845421</v>
+        <v>0.1614311153092078</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3525,13 +3525,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>6.74</v>
+        <v>6.46</v>
       </c>
       <c r="C173">
-        <v>6.622752482752847</v>
+        <v>6.622440841621288</v>
       </c>
       <c r="D173">
-        <v>-0.1172475172471534</v>
+        <v>0.1624408416212884</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3539,13 +3539,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>6.73</v>
+        <v>6.48</v>
       </c>
       <c r="C174">
-        <v>6.624366954105656</v>
+        <v>6.636127269342807</v>
       </c>
       <c r="D174">
-        <v>-0.1056330458943444</v>
+        <v>0.1561272693428064</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3553,13 +3553,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>6.73</v>
+        <v>6.49</v>
       </c>
       <c r="C175">
-        <v>6.622377789811938</v>
+        <v>6.640943065646437</v>
       </c>
       <c r="D175">
-        <v>-0.1076222101880626</v>
+        <v>0.1509430656464366</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3567,13 +3567,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>6.72</v>
+        <v>6.49</v>
       </c>
       <c r="C176">
-        <v>6.619744991861013</v>
+        <v>6.627220597545571</v>
       </c>
       <c r="D176">
-        <v>-0.100255008138987</v>
+        <v>0.1372205975455705</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3581,13 +3581,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>6.71</v>
+        <v>6.48</v>
       </c>
       <c r="C177">
-        <v>6.62087961897871</v>
+        <v>6.632977595998681</v>
       </c>
       <c r="D177">
-        <v>-0.08912038102129038</v>
+        <v>0.1529775959986805</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3595,13 +3595,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>6.72</v>
+        <v>6.48</v>
       </c>
       <c r="C178">
-        <v>6.619700028186469</v>
+        <v>6.622546125231248</v>
       </c>
       <c r="D178">
-        <v>-0.1002999718135307</v>
+        <v>0.1425461252312479</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3609,13 +3609,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>6.72</v>
+        <v>6.48</v>
       </c>
       <c r="C179">
-        <v>6.625139133290125</v>
+        <v>6.623735121811296</v>
       </c>
       <c r="D179">
-        <v>-0.09486086670987426</v>
+        <v>0.1437351218112957</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3623,13 +3623,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>6.73</v>
+        <v>6.47</v>
       </c>
       <c r="C180">
-        <v>6.625030446239223</v>
+        <v>6.625314159596319</v>
       </c>
       <c r="D180">
-        <v>-0.1049695537607773</v>
+        <v>0.155314159596319</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3637,13 +3637,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>6.73</v>
+        <v>6.46</v>
       </c>
       <c r="C181">
-        <v>6.624224705270517</v>
+        <v>6.618972311366167</v>
       </c>
       <c r="D181">
-        <v>-0.1057752947294839</v>
+        <v>0.158972311366167</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3651,13 +3651,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>6.73</v>
+        <v>6.47</v>
       </c>
       <c r="C182">
-        <v>6.624357100501547</v>
+        <v>6.61678839802462</v>
       </c>
       <c r="D182">
-        <v>-0.1056428994984531</v>
+        <v>0.1467883980246203</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3665,13 +3665,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>6.73</v>
+        <v>6.48</v>
       </c>
       <c r="C183">
-        <v>6.621155370599678</v>
+        <v>6.629951555753746</v>
       </c>
       <c r="D183">
-        <v>-0.1088446294003225</v>
+        <v>0.1499515557537459</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3679,13 +3679,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>6.72</v>
+        <v>6.47</v>
       </c>
       <c r="C184">
-        <v>6.616062265255755</v>
+        <v>6.630407427912478</v>
       </c>
       <c r="D184">
-        <v>-0.1039377347442443</v>
+        <v>0.1604074279124781</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3693,13 +3693,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>6.71</v>
+        <v>6.47</v>
       </c>
       <c r="C185">
-        <v>6.611212089851668</v>
+        <v>6.625769249458508</v>
       </c>
       <c r="D185">
-        <v>-0.09878791014833155</v>
+        <v>0.1557692494585083</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3707,13 +3707,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>6.7</v>
+        <v>6.48</v>
       </c>
       <c r="C186">
-        <v>6.605081737407379</v>
+        <v>6.628323677976879</v>
       </c>
       <c r="D186">
-        <v>-0.09491826259262126</v>
+        <v>0.1483236779768786</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3721,13 +3721,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>6.7</v>
+        <v>6.47</v>
       </c>
       <c r="C187">
-        <v>6.607781804703852</v>
+        <v>6.602155382879229</v>
       </c>
       <c r="D187">
-        <v>-0.09221819529614805</v>
+        <v>0.1321553828792297</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3735,13 +3735,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>6.69</v>
+        <v>6.46</v>
       </c>
       <c r="C188">
-        <v>6.598360256712351</v>
+        <v>6.604377093504431</v>
       </c>
       <c r="D188">
-        <v>-0.09163974328764901</v>
+        <v>0.1443770935044313</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3749,13 +3749,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>6.7</v>
+        <v>6.45</v>
       </c>
       <c r="C189">
-        <v>6.600512822152475</v>
+        <v>6.603959016280696</v>
       </c>
       <c r="D189">
-        <v>-0.09948717784752503</v>
+        <v>0.1539590162806963</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3763,13 +3763,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>6.7</v>
+        <v>6.47</v>
       </c>
       <c r="C190">
-        <v>6.605954531502602</v>
+        <v>6.588439610280257</v>
       </c>
       <c r="D190">
-        <v>-0.09404546849739859</v>
+        <v>0.118439610280257</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3777,13 +3777,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>6.69</v>
+        <v>6.47</v>
       </c>
       <c r="C191">
-        <v>6.60142604245451</v>
+        <v>6.590368139652253</v>
       </c>
       <c r="D191">
-        <v>-0.08857395754549025</v>
+        <v>0.1203681396522533</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3791,13 +3791,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>6.69</v>
+        <v>6.46</v>
       </c>
       <c r="C192">
-        <v>6.611485077384502</v>
+        <v>6.592952314797965</v>
       </c>
       <c r="D192">
-        <v>-0.07851492261549886</v>
+        <v>0.132952314797965</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3805,13 +3805,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>6.72</v>
+        <v>6.45</v>
       </c>
       <c r="C193">
-        <v>6.609328049784621</v>
+        <v>6.596071178283117</v>
       </c>
       <c r="D193">
-        <v>-0.1106719502153783</v>
+        <v>0.1460711782831172</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3819,13 +3819,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>6.71</v>
+        <v>6.45</v>
       </c>
       <c r="C194">
-        <v>6.612622351676463</v>
+        <v>6.588647002002031</v>
       </c>
       <c r="D194">
-        <v>-0.0973776483235369</v>
+        <v>0.1386470020020312</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3833,13 +3833,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>6.69</v>
+        <v>6.45</v>
       </c>
       <c r="C195">
-        <v>6.615064568712136</v>
+        <v>6.56913829250298</v>
       </c>
       <c r="D195">
-        <v>-0.07493543128786406</v>
+        <v>0.1191382925029796</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3847,13 +3847,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>6.68</v>
+        <v>6.45</v>
       </c>
       <c r="C196">
-        <v>6.603545613492057</v>
+        <v>6.567636115658671</v>
       </c>
       <c r="D196">
-        <v>-0.07645438650794301</v>
+        <v>0.1176361156586712</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3861,13 +3861,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>6.68</v>
+        <v>6.45</v>
       </c>
       <c r="C197">
-        <v>6.59749867350834</v>
+        <v>6.575845816029257</v>
       </c>
       <c r="D197">
-        <v>-0.08250132649166009</v>
+        <v>0.1258458160292566</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3875,13 +3875,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>6.7</v>
+        <v>6.45</v>
       </c>
       <c r="C198">
-        <v>6.599605415580419</v>
+        <v>6.576733560621345</v>
       </c>
       <c r="D198">
-        <v>-0.1003945844195808</v>
+        <v>0.1267335606213447</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3889,13 +3889,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>6.7</v>
+        <v>6.44</v>
       </c>
       <c r="C199">
-        <v>6.6070998574055</v>
+        <v>6.575445958791151</v>
       </c>
       <c r="D199">
-        <v>-0.09290014259449997</v>
+        <v>0.1354459587911503</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3903,13 +3903,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>6.71</v>
+        <v>6.44</v>
       </c>
       <c r="C200">
-        <v>6.627885960367998</v>
+        <v>6.571651032423673</v>
       </c>
       <c r="D200">
-        <v>-0.08211403963200148</v>
+        <v>0.1316510324236724</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3917,13 +3917,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>6.72</v>
+        <v>6.44</v>
       </c>
       <c r="C201">
-        <v>6.619667510540109</v>
+        <v>6.555029299041247</v>
       </c>
       <c r="D201">
-        <v>-0.1003324894598911</v>
+        <v>0.1150292990412467</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3931,13 +3931,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>6.71</v>
+        <v>6.43</v>
       </c>
       <c r="C202">
-        <v>6.619181155259381</v>
+        <v>6.554144266072483</v>
       </c>
       <c r="D202">
-        <v>-0.0908188447406193</v>
+        <v>0.1241442660724834</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3945,13 +3945,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>6.72</v>
+        <v>6.43</v>
       </c>
       <c r="C203">
-        <v>6.626361101734326</v>
+        <v>6.532651949098136</v>
       </c>
       <c r="D203">
-        <v>-0.09363889826567373</v>
+        <v>0.1026519490981359</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3959,13 +3959,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>6.72</v>
+        <v>6.44</v>
       </c>
       <c r="C204">
-        <v>6.623694477389111</v>
+        <v>6.532355269017002</v>
       </c>
       <c r="D204">
-        <v>-0.09630552261088887</v>
+        <v>0.09235526901700197</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3973,13 +3973,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>6.74</v>
+        <v>6.43</v>
       </c>
       <c r="C205">
-        <v>6.620690510415531</v>
+        <v>6.534254668672046</v>
       </c>
       <c r="D205">
-        <v>-0.1193094895844693</v>
+        <v>0.1042546686720458</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3987,13 +3987,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>6.73</v>
+        <v>6.44</v>
       </c>
       <c r="C206">
-        <v>6.626656282546816</v>
+        <v>6.537992422054793</v>
       </c>
       <c r="D206">
-        <v>-0.1033437174531846</v>
+        <v>0.09799242205479253</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4001,13 +4001,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>6.74</v>
+        <v>6.43</v>
       </c>
       <c r="C207">
-        <v>6.625770026703967</v>
+        <v>6.536677366697993</v>
       </c>
       <c r="D207">
-        <v>-0.114229973296033</v>
+        <v>0.1066773666979932</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4015,13 +4015,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>6.74</v>
+        <v>6.44</v>
       </c>
       <c r="C208">
-        <v>6.631846188730843</v>
+        <v>6.540671143989928</v>
       </c>
       <c r="D208">
-        <v>-0.1081538112691574</v>
+        <v>0.1006711439899277</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4029,13 +4029,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>6.73</v>
+        <v>6.44</v>
       </c>
       <c r="C209">
-        <v>6.632883397621383</v>
+        <v>6.542516309199573</v>
       </c>
       <c r="D209">
-        <v>-0.09711660237861697</v>
+        <v>0.1025163091995722</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4043,13 +4043,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>6.73</v>
+        <v>6.43</v>
       </c>
       <c r="C210">
-        <v>6.631706386892376</v>
+        <v>6.533079861794762</v>
       </c>
       <c r="D210">
-        <v>-0.09829361310762419</v>
+        <v>0.1030798617947619</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4057,13 +4057,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>6.75</v>
+        <v>6.43</v>
       </c>
       <c r="C211">
-        <v>6.630795473504496</v>
+        <v>6.523136060060671</v>
       </c>
       <c r="D211">
-        <v>-0.1192045264955039</v>
+        <v>0.09313606006067143</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4071,13 +4071,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>6.76</v>
+        <v>6.44</v>
       </c>
       <c r="C212">
-        <v>6.640225495299553</v>
+        <v>6.535872537666996</v>
       </c>
       <c r="D212">
-        <v>-0.1197745047004473</v>
+        <v>0.09587253766699533</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4085,13 +4085,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>6.76</v>
+        <v>6.42</v>
       </c>
       <c r="C213">
-        <v>6.638299983085129</v>
+        <v>6.522036850967305</v>
       </c>
       <c r="D213">
-        <v>-0.121700016914871</v>
+        <v>0.1020368509673046</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4099,13 +4099,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>6.74</v>
+        <v>6.43</v>
       </c>
       <c r="C214">
-        <v>6.630691894261443</v>
+        <v>6.517283761621155</v>
       </c>
       <c r="D214">
-        <v>-0.109308105738557</v>
+        <v>0.0872837616211557</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4113,13 +4113,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>6.75</v>
+        <v>6.43</v>
       </c>
       <c r="C215">
-        <v>6.629880307702931</v>
+        <v>6.50720560460615</v>
       </c>
       <c r="D215">
-        <v>-0.1201196922970693</v>
+        <v>0.07720560460615022</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4127,13 +4127,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>6.77</v>
+        <v>6.41</v>
       </c>
       <c r="C216">
-        <v>6.640594743583621</v>
+        <v>6.500744860833676</v>
       </c>
       <c r="D216">
-        <v>-0.129405256416379</v>
+        <v>0.09074486083367628</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4141,13 +4141,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>6.79</v>
+        <v>6.42</v>
       </c>
       <c r="C217">
-        <v>6.635412326710166</v>
+        <v>6.494918521584066</v>
       </c>
       <c r="D217">
-        <v>-0.1545876732898339</v>
+        <v>0.07491852158406598</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4155,13 +4155,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>6.8</v>
+        <v>6.42</v>
       </c>
       <c r="C218">
-        <v>6.628149360122024</v>
+        <v>6.481320742295083</v>
       </c>
       <c r="D218">
-        <v>-0.1718506398779756</v>
+        <v>0.06132074229508344</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4169,13 +4169,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>6.75</v>
+        <v>6.43</v>
       </c>
       <c r="C219">
-        <v>6.614177510936485</v>
+        <v>6.503901205720727</v>
       </c>
       <c r="D219">
-        <v>-0.1358224890635151</v>
+        <v>0.07390120572072778</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4183,13 +4183,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>6.73</v>
+        <v>6.43</v>
       </c>
       <c r="C220">
-        <v>6.611341998510114</v>
+        <v>6.487177570543852</v>
       </c>
       <c r="D220">
-        <v>-0.1186580014898864</v>
+        <v>0.05717757054385242</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4197,13 +4197,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>6.73</v>
+        <v>6.44</v>
       </c>
       <c r="C221">
-        <v>6.630866677063273</v>
+        <v>6.486299172327931</v>
       </c>
       <c r="D221">
-        <v>-0.09913332293672728</v>
+        <v>0.0462991723279309</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4211,13 +4211,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>6.72</v>
+        <v>6.45</v>
       </c>
       <c r="C222">
-        <v>6.617682532423621</v>
+        <v>6.492662080236072</v>
       </c>
       <c r="D222">
-        <v>-0.1023174675763787</v>
+        <v>0.04266208023607199</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4225,13 +4225,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>6.72</v>
+        <v>6.44</v>
       </c>
       <c r="C223">
-        <v>6.634613958743281</v>
+        <v>6.490505025589338</v>
       </c>
       <c r="D223">
-        <v>-0.08538604125671867</v>
+        <v>0.050505025589338</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4239,13 +4239,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>6.75</v>
+        <v>6.44</v>
       </c>
       <c r="C224">
-        <v>6.644285614615142</v>
+        <v>6.495549894187737</v>
       </c>
       <c r="D224">
-        <v>-0.1057143853848581</v>
+        <v>0.05554989418773637</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4253,13 +4253,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>6.78</v>
+        <v>6.44</v>
       </c>
       <c r="C225">
-        <v>6.652280116402998</v>
+        <v>6.490895173478884</v>
       </c>
       <c r="D225">
-        <v>-0.1277198835970026</v>
+        <v>0.05089517347888339</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4267,13 +4267,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>6.79</v>
+        <v>6.46</v>
       </c>
       <c r="C226">
-        <v>6.646402206810611</v>
+        <v>6.494341773850393</v>
       </c>
       <c r="D226">
-        <v>-0.1435977931893895</v>
+        <v>0.03434177385039305</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4281,13 +4281,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>6.8</v>
+        <v>6.46</v>
       </c>
       <c r="C227">
-        <v>6.647664950932801</v>
+        <v>6.474092434320167</v>
       </c>
       <c r="D227">
-        <v>-0.1523350490671991</v>
+        <v>0.01409243432016716</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4295,13 +4295,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>6.78</v>
+        <v>6.48</v>
       </c>
       <c r="C228">
-        <v>6.630982658528525</v>
+        <v>6.489462782184392</v>
       </c>
       <c r="D228">
-        <v>-0.1490173414714757</v>
+        <v>0.009462782184392005</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4309,13 +4309,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>6.77</v>
+        <v>6.48</v>
       </c>
       <c r="C229">
-        <v>6.628955209415813</v>
+        <v>6.49647303507798</v>
       </c>
       <c r="D229">
-        <v>-0.1410447905841865</v>
+        <v>0.01647303507798004</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4323,13 +4323,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>6.78</v>
+        <v>6.48</v>
       </c>
       <c r="C230">
-        <v>6.636650550937358</v>
+        <v>6.507567338979974</v>
       </c>
       <c r="D230">
-        <v>-0.1433494490626419</v>
+        <v>0.02756733897997332</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4337,13 +4337,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>6.78</v>
+        <v>6.48</v>
       </c>
       <c r="C231">
-        <v>6.63149281084286</v>
+        <v>6.503929025567667</v>
       </c>
       <c r="D231">
-        <v>-0.1485071891571401</v>
+        <v>0.02392902556766696</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4351,13 +4351,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>6.81</v>
+        <v>6.48</v>
       </c>
       <c r="C232">
-        <v>6.636433300198383</v>
+        <v>6.498768006169194</v>
       </c>
       <c r="D232">
-        <v>-0.1735666998016168</v>
+        <v>0.01876800616919372</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4365,13 +4365,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>6.82</v>
+        <v>6.48</v>
       </c>
       <c r="C233">
-        <v>6.649308147837426</v>
+        <v>6.485051504179288</v>
       </c>
       <c r="D233">
-        <v>-0.170691852162574</v>
+        <v>0.005051504179287569</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4379,13 +4379,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>6.82</v>
+        <v>6.48</v>
       </c>
       <c r="C234">
-        <v>6.646155298886394</v>
+        <v>6.487898085688502</v>
       </c>
       <c r="D234">
-        <v>-0.1738447011136062</v>
+        <v>0.007898085688501588</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4393,13 +4393,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>6.81</v>
+        <v>6.49</v>
       </c>
       <c r="C235">
-        <v>6.634878502444784</v>
+        <v>6.48424210315956</v>
       </c>
       <c r="D235">
-        <v>-0.1751214975552156</v>
+        <v>-0.005757896840440146</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4407,13 +4407,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>6.83</v>
+        <v>6.51</v>
       </c>
       <c r="C236">
-        <v>6.634810876355654</v>
+        <v>6.503191851114814</v>
       </c>
       <c r="D236">
-        <v>-0.1951891236443464</v>
+        <v>-0.006808148885185439</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4421,13 +4421,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>6.81</v>
+        <v>6.52</v>
       </c>
       <c r="C237">
-        <v>6.641118313191023</v>
+        <v>6.507758659877971</v>
       </c>
       <c r="D237">
-        <v>-0.1688816868089766</v>
+        <v>-0.01224134012202871</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4435,13 +4435,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>6.81</v>
+        <v>6.54</v>
       </c>
       <c r="C238">
-        <v>6.619842576796091</v>
+        <v>6.524236651474488</v>
       </c>
       <c r="D238">
-        <v>-0.1901574232039085</v>
+        <v>-0.0157633485255122</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4449,13 +4449,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>6.82</v>
+        <v>6.53</v>
       </c>
       <c r="C239">
-        <v>6.610316208675477</v>
+        <v>6.508371008548871</v>
       </c>
       <c r="D239">
-        <v>-0.2096837913245233</v>
+        <v>-0.02162899145112895</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4463,13 +4463,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>6.8</v>
+        <v>6.54</v>
       </c>
       <c r="C240">
-        <v>6.612532702792291</v>
+        <v>6.489076391711925</v>
       </c>
       <c r="D240">
-        <v>-0.1874672972077089</v>
+        <v>-0.05092360828807507</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4477,13 +4477,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>6.78</v>
+        <v>6.54</v>
       </c>
       <c r="C241">
-        <v>6.612070977346121</v>
+        <v>6.498182366195492</v>
       </c>
       <c r="D241">
-        <v>-0.1679290226538797</v>
+        <v>-0.04181763380450754</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4491,13 +4491,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>6.76</v>
+        <v>6.57</v>
       </c>
       <c r="C242">
-        <v>6.611022146105037</v>
+        <v>6.504889607751889</v>
       </c>
       <c r="D242">
-        <v>-0.1489778538949631</v>
+        <v>-0.0651103922481111</v>
       </c>
     </row>
   </sheetData>

--- a/temp/Yesterdaytest.xlsx
+++ b/temp/Yesterdaytest.xlsx
@@ -28,727 +28,727 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-06-20 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:09:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:14:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:54:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 09:30:00</t>
+    <t>2019-07-31 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:59:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:50:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:22:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:01:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:55:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:53:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:47:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:26:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:13:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:09:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:30:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:28:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:23:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:19:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:17:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:13:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:04:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:50:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:38:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:31:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:59:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:58:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:53:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:46:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:44:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:32:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:30:00</t>
   </si>
 </sst>
 </file>
@@ -1131,13 +1131,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.61</v>
+        <v>6.28</v>
       </c>
       <c r="C2">
-        <v>6.772074221473921</v>
+        <v>6.730863380213148</v>
       </c>
       <c r="D2">
-        <v>0.1620742214739206</v>
+        <v>0.4508633802131481</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1145,13 +1145,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.61</v>
+        <v>6.28</v>
       </c>
       <c r="C3">
-        <v>6.772795289550959</v>
+        <v>6.732906234210788</v>
       </c>
       <c r="D3">
-        <v>0.1627952895509583</v>
+        <v>0.4529062342107881</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1159,13 +1159,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.61</v>
+        <v>6.28</v>
       </c>
       <c r="C4">
-        <v>6.772795289550959</v>
+        <v>6.732906234210788</v>
       </c>
       <c r="D4">
-        <v>0.1627952895509583</v>
+        <v>0.4529062342107881</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1173,13 +1173,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.61</v>
+        <v>6.27</v>
       </c>
       <c r="C5">
-        <v>6.771763882512524</v>
+        <v>6.732641144060165</v>
       </c>
       <c r="D5">
-        <v>0.161763882512524</v>
+        <v>0.4626411440601652</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1187,13 +1187,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.6</v>
+        <v>6.28</v>
       </c>
       <c r="C6">
-        <v>6.77469751585071</v>
+        <v>6.729747159207197</v>
       </c>
       <c r="D6">
-        <v>0.1746975158507107</v>
+        <v>0.4497471592071971</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1201,13 +1201,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.6</v>
+        <v>6.27</v>
       </c>
       <c r="C7">
-        <v>6.764062513910956</v>
+        <v>6.729391337647061</v>
       </c>
       <c r="D7">
-        <v>0.1640625139109568</v>
+        <v>0.4593913376470615</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1215,13 +1215,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.59</v>
+        <v>6.28</v>
       </c>
       <c r="C8">
-        <v>6.764478085141097</v>
+        <v>6.731629164765127</v>
       </c>
       <c r="D8">
-        <v>0.1744780851410974</v>
+        <v>0.4516291647651265</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1229,13 +1229,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.6</v>
+        <v>6.28</v>
       </c>
       <c r="C9">
-        <v>6.76512074783435</v>
+        <v>6.73174566267796</v>
       </c>
       <c r="D9">
-        <v>0.1651207478343499</v>
+        <v>0.4517456626779595</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1243,13 +1243,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.59</v>
+        <v>6.27</v>
       </c>
       <c r="C10">
-        <v>6.768209114982528</v>
+        <v>6.735188218678901</v>
       </c>
       <c r="D10">
-        <v>0.1782091149825282</v>
+        <v>0.4651882186789011</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1257,13 +1257,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6.59</v>
+        <v>6.28</v>
       </c>
       <c r="C11">
-        <v>6.768300441361284</v>
+        <v>6.742079592574004</v>
       </c>
       <c r="D11">
-        <v>0.1783004413612845</v>
+        <v>0.4620795925740033</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1271,13 +1271,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>6.58</v>
+        <v>6.27</v>
       </c>
       <c r="C12">
-        <v>6.764152455423473</v>
+        <v>6.74907350424595</v>
       </c>
       <c r="D12">
-        <v>0.1841524554234732</v>
+        <v>0.4790735042459504</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1285,13 +1285,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>6.59</v>
+        <v>6.27</v>
       </c>
       <c r="C13">
-        <v>6.766367750339009</v>
+        <v>6.756134799631227</v>
       </c>
       <c r="D13">
-        <v>0.1763677503390086</v>
+        <v>0.4861347996312277</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1299,13 +1299,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>6.58</v>
+        <v>6.26</v>
       </c>
       <c r="C14">
-        <v>6.766417895235354</v>
+        <v>6.760683820050009</v>
       </c>
       <c r="D14">
-        <v>0.1864178952353539</v>
+        <v>0.5006838200500097</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1313,13 +1313,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>6.58</v>
+        <v>6.26</v>
       </c>
       <c r="C15">
-        <v>6.764260235936644</v>
+        <v>6.756375085928252</v>
       </c>
       <c r="D15">
-        <v>0.1842602359366436</v>
+        <v>0.4963750859282525</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1327,13 +1327,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>6.57</v>
+        <v>6.26</v>
       </c>
       <c r="C16">
-        <v>6.761375704635275</v>
+        <v>6.763936435452266</v>
       </c>
       <c r="D16">
-        <v>0.1913757046352744</v>
+        <v>0.5039364354522666</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1341,13 +1341,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>6.55</v>
+        <v>6.27</v>
       </c>
       <c r="C17">
-        <v>6.750557994177039</v>
+        <v>6.752768362443054</v>
       </c>
       <c r="D17">
-        <v>0.2005579941770392</v>
+        <v>0.4827683624430543</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1355,13 +1355,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>6.55</v>
+        <v>6.27</v>
       </c>
       <c r="C18">
-        <v>6.74843708198394</v>
+        <v>6.741829774758856</v>
       </c>
       <c r="D18">
-        <v>0.1984370819839398</v>
+        <v>0.4718297747588567</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1369,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C19">
-        <v>6.73871512046975</v>
+        <v>6.752993330664053</v>
       </c>
       <c r="D19">
-        <v>0.1787151204697501</v>
+        <v>0.4829933306640539</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1383,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>6.55</v>
+        <v>6.26</v>
       </c>
       <c r="C20">
-        <v>6.734366500855283</v>
+        <v>6.759458601961192</v>
       </c>
       <c r="D20">
-        <v>0.1843665008552833</v>
+        <v>0.4994586019611917</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1397,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>6.55</v>
+        <v>6.26</v>
       </c>
       <c r="C21">
-        <v>6.741388436016224</v>
+        <v>6.758273036810274</v>
       </c>
       <c r="D21">
-        <v>0.1913884360162239</v>
+        <v>0.4982730368102741</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1411,13 +1411,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>6.55</v>
+        <v>6.25</v>
       </c>
       <c r="C22">
-        <v>6.723920457401504</v>
+        <v>6.759993837030973</v>
       </c>
       <c r="D22">
-        <v>0.1739204574015041</v>
+        <v>0.5099938370309731</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1425,13 +1425,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>6.55</v>
+        <v>6.25</v>
       </c>
       <c r="C23">
-        <v>6.725820151757909</v>
+        <v>6.755170525577515</v>
       </c>
       <c r="D23">
-        <v>0.1758201517579092</v>
+        <v>0.5051705255775145</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1439,13 +1439,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>6.55</v>
+        <v>6.25</v>
       </c>
       <c r="C24">
-        <v>6.739834497915319</v>
+        <v>6.752250096442634</v>
       </c>
       <c r="D24">
-        <v>0.189834497915319</v>
+        <v>0.5022500964426344</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>6.55</v>
+        <v>6.25</v>
       </c>
       <c r="C25">
-        <v>6.717377456209307</v>
+        <v>6.756726653294503</v>
       </c>
       <c r="D25">
-        <v>0.1673774562093069</v>
+        <v>0.5067266532945025</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1467,13 +1467,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>6.56</v>
+        <v>6.25</v>
       </c>
       <c r="C26">
-        <v>6.723285401612872</v>
+        <v>6.755452640275414</v>
       </c>
       <c r="D26">
-        <v>0.1632854016128729</v>
+        <v>0.505452640275414</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1481,13 +1481,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>6.57</v>
+        <v>6.25</v>
       </c>
       <c r="C27">
-        <v>6.72252883077499</v>
+        <v>6.751272639330179</v>
       </c>
       <c r="D27">
-        <v>0.1525288307749895</v>
+        <v>0.5012726393301792</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1495,13 +1495,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>6.57</v>
+        <v>6.25</v>
       </c>
       <c r="C28">
-        <v>6.729051153595699</v>
+        <v>6.758479097371763</v>
       </c>
       <c r="D28">
-        <v>0.1590511535956987</v>
+        <v>0.5084790973717626</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1509,13 +1509,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>6.56</v>
+        <v>6.26</v>
       </c>
       <c r="C29">
-        <v>6.723728428785718</v>
+        <v>6.762829659894854</v>
       </c>
       <c r="D29">
-        <v>0.1637284287857188</v>
+        <v>0.5028296598948545</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1523,13 +1523,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>6.57</v>
+        <v>6.26</v>
       </c>
       <c r="C30">
-        <v>6.723127457322659</v>
+        <v>6.764294505800831</v>
       </c>
       <c r="D30">
-        <v>0.1531274573226584</v>
+        <v>0.5042945058008312</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1537,13 +1537,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>6.56</v>
+        <v>6.26</v>
       </c>
       <c r="C31">
-        <v>6.728340773122553</v>
+        <v>6.768043004995065</v>
       </c>
       <c r="D31">
-        <v>0.1683407731225532</v>
+        <v>0.5080430049950655</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1551,13 +1551,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>6.57</v>
+        <v>6.26</v>
       </c>
       <c r="C32">
-        <v>6.72685946981477</v>
+        <v>6.771320907988078</v>
       </c>
       <c r="D32">
-        <v>0.1568594698147701</v>
+        <v>0.5113209079880781</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1565,13 +1565,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>6.57</v>
+        <v>6.26</v>
       </c>
       <c r="C33">
-        <v>6.725815917314194</v>
+        <v>6.767543413431443</v>
       </c>
       <c r="D33">
-        <v>0.155815917314194</v>
+        <v>0.5075434134314429</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1579,13 +1579,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>6.57</v>
+        <v>6.27</v>
       </c>
       <c r="C34">
-        <v>6.727875270200049</v>
+        <v>6.772240725843456</v>
       </c>
       <c r="D34">
-        <v>0.1578752702000488</v>
+        <v>0.502240725843456</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1593,13 +1593,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>6.58</v>
+        <v>6.26</v>
       </c>
       <c r="C35">
-        <v>6.722151784560277</v>
+        <v>6.769212285975381</v>
       </c>
       <c r="D35">
-        <v>0.1421517845602773</v>
+        <v>0.5092122859753809</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1607,13 +1607,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>6.58</v>
+        <v>6.26</v>
       </c>
       <c r="C36">
-        <v>6.726535759942512</v>
+        <v>6.777812358365733</v>
       </c>
       <c r="D36">
-        <v>0.1465357599425117</v>
+        <v>0.5178123583657337</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1621,13 +1621,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>6.57</v>
+        <v>6.26</v>
       </c>
       <c r="C37">
-        <v>6.724234581200426</v>
+        <v>6.781160506870399</v>
       </c>
       <c r="D37">
-        <v>0.1542345812004262</v>
+        <v>0.5211605068703991</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1635,13 +1635,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>6.57</v>
+        <v>6.26</v>
       </c>
       <c r="C38">
-        <v>6.722485396207483</v>
+        <v>6.77621629514782</v>
       </c>
       <c r="D38">
-        <v>0.1524853962074824</v>
+        <v>0.51621629514782</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1649,13 +1649,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>6.57</v>
+        <v>6.26</v>
       </c>
       <c r="C39">
-        <v>6.715674019013135</v>
+        <v>6.772171636556132</v>
       </c>
       <c r="D39">
-        <v>0.1456740190131347</v>
+        <v>0.5121716365561317</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1663,13 +1663,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>6.57</v>
+        <v>6.26</v>
       </c>
       <c r="C40">
-        <v>6.71902208738065</v>
+        <v>6.772990803204949</v>
       </c>
       <c r="D40">
-        <v>0.1490220873806498</v>
+        <v>0.5129908032049491</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1677,13 +1677,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C41">
-        <v>6.715205513415314</v>
+        <v>6.784602237127733</v>
       </c>
       <c r="D41">
-        <v>0.1552055134153143</v>
+        <v>0.5146022371277335</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1691,13 +1691,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>6.56</v>
+        <v>6.26</v>
       </c>
       <c r="C42">
-        <v>6.71028122610091</v>
+        <v>6.777217380275727</v>
       </c>
       <c r="D42">
-        <v>0.1502812261009101</v>
+        <v>0.5172173802757269</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1705,13 +1705,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>6.57</v>
+        <v>6.26</v>
       </c>
       <c r="C43">
-        <v>6.70579158963836</v>
+        <v>6.778159780141052</v>
       </c>
       <c r="D43">
-        <v>0.1357915896383597</v>
+        <v>0.518159780141052</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1719,13 +1719,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C44">
-        <v>6.702407583095172</v>
+        <v>6.780527373068591</v>
       </c>
       <c r="D44">
-        <v>0.1424075830951725</v>
+        <v>0.5105273730685917</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1733,13 +1733,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>6.56</v>
+        <v>6.26</v>
       </c>
       <c r="C45">
-        <v>6.699732850378541</v>
+        <v>6.786457867960363</v>
       </c>
       <c r="D45">
-        <v>0.1397328503785413</v>
+        <v>0.5264578679603629</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1747,13 +1747,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>6.57</v>
+        <v>6.26</v>
       </c>
       <c r="C46">
-        <v>6.702925847543187</v>
+        <v>6.788434962029409</v>
       </c>
       <c r="D46">
-        <v>0.1329258475431869</v>
+        <v>0.5284349620294089</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1761,13 +1761,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C47">
-        <v>6.706460280615205</v>
+        <v>6.774471237331936</v>
       </c>
       <c r="D47">
-        <v>0.1464602806152051</v>
+        <v>0.5044712373319369</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1775,13 +1775,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C48">
-        <v>6.713982708194689</v>
+        <v>6.774858093814518</v>
       </c>
       <c r="D48">
-        <v>0.1539827081946896</v>
+        <v>0.5048580938145184</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1789,13 +1789,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>6.55</v>
+        <v>6.27</v>
       </c>
       <c r="C49">
-        <v>6.705101406451955</v>
+        <v>6.774503355104483</v>
       </c>
       <c r="D49">
-        <v>0.1551014064519549</v>
+        <v>0.5045033551044833</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1803,13 +1803,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>6.55</v>
+        <v>6.27</v>
       </c>
       <c r="C50">
-        <v>6.704150936085232</v>
+        <v>6.777260653357083</v>
       </c>
       <c r="D50">
-        <v>0.154150936085232</v>
+        <v>0.5072606533570836</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1817,13 +1817,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C51">
-        <v>6.710604134000079</v>
+        <v>6.782903672077228</v>
       </c>
       <c r="D51">
-        <v>0.1506041340000799</v>
+        <v>0.5129036720772282</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1831,13 +1831,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C52">
-        <v>6.714495985181308</v>
+        <v>6.790288432814195</v>
       </c>
       <c r="D52">
-        <v>0.1544959851813079</v>
+        <v>0.520288432814195</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1845,13 +1845,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C53">
-        <v>6.70238983408177</v>
+        <v>6.795734365035012</v>
       </c>
       <c r="D53">
-        <v>0.1423898340817704</v>
+        <v>0.5257343650350128</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1859,13 +1859,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>6.55</v>
+        <v>6.27</v>
       </c>
       <c r="C54">
-        <v>6.700556225067047</v>
+        <v>6.796987043575428</v>
       </c>
       <c r="D54">
-        <v>0.1505562250670476</v>
+        <v>0.5269870435754287</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1873,13 +1873,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>6.55</v>
+        <v>6.27</v>
       </c>
       <c r="C55">
-        <v>6.703937487948768</v>
+        <v>6.799649338387286</v>
       </c>
       <c r="D55">
-        <v>0.1539374879487685</v>
+        <v>0.5296493383872862</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1887,13 +1887,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>6.54</v>
+        <v>6.27</v>
       </c>
       <c r="C56">
-        <v>6.695464516595192</v>
+        <v>6.797163501337937</v>
       </c>
       <c r="D56">
-        <v>0.1554645165951918</v>
+        <v>0.5271635013379372</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1901,13 +1901,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>6.54</v>
+        <v>6.27</v>
       </c>
       <c r="C57">
-        <v>6.69345221156289</v>
+        <v>6.796083505221048</v>
       </c>
       <c r="D57">
-        <v>0.1534522115628896</v>
+        <v>0.526083505221048</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1915,13 +1915,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>6.55</v>
+        <v>6.27</v>
       </c>
       <c r="C58">
-        <v>6.692410172850203</v>
+        <v>6.800566220883836</v>
       </c>
       <c r="D58">
-        <v>0.1424101728502034</v>
+        <v>0.5305662208838369</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1929,13 +1929,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C59">
-        <v>6.697410150533377</v>
+        <v>6.803669523247767</v>
       </c>
       <c r="D59">
-        <v>0.1374101505333769</v>
+        <v>0.5336695232477675</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1943,13 +1943,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>6.56</v>
+        <v>6.28</v>
       </c>
       <c r="C60">
-        <v>6.692510133628915</v>
+        <v>6.807905997334683</v>
       </c>
       <c r="D60">
-        <v>0.1325101336289158</v>
+        <v>0.5279059973346829</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1957,13 +1957,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>6.55</v>
+        <v>6.28</v>
       </c>
       <c r="C61">
-        <v>6.693765357932157</v>
+        <v>6.797913766229557</v>
       </c>
       <c r="D61">
-        <v>0.1437653579321569</v>
+        <v>0.5179137662295563</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1971,13 +1971,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C62">
-        <v>6.690932661701452</v>
+        <v>6.795749388696117</v>
       </c>
       <c r="D62">
-        <v>0.1309326617014523</v>
+        <v>0.5257493886961173</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1985,13 +1985,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>6.56</v>
+        <v>6.28</v>
       </c>
       <c r="C63">
-        <v>6.684517348884015</v>
+        <v>6.794767804355931</v>
       </c>
       <c r="D63">
-        <v>0.1245173488840159</v>
+        <v>0.5147678043559303</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1999,13 +1999,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>6.57</v>
+        <v>6.27</v>
       </c>
       <c r="C64">
-        <v>6.69411315224312</v>
+        <v>6.792522925078811</v>
       </c>
       <c r="D64">
-        <v>0.1241131522431198</v>
+        <v>0.5225229250788113</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2013,13 +2013,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C65">
-        <v>6.704361328785738</v>
+        <v>6.793867283302014</v>
       </c>
       <c r="D65">
-        <v>0.1443613287857382</v>
+        <v>0.5238672833020148</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2027,13 +2027,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>6.56</v>
+        <v>6.28</v>
       </c>
       <c r="C66">
-        <v>6.705426105671047</v>
+        <v>6.793855264910758</v>
       </c>
       <c r="D66">
-        <v>0.1454261056710475</v>
+        <v>0.5138552649107577</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2041,13 +2041,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>6.57</v>
+        <v>6.27</v>
       </c>
       <c r="C67">
-        <v>6.705832834332319</v>
+        <v>6.795612496778515</v>
       </c>
       <c r="D67">
-        <v>0.1358328343323185</v>
+        <v>0.525612496778515</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2055,13 +2055,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>6.56</v>
+        <v>6.29</v>
       </c>
       <c r="C68">
-        <v>6.704771513119126</v>
+        <v>6.806477873765101</v>
       </c>
       <c r="D68">
-        <v>0.1447715131191263</v>
+        <v>0.5164778737651012</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2069,13 +2069,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>6.56</v>
+        <v>6.29</v>
       </c>
       <c r="C69">
-        <v>6.70362665200648</v>
+        <v>6.808561809116967</v>
       </c>
       <c r="D69">
-        <v>0.1436266520064802</v>
+        <v>0.5185618091169673</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2083,13 +2083,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>6.57</v>
+        <v>6.29</v>
       </c>
       <c r="C70">
-        <v>6.704200484900173</v>
+        <v>6.805369399700877</v>
       </c>
       <c r="D70">
-        <v>0.1342004849001723</v>
+        <v>0.5153693997008766</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2097,13 +2097,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>6.57</v>
+        <v>6.29</v>
       </c>
       <c r="C71">
-        <v>6.69927889641595</v>
+        <v>6.803556889257965</v>
       </c>
       <c r="D71">
-        <v>0.1292788964159497</v>
+        <v>0.5135568892579645</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2111,13 +2111,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>6.56</v>
+        <v>6.29</v>
       </c>
       <c r="C72">
-        <v>6.700612684352945</v>
+        <v>6.804192900248895</v>
       </c>
       <c r="D72">
-        <v>0.1406126843529449</v>
+        <v>0.5141929002488954</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2125,13 +2125,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>6.55</v>
+        <v>6.27</v>
       </c>
       <c r="C73">
-        <v>6.702756908650859</v>
+        <v>6.797730717189581</v>
       </c>
       <c r="D73">
-        <v>0.1527569086508596</v>
+        <v>0.5277307171895815</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>6.55</v>
+        <v>6.28</v>
       </c>
       <c r="C74">
-        <v>6.696903500739563</v>
+        <v>6.794218019890605</v>
       </c>
       <c r="D74">
-        <v>0.1469035007395636</v>
+        <v>0.5142180198906043</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2153,13 +2153,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>6.55</v>
+        <v>6.28</v>
       </c>
       <c r="C75">
-        <v>6.687243708813692</v>
+        <v>6.794734447636636</v>
       </c>
       <c r="D75">
-        <v>0.137243708813692</v>
+        <v>0.514734447636636</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2167,13 +2167,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>6.55</v>
+        <v>6.28</v>
       </c>
       <c r="C76">
-        <v>6.683737779809273</v>
+        <v>6.790335043222199</v>
       </c>
       <c r="D76">
-        <v>0.1337377798092731</v>
+        <v>0.5103350432221987</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2181,13 +2181,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C77">
-        <v>6.689654928496968</v>
+        <v>6.789959076557007</v>
       </c>
       <c r="D77">
-        <v>0.1296549284969686</v>
+        <v>0.519959076557007</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2195,13 +2195,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C78">
-        <v>6.693118861058351</v>
+        <v>6.793935106436934</v>
       </c>
       <c r="D78">
-        <v>0.1331188610583514</v>
+        <v>0.5239351064369346</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2209,13 +2209,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>6.55</v>
+        <v>6.28</v>
       </c>
       <c r="C79">
-        <v>6.696715593816198</v>
+        <v>6.791252748115665</v>
       </c>
       <c r="D79">
-        <v>0.1467155938161984</v>
+        <v>0.5112527481156643</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2223,13 +2223,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>6.55</v>
+        <v>6.27</v>
       </c>
       <c r="C80">
-        <v>6.701217995216635</v>
+        <v>6.799243291707348</v>
       </c>
       <c r="D80">
-        <v>0.1512179952166353</v>
+        <v>0.5292432917073482</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2237,13 +2237,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C81">
-        <v>6.689460503675387</v>
+        <v>6.796190936726695</v>
       </c>
       <c r="D81">
-        <v>0.1294605036753875</v>
+        <v>0.526190936726695</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2251,13 +2251,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C82">
-        <v>6.692047561981696</v>
+        <v>6.790695383141853</v>
       </c>
       <c r="D82">
-        <v>0.1320475619816968</v>
+        <v>0.5206953831418533</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2265,13 +2265,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C83">
-        <v>6.691418238226706</v>
+        <v>6.787722090499449</v>
       </c>
       <c r="D83">
-        <v>0.131418238226706</v>
+        <v>0.5177220904994497</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2279,13 +2279,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C84">
-        <v>6.697762812707285</v>
+        <v>6.786931166079733</v>
       </c>
       <c r="D84">
-        <v>0.137762812707285</v>
+        <v>0.5169311660797336</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2293,13 +2293,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>6.56</v>
+        <v>6.27</v>
       </c>
       <c r="C85">
-        <v>6.700281879372198</v>
+        <v>6.789442744029958</v>
       </c>
       <c r="D85">
-        <v>0.140281879372198</v>
+        <v>0.5194427440299583</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2307,13 +2307,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>6.55</v>
+        <v>6.27</v>
       </c>
       <c r="C86">
-        <v>6.691331361622463</v>
+        <v>6.782405790614443</v>
       </c>
       <c r="D86">
-        <v>0.1413313616224627</v>
+        <v>0.5124057906144435</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2321,13 +2321,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>6.54</v>
+        <v>6.27</v>
       </c>
       <c r="C87">
-        <v>6.696788792694057</v>
+        <v>6.778908399152901</v>
       </c>
       <c r="D87">
-        <v>0.1567887926940568</v>
+        <v>0.5089083991529018</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2335,13 +2335,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>6.54</v>
+        <v>6.28</v>
       </c>
       <c r="C88">
-        <v>6.67982681481075</v>
+        <v>6.779964143856307</v>
       </c>
       <c r="D88">
-        <v>0.1398268148107498</v>
+        <v>0.4999641438563067</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2349,13 +2349,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>6.54</v>
+        <v>6.27</v>
       </c>
       <c r="C89">
-        <v>6.673168803670127</v>
+        <v>6.774781541776371</v>
       </c>
       <c r="D89">
-        <v>0.1331688036701273</v>
+        <v>0.5047815417763717</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2363,13 +2363,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>6.56</v>
+        <v>6.28</v>
       </c>
       <c r="C90">
-        <v>6.67208653431953</v>
+        <v>6.769983954043636</v>
       </c>
       <c r="D90">
-        <v>0.1120865343195305</v>
+        <v>0.4899839540436357</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2377,13 +2377,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>6.55</v>
+        <v>6.27</v>
       </c>
       <c r="C91">
-        <v>6.679854064124538</v>
+        <v>6.766647558753855</v>
       </c>
       <c r="D91">
-        <v>0.1298540641245385</v>
+        <v>0.4966475587538559</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2391,13 +2391,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>6.57</v>
+        <v>6.28</v>
       </c>
       <c r="C92">
-        <v>6.689786229328553</v>
+        <v>6.770617352804883</v>
       </c>
       <c r="D92">
-        <v>0.119786229328553</v>
+        <v>0.4906173528048825</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2405,13 +2405,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>6.57</v>
+        <v>6.28</v>
       </c>
       <c r="C93">
-        <v>6.693850148167782</v>
+        <v>6.774174113464263</v>
       </c>
       <c r="D93">
-        <v>0.1238501481677821</v>
+        <v>0.494174113464263</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2419,13 +2419,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>6.57</v>
+        <v>6.29</v>
       </c>
       <c r="C94">
-        <v>6.707794123585757</v>
+        <v>6.779000219414606</v>
       </c>
       <c r="D94">
-        <v>0.1377941235857572</v>
+        <v>0.4890002194146064</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2433,13 +2433,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>6.57</v>
+        <v>6.29</v>
       </c>
       <c r="C95">
-        <v>6.70414859754193</v>
+        <v>6.787853987954551</v>
       </c>
       <c r="D95">
-        <v>0.1341485975419294</v>
+        <v>0.4978539879545512</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2447,13 +2447,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>6.57</v>
+        <v>6.29</v>
       </c>
       <c r="C96">
-        <v>6.705031201563545</v>
+        <v>6.786128833415956</v>
       </c>
       <c r="D96">
-        <v>0.1350312015635451</v>
+        <v>0.4961288334159555</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2461,13 +2461,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>6.56</v>
+        <v>6.28</v>
       </c>
       <c r="C97">
-        <v>6.701925018509871</v>
+        <v>6.778205765801686</v>
       </c>
       <c r="D97">
-        <v>0.1419250185098715</v>
+        <v>0.4982057658016856</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2475,13 +2475,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>6.57</v>
+        <v>6.28</v>
       </c>
       <c r="C98">
-        <v>6.714019488808987</v>
+        <v>6.782502687672895</v>
       </c>
       <c r="D98">
-        <v>0.1440194888089872</v>
+        <v>0.5025026876728944</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2489,13 +2489,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>6.57</v>
+        <v>6.28</v>
       </c>
       <c r="C99">
-        <v>6.703631648869297</v>
+        <v>6.78032862877413</v>
       </c>
       <c r="D99">
-        <v>0.1336316488692963</v>
+        <v>0.5003286287741293</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2503,13 +2503,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>6.57</v>
+        <v>6.29</v>
       </c>
       <c r="C100">
-        <v>6.690899782115458</v>
+        <v>6.77906386411764</v>
       </c>
       <c r="D100">
-        <v>0.1208997821154574</v>
+        <v>0.4890638641176395</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2517,13 +2517,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>6.57</v>
+        <v>6.29</v>
       </c>
       <c r="C101">
-        <v>6.688836175096161</v>
+        <v>6.780015278005044</v>
       </c>
       <c r="D101">
-        <v>0.1188361750961606</v>
+        <v>0.4900152780050444</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2531,13 +2531,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>6.58</v>
+        <v>6.29</v>
       </c>
       <c r="C102">
-        <v>6.706293228090726</v>
+        <v>6.785261573691023</v>
       </c>
       <c r="D102">
-        <v>0.1262932280907263</v>
+        <v>0.4952615736910229</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2545,13 +2545,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>6.56</v>
+        <v>6.29</v>
       </c>
       <c r="C103">
-        <v>6.694855746104301</v>
+        <v>6.783635740435266</v>
       </c>
       <c r="D103">
-        <v>0.1348557461043018</v>
+        <v>0.4936357404352663</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2559,13 +2559,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>6.57</v>
+        <v>6.29</v>
       </c>
       <c r="C104">
-        <v>6.691379877724867</v>
+        <v>6.792723203683509</v>
       </c>
       <c r="D104">
-        <v>0.1213798777248671</v>
+        <v>0.5027232036835088</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2573,13 +2573,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>6.58</v>
+        <v>6.29</v>
       </c>
       <c r="C105">
-        <v>6.699175778962458</v>
+        <v>6.79112368331312</v>
       </c>
       <c r="D105">
-        <v>0.1191757789624583</v>
+        <v>0.5011236833131196</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2587,13 +2587,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>6.57</v>
+        <v>6.29</v>
       </c>
       <c r="C106">
-        <v>6.702252538117652</v>
+        <v>6.779898543946623</v>
       </c>
       <c r="D106">
-        <v>0.132252538117652</v>
+        <v>0.489898543946623</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2601,13 +2601,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>6.57</v>
+        <v>6.28</v>
       </c>
       <c r="C107">
-        <v>6.718732778877533</v>
+        <v>6.787991249409278</v>
       </c>
       <c r="D107">
-        <v>0.148732778877533</v>
+        <v>0.5079912494092778</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2615,13 +2615,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>6.57</v>
+        <v>6.3</v>
       </c>
       <c r="C108">
-        <v>6.730395327270817</v>
+        <v>6.777090693509712</v>
       </c>
       <c r="D108">
-        <v>0.160395327270817</v>
+        <v>0.4770906935097123</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2629,13 +2629,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>6.58</v>
+        <v>6.3</v>
       </c>
       <c r="C109">
-        <v>6.721332924866778</v>
+        <v>6.773585315333471</v>
       </c>
       <c r="D109">
-        <v>0.1413329248667781</v>
+        <v>0.4735853153334713</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2643,13 +2643,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>6.57</v>
+        <v>6.3</v>
       </c>
       <c r="C110">
-        <v>6.724519761392968</v>
+        <v>6.780638841685598</v>
       </c>
       <c r="D110">
-        <v>0.1545197613929679</v>
+        <v>0.4806388416855985</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2657,13 +2657,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>6.58</v>
+        <v>6.3</v>
       </c>
       <c r="C111">
-        <v>6.738734554106586</v>
+        <v>6.786040888857213</v>
       </c>
       <c r="D111">
-        <v>0.1587345541065863</v>
+        <v>0.4860408888572127</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2671,13 +2671,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>6.58</v>
+        <v>6.31</v>
       </c>
       <c r="C112">
-        <v>6.741613167574624</v>
+        <v>6.789743637525222</v>
       </c>
       <c r="D112">
-        <v>0.1616131675746244</v>
+        <v>0.4797436375252229</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2685,13 +2685,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>6.58</v>
+        <v>6.3</v>
       </c>
       <c r="C113">
-        <v>6.74899823928581</v>
+        <v>6.769402908114494</v>
       </c>
       <c r="D113">
-        <v>0.16899823928581</v>
+        <v>0.4694029081144944</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2699,13 +2699,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>6.59</v>
+        <v>6.31</v>
       </c>
       <c r="C114">
-        <v>6.744965110401675</v>
+        <v>6.767592930629108</v>
       </c>
       <c r="D114">
-        <v>0.1549651104016752</v>
+        <v>0.457592930629108</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2713,13 +2713,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>6.58</v>
+        <v>6.3</v>
       </c>
       <c r="C115">
-        <v>6.743808978754653</v>
+        <v>6.766906596647174</v>
       </c>
       <c r="D115">
-        <v>0.1638089787546528</v>
+        <v>0.4669065966471742</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2727,13 +2727,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>6.59</v>
+        <v>6.3</v>
       </c>
       <c r="C116">
-        <v>6.752288782706944</v>
+        <v>6.760217494979895</v>
       </c>
       <c r="D116">
-        <v>0.1622887827069439</v>
+        <v>0.4602174949798954</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2741,13 +2741,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>6.59</v>
+        <v>6.31</v>
       </c>
       <c r="C117">
-        <v>6.757752175466304</v>
+        <v>6.767571364447524</v>
       </c>
       <c r="D117">
-        <v>0.1677521754663038</v>
+        <v>0.4575713644475243</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2755,13 +2755,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>6.59</v>
+        <v>6.3</v>
       </c>
       <c r="C118">
-        <v>6.764927620396064</v>
+        <v>6.759445066275979</v>
       </c>
       <c r="D118">
-        <v>0.1749276203960646</v>
+        <v>0.459445066275979</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2769,13 +2769,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>6.58</v>
+        <v>6.31</v>
       </c>
       <c r="C119">
-        <v>6.766283023799038</v>
+        <v>6.760077042200298</v>
       </c>
       <c r="D119">
-        <v>0.1862830237990378</v>
+        <v>0.4500770422002986</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2783,13 +2783,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>6.57</v>
+        <v>6.31</v>
       </c>
       <c r="C120">
-        <v>6.775484848593783</v>
+        <v>6.767876125362826</v>
       </c>
       <c r="D120">
-        <v>0.205484848593783</v>
+        <v>0.4578761253628265</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2797,13 +2797,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>6.55</v>
+        <v>6.32</v>
       </c>
       <c r="C121">
-        <v>6.760893506116251</v>
+        <v>6.758261550993338</v>
       </c>
       <c r="D121">
-        <v>0.2108935061162516</v>
+        <v>0.4382615509933379</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2811,13 +2811,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>6.54</v>
+        <v>6.32</v>
       </c>
       <c r="C122">
-        <v>6.757389779727586</v>
+        <v>6.761262559500591</v>
       </c>
       <c r="D122">
-        <v>0.2173897797275863</v>
+        <v>0.4412625595005908</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2825,13 +2825,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>6.54</v>
+        <v>6.31</v>
       </c>
       <c r="C123">
-        <v>6.751588318900473</v>
+        <v>6.752466938514501</v>
       </c>
       <c r="D123">
-        <v>0.211588318900473</v>
+        <v>0.4424669385145013</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2839,13 +2839,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>6.55</v>
+        <v>6.31</v>
       </c>
       <c r="C124">
-        <v>6.746583385935799</v>
+        <v>6.757377724857395</v>
       </c>
       <c r="D124">
-        <v>0.1965833859357993</v>
+        <v>0.4473777248573949</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2853,13 +2853,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>6.53</v>
+        <v>6.31</v>
       </c>
       <c r="C125">
-        <v>6.762225470572267</v>
+        <v>6.752377045205718</v>
       </c>
       <c r="D125">
-        <v>0.2322254705722671</v>
+        <v>0.4423770452057187</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2867,13 +2867,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>6.53</v>
+        <v>6.32</v>
       </c>
       <c r="C126">
-        <v>6.755475587690463</v>
+        <v>6.751328684601572</v>
       </c>
       <c r="D126">
-        <v>0.2254755876904628</v>
+        <v>0.4313286846015716</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2881,13 +2881,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>6.53</v>
+        <v>6.32</v>
       </c>
       <c r="C127">
-        <v>6.747920638758846</v>
+        <v>6.752961727200023</v>
       </c>
       <c r="D127">
-        <v>0.2179206387588462</v>
+        <v>0.4329617272000226</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2895,13 +2895,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>6.53</v>
+        <v>6.32</v>
       </c>
       <c r="C128">
-        <v>6.751091940671146</v>
+        <v>6.756365189489759</v>
       </c>
       <c r="D128">
-        <v>0.2210919406711458</v>
+        <v>0.4363651894897584</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2909,13 +2909,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>6.52</v>
+        <v>6.33</v>
       </c>
       <c r="C129">
-        <v>6.737762057216476</v>
+        <v>6.752644149010776</v>
       </c>
       <c r="D129">
-        <v>0.2177620572164765</v>
+        <v>0.4226441490107762</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2923,13 +2923,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>6.53</v>
+        <v>6.32</v>
       </c>
       <c r="C130">
-        <v>6.724018845450717</v>
+        <v>6.741636071071313</v>
       </c>
       <c r="D130">
-        <v>0.1940188454507172</v>
+        <v>0.4216360710713127</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2937,13 +2937,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>6.51</v>
+        <v>6.32</v>
       </c>
       <c r="C131">
-        <v>6.717001659467122</v>
+        <v>6.74854998308678</v>
       </c>
       <c r="D131">
-        <v>0.2070016594671218</v>
+        <v>0.4285499830867794</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2951,13 +2951,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>6.51</v>
+        <v>6.32</v>
       </c>
       <c r="C132">
-        <v>6.703658035559793</v>
+        <v>6.7388270077509</v>
       </c>
       <c r="D132">
-        <v>0.1936580355597934</v>
+        <v>0.4188270077508998</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2965,13 +2965,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>6.51</v>
+        <v>6.32</v>
       </c>
       <c r="C133">
-        <v>6.718207820488312</v>
+        <v>6.741548405900667</v>
       </c>
       <c r="D133">
-        <v>0.2082078204883127</v>
+        <v>0.4215484059006664</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2979,13 +2979,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>6.51</v>
+        <v>6.32</v>
       </c>
       <c r="C134">
-        <v>6.719991478092209</v>
+        <v>6.734771571049452</v>
       </c>
       <c r="D134">
-        <v>0.209991478092209</v>
+        <v>0.4147715710494522</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2993,13 +2993,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>6.5</v>
+        <v>6.32</v>
       </c>
       <c r="C135">
-        <v>6.735687538041746</v>
+        <v>6.737461419348075</v>
       </c>
       <c r="D135">
-        <v>0.2356875380417458</v>
+        <v>0.4174614193480748</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3007,13 +3007,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>6.5</v>
+        <v>6.32</v>
       </c>
       <c r="C136">
-        <v>6.732806081252206</v>
+        <v>6.735188473372413</v>
       </c>
       <c r="D136">
-        <v>0.2328060812522059</v>
+        <v>0.4151884733724129</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3021,13 +3021,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>6.5</v>
+        <v>6.33</v>
       </c>
       <c r="C137">
-        <v>6.730864246558478</v>
+        <v>6.730635991678823</v>
       </c>
       <c r="D137">
-        <v>0.230864246558478</v>
+        <v>0.4006359916788229</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3035,13 +3035,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>6.51</v>
+        <v>6.33</v>
       </c>
       <c r="C138">
-        <v>6.725173314001931</v>
+        <v>6.727952727292347</v>
       </c>
       <c r="D138">
-        <v>0.2151733140019312</v>
+        <v>0.3979527272923464</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3049,13 +3049,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>6.51</v>
+        <v>6.33</v>
       </c>
       <c r="C139">
-        <v>6.72027060010416</v>
+        <v>6.731960260625068</v>
       </c>
       <c r="D139">
-        <v>0.2102706001041605</v>
+        <v>0.4019602606250681</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3063,13 +3063,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>6.5</v>
+        <v>6.32</v>
       </c>
       <c r="C140">
-        <v>6.722348379527236</v>
+        <v>6.734317178299166</v>
       </c>
       <c r="D140">
-        <v>0.2223483795272356</v>
+        <v>0.4143171782991653</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3077,13 +3077,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>6.48</v>
+        <v>6.31</v>
       </c>
       <c r="C141">
-        <v>6.705466198820626</v>
+        <v>6.736502968163562</v>
       </c>
       <c r="D141">
-        <v>0.2254661988206257</v>
+        <v>0.4265029681635628</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3091,13 +3091,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>6.5</v>
+        <v>6.31</v>
       </c>
       <c r="C142">
-        <v>6.703743190682764</v>
+        <v>6.736116654011378</v>
       </c>
       <c r="D142">
-        <v>0.203743190682764</v>
+        <v>0.4261166540113788</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3105,13 +3105,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>6.49</v>
+        <v>6.32</v>
       </c>
       <c r="C143">
-        <v>6.711184173004832</v>
+        <v>6.73708952817788</v>
       </c>
       <c r="D143">
-        <v>0.2211841730048318</v>
+        <v>0.4170895281778799</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3119,13 +3119,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>6.48</v>
+        <v>6.32</v>
       </c>
       <c r="C144">
-        <v>6.700355847582339</v>
+        <v>6.730193114717522</v>
       </c>
       <c r="D144">
-        <v>0.2203558475823391</v>
+        <v>0.4101931147175213</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3133,13 +3133,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>6.46</v>
+        <v>6.32</v>
       </c>
       <c r="C145">
-        <v>6.697679933238526</v>
+        <v>6.736577397077306</v>
       </c>
       <c r="D145">
-        <v>0.2376799332385264</v>
+        <v>0.4165773970773055</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3147,13 +3147,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>6.47</v>
+        <v>6.33</v>
       </c>
       <c r="C146">
-        <v>6.670780079673693</v>
+        <v>6.734840658298954</v>
       </c>
       <c r="D146">
-        <v>0.2007800796736934</v>
+        <v>0.4048406582989541</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3161,13 +3161,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>6.47</v>
+        <v>6.32</v>
       </c>
       <c r="C147">
-        <v>6.658213294345226</v>
+        <v>6.741163236134024</v>
       </c>
       <c r="D147">
-        <v>0.1882132943452266</v>
+        <v>0.4211632361340234</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3175,13 +3175,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>6.48</v>
+        <v>6.32</v>
       </c>
       <c r="C148">
-        <v>6.669168145114027</v>
+        <v>6.745018942823719</v>
       </c>
       <c r="D148">
-        <v>0.189168145114027</v>
+        <v>0.4250189428237183</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3189,13 +3189,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>6.47</v>
+        <v>6.32</v>
       </c>
       <c r="C149">
-        <v>6.663072262868419</v>
+        <v>6.747342404554511</v>
       </c>
       <c r="D149">
-        <v>0.1930722628684194</v>
+        <v>0.4273424045545111</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3203,13 +3203,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>6.48</v>
+        <v>6.32</v>
       </c>
       <c r="C150">
-        <v>6.664762724438959</v>
+        <v>6.734519140937622</v>
       </c>
       <c r="D150">
-        <v>0.1847627244389587</v>
+        <v>0.4145191409376219</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3217,13 +3217,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>6.47</v>
+        <v>6.31</v>
       </c>
       <c r="C151">
-        <v>6.650908250202396</v>
+        <v>6.742769402012441</v>
       </c>
       <c r="D151">
-        <v>0.1809082502023962</v>
+        <v>0.4327694020124415</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3231,13 +3231,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>6.46</v>
+        <v>6.3</v>
       </c>
       <c r="C152">
-        <v>6.661665808138451</v>
+        <v>6.728861655199498</v>
       </c>
       <c r="D152">
-        <v>0.2016658081384506</v>
+        <v>0.4288616551994977</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3245,13 +3245,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>6.46</v>
+        <v>6.31</v>
       </c>
       <c r="C153">
-        <v>6.673144791622021</v>
+        <v>6.737888419426615</v>
       </c>
       <c r="D153">
-        <v>0.213144791622021</v>
+        <v>0.4278884194266155</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3259,13 +3259,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>6.47</v>
+        <v>6.32</v>
       </c>
       <c r="C154">
-        <v>6.656933276569283</v>
+        <v>6.739660196016298</v>
       </c>
       <c r="D154">
-        <v>0.1869332765692828</v>
+        <v>0.4196601960162978</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3273,13 +3273,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>6.46</v>
+        <v>6.31</v>
       </c>
       <c r="C155">
-        <v>6.643318180208559</v>
+        <v>6.740070347937757</v>
       </c>
       <c r="D155">
-        <v>0.1833181802085591</v>
+        <v>0.4300703479377574</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3287,13 +3287,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>6.46</v>
+        <v>6.31</v>
       </c>
       <c r="C156">
-        <v>6.648567004411782</v>
+        <v>6.735737445732529</v>
       </c>
       <c r="D156">
-        <v>0.188567004411782</v>
+        <v>0.4257374457325298</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3301,13 +3301,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>6.46</v>
+        <v>6.29</v>
       </c>
       <c r="C157">
-        <v>6.658652040136361</v>
+        <v>6.741832110186734</v>
       </c>
       <c r="D157">
-        <v>0.198652040136361</v>
+        <v>0.451832110186734</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3315,13 +3315,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>6.45</v>
+        <v>6.29</v>
       </c>
       <c r="C158">
-        <v>6.667628336533959</v>
+        <v>6.735832360540935</v>
       </c>
       <c r="D158">
-        <v>0.2176283365339593</v>
+        <v>0.4458323605409351</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3329,13 +3329,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>6.44</v>
+        <v>6.3</v>
       </c>
       <c r="C159">
-        <v>6.665775415305299</v>
+        <v>6.750159099493056</v>
       </c>
       <c r="D159">
-        <v>0.2257754153052982</v>
+        <v>0.4501590994930567</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3343,13 +3343,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>6.43</v>
+        <v>6.28</v>
       </c>
       <c r="C160">
-        <v>6.64470146103073</v>
+        <v>6.742988698675705</v>
       </c>
       <c r="D160">
-        <v>0.2147014610307307</v>
+        <v>0.462988698675705</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3357,13 +3357,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>6.43</v>
+        <v>6.27</v>
       </c>
       <c r="C161">
-        <v>6.636824152766109</v>
+        <v>6.738671490984177</v>
       </c>
       <c r="D161">
-        <v>0.2068241527661092</v>
+        <v>0.4686714909841774</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3371,13 +3371,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>6.44</v>
+        <v>6.27</v>
       </c>
       <c r="C162">
-        <v>6.628686911629225</v>
+        <v>6.735423828104344</v>
       </c>
       <c r="D162">
-        <v>0.1886869116292242</v>
+        <v>0.4654238281043446</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3385,13 +3385,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>6.44</v>
+        <v>6.26</v>
       </c>
       <c r="C163">
-        <v>6.624823426775003</v>
+        <v>6.726638682423082</v>
       </c>
       <c r="D163">
-        <v>0.1848234267750026</v>
+        <v>0.4666386824230822</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3399,13 +3399,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>6.45</v>
+        <v>6.26</v>
       </c>
       <c r="C164">
-        <v>6.623233237436145</v>
+        <v>6.724350473799841</v>
       </c>
       <c r="D164">
-        <v>0.1732332374361452</v>
+        <v>0.4643504737998407</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3413,13 +3413,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>6.44</v>
+        <v>6.26</v>
       </c>
       <c r="C165">
-        <v>6.608534562157289</v>
+        <v>6.721106665844983</v>
       </c>
       <c r="D165">
-        <v>0.1685345621572889</v>
+        <v>0.4611066658449827</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3427,13 +3427,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>6.45</v>
+        <v>6.26</v>
       </c>
       <c r="C166">
-        <v>6.610891487089241</v>
+        <v>6.716942550029489</v>
       </c>
       <c r="D166">
-        <v>0.1608914870892413</v>
+        <v>0.4569425500294892</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3441,13 +3441,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>6.45</v>
+        <v>6.26</v>
       </c>
       <c r="C167">
-        <v>6.618050101449056</v>
+        <v>6.712812642363503</v>
       </c>
       <c r="D167">
-        <v>0.1680501014490563</v>
+        <v>0.4528126423635035</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3455,13 +3455,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>6.45</v>
+        <v>6.27</v>
       </c>
       <c r="C168">
-        <v>6.604464395103652</v>
+        <v>6.716003728848261</v>
       </c>
       <c r="D168">
-        <v>0.154464395103652</v>
+        <v>0.4460037288482619</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3469,13 +3469,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>6.44</v>
+        <v>6.28</v>
       </c>
       <c r="C169">
-        <v>6.604955095101025</v>
+        <v>6.715367541471399</v>
       </c>
       <c r="D169">
-        <v>0.1649550951010248</v>
+        <v>0.4353675414713987</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3483,13 +3483,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>6.44</v>
+        <v>6.27</v>
       </c>
       <c r="C170">
-        <v>6.602954280753637</v>
+        <v>6.713880573741872</v>
       </c>
       <c r="D170">
-        <v>0.1629542807536364</v>
+        <v>0.4438805737418727</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3497,13 +3497,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>6.45</v>
+        <v>6.28</v>
       </c>
       <c r="C171">
-        <v>6.617973594606224</v>
+        <v>6.708717678543123</v>
       </c>
       <c r="D171">
-        <v>0.1679735946062237</v>
+        <v>0.4287176785431228</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3511,13 +3511,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>6.45</v>
+        <v>6.27</v>
       </c>
       <c r="C172">
-        <v>6.611431115309208</v>
+        <v>6.705165183637955</v>
       </c>
       <c r="D172">
-        <v>0.1614311153092078</v>
+        <v>0.4351651836379551</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3525,13 +3525,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>6.46</v>
+        <v>6.27</v>
       </c>
       <c r="C173">
-        <v>6.622440841621288</v>
+        <v>6.69455296955265</v>
       </c>
       <c r="D173">
-        <v>0.1624408416212884</v>
+        <v>0.4245529695526509</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3539,13 +3539,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>6.48</v>
+        <v>6.27</v>
       </c>
       <c r="C174">
-        <v>6.636127269342807</v>
+        <v>6.699220546821835</v>
       </c>
       <c r="D174">
-        <v>0.1561272693428064</v>
+        <v>0.4292205468218357</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3553,13 +3553,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>6.49</v>
+        <v>6.27</v>
       </c>
       <c r="C175">
-        <v>6.640943065646437</v>
+        <v>6.681230125203562</v>
       </c>
       <c r="D175">
-        <v>0.1509430656464366</v>
+        <v>0.4112301252035619</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3567,13 +3567,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>6.49</v>
+        <v>6.27</v>
       </c>
       <c r="C176">
-        <v>6.627220597545571</v>
+        <v>6.682965186941664</v>
       </c>
       <c r="D176">
-        <v>0.1372205975455705</v>
+        <v>0.4129651869416646</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3581,13 +3581,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>6.48</v>
+        <v>6.27</v>
       </c>
       <c r="C177">
-        <v>6.632977595998681</v>
+        <v>6.677266082443231</v>
       </c>
       <c r="D177">
-        <v>0.1529775959986805</v>
+        <v>0.4072660824432317</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3595,13 +3595,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>6.48</v>
+        <v>6.27</v>
       </c>
       <c r="C178">
-        <v>6.622546125231248</v>
+        <v>6.674150962863346</v>
       </c>
       <c r="D178">
-        <v>0.1425461252312479</v>
+        <v>0.4041509628633468</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3609,13 +3609,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>6.48</v>
+        <v>6.28</v>
       </c>
       <c r="C179">
-        <v>6.623735121811296</v>
+        <v>6.680942113606604</v>
       </c>
       <c r="D179">
-        <v>0.1437351218112957</v>
+        <v>0.4009421136066038</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3623,13 +3623,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>6.47</v>
+        <v>6.28</v>
       </c>
       <c r="C180">
-        <v>6.625314159596319</v>
+        <v>6.688921500730207</v>
       </c>
       <c r="D180">
-        <v>0.155314159596319</v>
+        <v>0.4089215007302069</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3637,13 +3637,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>6.46</v>
+        <v>6.28</v>
       </c>
       <c r="C181">
-        <v>6.618972311366167</v>
+        <v>6.689510803320858</v>
       </c>
       <c r="D181">
-        <v>0.158972311366167</v>
+        <v>0.4095108033208579</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3651,13 +3651,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>6.47</v>
+        <v>6.29</v>
       </c>
       <c r="C182">
-        <v>6.61678839802462</v>
+        <v>6.676836987341011</v>
       </c>
       <c r="D182">
-        <v>0.1467883980246203</v>
+        <v>0.3868369873410114</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3665,13 +3665,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>6.48</v>
+        <v>6.29</v>
       </c>
       <c r="C183">
-        <v>6.629951555753746</v>
+        <v>6.690600219650178</v>
       </c>
       <c r="D183">
-        <v>0.1499515557537459</v>
+        <v>0.4006002196501779</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3679,13 +3679,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>6.47</v>
+        <v>6.27</v>
       </c>
       <c r="C184">
-        <v>6.630407427912478</v>
+        <v>6.689126495312139</v>
       </c>
       <c r="D184">
-        <v>0.1604074279124781</v>
+        <v>0.4191264953121392</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3693,13 +3693,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>6.47</v>
+        <v>6.27</v>
       </c>
       <c r="C185">
-        <v>6.625769249458508</v>
+        <v>6.683490491074141</v>
       </c>
       <c r="D185">
-        <v>0.1557692494585083</v>
+        <v>0.4134904910741417</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3707,13 +3707,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>6.48</v>
+        <v>6.27</v>
       </c>
       <c r="C186">
-        <v>6.628323677976879</v>
+        <v>6.680881280678261</v>
       </c>
       <c r="D186">
-        <v>0.1483236779768786</v>
+        <v>0.4108812806782618</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3721,13 +3721,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>6.47</v>
+        <v>6.29</v>
       </c>
       <c r="C187">
-        <v>6.602155382879229</v>
+        <v>6.695373475251484</v>
       </c>
       <c r="D187">
-        <v>0.1321553828792297</v>
+        <v>0.4053734752514835</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3735,13 +3735,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>6.46</v>
+        <v>6.28</v>
       </c>
       <c r="C188">
-        <v>6.604377093504431</v>
+        <v>6.699143905308385</v>
       </c>
       <c r="D188">
-        <v>0.1443770935044313</v>
+        <v>0.4191439053083847</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3749,13 +3749,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>6.45</v>
+        <v>6.29</v>
       </c>
       <c r="C189">
-        <v>6.603959016280696</v>
+        <v>6.698415703366034</v>
       </c>
       <c r="D189">
-        <v>0.1539590162806963</v>
+        <v>0.4084157033660336</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3763,13 +3763,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>6.47</v>
+        <v>6.29</v>
       </c>
       <c r="C190">
-        <v>6.588439610280257</v>
+        <v>6.703892137154427</v>
       </c>
       <c r="D190">
-        <v>0.118439610280257</v>
+        <v>0.4138921371544271</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3777,13 +3777,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>6.47</v>
+        <v>6.29</v>
       </c>
       <c r="C191">
-        <v>6.590368139652253</v>
+        <v>6.701608065588625</v>
       </c>
       <c r="D191">
-        <v>0.1203681396522533</v>
+        <v>0.4116080655886254</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3791,13 +3791,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>6.46</v>
+        <v>6.29</v>
       </c>
       <c r="C192">
-        <v>6.592952314797965</v>
+        <v>6.701652854945894</v>
       </c>
       <c r="D192">
-        <v>0.132952314797965</v>
+        <v>0.4116528549458938</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3805,13 +3805,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>6.45</v>
+        <v>6.3</v>
       </c>
       <c r="C193">
-        <v>6.596071178283117</v>
+        <v>6.70807316465931</v>
       </c>
       <c r="D193">
-        <v>0.1460711782831172</v>
+        <v>0.4080731646593101</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3819,13 +3819,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>6.45</v>
+        <v>6.29</v>
       </c>
       <c r="C194">
-        <v>6.588647002002031</v>
+        <v>6.714334823972796</v>
       </c>
       <c r="D194">
-        <v>0.1386470020020312</v>
+        <v>0.4243348239727958</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3833,13 +3833,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>6.45</v>
+        <v>6.29</v>
       </c>
       <c r="C195">
-        <v>6.56913829250298</v>
+        <v>6.704815258861985</v>
       </c>
       <c r="D195">
-        <v>0.1191382925029796</v>
+        <v>0.4148152588619851</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3847,13 +3847,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>6.45</v>
+        <v>6.3</v>
       </c>
       <c r="C196">
-        <v>6.567636115658671</v>
+        <v>6.70629073948415</v>
       </c>
       <c r="D196">
-        <v>0.1176361156586712</v>
+        <v>0.4062907394841506</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3861,13 +3861,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>6.45</v>
+        <v>6.3</v>
       </c>
       <c r="C197">
-        <v>6.575845816029257</v>
+        <v>6.72013044316978</v>
       </c>
       <c r="D197">
-        <v>0.1258458160292566</v>
+        <v>0.4201304431697803</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3875,13 +3875,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>6.45</v>
+        <v>6.31</v>
       </c>
       <c r="C198">
-        <v>6.576733560621345</v>
+        <v>6.713465867806984</v>
       </c>
       <c r="D198">
-        <v>0.1267335606213447</v>
+        <v>0.4034658678069842</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3889,13 +3889,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>6.44</v>
+        <v>6.31</v>
       </c>
       <c r="C199">
-        <v>6.575445958791151</v>
+        <v>6.697307680309749</v>
       </c>
       <c r="D199">
-        <v>0.1354459587911503</v>
+        <v>0.3873076803097497</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3903,13 +3903,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>6.44</v>
+        <v>6.3</v>
       </c>
       <c r="C200">
-        <v>6.571651032423673</v>
+        <v>6.706544962813989</v>
       </c>
       <c r="D200">
-        <v>0.1316510324236724</v>
+        <v>0.4065449628139888</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3917,13 +3917,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>6.44</v>
+        <v>6.31</v>
       </c>
       <c r="C201">
-        <v>6.555029299041247</v>
+        <v>6.704018288932306</v>
       </c>
       <c r="D201">
-        <v>0.1150292990412467</v>
+        <v>0.3940182889323065</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3931,13 +3931,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>6.43</v>
+        <v>6.31</v>
       </c>
       <c r="C202">
-        <v>6.554144266072483</v>
+        <v>6.702163080141417</v>
       </c>
       <c r="D202">
-        <v>0.1241442660724834</v>
+        <v>0.3921630801414171</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3945,13 +3945,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>6.43</v>
+        <v>6.3</v>
       </c>
       <c r="C203">
-        <v>6.532651949098136</v>
+        <v>6.700617439155759</v>
       </c>
       <c r="D203">
-        <v>0.1026519490981359</v>
+        <v>0.4006174391557593</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3959,13 +3959,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>6.44</v>
+        <v>6.3</v>
       </c>
       <c r="C204">
-        <v>6.532355269017002</v>
+        <v>6.694176950038981</v>
       </c>
       <c r="D204">
-        <v>0.09235526901700197</v>
+        <v>0.3941769500389807</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3973,13 +3973,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>6.43</v>
+        <v>6.3</v>
       </c>
       <c r="C205">
-        <v>6.534254668672046</v>
+        <v>6.71348451971024</v>
       </c>
       <c r="D205">
-        <v>0.1042546686720458</v>
+        <v>0.4134845197102397</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3987,13 +3987,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>6.44</v>
+        <v>6.31</v>
       </c>
       <c r="C206">
-        <v>6.537992422054793</v>
+        <v>6.718103080967336</v>
       </c>
       <c r="D206">
-        <v>0.09799242205479253</v>
+        <v>0.4081030809673365</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4001,13 +4001,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>6.43</v>
+        <v>6.32</v>
       </c>
       <c r="C207">
-        <v>6.536677366697993</v>
+        <v>6.711885291048547</v>
       </c>
       <c r="D207">
-        <v>0.1066773666979932</v>
+        <v>0.3918852910485464</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4015,13 +4015,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>6.44</v>
+        <v>6.31</v>
       </c>
       <c r="C208">
-        <v>6.540671143989928</v>
+        <v>6.729285377117768</v>
       </c>
       <c r="D208">
-        <v>0.1006711439899277</v>
+        <v>0.4192853771177685</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4029,13 +4029,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>6.44</v>
+        <v>6.31</v>
       </c>
       <c r="C209">
-        <v>6.542516309199573</v>
+        <v>6.729513736360031</v>
       </c>
       <c r="D209">
-        <v>0.1025163091995722</v>
+        <v>0.419513736360031</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4043,13 +4043,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>6.43</v>
+        <v>6.32</v>
       </c>
       <c r="C210">
-        <v>6.533079861794762</v>
+        <v>6.71433861430384</v>
       </c>
       <c r="D210">
-        <v>0.1030798617947619</v>
+        <v>0.3943386143038401</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4057,13 +4057,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>6.43</v>
+        <v>6.32</v>
       </c>
       <c r="C211">
-        <v>6.523136060060671</v>
+        <v>6.716756082217331</v>
       </c>
       <c r="D211">
-        <v>0.09313606006067143</v>
+        <v>0.3967560822173306</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4071,13 +4071,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>6.44</v>
+        <v>6.32</v>
       </c>
       <c r="C212">
-        <v>6.535872537666996</v>
+        <v>6.725787558947245</v>
       </c>
       <c r="D212">
-        <v>0.09587253766699533</v>
+        <v>0.4057875589472451</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4085,13 +4085,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>6.42</v>
+        <v>6.3</v>
       </c>
       <c r="C213">
-        <v>6.522036850967305</v>
+        <v>6.728562588314721</v>
       </c>
       <c r="D213">
-        <v>0.1020368509673046</v>
+        <v>0.4285625883147208</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4099,13 +4099,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>6.43</v>
+        <v>6.3</v>
       </c>
       <c r="C214">
-        <v>6.517283761621155</v>
+        <v>6.726727657067568</v>
       </c>
       <c r="D214">
-        <v>0.0872837616211557</v>
+        <v>0.426727657067568</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4113,13 +4113,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>6.43</v>
+        <v>6.31</v>
       </c>
       <c r="C215">
-        <v>6.50720560460615</v>
+        <v>6.719747215582367</v>
       </c>
       <c r="D215">
-        <v>0.07720560460615022</v>
+        <v>0.4097472155823674</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4127,13 +4127,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>6.41</v>
+        <v>6.31</v>
       </c>
       <c r="C216">
-        <v>6.500744860833676</v>
+        <v>6.721774687853721</v>
       </c>
       <c r="D216">
-        <v>0.09074486083367628</v>
+        <v>0.4117746878537218</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4141,13 +4141,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>6.42</v>
+        <v>6.31</v>
       </c>
       <c r="C217">
-        <v>6.494918521584066</v>
+        <v>6.721155451985099</v>
       </c>
       <c r="D217">
-        <v>0.07491852158406598</v>
+        <v>0.4111554519850991</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4155,13 +4155,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>6.42</v>
+        <v>6.31</v>
       </c>
       <c r="C218">
-        <v>6.481320742295083</v>
+        <v>6.718401377052341</v>
       </c>
       <c r="D218">
-        <v>0.06132074229508344</v>
+        <v>0.4084013770523409</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4169,13 +4169,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>6.43</v>
+        <v>6.32</v>
       </c>
       <c r="C219">
-        <v>6.503901205720727</v>
+        <v>6.716894428247723</v>
       </c>
       <c r="D219">
-        <v>0.07390120572072778</v>
+        <v>0.3968944282477223</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4183,13 +4183,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>6.43</v>
+        <v>6.34</v>
       </c>
       <c r="C220">
-        <v>6.487177570543852</v>
+        <v>6.717090461303727</v>
       </c>
       <c r="D220">
-        <v>0.05717757054385242</v>
+        <v>0.3770904613037276</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4197,13 +4197,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>6.44</v>
+        <v>6.34</v>
       </c>
       <c r="C221">
-        <v>6.486299172327931</v>
+        <v>6.723792526574461</v>
       </c>
       <c r="D221">
-        <v>0.0462991723279309</v>
+        <v>0.3837925265744611</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4211,13 +4211,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>6.45</v>
+        <v>6.34</v>
       </c>
       <c r="C222">
-        <v>6.492662080236072</v>
+        <v>6.721446845255101</v>
       </c>
       <c r="D222">
-        <v>0.04266208023607199</v>
+        <v>0.381446845255101</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4225,13 +4225,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>6.44</v>
+        <v>6.34</v>
       </c>
       <c r="C223">
-        <v>6.490505025589338</v>
+        <v>6.730211706003318</v>
       </c>
       <c r="D223">
-        <v>0.050505025589338</v>
+        <v>0.3902117060033179</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4239,13 +4239,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>6.44</v>
+        <v>6.34</v>
       </c>
       <c r="C224">
-        <v>6.495549894187737</v>
+        <v>6.723386258168991</v>
       </c>
       <c r="D224">
-        <v>0.05554989418773637</v>
+        <v>0.3833862581689909</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4253,13 +4253,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>6.44</v>
+        <v>6.35</v>
       </c>
       <c r="C225">
-        <v>6.490895173478884</v>
+        <v>6.723674577975477</v>
       </c>
       <c r="D225">
-        <v>0.05089517347888339</v>
+        <v>0.3736745779754775</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4267,13 +4267,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>6.46</v>
+        <v>6.35</v>
       </c>
       <c r="C226">
-        <v>6.494341773850393</v>
+        <v>6.721270829628829</v>
       </c>
       <c r="D226">
-        <v>0.03434177385039305</v>
+        <v>0.3712708296288296</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4281,13 +4281,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>6.46</v>
+        <v>6.34</v>
       </c>
       <c r="C227">
-        <v>6.474092434320167</v>
+        <v>6.725783617444503</v>
       </c>
       <c r="D227">
-        <v>0.01409243432016716</v>
+        <v>0.3857836174445035</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4295,13 +4295,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>6.48</v>
+        <v>6.36</v>
       </c>
       <c r="C228">
-        <v>6.489462782184392</v>
+        <v>6.742517079669027</v>
       </c>
       <c r="D228">
-        <v>0.009462782184392005</v>
+        <v>0.3825170796690269</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4309,13 +4309,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>6.48</v>
+        <v>6.36</v>
       </c>
       <c r="C229">
-        <v>6.49647303507798</v>
+        <v>6.748112722707897</v>
       </c>
       <c r="D229">
-        <v>0.01647303507798004</v>
+        <v>0.3881127227078967</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4323,13 +4323,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>6.48</v>
+        <v>6.36</v>
       </c>
       <c r="C230">
-        <v>6.507567338979974</v>
+        <v>6.769630621787749</v>
       </c>
       <c r="D230">
-        <v>0.02756733897997332</v>
+        <v>0.4096306217877483</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4337,13 +4337,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>6.48</v>
+        <v>6.34</v>
       </c>
       <c r="C231">
-        <v>6.503929025567667</v>
+        <v>6.770600169869502</v>
       </c>
       <c r="D231">
-        <v>0.02392902556766696</v>
+        <v>0.4306001698695026</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4351,13 +4351,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>6.48</v>
+        <v>6.34</v>
       </c>
       <c r="C232">
-        <v>6.498768006169194</v>
+        <v>6.768292651686301</v>
       </c>
       <c r="D232">
-        <v>0.01876800616919372</v>
+        <v>0.4282926516863013</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4365,13 +4365,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>6.48</v>
+        <v>6.36</v>
       </c>
       <c r="C233">
-        <v>6.485051504179288</v>
+        <v>6.769727123688688</v>
       </c>
       <c r="D233">
-        <v>0.005051504179287569</v>
+        <v>0.4097271236886879</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4379,13 +4379,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>6.48</v>
+        <v>6.35</v>
       </c>
       <c r="C234">
-        <v>6.487898085688502</v>
+        <v>6.781401807208051</v>
       </c>
       <c r="D234">
-        <v>0.007898085688501588</v>
+        <v>0.4314018072080517</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4393,13 +4393,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>6.49</v>
+        <v>6.34</v>
       </c>
       <c r="C235">
-        <v>6.48424210315956</v>
+        <v>6.750529271149747</v>
       </c>
       <c r="D235">
-        <v>-0.005757896840440146</v>
+        <v>0.4105292711497475</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4407,13 +4407,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>6.51</v>
+        <v>6.32</v>
       </c>
       <c r="C236">
-        <v>6.503191851114814</v>
+        <v>6.74419585873664</v>
       </c>
       <c r="D236">
-        <v>-0.006808148885185439</v>
+        <v>0.4241958587366392</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4421,13 +4421,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>6.52</v>
+        <v>6.3</v>
       </c>
       <c r="C237">
-        <v>6.507758659877971</v>
+        <v>6.748719979289478</v>
       </c>
       <c r="D237">
-        <v>-0.01224134012202871</v>
+        <v>0.4487199792894785</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4435,13 +4435,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>6.54</v>
+        <v>6.31</v>
       </c>
       <c r="C238">
-        <v>6.524236651474488</v>
+        <v>6.756624918213894</v>
       </c>
       <c r="D238">
-        <v>-0.0157633485255122</v>
+        <v>0.4466249182138942</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4449,13 +4449,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>6.53</v>
+        <v>6.29</v>
       </c>
       <c r="C239">
-        <v>6.508371008548871</v>
+        <v>6.737737430509624</v>
       </c>
       <c r="D239">
-        <v>-0.02162899145112895</v>
+        <v>0.4477374305096244</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4463,13 +4463,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>6.54</v>
+        <v>6.28</v>
       </c>
       <c r="C240">
-        <v>6.489076391711925</v>
+        <v>6.723519631682191</v>
       </c>
       <c r="D240">
-        <v>-0.05092360828807507</v>
+        <v>0.4435196316821912</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4477,13 +4477,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>6.54</v>
+        <v>6.33</v>
       </c>
       <c r="C241">
-        <v>6.498182366195492</v>
+        <v>6.729749491485564</v>
       </c>
       <c r="D241">
-        <v>-0.04181763380450754</v>
+        <v>0.3997494914855642</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4491,13 +4491,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>6.57</v>
+        <v>6.33</v>
       </c>
       <c r="C242">
-        <v>6.504889607751889</v>
+        <v>6.741983938446443</v>
       </c>
       <c r="D242">
-        <v>-0.0651103922481111</v>
+        <v>0.4119839384464425</v>
       </c>
     </row>
   </sheetData>

--- a/temp/Yesterdaytest.xlsx
+++ b/temp/Yesterdaytest.xlsx
@@ -28,727 +28,727 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-07-31 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:59:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:55:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:50:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:49:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:22:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:11:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:10:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:07:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:04:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:01:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:55:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:53:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:50:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:47:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:26:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:13:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:09:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:07:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:30:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:28:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:23:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:19:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:13:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:04:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:50:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:46:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:38:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:35:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:31:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:14:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:01:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:58:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:54:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:53:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:50:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:46:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:41:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:32:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 09:30:00</t>
+    <t>2019-08-02 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:59:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:50:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:22:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:01:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:55:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:53:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:47:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:26:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:13:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:09:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:30:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:28:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:23:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:19:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:17:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:13:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:04:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:50:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:38:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:31:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:59:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:58:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:53:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:46:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:44:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:32:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:30:00</t>
   </si>
 </sst>
 </file>
@@ -1131,13 +1131,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.28</v>
+        <v>6.08</v>
       </c>
       <c r="C2">
-        <v>6.730863380213148</v>
+        <v>6.541658778495198</v>
       </c>
       <c r="D2">
-        <v>0.4508633802131481</v>
+        <v>0.461658778495198</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1145,13 +1145,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.28</v>
+        <v>6.07</v>
       </c>
       <c r="C3">
-        <v>6.732906234210788</v>
+        <v>6.536355405105859</v>
       </c>
       <c r="D3">
-        <v>0.4529062342107881</v>
+        <v>0.4663554051058592</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1159,13 +1159,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.28</v>
+        <v>6.07</v>
       </c>
       <c r="C4">
-        <v>6.732906234210788</v>
+        <v>6.536355405105859</v>
       </c>
       <c r="D4">
-        <v>0.4529062342107881</v>
+        <v>0.4663554051058592</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1173,13 +1173,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.27</v>
+        <v>6.06</v>
       </c>
       <c r="C5">
-        <v>6.732641144060165</v>
+        <v>6.533242615207189</v>
       </c>
       <c r="D5">
-        <v>0.4626411440601652</v>
+        <v>0.4732426152071891</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1187,13 +1187,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.28</v>
+        <v>6.06</v>
       </c>
       <c r="C6">
-        <v>6.729747159207197</v>
+        <v>6.529124175963029</v>
       </c>
       <c r="D6">
-        <v>0.4497471592071971</v>
+        <v>0.4691241759630298</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1201,13 +1201,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.27</v>
+        <v>6.07</v>
       </c>
       <c r="C7">
-        <v>6.729391337647061</v>
+        <v>6.528039862154633</v>
       </c>
       <c r="D7">
-        <v>0.4593913376470615</v>
+        <v>0.4580398621546324</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1215,13 +1215,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.28</v>
+        <v>6.06</v>
       </c>
       <c r="C8">
-        <v>6.731629164765127</v>
+        <v>6.530183461663184</v>
       </c>
       <c r="D8">
-        <v>0.4516291647651265</v>
+        <v>0.4701834616631846</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1229,13 +1229,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.28</v>
+        <v>6.07</v>
       </c>
       <c r="C9">
-        <v>6.73174566267796</v>
+        <v>6.532698853328523</v>
       </c>
       <c r="D9">
-        <v>0.4517456626779595</v>
+        <v>0.462698853328523</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1243,13 +1243,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.27</v>
+        <v>6.06</v>
       </c>
       <c r="C10">
-        <v>6.735188218678901</v>
+        <v>6.541029727567193</v>
       </c>
       <c r="D10">
-        <v>0.4651882186789011</v>
+        <v>0.4810297275671935</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1257,13 +1257,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6.28</v>
+        <v>6.06</v>
       </c>
       <c r="C11">
-        <v>6.742079592574004</v>
+        <v>6.53855816707788</v>
       </c>
       <c r="D11">
-        <v>0.4620795925740033</v>
+        <v>0.47855816707788</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1271,13 +1271,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>6.27</v>
+        <v>6.07</v>
       </c>
       <c r="C12">
-        <v>6.74907350424595</v>
+        <v>6.539014805638804</v>
       </c>
       <c r="D12">
-        <v>0.4790735042459504</v>
+        <v>0.4690148056388042</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1285,13 +1285,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>6.27</v>
+        <v>6.07</v>
       </c>
       <c r="C13">
-        <v>6.756134799631227</v>
+        <v>6.535984501689671</v>
       </c>
       <c r="D13">
-        <v>0.4861347996312277</v>
+        <v>0.4659845016896709</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1299,13 +1299,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>6.26</v>
+        <v>6.08</v>
       </c>
       <c r="C14">
-        <v>6.760683820050009</v>
+        <v>6.544151684363668</v>
       </c>
       <c r="D14">
-        <v>0.5006838200500097</v>
+        <v>0.4641516843636682</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1313,13 +1313,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>6.26</v>
+        <v>6.07</v>
       </c>
       <c r="C15">
-        <v>6.756375085928252</v>
+        <v>6.542156382676402</v>
       </c>
       <c r="D15">
-        <v>0.4963750859282525</v>
+        <v>0.4721563826764017</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1327,13 +1327,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>6.26</v>
+        <v>6.07</v>
       </c>
       <c r="C16">
-        <v>6.763936435452266</v>
+        <v>6.558485664657499</v>
       </c>
       <c r="D16">
-        <v>0.5039364354522666</v>
+        <v>0.4884856646574987</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1341,13 +1341,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>6.27</v>
+        <v>6.07</v>
       </c>
       <c r="C17">
-        <v>6.752768362443054</v>
+        <v>6.551282379424427</v>
       </c>
       <c r="D17">
-        <v>0.4827683624430543</v>
+        <v>0.4812823794244272</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1355,13 +1355,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>6.27</v>
+        <v>6.07</v>
       </c>
       <c r="C18">
-        <v>6.741829774758856</v>
+        <v>6.54642566600202</v>
       </c>
       <c r="D18">
-        <v>0.4718297747588567</v>
+        <v>0.4764256660020196</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1369,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>6.27</v>
+        <v>6.09</v>
       </c>
       <c r="C19">
-        <v>6.752993330664053</v>
+        <v>6.538160138676143</v>
       </c>
       <c r="D19">
-        <v>0.4829933306640539</v>
+        <v>0.4481601386761431</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1383,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>6.26</v>
+        <v>6.09</v>
       </c>
       <c r="C20">
-        <v>6.759458601961192</v>
+        <v>6.538535522213523</v>
       </c>
       <c r="D20">
-        <v>0.4994586019611917</v>
+        <v>0.4485355222135228</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1397,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>6.26</v>
+        <v>6.08</v>
       </c>
       <c r="C21">
-        <v>6.758273036810274</v>
+        <v>6.534024654606726</v>
       </c>
       <c r="D21">
-        <v>0.4982730368102741</v>
+        <v>0.4540246546067257</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1411,13 +1411,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>6.25</v>
+        <v>6.08</v>
       </c>
       <c r="C22">
-        <v>6.759993837030973</v>
+        <v>6.522231508283659</v>
       </c>
       <c r="D22">
-        <v>0.5099938370309731</v>
+        <v>0.4422315082836592</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1425,13 +1425,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>6.25</v>
+        <v>6.08</v>
       </c>
       <c r="C23">
-        <v>6.755170525577515</v>
+        <v>6.541115832657044</v>
       </c>
       <c r="D23">
-        <v>0.5051705255775145</v>
+        <v>0.4611158326570441</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1439,13 +1439,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>6.25</v>
+        <v>6.08</v>
       </c>
       <c r="C24">
-        <v>6.752250096442634</v>
+        <v>6.553924120979564</v>
       </c>
       <c r="D24">
-        <v>0.5022500964426344</v>
+        <v>0.4739241209795635</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>6.25</v>
+        <v>6.09</v>
       </c>
       <c r="C25">
-        <v>6.756726653294503</v>
+        <v>6.555992052339264</v>
       </c>
       <c r="D25">
-        <v>0.5067266532945025</v>
+        <v>0.4659920523392644</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1467,13 +1467,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>6.25</v>
+        <v>6.08</v>
       </c>
       <c r="C26">
-        <v>6.755452640275414</v>
+        <v>6.552429898875523</v>
       </c>
       <c r="D26">
-        <v>0.505452640275414</v>
+        <v>0.4724298988755224</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1481,13 +1481,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>6.25</v>
+        <v>6.09</v>
       </c>
       <c r="C27">
-        <v>6.751272639330179</v>
+        <v>6.557905098252419</v>
       </c>
       <c r="D27">
-        <v>0.5012726393301792</v>
+        <v>0.4679050982524187</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1495,13 +1495,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>6.25</v>
+        <v>6.08</v>
       </c>
       <c r="C28">
-        <v>6.758479097371763</v>
+        <v>6.560353530134265</v>
       </c>
       <c r="D28">
-        <v>0.5084790973717626</v>
+        <v>0.4803535301342654</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1509,13 +1509,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>6.26</v>
+        <v>6.08</v>
       </c>
       <c r="C29">
-        <v>6.762829659894854</v>
+        <v>6.566799384876929</v>
       </c>
       <c r="D29">
-        <v>0.5028296598948545</v>
+        <v>0.486799384876929</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1523,13 +1523,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>6.26</v>
+        <v>6.07</v>
       </c>
       <c r="C30">
-        <v>6.764294505800831</v>
+        <v>6.556912997056194</v>
       </c>
       <c r="D30">
-        <v>0.5042945058008312</v>
+        <v>0.4869129970561934</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1537,13 +1537,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>6.26</v>
+        <v>6.06</v>
       </c>
       <c r="C31">
-        <v>6.768043004995065</v>
+        <v>6.545005421976275</v>
       </c>
       <c r="D31">
-        <v>0.5080430049950655</v>
+        <v>0.4850054219762754</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1551,13 +1551,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>6.26</v>
+        <v>6.07</v>
       </c>
       <c r="C32">
-        <v>6.771320907988078</v>
+        <v>6.525655025708299</v>
       </c>
       <c r="D32">
-        <v>0.5113209079880781</v>
+        <v>0.4556550257082987</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1565,13 +1565,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>6.26</v>
+        <v>6.06</v>
       </c>
       <c r="C33">
-        <v>6.767543413431443</v>
+        <v>6.524476079968362</v>
       </c>
       <c r="D33">
-        <v>0.5075434134314429</v>
+        <v>0.464476079968362</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1579,13 +1579,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>6.27</v>
+        <v>6.06</v>
       </c>
       <c r="C34">
-        <v>6.772240725843456</v>
+        <v>6.52540592263039</v>
       </c>
       <c r="D34">
-        <v>0.502240725843456</v>
+        <v>0.4654059226303904</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1593,13 +1593,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>6.26</v>
+        <v>6.05</v>
       </c>
       <c r="C35">
-        <v>6.769212285975381</v>
+        <v>6.528891914035328</v>
       </c>
       <c r="D35">
-        <v>0.5092122859753809</v>
+        <v>0.4788919140353283</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1607,13 +1607,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>6.26</v>
+        <v>6.05</v>
       </c>
       <c r="C36">
-        <v>6.777812358365733</v>
+        <v>6.527568116438069</v>
       </c>
       <c r="D36">
-        <v>0.5178123583657337</v>
+        <v>0.4775681164380696</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1621,13 +1621,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>6.26</v>
+        <v>6.04</v>
       </c>
       <c r="C37">
-        <v>6.781160506870399</v>
+        <v>6.534424611959055</v>
       </c>
       <c r="D37">
-        <v>0.5211605068703991</v>
+        <v>0.4944246119590545</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1635,13 +1635,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>6.26</v>
+        <v>6.06</v>
       </c>
       <c r="C38">
-        <v>6.77621629514782</v>
+        <v>6.526557230568932</v>
       </c>
       <c r="D38">
-        <v>0.51621629514782</v>
+        <v>0.4665572305689327</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1649,13 +1649,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>6.26</v>
+        <v>6.06</v>
       </c>
       <c r="C39">
-        <v>6.772171636556132</v>
+        <v>6.53071201693727</v>
       </c>
       <c r="D39">
-        <v>0.5121716365561317</v>
+        <v>0.4707120169372701</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1663,13 +1663,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>6.26</v>
+        <v>6.06</v>
       </c>
       <c r="C40">
-        <v>6.772990803204949</v>
+        <v>6.530117912174156</v>
       </c>
       <c r="D40">
-        <v>0.5129908032049491</v>
+        <v>0.4701179121741568</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1677,13 +1677,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>6.27</v>
+        <v>6.06</v>
       </c>
       <c r="C41">
-        <v>6.784602237127733</v>
+        <v>6.525410397627414</v>
       </c>
       <c r="D41">
-        <v>0.5146022371277335</v>
+        <v>0.465410397627414</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1691,13 +1691,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>6.26</v>
+        <v>6.07</v>
       </c>
       <c r="C42">
-        <v>6.777217380275727</v>
+        <v>6.520641121352942</v>
       </c>
       <c r="D42">
-        <v>0.5172173802757269</v>
+        <v>0.450641121352942</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1705,13 +1705,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>6.26</v>
+        <v>6.08</v>
       </c>
       <c r="C43">
-        <v>6.778159780141052</v>
+        <v>6.517832717438954</v>
       </c>
       <c r="D43">
-        <v>0.518159780141052</v>
+        <v>0.4378327174389538</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1719,13 +1719,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>6.27</v>
+        <v>6.08</v>
       </c>
       <c r="C44">
-        <v>6.780527373068591</v>
+        <v>6.524172166417249</v>
       </c>
       <c r="D44">
-        <v>0.5105273730685917</v>
+        <v>0.4441721664172489</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1733,13 +1733,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>6.26</v>
+        <v>6.08</v>
       </c>
       <c r="C45">
-        <v>6.786457867960363</v>
+        <v>6.530461299198403</v>
       </c>
       <c r="D45">
-        <v>0.5264578679603629</v>
+        <v>0.4504612991984027</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1747,13 +1747,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>6.26</v>
+        <v>6.07</v>
       </c>
       <c r="C46">
-        <v>6.788434962029409</v>
+        <v>6.535119561497376</v>
       </c>
       <c r="D46">
-        <v>0.5284349620294089</v>
+        <v>0.4651195614973753</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1761,13 +1761,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>6.27</v>
+        <v>6.08</v>
       </c>
       <c r="C47">
-        <v>6.774471237331936</v>
+        <v>6.535671030534469</v>
       </c>
       <c r="D47">
-        <v>0.5044712373319369</v>
+        <v>0.4556710305344689</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1775,13 +1775,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>6.27</v>
+        <v>6.09</v>
       </c>
       <c r="C48">
-        <v>6.774858093814518</v>
+        <v>6.523668217758476</v>
       </c>
       <c r="D48">
-        <v>0.5048580938145184</v>
+        <v>0.4336682177584761</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1789,13 +1789,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>6.27</v>
+        <v>6.09</v>
       </c>
       <c r="C49">
-        <v>6.774503355104483</v>
+        <v>6.525436714571346</v>
       </c>
       <c r="D49">
-        <v>0.5045033551044833</v>
+        <v>0.4354367145713463</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1803,13 +1803,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>6.27</v>
+        <v>6.1</v>
       </c>
       <c r="C50">
-        <v>6.777260653357083</v>
+        <v>6.529040064280104</v>
       </c>
       <c r="D50">
-        <v>0.5072606533570836</v>
+        <v>0.4290400642801044</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1817,13 +1817,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>6.27</v>
+        <v>6.09</v>
       </c>
       <c r="C51">
-        <v>6.782903672077228</v>
+        <v>6.52894105494184</v>
       </c>
       <c r="D51">
-        <v>0.5129036720772282</v>
+        <v>0.4389410549418402</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1831,13 +1831,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>6.27</v>
+        <v>6.1</v>
       </c>
       <c r="C52">
-        <v>6.790288432814195</v>
+        <v>6.536372450020512</v>
       </c>
       <c r="D52">
-        <v>0.520288432814195</v>
+        <v>0.4363724500205128</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1845,13 +1845,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>6.27</v>
+        <v>6.09</v>
       </c>
       <c r="C53">
-        <v>6.795734365035012</v>
+        <v>6.532092472979282</v>
       </c>
       <c r="D53">
-        <v>0.5257343650350128</v>
+        <v>0.4420924729792821</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1859,13 +1859,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>6.27</v>
+        <v>6.1</v>
       </c>
       <c r="C54">
-        <v>6.796987043575428</v>
+        <v>6.526836949072465</v>
       </c>
       <c r="D54">
-        <v>0.5269870435754287</v>
+        <v>0.4268369490724657</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1873,13 +1873,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>6.27</v>
+        <v>6.09</v>
       </c>
       <c r="C55">
-        <v>6.799649338387286</v>
+        <v>6.528006756909865</v>
       </c>
       <c r="D55">
-        <v>0.5296493383872862</v>
+        <v>0.4380067569098651</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1887,13 +1887,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>6.27</v>
+        <v>6.09</v>
       </c>
       <c r="C56">
-        <v>6.797163501337937</v>
+        <v>6.531697610781802</v>
       </c>
       <c r="D56">
-        <v>0.5271635013379372</v>
+        <v>0.4416976107818025</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1901,13 +1901,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>6.27</v>
+        <v>6.08</v>
       </c>
       <c r="C57">
-        <v>6.796083505221048</v>
+        <v>6.530727420968701</v>
       </c>
       <c r="D57">
-        <v>0.526083505221048</v>
+        <v>0.4507274209687013</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1915,13 +1915,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>6.27</v>
+        <v>6.09</v>
       </c>
       <c r="C58">
-        <v>6.800566220883836</v>
+        <v>6.533366280114172</v>
       </c>
       <c r="D58">
-        <v>0.5305662208838369</v>
+        <v>0.443366280114172</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1929,13 +1929,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>6.27</v>
+        <v>6.08</v>
       </c>
       <c r="C59">
-        <v>6.803669523247767</v>
+        <v>6.528814550960813</v>
       </c>
       <c r="D59">
-        <v>0.5336695232477675</v>
+        <v>0.4488145509608126</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1943,13 +1943,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>6.28</v>
+        <v>6.08</v>
       </c>
       <c r="C60">
-        <v>6.807905997334683</v>
+        <v>6.532090598987295</v>
       </c>
       <c r="D60">
-        <v>0.5279059973346829</v>
+        <v>0.4520905989872945</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1957,13 +1957,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>6.28</v>
+        <v>6.07</v>
       </c>
       <c r="C61">
-        <v>6.797913766229557</v>
+        <v>6.514196260390229</v>
       </c>
       <c r="D61">
-        <v>0.5179137662295563</v>
+        <v>0.4441962603902292</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1971,13 +1971,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>6.27</v>
+        <v>6.07</v>
       </c>
       <c r="C62">
-        <v>6.795749388696117</v>
+        <v>6.511567605526142</v>
       </c>
       <c r="D62">
-        <v>0.5257493886961173</v>
+        <v>0.4415676055261413</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1985,13 +1985,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>6.28</v>
+        <v>6.07</v>
       </c>
       <c r="C63">
-        <v>6.794767804355931</v>
+        <v>6.506070878855275</v>
       </c>
       <c r="D63">
-        <v>0.5147678043559303</v>
+        <v>0.4360708788552747</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1999,13 +1999,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>6.27</v>
+        <v>6.08</v>
       </c>
       <c r="C64">
-        <v>6.792522925078811</v>
+        <v>6.505035043097986</v>
       </c>
       <c r="D64">
-        <v>0.5225229250788113</v>
+        <v>0.4250350430979859</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2013,13 +2013,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>6.27</v>
+        <v>6.07</v>
       </c>
       <c r="C65">
-        <v>6.793867283302014</v>
+        <v>6.511886526598478</v>
       </c>
       <c r="D65">
-        <v>0.5238672833020148</v>
+        <v>0.4418865265984779</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2027,13 +2027,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>6.28</v>
+        <v>6.07</v>
       </c>
       <c r="C66">
-        <v>6.793855264910758</v>
+        <v>6.510106154208658</v>
       </c>
       <c r="D66">
-        <v>0.5138552649107577</v>
+        <v>0.4401061542086575</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2041,13 +2041,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>6.27</v>
+        <v>6.08</v>
       </c>
       <c r="C67">
-        <v>6.795612496778515</v>
+        <v>6.515381805128531</v>
       </c>
       <c r="D67">
-        <v>0.525612496778515</v>
+        <v>0.4353818051285314</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2055,13 +2055,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>6.29</v>
+        <v>6.09</v>
       </c>
       <c r="C68">
-        <v>6.806477873765101</v>
+        <v>6.522745971839879</v>
       </c>
       <c r="D68">
-        <v>0.5164778737651012</v>
+        <v>0.4327459718398794</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2069,13 +2069,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>6.29</v>
+        <v>6.09</v>
       </c>
       <c r="C69">
-        <v>6.808561809116967</v>
+        <v>6.512976485126882</v>
       </c>
       <c r="D69">
-        <v>0.5185618091169673</v>
+        <v>0.422976485126882</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2083,13 +2083,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>6.29</v>
+        <v>6.09</v>
       </c>
       <c r="C70">
-        <v>6.805369399700877</v>
+        <v>6.511450452175946</v>
       </c>
       <c r="D70">
-        <v>0.5153693997008766</v>
+        <v>0.4214504521759457</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2097,13 +2097,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>6.29</v>
+        <v>6.08</v>
       </c>
       <c r="C71">
-        <v>6.803556889257965</v>
+        <v>6.510108864291523</v>
       </c>
       <c r="D71">
-        <v>0.5135568892579645</v>
+        <v>0.4301088642915234</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2111,13 +2111,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>6.29</v>
+        <v>6.09</v>
       </c>
       <c r="C72">
-        <v>6.804192900248895</v>
+        <v>6.507996110373406</v>
       </c>
       <c r="D72">
-        <v>0.5141929002488954</v>
+        <v>0.417996110373406</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2125,13 +2125,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>6.27</v>
+        <v>6.08</v>
       </c>
       <c r="C73">
-        <v>6.797730717189581</v>
+        <v>6.507213721353966</v>
       </c>
       <c r="D73">
-        <v>0.5277307171895815</v>
+        <v>0.427213721353966</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>6.28</v>
+        <v>6.08</v>
       </c>
       <c r="C74">
-        <v>6.794218019890605</v>
+        <v>6.508575519064441</v>
       </c>
       <c r="D74">
-        <v>0.5142180198906043</v>
+        <v>0.4285755190644407</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2153,13 +2153,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>6.28</v>
+        <v>6.08</v>
       </c>
       <c r="C75">
-        <v>6.794734447636636</v>
+        <v>6.507635879559737</v>
       </c>
       <c r="D75">
-        <v>0.514734447636636</v>
+        <v>0.4276358795597366</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2167,13 +2167,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>6.28</v>
+        <v>6.07</v>
       </c>
       <c r="C76">
-        <v>6.790335043222199</v>
+        <v>6.506186246655871</v>
       </c>
       <c r="D76">
-        <v>0.5103350432221987</v>
+        <v>0.436186246655871</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2181,13 +2181,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>6.27</v>
+        <v>6.07</v>
       </c>
       <c r="C77">
-        <v>6.789959076557007</v>
+        <v>6.491764845640675</v>
       </c>
       <c r="D77">
-        <v>0.519959076557007</v>
+        <v>0.4217648456406744</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2195,13 +2195,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>6.27</v>
+        <v>6.07</v>
       </c>
       <c r="C78">
-        <v>6.793935106436934</v>
+        <v>6.486722146171139</v>
       </c>
       <c r="D78">
-        <v>0.5239351064369346</v>
+        <v>0.4167221461711383</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2209,13 +2209,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>6.28</v>
+        <v>6.06</v>
       </c>
       <c r="C79">
-        <v>6.791252748115665</v>
+        <v>6.485042803941798</v>
       </c>
       <c r="D79">
-        <v>0.5112527481156643</v>
+        <v>0.4250428039417979</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2223,13 +2223,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>6.27</v>
+        <v>6.05</v>
       </c>
       <c r="C80">
-        <v>6.799243291707348</v>
+        <v>6.483636380281173</v>
       </c>
       <c r="D80">
-        <v>0.5292432917073482</v>
+        <v>0.4336363802811736</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2237,13 +2237,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>6.27</v>
+        <v>6.05</v>
       </c>
       <c r="C81">
-        <v>6.796190936726695</v>
+        <v>6.475495626801211</v>
       </c>
       <c r="D81">
-        <v>0.526190936726695</v>
+        <v>0.4254956268012116</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2251,13 +2251,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>6.27</v>
+        <v>6.05</v>
       </c>
       <c r="C82">
-        <v>6.790695383141853</v>
+        <v>6.488291280488615</v>
       </c>
       <c r="D82">
-        <v>0.5206953831418533</v>
+        <v>0.438291280488615</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2265,13 +2265,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>6.27</v>
+        <v>6.04</v>
       </c>
       <c r="C83">
-        <v>6.787722090499449</v>
+        <v>6.485777428457033</v>
       </c>
       <c r="D83">
-        <v>0.5177220904994497</v>
+        <v>0.4457774284570331</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2279,13 +2279,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>6.27</v>
+        <v>6.05</v>
       </c>
       <c r="C84">
-        <v>6.786931166079733</v>
+        <v>6.481673020007162</v>
       </c>
       <c r="D84">
-        <v>0.5169311660797336</v>
+        <v>0.4316730200071621</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2293,13 +2293,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>6.27</v>
+        <v>6.04</v>
       </c>
       <c r="C85">
-        <v>6.789442744029958</v>
+        <v>6.477209974126859</v>
       </c>
       <c r="D85">
-        <v>0.5194427440299583</v>
+        <v>0.4372099741268585</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2307,13 +2307,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>6.27</v>
+        <v>6.04</v>
       </c>
       <c r="C86">
-        <v>6.782405790614443</v>
+        <v>6.474925712069127</v>
       </c>
       <c r="D86">
-        <v>0.5124057906144435</v>
+        <v>0.434925712069127</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2321,13 +2321,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>6.27</v>
+        <v>6.04</v>
       </c>
       <c r="C87">
-        <v>6.778908399152901</v>
+        <v>6.477658370412953</v>
       </c>
       <c r="D87">
-        <v>0.5089083991529018</v>
+        <v>0.4376583704129526</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2335,13 +2335,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>6.28</v>
+        <v>6.04</v>
       </c>
       <c r="C88">
-        <v>6.779964143856307</v>
+        <v>6.479056874472065</v>
       </c>
       <c r="D88">
-        <v>0.4999641438563067</v>
+        <v>0.4390568744720653</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2349,13 +2349,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>6.27</v>
+        <v>6.03</v>
       </c>
       <c r="C89">
-        <v>6.774781541776371</v>
+        <v>6.474546033114298</v>
       </c>
       <c r="D89">
-        <v>0.5047815417763717</v>
+        <v>0.4445460331142979</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2363,13 +2363,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>6.28</v>
+        <v>6.04</v>
       </c>
       <c r="C90">
-        <v>6.769983954043636</v>
+        <v>6.465865031202248</v>
       </c>
       <c r="D90">
-        <v>0.4899839540436357</v>
+        <v>0.4258650312022478</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2377,13 +2377,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>6.27</v>
+        <v>6.03</v>
       </c>
       <c r="C91">
-        <v>6.766647558753855</v>
+        <v>6.468116183891106</v>
       </c>
       <c r="D91">
-        <v>0.4966475587538559</v>
+        <v>0.4381161838911058</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2391,13 +2391,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>6.28</v>
+        <v>6.03</v>
       </c>
       <c r="C92">
-        <v>6.770617352804883</v>
+        <v>6.467616493939256</v>
       </c>
       <c r="D92">
-        <v>0.4906173528048825</v>
+        <v>0.4376164939392559</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2405,13 +2405,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>6.28</v>
+        <v>6.05</v>
       </c>
       <c r="C93">
-        <v>6.774174113464263</v>
+        <v>6.469857519738617</v>
       </c>
       <c r="D93">
-        <v>0.494174113464263</v>
+        <v>0.419857519738617</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2419,13 +2419,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>6.29</v>
+        <v>6.06</v>
       </c>
       <c r="C94">
-        <v>6.779000219414606</v>
+        <v>6.475084275843161</v>
       </c>
       <c r="D94">
-        <v>0.4890002194146064</v>
+        <v>0.4150842758431619</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2433,13 +2433,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>6.29</v>
+        <v>6.06</v>
       </c>
       <c r="C95">
-        <v>6.787853987954551</v>
+        <v>6.479279945763966</v>
       </c>
       <c r="D95">
-        <v>0.4978539879545512</v>
+        <v>0.4192799457639662</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2447,13 +2447,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>6.29</v>
+        <v>6.06</v>
       </c>
       <c r="C96">
-        <v>6.786128833415956</v>
+        <v>6.484540160278818</v>
       </c>
       <c r="D96">
-        <v>0.4961288334159555</v>
+        <v>0.4245401602788181</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2461,13 +2461,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>6.28</v>
+        <v>6.07</v>
       </c>
       <c r="C97">
-        <v>6.778205765801686</v>
+        <v>6.486510372385903</v>
       </c>
       <c r="D97">
-        <v>0.4982057658016856</v>
+        <v>0.4165103723859032</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2475,13 +2475,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>6.28</v>
+        <v>6.07</v>
       </c>
       <c r="C98">
-        <v>6.782502687672895</v>
+        <v>6.487023247875983</v>
       </c>
       <c r="D98">
-        <v>0.5025026876728944</v>
+        <v>0.4170232478759823</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2489,13 +2489,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>6.28</v>
+        <v>6.07</v>
       </c>
       <c r="C99">
-        <v>6.78032862877413</v>
+        <v>6.483639806429689</v>
       </c>
       <c r="D99">
-        <v>0.5003286287741293</v>
+        <v>0.4136398064296882</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2503,13 +2503,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>6.29</v>
+        <v>6.08</v>
       </c>
       <c r="C100">
-        <v>6.77906386411764</v>
+        <v>6.484692100768361</v>
       </c>
       <c r="D100">
-        <v>0.4890638641176395</v>
+        <v>0.4046921007683606</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2517,13 +2517,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>6.29</v>
+        <v>6.08</v>
       </c>
       <c r="C101">
-        <v>6.780015278005044</v>
+        <v>6.488194628166501</v>
       </c>
       <c r="D101">
-        <v>0.4900152780050444</v>
+        <v>0.408194628166501</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2531,13 +2531,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>6.29</v>
+        <v>6.08</v>
       </c>
       <c r="C102">
-        <v>6.785261573691023</v>
+        <v>6.46986475558604</v>
       </c>
       <c r="D102">
-        <v>0.4952615736910229</v>
+        <v>0.3898647555860402</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2545,13 +2545,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>6.29</v>
+        <v>6.09</v>
       </c>
       <c r="C103">
-        <v>6.783635740435266</v>
+        <v>6.483163530739959</v>
       </c>
       <c r="D103">
-        <v>0.4936357404352663</v>
+        <v>0.393163530739959</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2559,13 +2559,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>6.29</v>
+        <v>6.09</v>
       </c>
       <c r="C104">
-        <v>6.792723203683509</v>
+        <v>6.484832284023217</v>
       </c>
       <c r="D104">
-        <v>0.5027232036835088</v>
+        <v>0.3948322840232175</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2573,13 +2573,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>6.29</v>
+        <v>6.09</v>
       </c>
       <c r="C105">
-        <v>6.79112368331312</v>
+        <v>6.489888621155743</v>
       </c>
       <c r="D105">
-        <v>0.5011236833131196</v>
+        <v>0.3998886211557435</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2587,13 +2587,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>6.29</v>
+        <v>6.09</v>
       </c>
       <c r="C106">
-        <v>6.779898543946623</v>
+        <v>6.481121828377909</v>
       </c>
       <c r="D106">
-        <v>0.489898543946623</v>
+        <v>0.3911218283779094</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2601,13 +2601,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>6.28</v>
+        <v>6.08</v>
       </c>
       <c r="C107">
-        <v>6.787991249409278</v>
+        <v>6.495540154849937</v>
       </c>
       <c r="D107">
-        <v>0.5079912494092778</v>
+        <v>0.4155401548499364</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2615,13 +2615,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>6.3</v>
+        <v>6.08</v>
       </c>
       <c r="C108">
-        <v>6.777090693509712</v>
+        <v>6.486792657012061</v>
       </c>
       <c r="D108">
-        <v>0.4770906935097123</v>
+        <v>0.406792657012061</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2629,13 +2629,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>6.3</v>
+        <v>6.08</v>
       </c>
       <c r="C109">
-        <v>6.773585315333471</v>
+        <v>6.475921346402974</v>
       </c>
       <c r="D109">
-        <v>0.4735853153334713</v>
+        <v>0.3959213464029743</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2643,13 +2643,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>6.3</v>
+        <v>6.08</v>
       </c>
       <c r="C110">
-        <v>6.780638841685598</v>
+        <v>6.483028434977999</v>
       </c>
       <c r="D110">
-        <v>0.4806388416855985</v>
+        <v>0.4030284349779985</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2657,13 +2657,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>6.3</v>
+        <v>6.08</v>
       </c>
       <c r="C111">
-        <v>6.786040888857213</v>
+        <v>6.485610110681292</v>
       </c>
       <c r="D111">
-        <v>0.4860408888572127</v>
+        <v>0.4056101106812919</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2671,13 +2671,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>6.31</v>
+        <v>6.08</v>
       </c>
       <c r="C112">
-        <v>6.789743637525222</v>
+        <v>6.487729392860852</v>
       </c>
       <c r="D112">
-        <v>0.4797436375252229</v>
+        <v>0.4077293928608521</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2685,13 +2685,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>6.3</v>
+        <v>6.08</v>
       </c>
       <c r="C113">
-        <v>6.769402908114494</v>
+        <v>6.486623967439244</v>
       </c>
       <c r="D113">
-        <v>0.4694029081144944</v>
+        <v>0.406623967439244</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2699,13 +2699,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>6.31</v>
+        <v>6.08</v>
       </c>
       <c r="C114">
-        <v>6.767592930629108</v>
+        <v>6.484210147209557</v>
       </c>
       <c r="D114">
-        <v>0.457592930629108</v>
+        <v>0.4042101472095565</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2713,13 +2713,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>6.3</v>
+        <v>6.08</v>
       </c>
       <c r="C115">
-        <v>6.766906596647174</v>
+        <v>6.487840947397561</v>
       </c>
       <c r="D115">
-        <v>0.4669065966471742</v>
+        <v>0.4078409473975606</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2727,13 +2727,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>6.3</v>
+        <v>6.08</v>
       </c>
       <c r="C116">
-        <v>6.760217494979895</v>
+        <v>6.483407575262496</v>
       </c>
       <c r="D116">
-        <v>0.4602174949798954</v>
+        <v>0.4034075752624959</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2741,13 +2741,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>6.31</v>
+        <v>6.07</v>
       </c>
       <c r="C117">
-        <v>6.767571364447524</v>
+        <v>6.480772780327054</v>
       </c>
       <c r="D117">
-        <v>0.4575713644475243</v>
+        <v>0.4107727803270533</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2755,13 +2755,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>6.3</v>
+        <v>6.06</v>
       </c>
       <c r="C118">
-        <v>6.759445066275979</v>
+        <v>6.481982721961004</v>
       </c>
       <c r="D118">
-        <v>0.459445066275979</v>
+        <v>0.4219827219610046</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2769,13 +2769,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>6.31</v>
+        <v>6.08</v>
       </c>
       <c r="C119">
-        <v>6.760077042200298</v>
+        <v>6.479629444709382</v>
       </c>
       <c r="D119">
-        <v>0.4500770422002986</v>
+        <v>0.3996294447093822</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2783,13 +2783,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>6.31</v>
+        <v>6.07</v>
       </c>
       <c r="C120">
-        <v>6.767876125362826</v>
+        <v>6.485332976797459</v>
       </c>
       <c r="D120">
-        <v>0.4578761253628265</v>
+        <v>0.4153329767974592</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2797,13 +2797,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>6.32</v>
+        <v>6.08</v>
       </c>
       <c r="C121">
-        <v>6.758261550993338</v>
+        <v>6.488293957600439</v>
       </c>
       <c r="D121">
-        <v>0.4382615509933379</v>
+        <v>0.4082939576004394</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2811,13 +2811,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>6.32</v>
+        <v>6.08</v>
       </c>
       <c r="C122">
-        <v>6.761262559500591</v>
+        <v>6.488432034008185</v>
       </c>
       <c r="D122">
-        <v>0.4412625595005908</v>
+        <v>0.4084320340081851</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2825,13 +2825,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>6.31</v>
+        <v>6.09</v>
       </c>
       <c r="C123">
-        <v>6.752466938514501</v>
+        <v>6.485152977640712</v>
       </c>
       <c r="D123">
-        <v>0.4424669385145013</v>
+        <v>0.3951529776407119</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2839,13 +2839,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>6.31</v>
+        <v>6.08</v>
       </c>
       <c r="C124">
-        <v>6.757377724857395</v>
+        <v>6.490221007597198</v>
       </c>
       <c r="D124">
-        <v>0.4473777248573949</v>
+        <v>0.4102210075971984</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2853,13 +2853,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>6.31</v>
+        <v>6.08</v>
       </c>
       <c r="C125">
-        <v>6.752377045205718</v>
+        <v>6.484061865444734</v>
       </c>
       <c r="D125">
-        <v>0.4423770452057187</v>
+        <v>0.4040618654447341</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2867,13 +2867,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>6.32</v>
+        <v>6.09</v>
       </c>
       <c r="C126">
-        <v>6.751328684601572</v>
+        <v>6.488103005944036</v>
       </c>
       <c r="D126">
-        <v>0.4313286846015716</v>
+        <v>0.3981030059440362</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2881,13 +2881,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>6.32</v>
+        <v>6.08</v>
       </c>
       <c r="C127">
-        <v>6.752961727200023</v>
+        <v>6.499775029115615</v>
       </c>
       <c r="D127">
-        <v>0.4329617272000226</v>
+        <v>0.4197750291156153</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2895,13 +2895,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>6.32</v>
+        <v>6.08</v>
       </c>
       <c r="C128">
-        <v>6.756365189489759</v>
+        <v>6.491483191294235</v>
       </c>
       <c r="D128">
-        <v>0.4363651894897584</v>
+        <v>0.4114831912942352</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2909,13 +2909,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>6.33</v>
+        <v>6.08</v>
       </c>
       <c r="C129">
-        <v>6.752644149010776</v>
+        <v>6.491191990846551</v>
       </c>
       <c r="D129">
-        <v>0.4226441490107762</v>
+        <v>0.4111919908465511</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2923,13 +2923,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>6.32</v>
+        <v>6.08</v>
       </c>
       <c r="C130">
-        <v>6.741636071071313</v>
+        <v>6.480243935769404</v>
       </c>
       <c r="D130">
-        <v>0.4216360710713127</v>
+        <v>0.4002439357694039</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2937,13 +2937,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>6.32</v>
+        <v>6.08</v>
       </c>
       <c r="C131">
-        <v>6.74854998308678</v>
+        <v>6.47999300237661</v>
       </c>
       <c r="D131">
-        <v>0.4285499830867794</v>
+        <v>0.3999930023766103</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2951,13 +2951,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>6.32</v>
+        <v>6.07</v>
       </c>
       <c r="C132">
-        <v>6.7388270077509</v>
+        <v>6.471489943887543</v>
       </c>
       <c r="D132">
-        <v>0.4188270077508998</v>
+        <v>0.401489943887543</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2965,13 +2965,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>6.32</v>
+        <v>6.09</v>
       </c>
       <c r="C133">
-        <v>6.741548405900667</v>
+        <v>6.471067027548002</v>
       </c>
       <c r="D133">
-        <v>0.4215484059006664</v>
+        <v>0.3810670275480019</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2979,13 +2979,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>6.32</v>
+        <v>6.08</v>
       </c>
       <c r="C134">
-        <v>6.734771571049452</v>
+        <v>6.462059949888894</v>
       </c>
       <c r="D134">
-        <v>0.4147715710494522</v>
+        <v>0.3820599498888937</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2993,13 +2993,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>6.32</v>
+        <v>6.08</v>
       </c>
       <c r="C135">
-        <v>6.737461419348075</v>
+        <v>6.470323355521326</v>
       </c>
       <c r="D135">
-        <v>0.4174614193480748</v>
+        <v>0.3903233555213257</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3007,13 +3007,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>6.32</v>
+        <v>6.08</v>
       </c>
       <c r="C136">
-        <v>6.735188473372413</v>
+        <v>6.459411884443228</v>
       </c>
       <c r="D136">
-        <v>0.4151884733724129</v>
+        <v>0.3794118844432282</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3021,13 +3021,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>6.33</v>
+        <v>6.09</v>
       </c>
       <c r="C137">
-        <v>6.730635991678823</v>
+        <v>6.462714429584003</v>
       </c>
       <c r="D137">
-        <v>0.4006359916788229</v>
+        <v>0.3727144295840032</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3035,13 +3035,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>6.33</v>
+        <v>6.1</v>
       </c>
       <c r="C138">
-        <v>6.727952727292347</v>
+        <v>6.463831437632837</v>
       </c>
       <c r="D138">
-        <v>0.3979527272923464</v>
+        <v>0.3638314376328369</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3049,13 +3049,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>6.33</v>
+        <v>6.1</v>
       </c>
       <c r="C139">
-        <v>6.731960260625068</v>
+        <v>6.473008966659248</v>
       </c>
       <c r="D139">
-        <v>0.4019602606250681</v>
+        <v>0.3730089666592482</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3063,13 +3063,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>6.32</v>
+        <v>6.1</v>
       </c>
       <c r="C140">
-        <v>6.734317178299166</v>
+        <v>6.475875152377871</v>
       </c>
       <c r="D140">
-        <v>0.4143171782991653</v>
+        <v>0.3758751523778718</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3077,13 +3077,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>6.31</v>
+        <v>6.11</v>
       </c>
       <c r="C141">
-        <v>6.736502968163562</v>
+        <v>6.479776959383703</v>
       </c>
       <c r="D141">
-        <v>0.4265029681635628</v>
+        <v>0.369776959383703</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3091,13 +3091,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>6.31</v>
+        <v>6.12</v>
       </c>
       <c r="C142">
-        <v>6.736116654011378</v>
+        <v>6.477909834288202</v>
       </c>
       <c r="D142">
-        <v>0.4261166540113788</v>
+        <v>0.3579098342882023</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3105,13 +3105,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>6.32</v>
+        <v>6.11</v>
       </c>
       <c r="C143">
-        <v>6.73708952817788</v>
+        <v>6.489738120752771</v>
       </c>
       <c r="D143">
-        <v>0.4170895281778799</v>
+        <v>0.379738120752771</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3119,13 +3119,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>6.32</v>
+        <v>6.12</v>
       </c>
       <c r="C144">
-        <v>6.730193114717522</v>
+        <v>6.493345079159281</v>
       </c>
       <c r="D144">
-        <v>0.4101931147175213</v>
+        <v>0.3733450791592805</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3133,13 +3133,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>6.32</v>
+        <v>6.12</v>
       </c>
       <c r="C145">
-        <v>6.736577397077306</v>
+        <v>6.504016234048366</v>
       </c>
       <c r="D145">
-        <v>0.4165773970773055</v>
+        <v>0.3840162340483655</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3147,13 +3147,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>6.33</v>
+        <v>6.12</v>
       </c>
       <c r="C146">
-        <v>6.734840658298954</v>
+        <v>6.507642682229876</v>
       </c>
       <c r="D146">
-        <v>0.4048406582989541</v>
+        <v>0.3876426822298757</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3161,13 +3161,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>6.32</v>
+        <v>6.13</v>
       </c>
       <c r="C147">
-        <v>6.741163236134024</v>
+        <v>6.503976268481284</v>
       </c>
       <c r="D147">
-        <v>0.4211632361340234</v>
+        <v>0.3739762684812842</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3175,13 +3175,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>6.32</v>
+        <v>6.13</v>
       </c>
       <c r="C148">
-        <v>6.745018942823719</v>
+        <v>6.500664686531898</v>
       </c>
       <c r="D148">
-        <v>0.4250189428237183</v>
+        <v>0.3706646865318977</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3189,13 +3189,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>6.32</v>
+        <v>6.14</v>
       </c>
       <c r="C149">
-        <v>6.747342404554511</v>
+        <v>6.505609950897237</v>
       </c>
       <c r="D149">
-        <v>0.4273424045545111</v>
+        <v>0.3656099508972375</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3203,13 +3203,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>6.32</v>
+        <v>6.14</v>
       </c>
       <c r="C150">
-        <v>6.734519140937622</v>
+        <v>6.511642702150213</v>
       </c>
       <c r="D150">
-        <v>0.4145191409376219</v>
+        <v>0.3716427021502131</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3217,13 +3217,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>6.31</v>
+        <v>6.14</v>
       </c>
       <c r="C151">
-        <v>6.742769402012441</v>
+        <v>6.517694218174628</v>
       </c>
       <c r="D151">
-        <v>0.4327694020124415</v>
+        <v>0.3776942181746286</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3231,13 +3231,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>6.3</v>
+        <v>6.14</v>
       </c>
       <c r="C152">
-        <v>6.728861655199498</v>
+        <v>6.525298838860212</v>
       </c>
       <c r="D152">
-        <v>0.4288616551994977</v>
+        <v>0.3852988388602121</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3245,13 +3245,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>6.31</v>
+        <v>6.15</v>
       </c>
       <c r="C153">
-        <v>6.737888419426615</v>
+        <v>6.5195924839844</v>
       </c>
       <c r="D153">
-        <v>0.4278884194266155</v>
+        <v>0.3695924839843991</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3259,13 +3259,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>6.32</v>
+        <v>6.15</v>
       </c>
       <c r="C154">
-        <v>6.739660196016298</v>
+        <v>6.515198413836251</v>
       </c>
       <c r="D154">
-        <v>0.4196601960162978</v>
+        <v>0.365198413836251</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3273,13 +3273,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>6.31</v>
+        <v>6.15</v>
       </c>
       <c r="C155">
-        <v>6.740070347937757</v>
+        <v>6.514330563261505</v>
       </c>
       <c r="D155">
-        <v>0.4300703479377574</v>
+        <v>0.3643305632615048</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3287,13 +3287,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>6.31</v>
+        <v>6.14</v>
       </c>
       <c r="C156">
-        <v>6.735737445732529</v>
+        <v>6.525409167444843</v>
       </c>
       <c r="D156">
-        <v>0.4257374457325298</v>
+        <v>0.385409167444843</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3301,13 +3301,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>6.29</v>
+        <v>6.14</v>
       </c>
       <c r="C157">
-        <v>6.741832110186734</v>
+        <v>6.529272762334497</v>
       </c>
       <c r="D157">
-        <v>0.451832110186734</v>
+        <v>0.3892727623344978</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3315,13 +3315,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>6.29</v>
+        <v>6.14</v>
       </c>
       <c r="C158">
-        <v>6.735832360540935</v>
+        <v>6.536374682630773</v>
       </c>
       <c r="D158">
-        <v>0.4458323605409351</v>
+        <v>0.396374682630773</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3329,13 +3329,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>6.3</v>
+        <v>6.14</v>
       </c>
       <c r="C159">
-        <v>6.750159099493056</v>
+        <v>6.542824120799929</v>
       </c>
       <c r="D159">
-        <v>0.4501590994930567</v>
+        <v>0.402824120799929</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3343,13 +3343,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>6.28</v>
+        <v>6.14</v>
       </c>
       <c r="C160">
-        <v>6.742988698675705</v>
+        <v>6.540361315548743</v>
       </c>
       <c r="D160">
-        <v>0.462988698675705</v>
+        <v>0.4003613155487429</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3357,13 +3357,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>6.27</v>
+        <v>6.13</v>
       </c>
       <c r="C161">
-        <v>6.738671490984177</v>
+        <v>6.536127399215963</v>
       </c>
       <c r="D161">
-        <v>0.4686714909841774</v>
+        <v>0.4061273992159631</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3371,13 +3371,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>6.27</v>
+        <v>6.13</v>
       </c>
       <c r="C162">
-        <v>6.735423828104344</v>
+        <v>6.545981308459795</v>
       </c>
       <c r="D162">
-        <v>0.4654238281043446</v>
+        <v>0.415981308459795</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3385,13 +3385,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>6.26</v>
+        <v>6.14</v>
       </c>
       <c r="C163">
-        <v>6.726638682423082</v>
+        <v>6.538505657778535</v>
       </c>
       <c r="D163">
-        <v>0.4666386824230822</v>
+        <v>0.3985056577785357</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3399,13 +3399,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>6.26</v>
+        <v>6.14</v>
       </c>
       <c r="C164">
-        <v>6.724350473799841</v>
+        <v>6.552233775739086</v>
       </c>
       <c r="D164">
-        <v>0.4643504737998407</v>
+        <v>0.4122337757390859</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3413,13 +3413,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>6.26</v>
+        <v>6.12</v>
       </c>
       <c r="C165">
-        <v>6.721106665844983</v>
+        <v>6.55398731703406</v>
       </c>
       <c r="D165">
-        <v>0.4611066658449827</v>
+        <v>0.4339873170340596</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3427,13 +3427,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>6.26</v>
+        <v>6.13</v>
       </c>
       <c r="C166">
-        <v>6.716942550029489</v>
+        <v>6.546074886707218</v>
       </c>
       <c r="D166">
-        <v>0.4569425500294892</v>
+        <v>0.4160748867072179</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3441,13 +3441,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>6.26</v>
+        <v>6.13</v>
       </c>
       <c r="C167">
-        <v>6.712812642363503</v>
+        <v>6.541638112923896</v>
       </c>
       <c r="D167">
-        <v>0.4528126423635035</v>
+        <v>0.411638112923896</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3455,13 +3455,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>6.27</v>
+        <v>6.13</v>
       </c>
       <c r="C168">
-        <v>6.716003728848261</v>
+        <v>6.538677559870675</v>
       </c>
       <c r="D168">
-        <v>0.4460037288482619</v>
+        <v>0.4086775598706751</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3469,13 +3469,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>6.28</v>
+        <v>6.13</v>
       </c>
       <c r="C169">
-        <v>6.715367541471399</v>
+        <v>6.534434455541462</v>
       </c>
       <c r="D169">
-        <v>0.4353675414713987</v>
+        <v>0.4044344555414625</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3483,13 +3483,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>6.27</v>
+        <v>6.12</v>
       </c>
       <c r="C170">
-        <v>6.713880573741872</v>
+        <v>6.528892433967841</v>
       </c>
       <c r="D170">
-        <v>0.4438805737418727</v>
+        <v>0.408892433967841</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3497,13 +3497,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>6.28</v>
+        <v>6.12</v>
       </c>
       <c r="C171">
-        <v>6.708717678543123</v>
+        <v>6.525174852352881</v>
       </c>
       <c r="D171">
-        <v>0.4287176785431228</v>
+        <v>0.4051748523528804</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3511,13 +3511,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>6.27</v>
+        <v>6.13</v>
       </c>
       <c r="C172">
-        <v>6.705165183637955</v>
+        <v>6.516451081940073</v>
       </c>
       <c r="D172">
-        <v>0.4351651836379551</v>
+        <v>0.3864510819400735</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3525,13 +3525,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>6.27</v>
+        <v>6.13</v>
       </c>
       <c r="C173">
-        <v>6.69455296955265</v>
+        <v>6.515850730029858</v>
       </c>
       <c r="D173">
-        <v>0.4245529695526509</v>
+        <v>0.3858507300298584</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3539,13 +3539,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>6.27</v>
+        <v>6.12</v>
       </c>
       <c r="C174">
-        <v>6.699220546821835</v>
+        <v>6.526248747573875</v>
       </c>
       <c r="D174">
-        <v>0.4292205468218357</v>
+        <v>0.4062487475738745</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3553,13 +3553,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>6.27</v>
+        <v>6.13</v>
       </c>
       <c r="C175">
-        <v>6.681230125203562</v>
+        <v>6.526991100830695</v>
       </c>
       <c r="D175">
-        <v>0.4112301252035619</v>
+        <v>0.3969911008306948</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3567,13 +3567,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>6.27</v>
+        <v>6.12</v>
       </c>
       <c r="C176">
-        <v>6.682965186941664</v>
+        <v>6.525290230627395</v>
       </c>
       <c r="D176">
-        <v>0.4129651869416646</v>
+        <v>0.4052902306273953</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3581,13 +3581,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>6.27</v>
+        <v>6.12</v>
       </c>
       <c r="C177">
-        <v>6.677266082443231</v>
+        <v>6.527577786122737</v>
       </c>
       <c r="D177">
-        <v>0.4072660824432317</v>
+        <v>0.4075777861227365</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3595,13 +3595,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>6.27</v>
+        <v>6.13</v>
       </c>
       <c r="C178">
-        <v>6.674150962863346</v>
+        <v>6.529457840868841</v>
       </c>
       <c r="D178">
-        <v>0.4041509628633468</v>
+        <v>0.3994578408688412</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3609,13 +3609,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>6.28</v>
+        <v>6.12</v>
       </c>
       <c r="C179">
-        <v>6.680942113606604</v>
+        <v>6.537365866874494</v>
       </c>
       <c r="D179">
-        <v>0.4009421136066038</v>
+        <v>0.4173658668744942</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3623,13 +3623,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>6.28</v>
+        <v>6.12</v>
       </c>
       <c r="C180">
-        <v>6.688921500730207</v>
+        <v>6.533978434576755</v>
       </c>
       <c r="D180">
-        <v>0.4089215007302069</v>
+        <v>0.4139784345767552</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3637,13 +3637,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>6.28</v>
+        <v>6.13</v>
       </c>
       <c r="C181">
-        <v>6.689510803320858</v>
+        <v>6.527444864394533</v>
       </c>
       <c r="D181">
-        <v>0.4095108033208579</v>
+        <v>0.397444864394533</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3651,13 +3651,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>6.29</v>
+        <v>6.12</v>
       </c>
       <c r="C182">
-        <v>6.676836987341011</v>
+        <v>6.523517411820966</v>
       </c>
       <c r="D182">
-        <v>0.3868369873410114</v>
+        <v>0.4035174118209657</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3665,13 +3665,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>6.29</v>
+        <v>6.12</v>
       </c>
       <c r="C183">
-        <v>6.690600219650178</v>
+        <v>6.537568855671643</v>
       </c>
       <c r="D183">
-        <v>0.4006002196501779</v>
+        <v>0.417568855671643</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3679,13 +3679,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>6.27</v>
+        <v>6.12</v>
       </c>
       <c r="C184">
-        <v>6.689126495312139</v>
+        <v>6.5387727139825</v>
       </c>
       <c r="D184">
-        <v>0.4191264953121392</v>
+        <v>0.4187727139825004</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3693,13 +3693,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>6.27</v>
+        <v>6.13</v>
       </c>
       <c r="C185">
-        <v>6.683490491074141</v>
+        <v>6.550526029755674</v>
       </c>
       <c r="D185">
-        <v>0.4134904910741417</v>
+        <v>0.4205260297556741</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3707,13 +3707,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>6.27</v>
+        <v>6.13</v>
       </c>
       <c r="C186">
-        <v>6.680881280678261</v>
+        <v>6.537413415685534</v>
       </c>
       <c r="D186">
-        <v>0.4108812806782618</v>
+        <v>0.407413415685534</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3721,13 +3721,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>6.29</v>
+        <v>6.13</v>
       </c>
       <c r="C187">
-        <v>6.695373475251484</v>
+        <v>6.541588121663721</v>
       </c>
       <c r="D187">
-        <v>0.4053734752514835</v>
+        <v>0.4115881216637209</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3735,13 +3735,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>6.28</v>
+        <v>6.14</v>
       </c>
       <c r="C188">
-        <v>6.699143905308385</v>
+        <v>6.550109453250864</v>
       </c>
       <c r="D188">
-        <v>0.4191439053083847</v>
+        <v>0.4101094532508647</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3749,13 +3749,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>6.29</v>
+        <v>6.14</v>
       </c>
       <c r="C189">
-        <v>6.698415703366034</v>
+        <v>6.572970669066527</v>
       </c>
       <c r="D189">
-        <v>0.4084157033660336</v>
+        <v>0.4329706690665276</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3763,13 +3763,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>6.29</v>
+        <v>6.15</v>
       </c>
       <c r="C190">
-        <v>6.703892137154427</v>
+        <v>6.573477887362606</v>
       </c>
       <c r="D190">
-        <v>0.4138921371544271</v>
+        <v>0.4234778873626057</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3777,13 +3777,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>6.29</v>
+        <v>6.14</v>
       </c>
       <c r="C191">
-        <v>6.701608065588625</v>
+        <v>6.576925952505781</v>
       </c>
       <c r="D191">
-        <v>0.4116080655886254</v>
+        <v>0.4369259525057814</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3791,13 +3791,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>6.29</v>
+        <v>6.14</v>
       </c>
       <c r="C192">
-        <v>6.701652854945894</v>
+        <v>6.578409351289079</v>
       </c>
       <c r="D192">
-        <v>0.4116528549458938</v>
+        <v>0.4384093512890797</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3805,13 +3805,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>6.3</v>
+        <v>6.14</v>
       </c>
       <c r="C193">
-        <v>6.70807316465931</v>
+        <v>6.566930447574243</v>
       </c>
       <c r="D193">
-        <v>0.4080731646593101</v>
+        <v>0.426930447574243</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3819,13 +3819,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>6.29</v>
+        <v>6.14</v>
       </c>
       <c r="C194">
-        <v>6.714334823972796</v>
+        <v>6.557741466269666</v>
       </c>
       <c r="D194">
-        <v>0.4243348239727958</v>
+        <v>0.4177414662696659</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3833,13 +3833,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>6.29</v>
+        <v>6.13</v>
       </c>
       <c r="C195">
-        <v>6.704815258861985</v>
+        <v>6.546337183738628</v>
       </c>
       <c r="D195">
-        <v>0.4148152588619851</v>
+        <v>0.4163371837386283</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3847,13 +3847,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>6.3</v>
+        <v>6.12</v>
       </c>
       <c r="C196">
-        <v>6.70629073948415</v>
+        <v>6.541803619764715</v>
       </c>
       <c r="D196">
-        <v>0.4062907394841506</v>
+        <v>0.4218036197647148</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3861,13 +3861,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>6.3</v>
+        <v>6.11</v>
       </c>
       <c r="C197">
-        <v>6.72013044316978</v>
+        <v>6.544408440301448</v>
       </c>
       <c r="D197">
-        <v>0.4201304431697803</v>
+        <v>0.4344084403014481</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3875,13 +3875,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>6.31</v>
+        <v>6.11</v>
       </c>
       <c r="C198">
-        <v>6.713465867806984</v>
+        <v>6.542635886293453</v>
       </c>
       <c r="D198">
-        <v>0.4034658678069842</v>
+        <v>0.4326358862934523</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3889,13 +3889,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>6.31</v>
+        <v>6.1</v>
       </c>
       <c r="C199">
-        <v>6.697307680309749</v>
+        <v>6.537698294053281</v>
       </c>
       <c r="D199">
-        <v>0.3873076803097497</v>
+        <v>0.4376982940532814</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3903,13 +3903,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="C200">
-        <v>6.706544962813989</v>
+        <v>6.528924149703589</v>
       </c>
       <c r="D200">
-        <v>0.4065449628139888</v>
+        <v>0.4289241497035894</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3917,13 +3917,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>6.31</v>
+        <v>6.11</v>
       </c>
       <c r="C201">
-        <v>6.704018288932306</v>
+        <v>6.534920062990218</v>
       </c>
       <c r="D201">
-        <v>0.3940182889323065</v>
+        <v>0.4249200629902177</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3931,13 +3931,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>6.31</v>
+        <v>6.1</v>
       </c>
       <c r="C202">
-        <v>6.702163080141417</v>
+        <v>6.533978548036184</v>
       </c>
       <c r="D202">
-        <v>0.3921630801414171</v>
+        <v>0.4339785480361842</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3945,13 +3945,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="C203">
-        <v>6.700617439155759</v>
+        <v>6.527113698835064</v>
       </c>
       <c r="D203">
-        <v>0.4006174391557593</v>
+        <v>0.4271136988350639</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3959,13 +3959,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>6.3</v>
+        <v>6.11</v>
       </c>
       <c r="C204">
-        <v>6.694176950038981</v>
+        <v>6.537523316112863</v>
       </c>
       <c r="D204">
-        <v>0.3941769500389807</v>
+        <v>0.4275233161128629</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3973,13 +3973,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>6.3</v>
+        <v>6.12</v>
       </c>
       <c r="C205">
-        <v>6.71348451971024</v>
+        <v>6.550350859572474</v>
       </c>
       <c r="D205">
-        <v>0.4134845197102397</v>
+        <v>0.4303508595724743</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3987,13 +3987,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>6.31</v>
+        <v>6.12</v>
       </c>
       <c r="C206">
-        <v>6.718103080967336</v>
+        <v>6.545899831942475</v>
       </c>
       <c r="D206">
-        <v>0.4081030809673365</v>
+        <v>0.4258998319424752</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4001,13 +4001,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>6.32</v>
+        <v>6.13</v>
       </c>
       <c r="C207">
-        <v>6.711885291048547</v>
+        <v>6.529892226201054</v>
       </c>
       <c r="D207">
-        <v>0.3918852910485464</v>
+        <v>0.3998922262010538</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4015,13 +4015,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>6.31</v>
+        <v>6.12</v>
       </c>
       <c r="C208">
-        <v>6.729285377117768</v>
+        <v>6.530727286315636</v>
       </c>
       <c r="D208">
-        <v>0.4192853771177685</v>
+        <v>0.4107272863156357</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4029,13 +4029,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>6.31</v>
+        <v>6.14</v>
       </c>
       <c r="C209">
-        <v>6.729513736360031</v>
+        <v>6.529992617463416</v>
       </c>
       <c r="D209">
-        <v>0.419513736360031</v>
+        <v>0.3899926174634167</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4043,13 +4043,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>6.32</v>
+        <v>6.14</v>
       </c>
       <c r="C210">
-        <v>6.71433861430384</v>
+        <v>6.534001754799758</v>
       </c>
       <c r="D210">
-        <v>0.3943386143038401</v>
+        <v>0.3940017547997581</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4057,13 +4057,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>6.32</v>
+        <v>6.13</v>
       </c>
       <c r="C211">
-        <v>6.716756082217331</v>
+        <v>6.535756850260348</v>
       </c>
       <c r="D211">
-        <v>0.3967560822173306</v>
+        <v>0.4057568502603477</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4071,13 +4071,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>6.32</v>
+        <v>6.12</v>
       </c>
       <c r="C212">
-        <v>6.725787558947245</v>
+        <v>6.547951942106779</v>
       </c>
       <c r="D212">
-        <v>0.4057875589472451</v>
+        <v>0.4279519421067786</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4085,13 +4085,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>6.3</v>
+        <v>6.13</v>
       </c>
       <c r="C213">
-        <v>6.728562588314721</v>
+        <v>6.550915005424517</v>
       </c>
       <c r="D213">
-        <v>0.4285625883147208</v>
+        <v>0.4209150054245168</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4099,13 +4099,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>6.3</v>
+        <v>6.12</v>
       </c>
       <c r="C214">
-        <v>6.726727657067568</v>
+        <v>6.560301821263514</v>
       </c>
       <c r="D214">
-        <v>0.426727657067568</v>
+        <v>0.4403018212635139</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4113,13 +4113,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>6.31</v>
+        <v>6.11</v>
       </c>
       <c r="C215">
-        <v>6.719747215582367</v>
+        <v>6.555820381387037</v>
       </c>
       <c r="D215">
-        <v>0.4097472155823674</v>
+        <v>0.4458203813870369</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4127,13 +4127,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>6.31</v>
+        <v>6.1</v>
       </c>
       <c r="C216">
-        <v>6.721774687853721</v>
+        <v>6.561188391456668</v>
       </c>
       <c r="D216">
-        <v>0.4117746878537218</v>
+        <v>0.4611883914566688</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4141,13 +4141,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>6.31</v>
+        <v>6.1</v>
       </c>
       <c r="C217">
-        <v>6.721155451985099</v>
+        <v>6.558738241782449</v>
       </c>
       <c r="D217">
-        <v>0.4111554519850991</v>
+        <v>0.4587382417824495</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4155,13 +4155,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>6.31</v>
+        <v>6.1</v>
       </c>
       <c r="C218">
-        <v>6.718401377052341</v>
+        <v>6.547322117176139</v>
       </c>
       <c r="D218">
-        <v>0.4084013770523409</v>
+        <v>0.4473221171761397</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4169,13 +4169,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>6.32</v>
+        <v>6.09</v>
       </c>
       <c r="C219">
-        <v>6.716894428247723</v>
+        <v>6.556767850212531</v>
       </c>
       <c r="D219">
-        <v>0.3968944282477223</v>
+        <v>0.4667678502125314</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4183,13 +4183,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>6.34</v>
+        <v>6.09</v>
       </c>
       <c r="C220">
-        <v>6.717090461303727</v>
+        <v>6.568759766768959</v>
       </c>
       <c r="D220">
-        <v>0.3770904613037276</v>
+        <v>0.4787597667689587</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4197,13 +4197,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>6.34</v>
+        <v>6.09</v>
       </c>
       <c r="C221">
-        <v>6.723792526574461</v>
+        <v>6.581327691225783</v>
       </c>
       <c r="D221">
-        <v>0.3837925265744611</v>
+        <v>0.4913276912257833</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4211,13 +4211,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>6.34</v>
+        <v>6.08</v>
       </c>
       <c r="C222">
-        <v>6.721446845255101</v>
+        <v>6.583960821149936</v>
       </c>
       <c r="D222">
-        <v>0.381446845255101</v>
+        <v>0.5039608211499358</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4225,13 +4225,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>6.34</v>
+        <v>6.09</v>
       </c>
       <c r="C223">
-        <v>6.730211706003318</v>
+        <v>6.615454136652349</v>
       </c>
       <c r="D223">
-        <v>0.3902117060033179</v>
+        <v>0.5254541366523489</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4239,13 +4239,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>6.34</v>
+        <v>6.09</v>
       </c>
       <c r="C224">
-        <v>6.723386258168991</v>
+        <v>6.610095512849395</v>
       </c>
       <c r="D224">
-        <v>0.3833862581689909</v>
+        <v>0.5200955128493954</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4253,13 +4253,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>6.35</v>
+        <v>6.08</v>
       </c>
       <c r="C225">
-        <v>6.723674577975477</v>
+        <v>6.607138091463185</v>
       </c>
       <c r="D225">
-        <v>0.3736745779754775</v>
+        <v>0.5271380914631854</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4267,13 +4267,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>6.35</v>
+        <v>6.09</v>
       </c>
       <c r="C226">
-        <v>6.721270829628829</v>
+        <v>6.610898981838029</v>
       </c>
       <c r="D226">
-        <v>0.3712708296288296</v>
+        <v>0.5208989818380294</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4281,13 +4281,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>6.34</v>
+        <v>6.11</v>
       </c>
       <c r="C227">
-        <v>6.725783617444503</v>
+        <v>6.635822178174785</v>
       </c>
       <c r="D227">
-        <v>0.3857836174445035</v>
+        <v>0.5258221781747849</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4295,13 +4295,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>6.36</v>
+        <v>6.1</v>
       </c>
       <c r="C228">
-        <v>6.742517079669027</v>
+        <v>6.619840647771134</v>
       </c>
       <c r="D228">
-        <v>0.3825170796690269</v>
+        <v>0.5198406477711339</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4309,13 +4309,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>6.36</v>
+        <v>6.09</v>
       </c>
       <c r="C229">
-        <v>6.748112722707897</v>
+        <v>6.605802148702963</v>
       </c>
       <c r="D229">
-        <v>0.3881127227078967</v>
+        <v>0.5158021487029627</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4323,13 +4323,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>6.36</v>
+        <v>6.11</v>
       </c>
       <c r="C230">
-        <v>6.769630621787749</v>
+        <v>6.614982248810866</v>
       </c>
       <c r="D230">
-        <v>0.4096306217877483</v>
+        <v>0.5049822488108653</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4337,13 +4337,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>6.34</v>
+        <v>6.04</v>
       </c>
       <c r="C231">
-        <v>6.770600169869502</v>
+        <v>6.592340954040165</v>
       </c>
       <c r="D231">
-        <v>0.4306001698695026</v>
+        <v>0.5523409540401651</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4351,13 +4351,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>6.34</v>
+        <v>6.04</v>
       </c>
       <c r="C232">
-        <v>6.768292651686301</v>
+        <v>6.587718195457525</v>
       </c>
       <c r="D232">
-        <v>0.4282926516863013</v>
+        <v>0.5477181954575254</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4365,13 +4365,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>6.36</v>
+        <v>6.04</v>
       </c>
       <c r="C233">
-        <v>6.769727123688688</v>
+        <v>6.581423361243989</v>
       </c>
       <c r="D233">
-        <v>0.4097271236886879</v>
+        <v>0.5414233612439894</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4379,13 +4379,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>6.35</v>
+        <v>6</v>
       </c>
       <c r="C234">
-        <v>6.781401807208051</v>
+        <v>6.576526440569288</v>
       </c>
       <c r="D234">
-        <v>0.4314018072080517</v>
+        <v>0.576526440569288</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4393,13 +4393,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>6.34</v>
+        <v>6.02</v>
       </c>
       <c r="C235">
-        <v>6.750529271149747</v>
+        <v>6.577193092656402</v>
       </c>
       <c r="D235">
-        <v>0.4105292711497475</v>
+        <v>0.5571930926564024</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4407,13 +4407,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>6.32</v>
+        <v>6.02</v>
       </c>
       <c r="C236">
-        <v>6.74419585873664</v>
+        <v>6.565159858252982</v>
       </c>
       <c r="D236">
-        <v>0.4241958587366392</v>
+        <v>0.5451598582529824</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4421,13 +4421,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>6.3</v>
+        <v>5.98</v>
       </c>
       <c r="C237">
-        <v>6.748719979289478</v>
+        <v>6.547596366444036</v>
       </c>
       <c r="D237">
-        <v>0.4487199792894785</v>
+        <v>0.5675963664440351</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4435,13 +4435,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>6.31</v>
+        <v>5.94</v>
       </c>
       <c r="C238">
-        <v>6.756624918213894</v>
+        <v>6.544499974221936</v>
       </c>
       <c r="D238">
-        <v>0.4466249182138942</v>
+        <v>0.6044999742219357</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4449,13 +4449,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>6.29</v>
+        <v>5.94</v>
       </c>
       <c r="C239">
-        <v>6.737737430509624</v>
+        <v>6.530970025781568</v>
       </c>
       <c r="D239">
-        <v>0.4477374305096244</v>
+        <v>0.5909700257815675</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4463,13 +4463,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>6.28</v>
+        <v>5.93</v>
       </c>
       <c r="C240">
-        <v>6.723519631682191</v>
+        <v>6.509297945722552</v>
       </c>
       <c r="D240">
-        <v>0.4435196316821912</v>
+        <v>0.5792979457225522</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4477,13 +4477,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>6.33</v>
+        <v>5.93</v>
       </c>
       <c r="C241">
-        <v>6.729749491485564</v>
+        <v>6.514321264968754</v>
       </c>
       <c r="D241">
-        <v>0.3997494914855642</v>
+        <v>0.5843212649687546</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4491,13 +4491,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>6.33</v>
+        <v>5.99</v>
       </c>
       <c r="C242">
-        <v>6.741983938446443</v>
+        <v>6.524385728272651</v>
       </c>
       <c r="D242">
-        <v>0.4119839384464425</v>
+        <v>0.5343857282726505</v>
       </c>
     </row>
   </sheetData>

--- a/temp/Yesterdaytest.xlsx
+++ b/temp/Yesterdaytest.xlsx
@@ -28,727 +28,727 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-08-02 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:59:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:55:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:50:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:49:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:22:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:11:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:10:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:07:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:04:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:01:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:55:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:53:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:50:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:47:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:26:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:13:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:09:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:07:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:30:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:28:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:23:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:19:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:13:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:04:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:50:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:46:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:38:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:35:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:31:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:14:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:01:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:58:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:54:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:53:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:50:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:46:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:41:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:32:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-08-02 09:30:00</t>
+    <t>2019-10-29 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:59:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:50:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:22:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:01:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:55:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:53:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:47:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:26:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:13:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:09:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:30:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:28:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:23:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:19:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:17:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:13:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:04:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:50:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:38:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:31:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:59:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:58:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:53:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:46:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:44:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:32:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 09:30:00</t>
   </si>
 </sst>
 </file>
@@ -1131,13 +1131,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.08</v>
+        <v>6.85</v>
       </c>
       <c r="C2">
-        <v>6.541658778495198</v>
+        <v>6.361488121325771</v>
       </c>
       <c r="D2">
-        <v>0.461658778495198</v>
+        <v>-0.4885118786742284</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1145,13 +1145,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.07</v>
+        <v>6.84</v>
       </c>
       <c r="C3">
-        <v>6.536355405105859</v>
+        <v>6.363923496512437</v>
       </c>
       <c r="D3">
-        <v>0.4663554051058592</v>
+        <v>-0.4760765034875627</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1159,13 +1159,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.07</v>
+        <v>6.84</v>
       </c>
       <c r="C4">
-        <v>6.536355405105859</v>
+        <v>6.363943249028849</v>
       </c>
       <c r="D4">
-        <v>0.4663554051058592</v>
+        <v>-0.4760567509711509</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1173,13 +1173,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.06</v>
+        <v>6.83</v>
       </c>
       <c r="C5">
-        <v>6.533242615207189</v>
+        <v>6.363617970938</v>
       </c>
       <c r="D5">
-        <v>0.4732426152071891</v>
+        <v>-0.4663820290620002</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1187,13 +1187,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.06</v>
+        <v>6.83</v>
       </c>
       <c r="C6">
-        <v>6.529124175963029</v>
+        <v>6.364267408489543</v>
       </c>
       <c r="D6">
-        <v>0.4691241759630298</v>
+        <v>-0.4657325915104567</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1201,13 +1201,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.07</v>
+        <v>6.85</v>
       </c>
       <c r="C7">
-        <v>6.528039862154633</v>
+        <v>6.360807536661209</v>
       </c>
       <c r="D7">
-        <v>0.4580398621546324</v>
+        <v>-0.4891924633387905</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1215,13 +1215,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.06</v>
+        <v>6.87</v>
       </c>
       <c r="C8">
-        <v>6.530183461663184</v>
+        <v>6.362894043023758</v>
       </c>
       <c r="D8">
-        <v>0.4701834616631846</v>
+        <v>-0.5071059569762424</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1229,13 +1229,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.07</v>
+        <v>6.88</v>
       </c>
       <c r="C9">
-        <v>6.532698853328523</v>
+        <v>6.367373150272615</v>
       </c>
       <c r="D9">
-        <v>0.462698853328523</v>
+        <v>-0.5126268497273854</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1243,13 +1243,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.06</v>
+        <v>6.88</v>
       </c>
       <c r="C10">
-        <v>6.541029727567193</v>
+        <v>6.370785093029997</v>
       </c>
       <c r="D10">
-        <v>0.4810297275671935</v>
+        <v>-0.5092149069700032</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1257,13 +1257,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6.06</v>
+        <v>6.88</v>
       </c>
       <c r="C11">
-        <v>6.53855816707788</v>
+        <v>6.36982747732257</v>
       </c>
       <c r="D11">
-        <v>0.47855816707788</v>
+        <v>-0.5101725226774301</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1271,13 +1271,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>6.07</v>
+        <v>6.89</v>
       </c>
       <c r="C12">
-        <v>6.539014805638804</v>
+        <v>6.368362085829649</v>
       </c>
       <c r="D12">
-        <v>0.4690148056388042</v>
+        <v>-0.5216379141703502</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1285,13 +1285,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>6.07</v>
+        <v>6.9</v>
       </c>
       <c r="C13">
-        <v>6.535984501689671</v>
+        <v>6.374376432994444</v>
       </c>
       <c r="D13">
-        <v>0.4659845016896709</v>
+        <v>-0.5256235670055567</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1299,13 +1299,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>6.08</v>
+        <v>6.89</v>
       </c>
       <c r="C14">
-        <v>6.544151684363668</v>
+        <v>6.385872265779981</v>
       </c>
       <c r="D14">
-        <v>0.4641516843636682</v>
+        <v>-0.5041277342200186</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1313,13 +1313,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>6.07</v>
+        <v>6.92</v>
       </c>
       <c r="C15">
-        <v>6.542156382676402</v>
+        <v>6.389610383780083</v>
       </c>
       <c r="D15">
-        <v>0.4721563826764017</v>
+        <v>-0.5303896162199173</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1327,13 +1327,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>6.07</v>
+        <v>6.95</v>
       </c>
       <c r="C16">
-        <v>6.558485664657499</v>
+        <v>6.37954759192557</v>
       </c>
       <c r="D16">
-        <v>0.4884856646574987</v>
+        <v>-0.5704524080744307</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1341,13 +1341,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>6.07</v>
+        <v>6.91</v>
       </c>
       <c r="C17">
-        <v>6.551282379424427</v>
+        <v>6.381826232099125</v>
       </c>
       <c r="D17">
-        <v>0.4812823794244272</v>
+        <v>-0.5281737679008751</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1355,13 +1355,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>6.07</v>
+        <v>6.89</v>
       </c>
       <c r="C18">
-        <v>6.54642566600202</v>
+        <v>6.381207007005238</v>
       </c>
       <c r="D18">
-        <v>0.4764256660020196</v>
+        <v>-0.5087929929947617</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1369,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>6.09</v>
+        <v>6.87</v>
       </c>
       <c r="C19">
-        <v>6.538160138676143</v>
+        <v>6.381543113754915</v>
       </c>
       <c r="D19">
-        <v>0.4481601386761431</v>
+        <v>-0.4884568862450847</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1383,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>6.09</v>
+        <v>6.9</v>
       </c>
       <c r="C20">
-        <v>6.538535522213523</v>
+        <v>6.379646561212181</v>
       </c>
       <c r="D20">
-        <v>0.4485355222135228</v>
+        <v>-0.5203534387878195</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1397,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>6.08</v>
+        <v>6.92</v>
       </c>
       <c r="C21">
-        <v>6.534024654606726</v>
+        <v>6.388428490946459</v>
       </c>
       <c r="D21">
-        <v>0.4540246546067257</v>
+        <v>-0.5315715090535411</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1411,13 +1411,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>6.08</v>
+        <v>6.94</v>
       </c>
       <c r="C22">
-        <v>6.522231508283659</v>
+        <v>6.382245933174326</v>
       </c>
       <c r="D22">
-        <v>0.4422315082836592</v>
+        <v>-0.5577540668256749</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1425,13 +1425,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>6.08</v>
+        <v>6.93</v>
       </c>
       <c r="C23">
-        <v>6.541115832657044</v>
+        <v>6.394294953868116</v>
       </c>
       <c r="D23">
-        <v>0.4611158326570441</v>
+        <v>-0.5357050461318833</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1439,13 +1439,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>6.08</v>
+        <v>6.93</v>
       </c>
       <c r="C24">
-        <v>6.553924120979564</v>
+        <v>6.388720829222062</v>
       </c>
       <c r="D24">
-        <v>0.4739241209795635</v>
+        <v>-0.5412791707779379</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>6.09</v>
+        <v>6.93</v>
       </c>
       <c r="C25">
-        <v>6.555992052339264</v>
+        <v>6.38739722498734</v>
       </c>
       <c r="D25">
-        <v>0.4659920523392644</v>
+        <v>-0.5426027750126599</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1467,13 +1467,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>6.08</v>
+        <v>6.95</v>
       </c>
       <c r="C26">
-        <v>6.552429898875523</v>
+        <v>6.394742525743752</v>
       </c>
       <c r="D26">
-        <v>0.4724298988755224</v>
+        <v>-0.5552574742562486</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1481,13 +1481,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>6.09</v>
+        <v>6.97</v>
       </c>
       <c r="C27">
-        <v>6.557905098252419</v>
+        <v>6.403471326835334</v>
       </c>
       <c r="D27">
-        <v>0.4679050982524187</v>
+        <v>-0.5665286731646653</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1495,13 +1495,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>6.08</v>
+        <v>6.97</v>
       </c>
       <c r="C28">
-        <v>6.560353530134265</v>
+        <v>6.407691875771328</v>
       </c>
       <c r="D28">
-        <v>0.4803535301342654</v>
+        <v>-0.5623081242286716</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1509,13 +1509,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>6.08</v>
+        <v>6.97</v>
       </c>
       <c r="C29">
-        <v>6.566799384876929</v>
+        <v>6.402642750027272</v>
       </c>
       <c r="D29">
-        <v>0.486799384876929</v>
+        <v>-0.5673572499727282</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1523,13 +1523,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>6.07</v>
+        <v>6.98</v>
       </c>
       <c r="C30">
-        <v>6.556912997056194</v>
+        <v>6.398708396358145</v>
       </c>
       <c r="D30">
-        <v>0.4869129970561934</v>
+        <v>-0.5812916036418558</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1537,13 +1537,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>6.06</v>
+        <v>6.98</v>
       </c>
       <c r="C31">
-        <v>6.545005421976275</v>
+        <v>6.402166585304401</v>
       </c>
       <c r="D31">
-        <v>0.4850054219762754</v>
+        <v>-0.5778334146955997</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1551,13 +1551,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>6.07</v>
+        <v>6.97</v>
       </c>
       <c r="C32">
-        <v>6.525655025708299</v>
+        <v>6.409082497303202</v>
       </c>
       <c r="D32">
-        <v>0.4556550257082987</v>
+        <v>-0.5609175026967979</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1565,13 +1565,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>6.06</v>
+        <v>6.96</v>
       </c>
       <c r="C33">
-        <v>6.524476079968362</v>
+        <v>6.415131134773052</v>
       </c>
       <c r="D33">
-        <v>0.464476079968362</v>
+        <v>-0.544868865226948</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1579,13 +1579,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>6.06</v>
+        <v>6.96</v>
       </c>
       <c r="C34">
-        <v>6.52540592263039</v>
+        <v>6.409237352260035</v>
       </c>
       <c r="D34">
-        <v>0.4654059226303904</v>
+        <v>-0.5507626477399654</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1593,13 +1593,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>6.05</v>
+        <v>6.96</v>
       </c>
       <c r="C35">
-        <v>6.528891914035328</v>
+        <v>6.405531516419097</v>
       </c>
       <c r="D35">
-        <v>0.4788919140353283</v>
+        <v>-0.5544684835809033</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1607,13 +1607,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>6.05</v>
+        <v>6.98</v>
       </c>
       <c r="C36">
-        <v>6.527568116438069</v>
+        <v>6.402416860608071</v>
       </c>
       <c r="D36">
-        <v>0.4775681164380696</v>
+        <v>-0.5775831393919297</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1621,13 +1621,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>6.04</v>
+        <v>6.98</v>
       </c>
       <c r="C37">
-        <v>6.534424611959055</v>
+        <v>6.389310349238525</v>
       </c>
       <c r="D37">
-        <v>0.4944246119590545</v>
+        <v>-0.5906896507614752</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1635,13 +1635,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>6.06</v>
+        <v>6.95</v>
       </c>
       <c r="C38">
-        <v>6.526557230568932</v>
+        <v>6.391519523474781</v>
       </c>
       <c r="D38">
-        <v>0.4665572305689327</v>
+        <v>-0.5584804765252196</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1649,13 +1649,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>6.06</v>
+        <v>6.93</v>
       </c>
       <c r="C39">
-        <v>6.53071201693727</v>
+        <v>6.391804329634142</v>
       </c>
       <c r="D39">
-        <v>0.4707120169372701</v>
+        <v>-0.5381956703658579</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1663,13 +1663,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>6.06</v>
+        <v>6.93</v>
       </c>
       <c r="C40">
-        <v>6.530117912174156</v>
+        <v>6.397031141359953</v>
       </c>
       <c r="D40">
-        <v>0.4701179121741568</v>
+        <v>-0.5329688586400465</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1677,13 +1677,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>6.06</v>
+        <v>6.94</v>
       </c>
       <c r="C41">
-        <v>6.525410397627414</v>
+        <v>6.40115586211188</v>
       </c>
       <c r="D41">
-        <v>0.465410397627414</v>
+        <v>-0.5388441378881206</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1691,13 +1691,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>6.07</v>
+        <v>6.94</v>
       </c>
       <c r="C42">
-        <v>6.520641121352942</v>
+        <v>6.407375097461268</v>
       </c>
       <c r="D42">
-        <v>0.450641121352942</v>
+        <v>-0.532624902538732</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1705,13 +1705,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>6.08</v>
+        <v>6.94</v>
       </c>
       <c r="C43">
-        <v>6.517832717438954</v>
+        <v>6.40817933955397</v>
       </c>
       <c r="D43">
-        <v>0.4378327174389538</v>
+        <v>-0.53182066044603</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1719,13 +1719,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>6.08</v>
+        <v>6.93</v>
       </c>
       <c r="C44">
-        <v>6.524172166417249</v>
+        <v>6.40621308753957</v>
       </c>
       <c r="D44">
-        <v>0.4441721664172489</v>
+        <v>-0.5237869124604293</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1733,13 +1733,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>6.08</v>
+        <v>6.95</v>
       </c>
       <c r="C45">
-        <v>6.530461299198403</v>
+        <v>6.399663354401131</v>
       </c>
       <c r="D45">
-        <v>0.4504612991984027</v>
+        <v>-0.5503366455988692</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1747,13 +1747,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>6.07</v>
+        <v>6.95</v>
       </c>
       <c r="C46">
-        <v>6.535119561497376</v>
+        <v>6.392901341528968</v>
       </c>
       <c r="D46">
-        <v>0.4651195614973753</v>
+        <v>-0.5570986584710322</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1761,13 +1761,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>6.08</v>
+        <v>6.95</v>
       </c>
       <c r="C47">
-        <v>6.535671030534469</v>
+        <v>6.408030851736965</v>
       </c>
       <c r="D47">
-        <v>0.4556710305344689</v>
+        <v>-0.5419691482630355</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1775,13 +1775,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>6.09</v>
+        <v>6.97</v>
       </c>
       <c r="C48">
-        <v>6.523668217758476</v>
+        <v>6.386820219869342</v>
       </c>
       <c r="D48">
-        <v>0.4336682177584761</v>
+        <v>-0.5831797801306582</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1789,13 +1789,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>6.09</v>
+        <v>6.96</v>
       </c>
       <c r="C49">
-        <v>6.525436714571346</v>
+        <v>6.397634753656177</v>
       </c>
       <c r="D49">
-        <v>0.4354367145713463</v>
+        <v>-0.5623652463438233</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1803,13 +1803,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>6.1</v>
+        <v>6.97</v>
       </c>
       <c r="C50">
-        <v>6.529040064280104</v>
+        <v>6.393384947934121</v>
       </c>
       <c r="D50">
-        <v>0.4290400642801044</v>
+        <v>-0.576615052065879</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1817,13 +1817,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>6.09</v>
+        <v>6.96</v>
       </c>
       <c r="C51">
-        <v>6.52894105494184</v>
+        <v>6.387866033587999</v>
       </c>
       <c r="D51">
-        <v>0.4389410549418402</v>
+        <v>-0.5721339664120011</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1831,13 +1831,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>6.1</v>
+        <v>6.95</v>
       </c>
       <c r="C52">
-        <v>6.536372450020512</v>
+        <v>6.390304359094254</v>
       </c>
       <c r="D52">
-        <v>0.4363724500205128</v>
+        <v>-0.5596956409057459</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1845,13 +1845,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>6.09</v>
+        <v>6.95</v>
       </c>
       <c r="C53">
-        <v>6.532092472979282</v>
+        <v>6.387382212283662</v>
       </c>
       <c r="D53">
-        <v>0.4420924729792821</v>
+        <v>-0.5626177877163379</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1859,13 +1859,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>6.1</v>
+        <v>6.95</v>
       </c>
       <c r="C54">
-        <v>6.526836949072465</v>
+        <v>6.383775670701272</v>
       </c>
       <c r="D54">
-        <v>0.4268369490724657</v>
+        <v>-0.5662243292987279</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1873,13 +1873,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>6.09</v>
+        <v>6.95</v>
       </c>
       <c r="C55">
-        <v>6.528006756909865</v>
+        <v>6.382815112253696</v>
       </c>
       <c r="D55">
-        <v>0.4380067569098651</v>
+        <v>-0.5671848877463042</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1887,13 +1887,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>6.09</v>
+        <v>6.97</v>
       </c>
       <c r="C56">
-        <v>6.531697610781802</v>
+        <v>6.377549891743734</v>
       </c>
       <c r="D56">
-        <v>0.4416976107818025</v>
+        <v>-0.5924501082562657</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1901,13 +1901,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>6.08</v>
+        <v>6.96</v>
       </c>
       <c r="C57">
-        <v>6.530727420968701</v>
+        <v>6.382137869932524</v>
       </c>
       <c r="D57">
-        <v>0.4507274209687013</v>
+        <v>-0.5778621300674756</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1915,13 +1915,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>6.09</v>
+        <v>6.97</v>
       </c>
       <c r="C58">
-        <v>6.533366280114172</v>
+        <v>6.390321402667452</v>
       </c>
       <c r="D58">
-        <v>0.443366280114172</v>
+        <v>-0.5796785973325473</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1929,13 +1929,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>6.08</v>
+        <v>6.98</v>
       </c>
       <c r="C59">
-        <v>6.528814550960813</v>
+        <v>6.390841141291262</v>
       </c>
       <c r="D59">
-        <v>0.4488145509608126</v>
+        <v>-0.5891588587087382</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1943,13 +1943,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>6.08</v>
+        <v>6.98</v>
       </c>
       <c r="C60">
-        <v>6.532090598987295</v>
+        <v>6.390504836381674</v>
       </c>
       <c r="D60">
-        <v>0.4520905989872945</v>
+        <v>-0.5894951636183263</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1957,13 +1957,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>6.07</v>
+        <v>7</v>
       </c>
       <c r="C61">
-        <v>6.514196260390229</v>
+        <v>6.385455343573845</v>
       </c>
       <c r="D61">
-        <v>0.4441962603902292</v>
+        <v>-0.6145446564261547</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1971,13 +1971,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>6.07</v>
+        <v>6.99</v>
       </c>
       <c r="C62">
-        <v>6.511567605526142</v>
+        <v>6.374177705932544</v>
       </c>
       <c r="D62">
-        <v>0.4415676055261413</v>
+        <v>-0.6158222940674563</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1985,13 +1985,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>6.07</v>
+        <v>6.99</v>
       </c>
       <c r="C63">
-        <v>6.506070878855275</v>
+        <v>6.378129523308099</v>
       </c>
       <c r="D63">
-        <v>0.4360708788552747</v>
+        <v>-0.6118704766919016</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1999,13 +1999,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>6.08</v>
+        <v>7</v>
       </c>
       <c r="C64">
-        <v>6.505035043097986</v>
+        <v>6.374167311065345</v>
       </c>
       <c r="D64">
-        <v>0.4250350430979859</v>
+        <v>-0.625832688934655</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2013,13 +2013,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>6.07</v>
+        <v>7</v>
       </c>
       <c r="C65">
-        <v>6.511886526598478</v>
+        <v>6.379530315835045</v>
       </c>
       <c r="D65">
-        <v>0.4418865265984779</v>
+        <v>-0.6204696841649548</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2027,13 +2027,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>6.07</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>6.510106154208658</v>
+        <v>6.380446884673784</v>
       </c>
       <c r="D66">
-        <v>0.4401061542086575</v>
+        <v>-0.6195531153262159</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2041,13 +2041,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>6.08</v>
+        <v>7.03</v>
       </c>
       <c r="C67">
-        <v>6.515381805128531</v>
+        <v>6.383219043087512</v>
       </c>
       <c r="D67">
-        <v>0.4353818051285314</v>
+        <v>-0.6467809569124885</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2055,13 +2055,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>6.09</v>
+        <v>7</v>
       </c>
       <c r="C68">
-        <v>6.522745971839879</v>
+        <v>6.368269780870882</v>
       </c>
       <c r="D68">
-        <v>0.4327459718398794</v>
+        <v>-0.6317302191291176</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2069,13 +2069,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>6.09</v>
+        <v>6.98</v>
       </c>
       <c r="C69">
-        <v>6.512976485126882</v>
+        <v>6.369457914323235</v>
       </c>
       <c r="D69">
-        <v>0.422976485126882</v>
+        <v>-0.6105420856767649</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2083,13 +2083,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>6.09</v>
+        <v>6.99</v>
       </c>
       <c r="C70">
-        <v>6.511450452175946</v>
+        <v>6.375373406806601</v>
       </c>
       <c r="D70">
-        <v>0.4214504521759457</v>
+        <v>-0.6146265931933996</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2097,13 +2097,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>6.08</v>
+        <v>6.99</v>
       </c>
       <c r="C71">
-        <v>6.510108864291523</v>
+        <v>6.380458245952936</v>
       </c>
       <c r="D71">
-        <v>0.4301088642915234</v>
+        <v>-0.609541754047064</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2111,13 +2111,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>6.09</v>
+        <v>6.99</v>
       </c>
       <c r="C72">
-        <v>6.507996110373406</v>
+        <v>6.383686208260182</v>
       </c>
       <c r="D72">
-        <v>0.417996110373406</v>
+        <v>-0.6063137917398178</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2125,13 +2125,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>6.08</v>
+        <v>6.99</v>
       </c>
       <c r="C73">
-        <v>6.507213721353966</v>
+        <v>6.374603748974446</v>
       </c>
       <c r="D73">
-        <v>0.427213721353966</v>
+        <v>-0.6153962510255546</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>6.08</v>
+        <v>6.99</v>
       </c>
       <c r="C74">
-        <v>6.508575519064441</v>
+        <v>6.370404533817111</v>
       </c>
       <c r="D74">
-        <v>0.4285755190644407</v>
+        <v>-0.6195954661828891</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2153,13 +2153,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>6.08</v>
+        <v>6.98</v>
       </c>
       <c r="C75">
-        <v>6.507635879559737</v>
+        <v>6.373459764131288</v>
       </c>
       <c r="D75">
-        <v>0.4276358795597366</v>
+        <v>-0.606540235868712</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2167,13 +2167,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>6.07</v>
+        <v>6.96</v>
       </c>
       <c r="C76">
-        <v>6.506186246655871</v>
+        <v>6.365622748831766</v>
       </c>
       <c r="D76">
-        <v>0.436186246655871</v>
+        <v>-0.5943772511682344</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2181,13 +2181,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>6.07</v>
+        <v>6.97</v>
       </c>
       <c r="C77">
-        <v>6.491764845640675</v>
+        <v>6.374370245237611</v>
       </c>
       <c r="D77">
-        <v>0.4217648456406744</v>
+        <v>-0.5956297547623883</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2195,13 +2195,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>6.07</v>
+        <v>7.01</v>
       </c>
       <c r="C78">
-        <v>6.486722146171139</v>
+        <v>6.384159409678288</v>
       </c>
       <c r="D78">
-        <v>0.4167221461711383</v>
+        <v>-0.6258405903217117</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2209,13 +2209,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>6.06</v>
+        <v>7.02</v>
       </c>
       <c r="C79">
-        <v>6.485042803941798</v>
+        <v>6.390523956539215</v>
       </c>
       <c r="D79">
-        <v>0.4250428039417979</v>
+        <v>-0.6294760434607847</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2223,13 +2223,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>6.05</v>
+        <v>7</v>
       </c>
       <c r="C80">
-        <v>6.483636380281173</v>
+        <v>6.404735968638022</v>
       </c>
       <c r="D80">
-        <v>0.4336363802811736</v>
+        <v>-0.5952640313619781</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2237,13 +2237,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>6.05</v>
+        <v>7</v>
       </c>
       <c r="C81">
-        <v>6.475495626801211</v>
+        <v>6.414938583905533</v>
       </c>
       <c r="D81">
-        <v>0.4254956268012116</v>
+        <v>-0.5850614160944669</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2251,13 +2251,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>6.05</v>
+        <v>7.03</v>
       </c>
       <c r="C82">
-        <v>6.488291280488615</v>
+        <v>6.425435114977547</v>
       </c>
       <c r="D82">
-        <v>0.438291280488615</v>
+        <v>-0.6045648850224534</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2265,13 +2265,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>6.04</v>
+        <v>7.06</v>
       </c>
       <c r="C83">
-        <v>6.485777428457033</v>
+        <v>6.414471274570762</v>
       </c>
       <c r="D83">
-        <v>0.4457774284570331</v>
+        <v>-0.6455287254292372</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2279,13 +2279,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>6.05</v>
+        <v>7.04</v>
       </c>
       <c r="C84">
-        <v>6.481673020007162</v>
+        <v>6.409273714498505</v>
       </c>
       <c r="D84">
-        <v>0.4316730200071621</v>
+        <v>-0.6307262855014946</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2293,13 +2293,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>6.04</v>
+        <v>7.01</v>
       </c>
       <c r="C85">
-        <v>6.477209974126859</v>
+        <v>6.416242749889501</v>
       </c>
       <c r="D85">
-        <v>0.4372099741268585</v>
+        <v>-0.5937572501104986</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2307,13 +2307,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>6.04</v>
+        <v>7</v>
       </c>
       <c r="C86">
-        <v>6.474925712069127</v>
+        <v>6.418190326680132</v>
       </c>
       <c r="D86">
-        <v>0.434925712069127</v>
+        <v>-0.5818096733198681</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2321,13 +2321,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>6.04</v>
+        <v>6.99</v>
       </c>
       <c r="C87">
-        <v>6.477658370412953</v>
+        <v>6.428229760846612</v>
       </c>
       <c r="D87">
-        <v>0.4376583704129526</v>
+        <v>-0.5617702391533879</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2335,13 +2335,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>6.04</v>
+        <v>7</v>
       </c>
       <c r="C88">
-        <v>6.479056874472065</v>
+        <v>6.443863588869521</v>
       </c>
       <c r="D88">
-        <v>0.4390568744720653</v>
+        <v>-0.5561364111304785</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2349,13 +2349,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>6.03</v>
+        <v>7.02</v>
       </c>
       <c r="C89">
-        <v>6.474546033114298</v>
+        <v>6.426628817414149</v>
       </c>
       <c r="D89">
-        <v>0.4445460331142979</v>
+        <v>-0.5933711825858508</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2363,13 +2363,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>6.04</v>
+        <v>7</v>
       </c>
       <c r="C90">
-        <v>6.465865031202248</v>
+        <v>6.427869471545736</v>
       </c>
       <c r="D90">
-        <v>0.4258650312022478</v>
+        <v>-0.5721305284542639</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2377,13 +2377,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>6.03</v>
+        <v>6.97</v>
       </c>
       <c r="C91">
-        <v>6.468116183891106</v>
+        <v>6.430962779203161</v>
       </c>
       <c r="D91">
-        <v>0.4381161838911058</v>
+        <v>-0.539037220796839</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2391,13 +2391,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>6.03</v>
+        <v>6.96</v>
       </c>
       <c r="C92">
-        <v>6.467616493939256</v>
+        <v>6.423129335001061</v>
       </c>
       <c r="D92">
-        <v>0.4376164939392559</v>
+        <v>-0.536870664998939</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2405,13 +2405,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>6.05</v>
+        <v>6.96</v>
       </c>
       <c r="C93">
-        <v>6.469857519738617</v>
+        <v>6.423197805441796</v>
       </c>
       <c r="D93">
-        <v>0.419857519738617</v>
+        <v>-0.536802194558204</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2419,13 +2419,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>6.06</v>
+        <v>7</v>
       </c>
       <c r="C94">
-        <v>6.475084275843161</v>
+        <v>6.431207558758712</v>
       </c>
       <c r="D94">
-        <v>0.4150842758431619</v>
+        <v>-0.5687924412412881</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2433,13 +2433,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>6.06</v>
+        <v>6.99</v>
       </c>
       <c r="C95">
-        <v>6.479279945763966</v>
+        <v>6.423937090596404</v>
       </c>
       <c r="D95">
-        <v>0.4192799457639662</v>
+        <v>-0.5660629094035965</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2447,13 +2447,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>6.06</v>
+        <v>7.01</v>
       </c>
       <c r="C96">
-        <v>6.484540160278818</v>
+        <v>6.427050622919972</v>
       </c>
       <c r="D96">
-        <v>0.4245401602788181</v>
+        <v>-0.5829493770800278</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2461,13 +2461,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>6.07</v>
+        <v>6.98</v>
       </c>
       <c r="C97">
-        <v>6.486510372385903</v>
+        <v>6.426223024232661</v>
       </c>
       <c r="D97">
-        <v>0.4165103723859032</v>
+        <v>-0.5537769757673399</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2475,13 +2475,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>6.07</v>
+        <v>6.91</v>
       </c>
       <c r="C98">
-        <v>6.487023247875983</v>
+        <v>6.42505589554978</v>
       </c>
       <c r="D98">
-        <v>0.4170232478759823</v>
+        <v>-0.4849441044502205</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2489,13 +2489,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>6.07</v>
+        <v>6.93</v>
       </c>
       <c r="C99">
-        <v>6.483639806429689</v>
+        <v>6.413747824615148</v>
       </c>
       <c r="D99">
-        <v>0.4136398064296882</v>
+        <v>-0.5162521753848521</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2503,13 +2503,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>6.08</v>
+        <v>6.93</v>
       </c>
       <c r="C100">
-        <v>6.484692100768361</v>
+        <v>6.426114709697353</v>
       </c>
       <c r="D100">
-        <v>0.4046921007683606</v>
+        <v>-0.5038852903026472</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2517,13 +2517,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>6.08</v>
+        <v>6.94</v>
       </c>
       <c r="C101">
-        <v>6.488194628166501</v>
+        <v>6.413104547072468</v>
       </c>
       <c r="D101">
-        <v>0.408194628166501</v>
+        <v>-0.5268954529275325</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2531,13 +2531,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>6.08</v>
+        <v>6.94</v>
       </c>
       <c r="C102">
-        <v>6.46986475558604</v>
+        <v>6.420768028168528</v>
       </c>
       <c r="D102">
-        <v>0.3898647555860402</v>
+        <v>-0.5192319718314726</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2545,13 +2545,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>6.09</v>
+        <v>6.94</v>
       </c>
       <c r="C103">
-        <v>6.483163530739959</v>
+        <v>6.418036223339732</v>
       </c>
       <c r="D103">
-        <v>0.393163530739959</v>
+        <v>-0.5219637766602681</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2559,13 +2559,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>6.09</v>
+        <v>6.94</v>
       </c>
       <c r="C104">
-        <v>6.484832284023217</v>
+        <v>6.41542230365476</v>
       </c>
       <c r="D104">
-        <v>0.3948322840232175</v>
+        <v>-0.5245776963452409</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2573,13 +2573,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>6.09</v>
+        <v>6.95</v>
       </c>
       <c r="C105">
-        <v>6.489888621155743</v>
+        <v>6.410848581420557</v>
       </c>
       <c r="D105">
-        <v>0.3998886211557435</v>
+        <v>-0.5391514185794435</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2587,13 +2587,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>6.09</v>
+        <v>6.94</v>
       </c>
       <c r="C106">
-        <v>6.481121828377909</v>
+        <v>6.407442811321857</v>
       </c>
       <c r="D106">
-        <v>0.3911218283779094</v>
+        <v>-0.5325571886781431</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2601,13 +2601,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>6.08</v>
+        <v>6.94</v>
       </c>
       <c r="C107">
-        <v>6.495540154849937</v>
+        <v>6.408130912026619</v>
       </c>
       <c r="D107">
-        <v>0.4155401548499364</v>
+        <v>-0.5318690879733809</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2615,13 +2615,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>6.08</v>
+        <v>6.93</v>
       </c>
       <c r="C108">
-        <v>6.486792657012061</v>
+        <v>6.43163022861935</v>
       </c>
       <c r="D108">
-        <v>0.406792657012061</v>
+        <v>-0.4983697713806494</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2629,13 +2629,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>6.08</v>
+        <v>6.9</v>
       </c>
       <c r="C109">
-        <v>6.475921346402974</v>
+        <v>6.41380563386355</v>
       </c>
       <c r="D109">
-        <v>0.3959213464029743</v>
+        <v>-0.4861943661364503</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2643,13 +2643,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>6.08</v>
+        <v>6.9</v>
       </c>
       <c r="C110">
-        <v>6.483028434977999</v>
+        <v>6.39669003135153</v>
       </c>
       <c r="D110">
-        <v>0.4030284349779985</v>
+        <v>-0.5033099686484706</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2657,13 +2657,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>6.08</v>
+        <v>6.9</v>
       </c>
       <c r="C111">
-        <v>6.485610110681292</v>
+        <v>6.385834105593989</v>
       </c>
       <c r="D111">
-        <v>0.4056101106812919</v>
+        <v>-0.5141658944060117</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2671,13 +2671,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>6.08</v>
+        <v>6.92</v>
       </c>
       <c r="C112">
-        <v>6.487729392860852</v>
+        <v>6.396821000903165</v>
       </c>
       <c r="D112">
-        <v>0.4077293928608521</v>
+        <v>-0.5231789990968352</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2685,13 +2685,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>6.08</v>
+        <v>6.9</v>
       </c>
       <c r="C113">
-        <v>6.486623967439244</v>
+        <v>6.403168226209682</v>
       </c>
       <c r="D113">
-        <v>0.406623967439244</v>
+        <v>-0.4968317737903183</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2699,13 +2699,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>6.08</v>
+        <v>6.91</v>
       </c>
       <c r="C114">
-        <v>6.484210147209557</v>
+        <v>6.388746803068574</v>
       </c>
       <c r="D114">
-        <v>0.4042101472095565</v>
+        <v>-0.5212531969314265</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2713,13 +2713,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>6.08</v>
+        <v>6.92</v>
       </c>
       <c r="C115">
-        <v>6.487840947397561</v>
+        <v>6.396398388787952</v>
       </c>
       <c r="D115">
-        <v>0.4078409473975606</v>
+        <v>-0.5236016112120483</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2727,13 +2727,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>6.08</v>
+        <v>6.93</v>
       </c>
       <c r="C116">
-        <v>6.483407575262496</v>
+        <v>6.401582811391515</v>
       </c>
       <c r="D116">
-        <v>0.4034075752624959</v>
+        <v>-0.5284171886084845</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2741,13 +2741,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>6.07</v>
+        <v>6.94</v>
       </c>
       <c r="C117">
-        <v>6.480772780327054</v>
+        <v>6.398080623249409</v>
       </c>
       <c r="D117">
-        <v>0.4107727803270533</v>
+        <v>-0.5419193767505917</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2755,13 +2755,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>6.06</v>
+        <v>6.94</v>
       </c>
       <c r="C118">
-        <v>6.481982721961004</v>
+        <v>6.392893223213819</v>
       </c>
       <c r="D118">
-        <v>0.4219827219610046</v>
+        <v>-0.5471067767861815</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2769,13 +2769,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>6.08</v>
+        <v>6.9</v>
       </c>
       <c r="C119">
-        <v>6.479629444709382</v>
+        <v>6.397198006882135</v>
       </c>
       <c r="D119">
-        <v>0.3996294447093822</v>
+        <v>-0.5028019931178651</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2783,13 +2783,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>6.07</v>
+        <v>6.9</v>
       </c>
       <c r="C120">
-        <v>6.485332976797459</v>
+        <v>6.395175141422614</v>
       </c>
       <c r="D120">
-        <v>0.4153329767974592</v>
+        <v>-0.5048248585773862</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2797,13 +2797,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>6.08</v>
+        <v>6.88</v>
       </c>
       <c r="C121">
-        <v>6.488293957600439</v>
+        <v>6.383129084569254</v>
       </c>
       <c r="D121">
-        <v>0.4082939576004394</v>
+        <v>-0.4968709154307458</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2811,13 +2811,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>6.08</v>
+        <v>6.86</v>
       </c>
       <c r="C122">
-        <v>6.488432034008185</v>
+        <v>6.379732990624625</v>
       </c>
       <c r="D122">
-        <v>0.4084320340081851</v>
+        <v>-0.4802670093753756</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2825,13 +2825,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>6.09</v>
+        <v>6.88</v>
       </c>
       <c r="C123">
-        <v>6.485152977640712</v>
+        <v>6.390229747381594</v>
       </c>
       <c r="D123">
-        <v>0.3951529776407119</v>
+        <v>-0.4897702526184062</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2839,13 +2839,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>6.08</v>
+        <v>6.9</v>
       </c>
       <c r="C124">
-        <v>6.490221007597198</v>
+        <v>6.391693775885638</v>
       </c>
       <c r="D124">
-        <v>0.4102210075971984</v>
+        <v>-0.5083062241143628</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2853,13 +2853,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>6.08</v>
+        <v>6.9</v>
       </c>
       <c r="C125">
-        <v>6.484061865444734</v>
+        <v>6.389842301581841</v>
       </c>
       <c r="D125">
-        <v>0.4040618654447341</v>
+        <v>-0.5101576984181593</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2867,13 +2867,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>6.09</v>
+        <v>6.9</v>
       </c>
       <c r="C126">
-        <v>6.488103005944036</v>
+        <v>6.378391571544503</v>
       </c>
       <c r="D126">
-        <v>0.3981030059440362</v>
+        <v>-0.5216084284554974</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2881,13 +2881,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>6.08</v>
+        <v>6.92</v>
       </c>
       <c r="C127">
-        <v>6.499775029115615</v>
+        <v>6.384761864469927</v>
       </c>
       <c r="D127">
-        <v>0.4197750291156153</v>
+        <v>-0.535238135530073</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2895,13 +2895,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>6.08</v>
+        <v>6.92</v>
       </c>
       <c r="C128">
-        <v>6.491483191294235</v>
+        <v>6.390202255575839</v>
       </c>
       <c r="D128">
-        <v>0.4114831912942352</v>
+        <v>-0.5297977444241608</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2909,13 +2909,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>6.08</v>
+        <v>6.91</v>
       </c>
       <c r="C129">
-        <v>6.491191990846551</v>
+        <v>6.388239721385626</v>
       </c>
       <c r="D129">
-        <v>0.4111919908465511</v>
+        <v>-0.5217602786143738</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2923,13 +2923,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>6.08</v>
+        <v>6.91</v>
       </c>
       <c r="C130">
-        <v>6.480243935769404</v>
+        <v>6.379981969473014</v>
       </c>
       <c r="D130">
-        <v>0.4002439357694039</v>
+        <v>-0.5300180305269864</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2937,13 +2937,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>6.08</v>
+        <v>6.9</v>
       </c>
       <c r="C131">
-        <v>6.47999300237661</v>
+        <v>6.381412095609365</v>
       </c>
       <c r="D131">
-        <v>0.3999930023766103</v>
+        <v>-0.5185879043906354</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2951,13 +2951,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>6.07</v>
+        <v>6.91</v>
       </c>
       <c r="C132">
-        <v>6.471489943887543</v>
+        <v>6.386847695231059</v>
       </c>
       <c r="D132">
-        <v>0.401489943887543</v>
+        <v>-0.5231523047689413</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2965,13 +2965,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>6.09</v>
+        <v>6.9</v>
       </c>
       <c r="C133">
-        <v>6.471067027548002</v>
+        <v>6.390132087345925</v>
       </c>
       <c r="D133">
-        <v>0.3810670275480019</v>
+        <v>-0.5098679126540757</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2979,13 +2979,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>6.08</v>
+        <v>6.89</v>
       </c>
       <c r="C134">
-        <v>6.462059949888894</v>
+        <v>6.392416535007754</v>
       </c>
       <c r="D134">
-        <v>0.3820599498888937</v>
+        <v>-0.4975834649922461</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2993,13 +2993,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>6.08</v>
+        <v>6.88</v>
       </c>
       <c r="C135">
-        <v>6.470323355521326</v>
+        <v>6.393465693453843</v>
       </c>
       <c r="D135">
-        <v>0.3903233555213257</v>
+        <v>-0.4865343065461571</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3007,13 +3007,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>6.08</v>
+        <v>6.87</v>
       </c>
       <c r="C136">
-        <v>6.459411884443228</v>
+        <v>6.391641793484919</v>
       </c>
       <c r="D136">
-        <v>0.3794118844432282</v>
+        <v>-0.4783582065150807</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3021,13 +3021,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>6.09</v>
+        <v>6.9</v>
       </c>
       <c r="C137">
-        <v>6.462714429584003</v>
+        <v>6.388579083066844</v>
       </c>
       <c r="D137">
-        <v>0.3727144295840032</v>
+        <v>-0.5114209169331563</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3035,13 +3035,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>6.1</v>
+        <v>6.92</v>
       </c>
       <c r="C138">
-        <v>6.463831437632837</v>
+        <v>6.394880628106496</v>
       </c>
       <c r="D138">
-        <v>0.3638314376328369</v>
+        <v>-0.5251193718935037</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3049,13 +3049,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>6.1</v>
+        <v>6.93</v>
       </c>
       <c r="C139">
-        <v>6.473008966659248</v>
+        <v>6.386780639339862</v>
       </c>
       <c r="D139">
-        <v>0.3730089666592482</v>
+        <v>-0.5432193606601379</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3063,13 +3063,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>6.1</v>
+        <v>6.93</v>
       </c>
       <c r="C140">
-        <v>6.475875152377871</v>
+        <v>6.385763039738166</v>
       </c>
       <c r="D140">
-        <v>0.3758751523778718</v>
+        <v>-0.5442369602618333</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3077,13 +3077,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>6.11</v>
+        <v>6.91</v>
       </c>
       <c r="C141">
-        <v>6.479776959383703</v>
+        <v>6.402111883348979</v>
       </c>
       <c r="D141">
-        <v>0.369776959383703</v>
+        <v>-0.5078881166510207</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3091,13 +3091,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>6.12</v>
+        <v>6.93</v>
       </c>
       <c r="C142">
-        <v>6.477909834288202</v>
+        <v>6.399704828540729</v>
       </c>
       <c r="D142">
-        <v>0.3579098342882023</v>
+        <v>-0.5302951714592705</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3105,13 +3105,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>6.11</v>
+        <v>6.95</v>
       </c>
       <c r="C143">
-        <v>6.489738120752771</v>
+        <v>6.387458978145403</v>
       </c>
       <c r="D143">
-        <v>0.379738120752771</v>
+        <v>-0.5625410218545976</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3119,13 +3119,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>6.12</v>
+        <v>6.95</v>
       </c>
       <c r="C144">
-        <v>6.493345079159281</v>
+        <v>6.389810874113762</v>
       </c>
       <c r="D144">
-        <v>0.3733450791592805</v>
+        <v>-0.5601891258862377</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3133,13 +3133,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>6.12</v>
+        <v>6.96</v>
       </c>
       <c r="C145">
-        <v>6.504016234048366</v>
+        <v>6.38953053653296</v>
       </c>
       <c r="D145">
-        <v>0.3840162340483655</v>
+        <v>-0.57046946346704</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3147,13 +3147,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>6.12</v>
+        <v>6.96</v>
       </c>
       <c r="C146">
-        <v>6.507642682229876</v>
+        <v>6.382998503690109</v>
       </c>
       <c r="D146">
-        <v>0.3876426822298757</v>
+        <v>-0.5770014963098911</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3161,13 +3161,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>6.13</v>
+        <v>6.94</v>
       </c>
       <c r="C147">
-        <v>6.503976268481284</v>
+        <v>6.398673040489476</v>
       </c>
       <c r="D147">
-        <v>0.3739762684812842</v>
+        <v>-0.5413269595105241</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3175,13 +3175,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>6.13</v>
+        <v>6.93</v>
       </c>
       <c r="C148">
-        <v>6.500664686531898</v>
+        <v>6.375245657607444</v>
       </c>
       <c r="D148">
-        <v>0.3706646865318977</v>
+        <v>-0.5547543423925561</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3189,13 +3189,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>6.14</v>
+        <v>6.93</v>
       </c>
       <c r="C149">
-        <v>6.505609950897237</v>
+        <v>6.39103935640706</v>
       </c>
       <c r="D149">
-        <v>0.3656099508972375</v>
+        <v>-0.5389606435929393</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3203,13 +3203,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>6.14</v>
+        <v>6.96</v>
       </c>
       <c r="C150">
-        <v>6.511642702150213</v>
+        <v>6.376351031159476</v>
       </c>
       <c r="D150">
-        <v>0.3716427021502131</v>
+        <v>-0.5836489688405244</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3217,13 +3217,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>6.14</v>
+        <v>6.95</v>
       </c>
       <c r="C151">
-        <v>6.517694218174628</v>
+        <v>6.409824045136701</v>
       </c>
       <c r="D151">
-        <v>0.3776942181746286</v>
+        <v>-0.5401759548632992</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3231,13 +3231,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>6.14</v>
+        <v>6.96</v>
       </c>
       <c r="C152">
-        <v>6.525298838860212</v>
+        <v>6.413799026044408</v>
       </c>
       <c r="D152">
-        <v>0.3852988388602121</v>
+        <v>-0.5462009739555924</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3245,13 +3245,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>6.15</v>
+        <v>6.98</v>
       </c>
       <c r="C153">
-        <v>6.5195924839844</v>
+        <v>6.413259616307229</v>
       </c>
       <c r="D153">
-        <v>0.3695924839843991</v>
+        <v>-0.5667403836927711</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3259,13 +3259,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>6.15</v>
+        <v>6.99</v>
       </c>
       <c r="C154">
-        <v>6.515198413836251</v>
+        <v>6.409129989286347</v>
       </c>
       <c r="D154">
-        <v>0.365198413836251</v>
+        <v>-0.5808700107136531</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3273,13 +3273,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>6.15</v>
+        <v>6.98</v>
       </c>
       <c r="C155">
-        <v>6.514330563261505</v>
+        <v>6.408712856313599</v>
       </c>
       <c r="D155">
-        <v>0.3643305632615048</v>
+        <v>-0.5712871436864013</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3287,13 +3287,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>6.14</v>
+        <v>6.99</v>
       </c>
       <c r="C156">
-        <v>6.525409167444843</v>
+        <v>6.401230859657785</v>
       </c>
       <c r="D156">
-        <v>0.385409167444843</v>
+        <v>-0.5887691403422153</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3301,13 +3301,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>6.14</v>
+        <v>6.97</v>
       </c>
       <c r="C157">
-        <v>6.529272762334497</v>
+        <v>6.40264925077594</v>
       </c>
       <c r="D157">
-        <v>0.3892727623344978</v>
+        <v>-0.5673507492240599</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3315,13 +3315,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>6.14</v>
+        <v>6.97</v>
       </c>
       <c r="C158">
-        <v>6.536374682630773</v>
+        <v>6.399808270707434</v>
       </c>
       <c r="D158">
-        <v>0.396374682630773</v>
+        <v>-0.5701917292925653</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3329,13 +3329,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>6.14</v>
+        <v>7.02</v>
       </c>
       <c r="C159">
-        <v>6.542824120799929</v>
+        <v>6.387864235282868</v>
       </c>
       <c r="D159">
-        <v>0.402824120799929</v>
+        <v>-0.6321357647171313</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3343,13 +3343,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>6.14</v>
+        <v>7.04</v>
       </c>
       <c r="C160">
-        <v>6.540361315548743</v>
+        <v>6.39138496746003</v>
       </c>
       <c r="D160">
-        <v>0.4003613155487429</v>
+        <v>-0.6486150325399702</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3357,13 +3357,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>6.13</v>
+        <v>7.05</v>
       </c>
       <c r="C161">
-        <v>6.536127399215963</v>
+        <v>6.39868164763264</v>
       </c>
       <c r="D161">
-        <v>0.4061273992159631</v>
+        <v>-0.65131835236736</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3371,13 +3371,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>6.13</v>
+        <v>7.04</v>
       </c>
       <c r="C162">
-        <v>6.545981308459795</v>
+        <v>6.400806708236146</v>
       </c>
       <c r="D162">
-        <v>0.415981308459795</v>
+        <v>-0.6391932917638545</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3385,13 +3385,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>6.14</v>
+        <v>7.05</v>
       </c>
       <c r="C163">
-        <v>6.538505657778535</v>
+        <v>6.414987023094528</v>
       </c>
       <c r="D163">
-        <v>0.3985056577785357</v>
+        <v>-0.6350129769054718</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3399,13 +3399,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>6.14</v>
+        <v>7.06</v>
       </c>
       <c r="C164">
-        <v>6.552233775739086</v>
+        <v>6.411389112945062</v>
       </c>
       <c r="D164">
-        <v>0.4122337757390859</v>
+        <v>-0.6486108870549376</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3413,13 +3413,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>6.12</v>
+        <v>7.07</v>
       </c>
       <c r="C165">
-        <v>6.55398731703406</v>
+        <v>6.422040178910207</v>
       </c>
       <c r="D165">
-        <v>0.4339873170340596</v>
+        <v>-0.6479598210897937</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3427,13 +3427,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>6.13</v>
+        <v>7.07</v>
       </c>
       <c r="C166">
-        <v>6.546074886707218</v>
+        <v>6.416719609651403</v>
       </c>
       <c r="D166">
-        <v>0.4160748867072179</v>
+        <v>-0.6532803903485975</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3441,13 +3441,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>6.13</v>
+        <v>7.08</v>
       </c>
       <c r="C167">
-        <v>6.541638112923896</v>
+        <v>6.402954619037926</v>
       </c>
       <c r="D167">
-        <v>0.411638112923896</v>
+        <v>-0.677045380962074</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3455,13 +3455,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>6.13</v>
+        <v>7.07</v>
       </c>
       <c r="C168">
-        <v>6.538677559870675</v>
+        <v>6.399759232174432</v>
       </c>
       <c r="D168">
-        <v>0.4086775598706751</v>
+        <v>-0.6702407678255682</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3469,13 +3469,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>6.13</v>
+        <v>7.05</v>
       </c>
       <c r="C169">
-        <v>6.534434455541462</v>
+        <v>6.392151293497856</v>
       </c>
       <c r="D169">
-        <v>0.4044344555414625</v>
+        <v>-0.6578487065021434</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3483,13 +3483,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>6.12</v>
+        <v>7.06</v>
       </c>
       <c r="C170">
-        <v>6.528892433967841</v>
+        <v>6.399191638775485</v>
       </c>
       <c r="D170">
-        <v>0.408892433967841</v>
+        <v>-0.6608083612245146</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3497,13 +3497,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>6.12</v>
+        <v>7.05</v>
       </c>
       <c r="C171">
-        <v>6.525174852352881</v>
+        <v>6.389641466417542</v>
       </c>
       <c r="D171">
-        <v>0.4051748523528804</v>
+        <v>-0.6603585335824578</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3511,13 +3511,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>6.13</v>
+        <v>7.06</v>
       </c>
       <c r="C172">
-        <v>6.516451081940073</v>
+        <v>6.38532074643306</v>
       </c>
       <c r="D172">
-        <v>0.3864510819400735</v>
+        <v>-0.6746792535669393</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3525,13 +3525,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>6.13</v>
+        <v>7.06</v>
       </c>
       <c r="C173">
-        <v>6.515850730029858</v>
+        <v>6.375137170790967</v>
       </c>
       <c r="D173">
-        <v>0.3858507300298584</v>
+        <v>-0.6848628292090329</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3539,13 +3539,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>6.12</v>
+        <v>7.06</v>
       </c>
       <c r="C174">
-        <v>6.526248747573875</v>
+        <v>6.390932703270954</v>
       </c>
       <c r="D174">
-        <v>0.4062487475738745</v>
+        <v>-0.6690672967290459</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3553,13 +3553,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>6.13</v>
+        <v>7.08</v>
       </c>
       <c r="C175">
-        <v>6.526991100830695</v>
+        <v>6.376682103016129</v>
       </c>
       <c r="D175">
-        <v>0.3969911008306948</v>
+        <v>-0.7033178969838714</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3567,13 +3567,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>6.12</v>
+        <v>7.06</v>
       </c>
       <c r="C176">
-        <v>6.525290230627395</v>
+        <v>6.376574828410521</v>
       </c>
       <c r="D176">
-        <v>0.4052902306273953</v>
+        <v>-0.6834251715894784</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3581,13 +3581,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>6.12</v>
+        <v>7.04</v>
       </c>
       <c r="C177">
-        <v>6.527577786122737</v>
+        <v>6.402792627701666</v>
       </c>
       <c r="D177">
-        <v>0.4075777861227365</v>
+        <v>-0.6372073722983345</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3595,13 +3595,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>6.13</v>
+        <v>7.05</v>
       </c>
       <c r="C178">
-        <v>6.529457840868841</v>
+        <v>6.41005038035008</v>
       </c>
       <c r="D178">
-        <v>0.3994578408688412</v>
+        <v>-0.6399496196499195</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3609,13 +3609,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>6.12</v>
+        <v>7.07</v>
       </c>
       <c r="C179">
-        <v>6.537365866874494</v>
+        <v>6.414733393852879</v>
       </c>
       <c r="D179">
-        <v>0.4173658668744942</v>
+        <v>-0.6552666061471211</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3623,13 +3623,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>6.12</v>
+        <v>7.1</v>
       </c>
       <c r="C180">
-        <v>6.533978434576755</v>
+        <v>6.423982801541958</v>
       </c>
       <c r="D180">
-        <v>0.4139784345767552</v>
+        <v>-0.6760171984580419</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3637,13 +3637,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>6.13</v>
+        <v>7.05</v>
       </c>
       <c r="C181">
-        <v>6.527444864394533</v>
+        <v>6.399382493449972</v>
       </c>
       <c r="D181">
-        <v>0.397444864394533</v>
+        <v>-0.6506175065500281</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3651,13 +3651,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>6.12</v>
+        <v>7.03</v>
       </c>
       <c r="C182">
-        <v>6.523517411820966</v>
+        <v>6.394156605312745</v>
       </c>
       <c r="D182">
-        <v>0.4035174118209657</v>
+        <v>-0.6358433946872548</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3665,13 +3665,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>6.12</v>
+        <v>7.02</v>
       </c>
       <c r="C183">
-        <v>6.537568855671643</v>
+        <v>6.398882369078957</v>
       </c>
       <c r="D183">
-        <v>0.417568855671643</v>
+        <v>-0.6211176309210424</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3679,13 +3679,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>6.12</v>
+        <v>7.02</v>
       </c>
       <c r="C184">
-        <v>6.5387727139825</v>
+        <v>6.37223577444077</v>
       </c>
       <c r="D184">
-        <v>0.4187727139825004</v>
+        <v>-0.6477642255592295</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3693,13 +3693,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>6.13</v>
+        <v>7.02</v>
       </c>
       <c r="C185">
-        <v>6.550526029755674</v>
+        <v>6.356588836404335</v>
       </c>
       <c r="D185">
-        <v>0.4205260297556741</v>
+        <v>-0.663411163595665</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3707,13 +3707,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>6.13</v>
+        <v>7.04</v>
       </c>
       <c r="C186">
-        <v>6.537413415685534</v>
+        <v>6.364989767388674</v>
       </c>
       <c r="D186">
-        <v>0.407413415685534</v>
+        <v>-0.6750102326113261</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3721,13 +3721,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>6.13</v>
+        <v>7.02</v>
       </c>
       <c r="C187">
-        <v>6.541588121663721</v>
+        <v>6.377394986894344</v>
       </c>
       <c r="D187">
-        <v>0.4115881216637209</v>
+        <v>-0.6426050131056558</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3735,13 +3735,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>6.14</v>
+        <v>7.05</v>
       </c>
       <c r="C188">
-        <v>6.550109453250864</v>
+        <v>6.374043017129345</v>
       </c>
       <c r="D188">
-        <v>0.4101094532508647</v>
+        <v>-0.6759569828706544</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3749,13 +3749,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>6.14</v>
+        <v>7.05</v>
       </c>
       <c r="C189">
-        <v>6.572970669066527</v>
+        <v>6.373934848292931</v>
       </c>
       <c r="D189">
-        <v>0.4329706690665276</v>
+        <v>-0.6760651517070686</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3763,13 +3763,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>6.15</v>
+        <v>7.06</v>
       </c>
       <c r="C190">
-        <v>6.573477887362606</v>
+        <v>6.366269832067176</v>
       </c>
       <c r="D190">
-        <v>0.4234778873626057</v>
+        <v>-0.6937301679328236</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3777,13 +3777,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>6.14</v>
+        <v>7.04</v>
       </c>
       <c r="C191">
-        <v>6.576925952505781</v>
+        <v>6.35422608933103</v>
       </c>
       <c r="D191">
-        <v>0.4369259525057814</v>
+        <v>-0.6857739106689698</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3791,13 +3791,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>6.14</v>
+        <v>7.03</v>
       </c>
       <c r="C192">
-        <v>6.578409351289079</v>
+        <v>6.344232523488706</v>
       </c>
       <c r="D192">
-        <v>0.4384093512890797</v>
+        <v>-0.6857674765112947</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3805,13 +3805,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>6.14</v>
+        <v>7.06</v>
       </c>
       <c r="C193">
-        <v>6.566930447574243</v>
+        <v>6.344803455884256</v>
       </c>
       <c r="D193">
-        <v>0.426930447574243</v>
+        <v>-0.7151965441157433</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3819,13 +3819,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>6.14</v>
+        <v>7.08</v>
       </c>
       <c r="C194">
-        <v>6.557741466269666</v>
+        <v>6.352479305857173</v>
       </c>
       <c r="D194">
-        <v>0.4177414662696659</v>
+        <v>-0.7275206941428269</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3833,13 +3833,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>6.13</v>
+        <v>7.06</v>
       </c>
       <c r="C195">
-        <v>6.546337183738628</v>
+        <v>6.360596565568217</v>
       </c>
       <c r="D195">
-        <v>0.4163371837386283</v>
+        <v>-0.6994034344317823</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3847,13 +3847,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>6.12</v>
+        <v>7.04</v>
       </c>
       <c r="C196">
-        <v>6.541803619764715</v>
+        <v>6.340279643362406</v>
       </c>
       <c r="D196">
-        <v>0.4218036197647148</v>
+        <v>-0.6997203566375942</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3861,13 +3861,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>6.11</v>
+        <v>7.06</v>
       </c>
       <c r="C197">
-        <v>6.544408440301448</v>
+        <v>6.344825459011266</v>
       </c>
       <c r="D197">
-        <v>0.4344084403014481</v>
+        <v>-0.7151745409887331</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3875,13 +3875,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>6.11</v>
+        <v>7.1</v>
       </c>
       <c r="C198">
-        <v>6.542635886293453</v>
+        <v>6.36344574564541</v>
       </c>
       <c r="D198">
-        <v>0.4326358862934523</v>
+        <v>-0.7365542543545898</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3889,13 +3889,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="C199">
-        <v>6.537698294053281</v>
+        <v>6.334459522686597</v>
       </c>
       <c r="D199">
-        <v>0.4376982940532814</v>
+        <v>-0.7655404773134027</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3903,13 +3903,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>6.1</v>
+        <v>7.16</v>
       </c>
       <c r="C200">
-        <v>6.528924149703589</v>
+        <v>6.359068297512393</v>
       </c>
       <c r="D200">
-        <v>0.4289241497035894</v>
+        <v>-0.800931702487607</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3917,13 +3917,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>6.11</v>
+        <v>7.11</v>
       </c>
       <c r="C201">
-        <v>6.534920062990218</v>
+        <v>6.376164092380395</v>
       </c>
       <c r="D201">
-        <v>0.4249200629902177</v>
+        <v>-0.7338359076196053</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3931,13 +3931,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>6.1</v>
+        <v>7.08</v>
       </c>
       <c r="C202">
-        <v>6.533978548036184</v>
+        <v>6.363484343526198</v>
       </c>
       <c r="D202">
-        <v>0.4339785480361842</v>
+        <v>-0.7165156564738018</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3945,13 +3945,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>6.1</v>
+        <v>7.11</v>
       </c>
       <c r="C203">
-        <v>6.527113698835064</v>
+        <v>6.353010931343835</v>
       </c>
       <c r="D203">
-        <v>0.4271136988350639</v>
+        <v>-0.7569890686561651</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3959,13 +3959,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>6.11</v>
+        <v>7.14</v>
       </c>
       <c r="C204">
-        <v>6.537523316112863</v>
+        <v>6.372473796655524</v>
       </c>
       <c r="D204">
-        <v>0.4275233161128629</v>
+        <v>-0.7675262033444756</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3973,13 +3973,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>6.12</v>
+        <v>7.13</v>
       </c>
       <c r="C205">
-        <v>6.550350859572474</v>
+        <v>6.359421965880325</v>
       </c>
       <c r="D205">
-        <v>0.4303508595724743</v>
+        <v>-0.7705780341196746</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3987,13 +3987,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>6.12</v>
+        <v>7.07</v>
       </c>
       <c r="C206">
-        <v>6.545899831942475</v>
+        <v>6.360710241781635</v>
       </c>
       <c r="D206">
-        <v>0.4258998319424752</v>
+        <v>-0.7092897582183655</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4001,13 +4001,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>6.13</v>
+        <v>7.03</v>
       </c>
       <c r="C207">
-        <v>6.529892226201054</v>
+        <v>6.343639761172615</v>
       </c>
       <c r="D207">
-        <v>0.3998922262010538</v>
+        <v>-0.6863602388273851</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4015,13 +4015,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>6.12</v>
+        <v>7.01</v>
       </c>
       <c r="C208">
-        <v>6.530727286315636</v>
+        <v>6.34469352535571</v>
       </c>
       <c r="D208">
-        <v>0.4107272863156357</v>
+        <v>-0.6653064746442903</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4029,13 +4029,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>6.14</v>
+        <v>6.98</v>
       </c>
       <c r="C209">
-        <v>6.529992617463416</v>
+        <v>6.34061684416125</v>
       </c>
       <c r="D209">
-        <v>0.3899926174634167</v>
+        <v>-0.6393831558387504</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4043,13 +4043,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>6.14</v>
+        <v>7</v>
       </c>
       <c r="C210">
-        <v>6.534001754799758</v>
+        <v>6.335700192893232</v>
       </c>
       <c r="D210">
-        <v>0.3940017547997581</v>
+        <v>-0.6642998071067678</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4057,13 +4057,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>6.13</v>
+        <v>7.02</v>
       </c>
       <c r="C211">
-        <v>6.535756850260348</v>
+        <v>6.352909348425592</v>
       </c>
       <c r="D211">
-        <v>0.4057568502603477</v>
+        <v>-0.6670906515744077</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4071,13 +4071,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>6.12</v>
+        <v>6.97</v>
       </c>
       <c r="C212">
-        <v>6.547951942106779</v>
+        <v>6.344939751685875</v>
       </c>
       <c r="D212">
-        <v>0.4279519421067786</v>
+        <v>-0.6250602483141252</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4085,13 +4085,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>6.13</v>
+        <v>6.99</v>
       </c>
       <c r="C213">
-        <v>6.550915005424517</v>
+        <v>6.334965096214474</v>
       </c>
       <c r="D213">
-        <v>0.4209150054245168</v>
+        <v>-0.6550349037855261</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4099,13 +4099,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>6.12</v>
+        <v>7.06</v>
       </c>
       <c r="C214">
-        <v>6.560301821263514</v>
+        <v>6.347304093258244</v>
       </c>
       <c r="D214">
-        <v>0.4403018212635139</v>
+        <v>-0.7126959067417555</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4113,13 +4113,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>6.11</v>
+        <v>6.93</v>
       </c>
       <c r="C215">
-        <v>6.555820381387037</v>
+        <v>6.374535837792059</v>
       </c>
       <c r="D215">
-        <v>0.4458203813870369</v>
+        <v>-0.555464162207941</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4127,13 +4127,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>6.1</v>
+        <v>6.94</v>
       </c>
       <c r="C216">
-        <v>6.561188391456668</v>
+        <v>6.36880892251027</v>
       </c>
       <c r="D216">
-        <v>0.4611883914566688</v>
+        <v>-0.57119107748973</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4141,13 +4141,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>6.1</v>
+        <v>6.93</v>
       </c>
       <c r="C217">
-        <v>6.558738241782449</v>
+        <v>6.343946887173215</v>
       </c>
       <c r="D217">
-        <v>0.4587382417824495</v>
+        <v>-0.586053112826785</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4155,13 +4155,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>6.1</v>
+        <v>6.86</v>
       </c>
       <c r="C218">
-        <v>6.547322117176139</v>
+        <v>6.36169917806443</v>
       </c>
       <c r="D218">
-        <v>0.4473221171761397</v>
+        <v>-0.4983008219355707</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4169,13 +4169,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>6.09</v>
+        <v>6.83</v>
       </c>
       <c r="C219">
-        <v>6.556767850212531</v>
+        <v>6.335596903128492</v>
       </c>
       <c r="D219">
-        <v>0.4667678502125314</v>
+        <v>-0.4944030968715083</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4183,13 +4183,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>6.09</v>
+        <v>6.82</v>
       </c>
       <c r="C220">
-        <v>6.568759766768959</v>
+        <v>6.318134605472529</v>
       </c>
       <c r="D220">
-        <v>0.4787597667689587</v>
+        <v>-0.5018653945274716</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4197,13 +4197,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>6.09</v>
+        <v>6.8</v>
       </c>
       <c r="C221">
-        <v>6.581327691225783</v>
+        <v>6.32315872875053</v>
       </c>
       <c r="D221">
-        <v>0.4913276912257833</v>
+        <v>-0.4768412712494694</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4211,13 +4211,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>6.08</v>
+        <v>6.77</v>
       </c>
       <c r="C222">
-        <v>6.583960821149936</v>
+        <v>6.323048365463493</v>
       </c>
       <c r="D222">
-        <v>0.5039608211499358</v>
+        <v>-0.4469516345365063</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4225,13 +4225,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>6.09</v>
+        <v>6.77</v>
       </c>
       <c r="C223">
-        <v>6.615454136652349</v>
+        <v>6.309247245611573</v>
       </c>
       <c r="D223">
-        <v>0.5254541366523489</v>
+        <v>-0.4607527543884267</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4239,13 +4239,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>6.09</v>
+        <v>6.77</v>
       </c>
       <c r="C224">
-        <v>6.610095512849395</v>
+        <v>6.298254558556262</v>
       </c>
       <c r="D224">
-        <v>0.5200955128493954</v>
+        <v>-0.4717454414437379</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4253,13 +4253,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>6.08</v>
+        <v>6.77</v>
       </c>
       <c r="C225">
-        <v>6.607138091463185</v>
+        <v>6.292163505497425</v>
       </c>
       <c r="D225">
-        <v>0.5271380914631854</v>
+        <v>-0.4778364945025748</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4267,13 +4267,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>6.09</v>
+        <v>6.8</v>
       </c>
       <c r="C226">
-        <v>6.610898981838029</v>
+        <v>6.299244691981637</v>
       </c>
       <c r="D226">
-        <v>0.5208989818380294</v>
+        <v>-0.5007553080183627</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4281,13 +4281,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>6.11</v>
+        <v>6.8</v>
       </c>
       <c r="C227">
-        <v>6.635822178174785</v>
+        <v>6.295102404580322</v>
       </c>
       <c r="D227">
-        <v>0.5258221781747849</v>
+        <v>-0.5048975954196777</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4295,13 +4295,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>6.1</v>
+        <v>6.83</v>
       </c>
       <c r="C228">
-        <v>6.619840647771134</v>
+        <v>6.301855538668604</v>
       </c>
       <c r="D228">
-        <v>0.5198406477711339</v>
+        <v>-0.5281444613313964</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4309,13 +4309,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>6.09</v>
+        <v>6.8</v>
       </c>
       <c r="C229">
-        <v>6.605802148702963</v>
+        <v>6.309318595442877</v>
       </c>
       <c r="D229">
-        <v>0.5158021487029627</v>
+        <v>-0.4906814045571224</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4323,13 +4323,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>6.11</v>
+        <v>6.83</v>
       </c>
       <c r="C230">
-        <v>6.614982248810866</v>
+        <v>6.310847666471928</v>
       </c>
       <c r="D230">
-        <v>0.5049822488108653</v>
+        <v>-0.5191523335280719</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4337,13 +4337,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>6.04</v>
+        <v>6.76</v>
       </c>
       <c r="C231">
-        <v>6.592340954040165</v>
+        <v>6.302270009116604</v>
       </c>
       <c r="D231">
-        <v>0.5523409540401651</v>
+        <v>-0.4577299908833954</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4351,13 +4351,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>6.04</v>
+        <v>6.79</v>
       </c>
       <c r="C232">
-        <v>6.587718195457525</v>
+        <v>6.290010101309238</v>
       </c>
       <c r="D232">
-        <v>0.5477181954575254</v>
+        <v>-0.499989898690762</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4365,13 +4365,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>6.04</v>
+        <v>6.78</v>
       </c>
       <c r="C233">
-        <v>6.581423361243989</v>
+        <v>6.310592445161544</v>
       </c>
       <c r="D233">
-        <v>0.5414233612439894</v>
+        <v>-0.4694075548384564</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4379,13 +4379,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>6</v>
+        <v>6.77</v>
       </c>
       <c r="C234">
-        <v>6.576526440569288</v>
+        <v>6.264067931121927</v>
       </c>
       <c r="D234">
-        <v>0.576526440569288</v>
+        <v>-0.5059320688780726</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4393,13 +4393,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>6.02</v>
+        <v>6.73</v>
       </c>
       <c r="C235">
-        <v>6.577193092656402</v>
+        <v>6.25577161216381</v>
       </c>
       <c r="D235">
-        <v>0.5571930926564024</v>
+        <v>-0.4742283878361908</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4407,13 +4407,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>6.02</v>
+        <v>6.7</v>
       </c>
       <c r="C236">
-        <v>6.565159858252982</v>
+        <v>6.236336068495546</v>
       </c>
       <c r="D236">
-        <v>0.5451598582529824</v>
+        <v>-0.4636639315044544</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4421,13 +4421,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>5.98</v>
+        <v>6.7</v>
       </c>
       <c r="C237">
-        <v>6.547596366444036</v>
+        <v>6.228922803797185</v>
       </c>
       <c r="D237">
-        <v>0.5675963664440351</v>
+        <v>-0.4710771962028151</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4435,13 +4435,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>5.94</v>
+        <v>6.67</v>
       </c>
       <c r="C238">
-        <v>6.544499974221936</v>
+        <v>6.222480754882949</v>
       </c>
       <c r="D238">
-        <v>0.6044999742219357</v>
+        <v>-0.4475192451170509</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4449,13 +4449,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>5.94</v>
+        <v>6.73</v>
       </c>
       <c r="C239">
-        <v>6.530970025781568</v>
+        <v>6.211779319021682</v>
       </c>
       <c r="D239">
-        <v>0.5909700257815675</v>
+        <v>-0.5182206809783185</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4463,13 +4463,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>5.93</v>
+        <v>6.72</v>
       </c>
       <c r="C240">
-        <v>6.509297945722552</v>
+        <v>6.195087366370809</v>
       </c>
       <c r="D240">
-        <v>0.5792979457225522</v>
+        <v>-0.5249126336291905</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4477,13 +4477,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>5.93</v>
+        <v>6.73</v>
       </c>
       <c r="C241">
-        <v>6.514321264968754</v>
+        <v>6.215439285343066</v>
       </c>
       <c r="D241">
-        <v>0.5843212649687546</v>
+        <v>-0.5145607146569349</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4491,13 +4491,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>5.99</v>
+        <v>6.72</v>
       </c>
       <c r="C242">
-        <v>6.524385728272651</v>
+        <v>6.221210563992405</v>
       </c>
       <c r="D242">
-        <v>0.5343857282726505</v>
+        <v>-0.4987894360075948</v>
       </c>
     </row>
   </sheetData>

--- a/temp/Yesterdaytest.xlsx
+++ b/temp/Yesterdaytest.xlsx
@@ -1148,10 +1148,10 @@
         <v>6.84</v>
       </c>
       <c r="C3">
-        <v>6.363923496512437</v>
+        <v>6.363923496512438</v>
       </c>
       <c r="D3">
-        <v>-0.4760765034875627</v>
+        <v>-0.4760765034875618</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1176,10 +1176,10 @@
         <v>6.83</v>
       </c>
       <c r="C5">
-        <v>6.363617970938</v>
+        <v>6.363617970938002</v>
       </c>
       <c r="D5">
-        <v>-0.4663820290620002</v>
+        <v>-0.4663820290619984</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1193,7 +1193,7 @@
         <v>6.364267408489543</v>
       </c>
       <c r="D6">
-        <v>-0.4657325915104567</v>
+        <v>-0.4657325915104575</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1218,10 +1218,10 @@
         <v>6.87</v>
       </c>
       <c r="C8">
-        <v>6.362894043023758</v>
+        <v>6.362894043023759</v>
       </c>
       <c r="D8">
-        <v>-0.5071059569762424</v>
+        <v>-0.5071059569762406</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1375,7 +1375,7 @@
         <v>6.381543113754915</v>
       </c>
       <c r="D19">
-        <v>-0.4884568862450847</v>
+        <v>-0.4884568862450855</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1442,10 +1442,10 @@
         <v>6.93</v>
       </c>
       <c r="C24">
-        <v>6.388720829222062</v>
+        <v>6.38872082922206</v>
       </c>
       <c r="D24">
-        <v>-0.5412791707779379</v>
+        <v>-0.5412791707779396</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1473,7 +1473,7 @@
         <v>6.394742525743752</v>
       </c>
       <c r="D26">
-        <v>-0.5552574742562486</v>
+        <v>-0.5552574742562477</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1554,10 +1554,10 @@
         <v>6.97</v>
       </c>
       <c r="C32">
-        <v>6.409082497303202</v>
+        <v>6.4090824973032</v>
       </c>
       <c r="D32">
-        <v>-0.5609175026967979</v>
+        <v>-0.5609175026967996</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1568,10 +1568,10 @@
         <v>6.96</v>
       </c>
       <c r="C33">
-        <v>6.415131134773052</v>
+        <v>6.415131134773053</v>
       </c>
       <c r="D33">
-        <v>-0.544868865226948</v>
+        <v>-0.5448688652269471</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1585,7 +1585,7 @@
         <v>6.409237352260035</v>
       </c>
       <c r="D34">
-        <v>-0.5507626477399654</v>
+        <v>-0.5507626477399645</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1610,10 +1610,10 @@
         <v>6.98</v>
       </c>
       <c r="C36">
-        <v>6.402416860608071</v>
+        <v>6.40241686060807</v>
       </c>
       <c r="D36">
-        <v>-0.5775831393919297</v>
+        <v>-0.5775831393919306</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1624,10 +1624,10 @@
         <v>6.98</v>
       </c>
       <c r="C37">
-        <v>6.389310349238525</v>
+        <v>6.389310349238526</v>
       </c>
       <c r="D37">
-        <v>-0.5906896507614752</v>
+        <v>-0.5906896507614743</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1638,10 +1638,10 @@
         <v>6.95</v>
       </c>
       <c r="C38">
-        <v>6.391519523474781</v>
+        <v>6.39151952347478</v>
       </c>
       <c r="D38">
-        <v>-0.5584804765252196</v>
+        <v>-0.5584804765252205</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1666,10 +1666,10 @@
         <v>6.93</v>
       </c>
       <c r="C40">
-        <v>6.397031141359953</v>
+        <v>6.397031141359952</v>
       </c>
       <c r="D40">
-        <v>-0.5329688586400465</v>
+        <v>-0.5329688586400474</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1694,10 +1694,10 @@
         <v>6.94</v>
       </c>
       <c r="C42">
-        <v>6.407375097461268</v>
+        <v>6.407375097461269</v>
       </c>
       <c r="D42">
-        <v>-0.532624902538732</v>
+        <v>-0.5326249025387311</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1750,10 +1750,10 @@
         <v>6.95</v>
       </c>
       <c r="C46">
-        <v>6.392901341528968</v>
+        <v>6.392901341528969</v>
       </c>
       <c r="D46">
-        <v>-0.5570986584710322</v>
+        <v>-0.5570986584710313</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1792,10 +1792,10 @@
         <v>6.96</v>
       </c>
       <c r="C49">
-        <v>6.397634753656177</v>
+        <v>6.397634753656175</v>
       </c>
       <c r="D49">
-        <v>-0.5623652463438233</v>
+        <v>-0.5623652463438251</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1806,10 +1806,10 @@
         <v>6.97</v>
       </c>
       <c r="C50">
-        <v>6.393384947934121</v>
+        <v>6.393384947934122</v>
       </c>
       <c r="D50">
-        <v>-0.576615052065879</v>
+        <v>-0.5766150520658782</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1820,10 +1820,10 @@
         <v>6.96</v>
       </c>
       <c r="C51">
-        <v>6.387866033587999</v>
+        <v>6.387866033587998</v>
       </c>
       <c r="D51">
-        <v>-0.5721339664120011</v>
+        <v>-0.572133966412002</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1834,10 +1834,10 @@
         <v>6.95</v>
       </c>
       <c r="C52">
-        <v>6.390304359094254</v>
+        <v>6.390304359094253</v>
       </c>
       <c r="D52">
-        <v>-0.5596956409057459</v>
+        <v>-0.5596956409057467</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1862,10 +1862,10 @@
         <v>6.95</v>
       </c>
       <c r="C54">
-        <v>6.383775670701272</v>
+        <v>6.383775670701273</v>
       </c>
       <c r="D54">
-        <v>-0.5662243292987279</v>
+        <v>-0.566224329298727</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1904,10 +1904,10 @@
         <v>6.96</v>
       </c>
       <c r="C57">
-        <v>6.382137869932524</v>
+        <v>6.382137869932525</v>
       </c>
       <c r="D57">
-        <v>-0.5778621300674756</v>
+        <v>-0.5778621300674747</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1960,10 +1960,10 @@
         <v>7</v>
       </c>
       <c r="C61">
-        <v>6.385455343573845</v>
+        <v>6.385455343573844</v>
       </c>
       <c r="D61">
-        <v>-0.6145446564261547</v>
+        <v>-0.6145446564261556</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1974,10 +1974,10 @@
         <v>6.99</v>
       </c>
       <c r="C62">
-        <v>6.374177705932544</v>
+        <v>6.374177705932545</v>
       </c>
       <c r="D62">
-        <v>-0.6158222940674563</v>
+        <v>-0.6158222940674554</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1991,7 +1991,7 @@
         <v>6.378129523308099</v>
       </c>
       <c r="D63">
-        <v>-0.6118704766919016</v>
+        <v>-0.6118704766919008</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2002,10 +2002,10 @@
         <v>7</v>
       </c>
       <c r="C64">
-        <v>6.374167311065345</v>
+        <v>6.374167311065346</v>
       </c>
       <c r="D64">
-        <v>-0.625832688934655</v>
+        <v>-0.6258326889346542</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2016,10 +2016,10 @@
         <v>7</v>
       </c>
       <c r="C65">
-        <v>6.379530315835045</v>
+        <v>6.379530315835044</v>
       </c>
       <c r="D65">
-        <v>-0.6204696841649548</v>
+        <v>-0.6204696841649557</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2030,10 +2030,10 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>6.380446884673784</v>
+        <v>6.380446884673785</v>
       </c>
       <c r="D66">
-        <v>-0.6195531153262159</v>
+        <v>-0.619553115326215</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2100,10 +2100,10 @@
         <v>6.99</v>
       </c>
       <c r="C71">
-        <v>6.380458245952936</v>
+        <v>6.380458245952935</v>
       </c>
       <c r="D71">
-        <v>-0.609541754047064</v>
+        <v>-0.6095417540470649</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2114,10 +2114,10 @@
         <v>6.99</v>
       </c>
       <c r="C72">
-        <v>6.383686208260182</v>
+        <v>6.383686208260183</v>
       </c>
       <c r="D72">
-        <v>-0.6063137917398178</v>
+        <v>-0.6063137917398169</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2156,10 +2156,10 @@
         <v>6.98</v>
       </c>
       <c r="C75">
-        <v>6.373459764131288</v>
+        <v>6.373459764131287</v>
       </c>
       <c r="D75">
-        <v>-0.606540235868712</v>
+        <v>-0.6065402358687138</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2226,10 +2226,10 @@
         <v>7</v>
       </c>
       <c r="C80">
-        <v>6.404735968638022</v>
+        <v>6.404735968638023</v>
       </c>
       <c r="D80">
-        <v>-0.5952640313619781</v>
+        <v>-0.5952640313619773</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2240,10 +2240,10 @@
         <v>7</v>
       </c>
       <c r="C81">
-        <v>6.414938583905533</v>
+        <v>6.414938583905534</v>
       </c>
       <c r="D81">
-        <v>-0.5850614160944669</v>
+        <v>-0.585061416094466</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2268,10 +2268,10 @@
         <v>7.06</v>
       </c>
       <c r="C83">
-        <v>6.414471274570762</v>
+        <v>6.414471274570764</v>
       </c>
       <c r="D83">
-        <v>-0.6455287254292372</v>
+        <v>-0.6455287254292355</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2324,10 +2324,10 @@
         <v>6.99</v>
       </c>
       <c r="C87">
-        <v>6.428229760846612</v>
+        <v>6.428229760846613</v>
       </c>
       <c r="D87">
-        <v>-0.5617702391533879</v>
+        <v>-0.561770239153387</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2380,10 +2380,10 @@
         <v>6.97</v>
       </c>
       <c r="C91">
-        <v>6.430962779203161</v>
+        <v>6.430962779203162</v>
       </c>
       <c r="D91">
-        <v>-0.539037220796839</v>
+        <v>-0.5390372207968381</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2394,10 +2394,10 @@
         <v>6.96</v>
       </c>
       <c r="C92">
-        <v>6.423129335001061</v>
+        <v>6.423129335001062</v>
       </c>
       <c r="D92">
-        <v>-0.536870664998939</v>
+        <v>-0.5368706649989381</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2408,10 +2408,10 @@
         <v>6.96</v>
       </c>
       <c r="C93">
-        <v>6.423197805441796</v>
+        <v>6.423197805441797</v>
       </c>
       <c r="D93">
-        <v>-0.536802194558204</v>
+        <v>-0.5368021945582031</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2422,10 +2422,10 @@
         <v>7</v>
       </c>
       <c r="C94">
-        <v>6.431207558758712</v>
+        <v>6.431207558758711</v>
       </c>
       <c r="D94">
-        <v>-0.5687924412412881</v>
+        <v>-0.568792441241289</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2450,10 +2450,10 @@
         <v>7.01</v>
       </c>
       <c r="C96">
-        <v>6.427050622919972</v>
+        <v>6.427050622919973</v>
       </c>
       <c r="D96">
-        <v>-0.5829493770800278</v>
+        <v>-0.5829493770800269</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2464,10 +2464,10 @@
         <v>6.98</v>
       </c>
       <c r="C97">
-        <v>6.426223024232661</v>
+        <v>6.42622302423266</v>
       </c>
       <c r="D97">
-        <v>-0.5537769757673399</v>
+        <v>-0.5537769757673408</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2495,7 +2495,7 @@
         <v>6.413747824615148</v>
       </c>
       <c r="D99">
-        <v>-0.5162521753848521</v>
+        <v>-0.5162521753848512</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2520,10 +2520,10 @@
         <v>6.94</v>
       </c>
       <c r="C101">
-        <v>6.413104547072468</v>
+        <v>6.413104547072469</v>
       </c>
       <c r="D101">
-        <v>-0.5268954529275325</v>
+        <v>-0.5268954529275316</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2534,10 +2534,10 @@
         <v>6.94</v>
       </c>
       <c r="C102">
-        <v>6.420768028168528</v>
+        <v>6.42076802816853</v>
       </c>
       <c r="D102">
-        <v>-0.5192319718314726</v>
+        <v>-0.5192319718314709</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2576,10 +2576,10 @@
         <v>6.95</v>
       </c>
       <c r="C105">
-        <v>6.410848581420557</v>
+        <v>6.410848581420558</v>
       </c>
       <c r="D105">
-        <v>-0.5391514185794435</v>
+        <v>-0.5391514185794426</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2590,10 +2590,10 @@
         <v>6.94</v>
       </c>
       <c r="C106">
-        <v>6.407442811321857</v>
+        <v>6.407442811321858</v>
       </c>
       <c r="D106">
-        <v>-0.5325571886781431</v>
+        <v>-0.5325571886781422</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2604,10 +2604,10 @@
         <v>6.94</v>
       </c>
       <c r="C107">
-        <v>6.408130912026619</v>
+        <v>6.408130912026618</v>
       </c>
       <c r="D107">
-        <v>-0.5318690879733809</v>
+        <v>-0.5318690879733827</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2632,10 +2632,10 @@
         <v>6.9</v>
       </c>
       <c r="C109">
-        <v>6.41380563386355</v>
+        <v>6.413805633863549</v>
       </c>
       <c r="D109">
-        <v>-0.4861943661364503</v>
+        <v>-0.4861943661364512</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2660,10 +2660,10 @@
         <v>6.9</v>
       </c>
       <c r="C111">
-        <v>6.385834105593989</v>
+        <v>6.38583410559399</v>
       </c>
       <c r="D111">
-        <v>-0.5141658944060117</v>
+        <v>-0.5141658944060108</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2674,10 +2674,10 @@
         <v>6.92</v>
       </c>
       <c r="C112">
-        <v>6.396821000903165</v>
+        <v>6.396821000903166</v>
       </c>
       <c r="D112">
-        <v>-0.5231789990968352</v>
+        <v>-0.5231789990968343</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2730,10 +2730,10 @@
         <v>6.93</v>
       </c>
       <c r="C116">
-        <v>6.401582811391515</v>
+        <v>6.401582811391516</v>
       </c>
       <c r="D116">
-        <v>-0.5284171886084845</v>
+        <v>-0.5284171886084836</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2744,10 +2744,10 @@
         <v>6.94</v>
       </c>
       <c r="C117">
-        <v>6.398080623249409</v>
+        <v>6.398080623249408</v>
       </c>
       <c r="D117">
-        <v>-0.5419193767505917</v>
+        <v>-0.5419193767505925</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2772,10 +2772,10 @@
         <v>6.9</v>
       </c>
       <c r="C119">
-        <v>6.397198006882135</v>
+        <v>6.397198006882133</v>
       </c>
       <c r="D119">
-        <v>-0.5028019931178651</v>
+        <v>-0.5028019931178669</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2845,7 +2845,7 @@
         <v>6.391693775885638</v>
       </c>
       <c r="D124">
-        <v>-0.5083062241143628</v>
+        <v>-0.5083062241143619</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2856,10 +2856,10 @@
         <v>6.9</v>
       </c>
       <c r="C125">
-        <v>6.389842301581841</v>
+        <v>6.389842301581842</v>
       </c>
       <c r="D125">
-        <v>-0.5101576984181593</v>
+        <v>-0.5101576984181584</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2912,10 +2912,10 @@
         <v>6.91</v>
       </c>
       <c r="C129">
-        <v>6.388239721385626</v>
+        <v>6.388239721385628</v>
       </c>
       <c r="D129">
-        <v>-0.5217602786143738</v>
+        <v>-0.521760278614372</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2954,10 +2954,10 @@
         <v>6.91</v>
       </c>
       <c r="C132">
-        <v>6.386847695231059</v>
+        <v>6.38684769523106</v>
       </c>
       <c r="D132">
-        <v>-0.5231523047689413</v>
+        <v>-0.5231523047689404</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2985,7 +2985,7 @@
         <v>6.392416535007754</v>
       </c>
       <c r="D134">
-        <v>-0.4975834649922461</v>
+        <v>-0.4975834649922453</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3010,10 +3010,10 @@
         <v>6.87</v>
       </c>
       <c r="C136">
-        <v>6.391641793484919</v>
+        <v>6.39164179348492</v>
       </c>
       <c r="D136">
-        <v>-0.4783582065150807</v>
+        <v>-0.4783582065150798</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3024,10 +3024,10 @@
         <v>6.9</v>
       </c>
       <c r="C137">
-        <v>6.388579083066844</v>
+        <v>6.388579083066845</v>
       </c>
       <c r="D137">
-        <v>-0.5114209169331563</v>
+        <v>-0.5114209169331554</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3052,10 +3052,10 @@
         <v>6.93</v>
       </c>
       <c r="C139">
-        <v>6.386780639339862</v>
+        <v>6.386780639339861</v>
       </c>
       <c r="D139">
-        <v>-0.5432193606601379</v>
+        <v>-0.5432193606601388</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3080,10 +3080,10 @@
         <v>6.91</v>
       </c>
       <c r="C141">
-        <v>6.402111883348979</v>
+        <v>6.40211188334898</v>
       </c>
       <c r="D141">
-        <v>-0.5078881166510207</v>
+        <v>-0.5078881166510198</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3094,10 +3094,10 @@
         <v>6.93</v>
       </c>
       <c r="C142">
-        <v>6.399704828540729</v>
+        <v>6.399704828540731</v>
       </c>
       <c r="D142">
-        <v>-0.5302951714592705</v>
+        <v>-0.5302951714592687</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3111,7 +3111,7 @@
         <v>6.387458978145403</v>
       </c>
       <c r="D143">
-        <v>-0.5625410218545976</v>
+        <v>-0.5625410218545968</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3150,10 +3150,10 @@
         <v>6.96</v>
       </c>
       <c r="C146">
-        <v>6.382998503690109</v>
+        <v>6.38299850369011</v>
       </c>
       <c r="D146">
-        <v>-0.5770014963098911</v>
+        <v>-0.5770014963098902</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3164,10 +3164,10 @@
         <v>6.94</v>
       </c>
       <c r="C147">
-        <v>6.398673040489476</v>
+        <v>6.398673040489477</v>
       </c>
       <c r="D147">
-        <v>-0.5413269595105241</v>
+        <v>-0.5413269595105232</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3192,10 +3192,10 @@
         <v>6.93</v>
       </c>
       <c r="C149">
-        <v>6.39103935640706</v>
+        <v>6.391039356407059</v>
       </c>
       <c r="D149">
-        <v>-0.5389606435929393</v>
+        <v>-0.538960643592941</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3318,10 +3318,10 @@
         <v>6.97</v>
       </c>
       <c r="C158">
-        <v>6.399808270707434</v>
+        <v>6.399808270707436</v>
       </c>
       <c r="D158">
-        <v>-0.5701917292925653</v>
+        <v>-0.5701917292925636</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3332,10 +3332,10 @@
         <v>7.02</v>
       </c>
       <c r="C159">
-        <v>6.387864235282868</v>
+        <v>6.387864235282869</v>
       </c>
       <c r="D159">
-        <v>-0.6321357647171313</v>
+        <v>-0.6321357647171304</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3346,10 +3346,10 @@
         <v>7.04</v>
       </c>
       <c r="C160">
-        <v>6.39138496746003</v>
+        <v>6.391384967460031</v>
       </c>
       <c r="D160">
-        <v>-0.6486150325399702</v>
+        <v>-0.6486150325399693</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3360,10 +3360,10 @@
         <v>7.05</v>
       </c>
       <c r="C161">
-        <v>6.39868164763264</v>
+        <v>6.398681647632642</v>
       </c>
       <c r="D161">
-        <v>-0.65131835236736</v>
+        <v>-0.6513183523673582</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3377,7 +3377,7 @@
         <v>6.400806708236146</v>
       </c>
       <c r="D162">
-        <v>-0.6391932917638545</v>
+        <v>-0.6391932917638536</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3388,10 +3388,10 @@
         <v>7.05</v>
       </c>
       <c r="C163">
-        <v>6.414987023094528</v>
+        <v>6.414987023094529</v>
       </c>
       <c r="D163">
-        <v>-0.6350129769054718</v>
+        <v>-0.6350129769054709</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3402,10 +3402,10 @@
         <v>7.06</v>
       </c>
       <c r="C164">
-        <v>6.411389112945062</v>
+        <v>6.411389112945061</v>
       </c>
       <c r="D164">
-        <v>-0.6486108870549376</v>
+        <v>-0.6486108870549385</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3416,10 +3416,10 @@
         <v>7.07</v>
       </c>
       <c r="C165">
-        <v>6.422040178910207</v>
+        <v>6.422040178910208</v>
       </c>
       <c r="D165">
-        <v>-0.6479598210897937</v>
+        <v>-0.6479598210897928</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3444,10 +3444,10 @@
         <v>7.08</v>
       </c>
       <c r="C167">
-        <v>6.402954619037926</v>
+        <v>6.402954619037927</v>
       </c>
       <c r="D167">
-        <v>-0.677045380962074</v>
+        <v>-0.6770453809620731</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3458,10 +3458,10 @@
         <v>7.07</v>
       </c>
       <c r="C168">
-        <v>6.399759232174432</v>
+        <v>6.399759232174434</v>
       </c>
       <c r="D168">
-        <v>-0.6702407678255682</v>
+        <v>-0.6702407678255664</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3500,10 +3500,10 @@
         <v>7.05</v>
       </c>
       <c r="C171">
-        <v>6.389641466417542</v>
+        <v>6.389641466417541</v>
       </c>
       <c r="D171">
-        <v>-0.6603585335824578</v>
+        <v>-0.6603585335824587</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3542,10 +3542,10 @@
         <v>7.06</v>
       </c>
       <c r="C174">
-        <v>6.390932703270954</v>
+        <v>6.390932703270955</v>
       </c>
       <c r="D174">
-        <v>-0.6690672967290459</v>
+        <v>-0.669067296729045</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3570,10 +3570,10 @@
         <v>7.06</v>
       </c>
       <c r="C176">
-        <v>6.376574828410521</v>
+        <v>6.376574828410522</v>
       </c>
       <c r="D176">
-        <v>-0.6834251715894784</v>
+        <v>-0.6834251715894775</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3598,10 +3598,10 @@
         <v>7.05</v>
       </c>
       <c r="C178">
-        <v>6.41005038035008</v>
+        <v>6.410050380350081</v>
       </c>
       <c r="D178">
-        <v>-0.6399496196499195</v>
+        <v>-0.6399496196499186</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3612,10 +3612,10 @@
         <v>7.07</v>
       </c>
       <c r="C179">
-        <v>6.414733393852879</v>
+        <v>6.41473339385288</v>
       </c>
       <c r="D179">
-        <v>-0.6552666061471211</v>
+        <v>-0.6552666061471202</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3626,10 +3626,10 @@
         <v>7.1</v>
       </c>
       <c r="C180">
-        <v>6.423982801541958</v>
+        <v>6.423982801541959</v>
       </c>
       <c r="D180">
-        <v>-0.6760171984580419</v>
+        <v>-0.676017198458041</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3640,10 +3640,10 @@
         <v>7.05</v>
       </c>
       <c r="C181">
-        <v>6.399382493449972</v>
+        <v>6.399382493449973</v>
       </c>
       <c r="D181">
-        <v>-0.6506175065500281</v>
+        <v>-0.6506175065500273</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3668,10 +3668,10 @@
         <v>7.02</v>
       </c>
       <c r="C183">
-        <v>6.398882369078957</v>
+        <v>6.398882369078959</v>
       </c>
       <c r="D183">
-        <v>-0.6211176309210424</v>
+        <v>-0.6211176309210407</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3741,7 +3741,7 @@
         <v>6.374043017129345</v>
       </c>
       <c r="D188">
-        <v>-0.6759569828706544</v>
+        <v>-0.6759569828706553</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3752,10 +3752,10 @@
         <v>7.05</v>
       </c>
       <c r="C189">
-        <v>6.373934848292931</v>
+        <v>6.37393484829293</v>
       </c>
       <c r="D189">
-        <v>-0.6760651517070686</v>
+        <v>-0.6760651517070695</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3766,10 +3766,10 @@
         <v>7.06</v>
       </c>
       <c r="C190">
-        <v>6.366269832067176</v>
+        <v>6.366269832067177</v>
       </c>
       <c r="D190">
-        <v>-0.6937301679328236</v>
+        <v>-0.6937301679328227</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3794,10 +3794,10 @@
         <v>7.03</v>
       </c>
       <c r="C192">
-        <v>6.344232523488706</v>
+        <v>6.344232523488704</v>
       </c>
       <c r="D192">
-        <v>-0.6857674765112947</v>
+        <v>-0.6857674765112964</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3822,10 +3822,10 @@
         <v>7.08</v>
       </c>
       <c r="C194">
-        <v>6.352479305857173</v>
+        <v>6.352479305857174</v>
       </c>
       <c r="D194">
-        <v>-0.7275206941428269</v>
+        <v>-0.7275206941428261</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3850,10 +3850,10 @@
         <v>7.04</v>
       </c>
       <c r="C196">
-        <v>6.340279643362406</v>
+        <v>6.340279643362407</v>
       </c>
       <c r="D196">
-        <v>-0.6997203566375942</v>
+        <v>-0.6997203566375934</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3892,10 +3892,10 @@
         <v>7.1</v>
       </c>
       <c r="C199">
-        <v>6.334459522686597</v>
+        <v>6.334459522686598</v>
       </c>
       <c r="D199">
-        <v>-0.7655404773134027</v>
+        <v>-0.7655404773134018</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3906,10 +3906,10 @@
         <v>7.16</v>
       </c>
       <c r="C200">
-        <v>6.359068297512393</v>
+        <v>6.359068297512392</v>
       </c>
       <c r="D200">
-        <v>-0.800931702487607</v>
+        <v>-0.8009317024876079</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3920,10 +3920,10 @@
         <v>7.11</v>
       </c>
       <c r="C201">
-        <v>6.376164092380395</v>
+        <v>6.376164092380393</v>
       </c>
       <c r="D201">
-        <v>-0.7338359076196053</v>
+        <v>-0.733835907619607</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3934,10 +3934,10 @@
         <v>7.08</v>
       </c>
       <c r="C202">
-        <v>6.363484343526198</v>
+        <v>6.363484343526197</v>
       </c>
       <c r="D202">
-        <v>-0.7165156564738018</v>
+        <v>-0.7165156564738036</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3948,10 +3948,10 @@
         <v>7.11</v>
       </c>
       <c r="C203">
-        <v>6.353010931343835</v>
+        <v>6.353010931343836</v>
       </c>
       <c r="D203">
-        <v>-0.7569890686561651</v>
+        <v>-0.7569890686561642</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3962,10 +3962,10 @@
         <v>7.14</v>
       </c>
       <c r="C204">
-        <v>6.372473796655524</v>
+        <v>6.372473796655523</v>
       </c>
       <c r="D204">
-        <v>-0.7675262033444756</v>
+        <v>-0.7675262033444765</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3976,10 +3976,10 @@
         <v>7.13</v>
       </c>
       <c r="C205">
-        <v>6.359421965880325</v>
+        <v>6.359421965880326</v>
       </c>
       <c r="D205">
-        <v>-0.7705780341196746</v>
+        <v>-0.7705780341196737</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3990,10 +3990,10 @@
         <v>7.07</v>
       </c>
       <c r="C206">
-        <v>6.360710241781635</v>
+        <v>6.360710241781634</v>
       </c>
       <c r="D206">
-        <v>-0.7092897582183655</v>
+        <v>-0.7092897582183664</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4018,10 +4018,10 @@
         <v>7.01</v>
       </c>
       <c r="C208">
-        <v>6.34469352535571</v>
+        <v>6.344693525355711</v>
       </c>
       <c r="D208">
-        <v>-0.6653064746442903</v>
+        <v>-0.6653064746442885</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4032,10 +4032,10 @@
         <v>6.98</v>
       </c>
       <c r="C209">
-        <v>6.34061684416125</v>
+        <v>6.340616844161249</v>
       </c>
       <c r="D209">
-        <v>-0.6393831558387504</v>
+        <v>-0.6393831558387513</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4060,10 +4060,10 @@
         <v>7.02</v>
       </c>
       <c r="C211">
-        <v>6.352909348425592</v>
+        <v>6.352909348425593</v>
       </c>
       <c r="D211">
-        <v>-0.6670906515744077</v>
+        <v>-0.6670906515744068</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4102,10 +4102,10 @@
         <v>7.06</v>
       </c>
       <c r="C214">
-        <v>6.347304093258244</v>
+        <v>6.347304093258243</v>
       </c>
       <c r="D214">
-        <v>-0.7126959067417555</v>
+        <v>-0.7126959067417564</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4130,10 +4130,10 @@
         <v>6.94</v>
       </c>
       <c r="C216">
-        <v>6.36880892251027</v>
+        <v>6.368808922510272</v>
       </c>
       <c r="D216">
-        <v>-0.57119107748973</v>
+        <v>-0.5711910774897282</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4158,10 +4158,10 @@
         <v>6.86</v>
       </c>
       <c r="C218">
-        <v>6.36169917806443</v>
+        <v>6.361699178064431</v>
       </c>
       <c r="D218">
-        <v>-0.4983008219355707</v>
+        <v>-0.4983008219355689</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4172,10 +4172,10 @@
         <v>6.83</v>
       </c>
       <c r="C219">
-        <v>6.335596903128492</v>
+        <v>6.335596903128493</v>
       </c>
       <c r="D219">
-        <v>-0.4944030968715083</v>
+        <v>-0.4944030968715074</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4200,10 +4200,10 @@
         <v>6.8</v>
       </c>
       <c r="C221">
-        <v>6.32315872875053</v>
+        <v>6.323158728750532</v>
       </c>
       <c r="D221">
-        <v>-0.4768412712494694</v>
+        <v>-0.4768412712494676</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4228,10 +4228,10 @@
         <v>6.77</v>
       </c>
       <c r="C223">
-        <v>6.309247245611573</v>
+        <v>6.309247245611572</v>
       </c>
       <c r="D223">
-        <v>-0.4607527543884267</v>
+        <v>-0.4607527543884276</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4242,10 +4242,10 @@
         <v>6.77</v>
       </c>
       <c r="C224">
-        <v>6.298254558556262</v>
+        <v>6.298254558556261</v>
       </c>
       <c r="D224">
-        <v>-0.4717454414437379</v>
+        <v>-0.4717454414437388</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4284,10 +4284,10 @@
         <v>6.8</v>
       </c>
       <c r="C227">
-        <v>6.295102404580322</v>
+        <v>6.295102404580323</v>
       </c>
       <c r="D227">
-        <v>-0.5048975954196777</v>
+        <v>-0.5048975954196768</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4298,10 +4298,10 @@
         <v>6.83</v>
       </c>
       <c r="C228">
-        <v>6.301855538668604</v>
+        <v>6.301855538668605</v>
       </c>
       <c r="D228">
-        <v>-0.5281444613313964</v>
+        <v>-0.5281444613313955</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4368,10 +4368,10 @@
         <v>6.78</v>
       </c>
       <c r="C233">
-        <v>6.310592445161544</v>
+        <v>6.310592445161545</v>
       </c>
       <c r="D233">
-        <v>-0.4694075548384564</v>
+        <v>-0.4694075548384555</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4410,10 +4410,10 @@
         <v>6.7</v>
       </c>
       <c r="C236">
-        <v>6.236336068495546</v>
+        <v>6.236336068495547</v>
       </c>
       <c r="D236">
-        <v>-0.4636639315044544</v>
+        <v>-0.4636639315044535</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4438,10 +4438,10 @@
         <v>6.67</v>
       </c>
       <c r="C238">
-        <v>6.222480754882949</v>
+        <v>6.22248075488295</v>
       </c>
       <c r="D238">
-        <v>-0.4475192451170509</v>
+        <v>-0.44751924511705</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4452,10 +4452,10 @@
         <v>6.73</v>
       </c>
       <c r="C239">
-        <v>6.211779319021682</v>
+        <v>6.211779319021681</v>
       </c>
       <c r="D239">
-        <v>-0.5182206809783185</v>
+        <v>-0.5182206809783194</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4480,10 +4480,10 @@
         <v>6.73</v>
       </c>
       <c r="C241">
-        <v>6.215439285343066</v>
+        <v>6.215439285343067</v>
       </c>
       <c r="D241">
-        <v>-0.5145607146569349</v>
+        <v>-0.5145607146569331</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4494,10 +4494,10 @@
         <v>6.72</v>
       </c>
       <c r="C242">
-        <v>6.221210563992405</v>
+        <v>6.221210563992407</v>
       </c>
       <c r="D242">
-        <v>-0.4987894360075948</v>
+        <v>-0.4987894360075931</v>
       </c>
     </row>
   </sheetData>
